--- a/table 14 version 2.xlsx
+++ b/table 14 version 2.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="27729"/>
-  <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="18067"/>
+  <workbookPr autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cromp\Desktop\clay-thermodynamics\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="10400" tabRatio="500"/>
   </bookViews>
@@ -59,7 +64,7 @@
     <definedName name="solver_val" localSheetId="0" hidden="1">0</definedName>
     <definedName name="solver_ver" localSheetId="0" hidden="1">3</definedName>
   </definedNames>
-  <calcPr calcId="140000" concurrentCalc="0"/>
+  <calcPr calcId="171027" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -69,7 +74,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="356" uniqueCount="148">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="359" uniqueCount="151">
   <si>
     <t>Glauconite</t>
   </si>
@@ -598,11 +603,53 @@
   <si>
     <t>Ripidolite</t>
   </si>
+  <si>
+    <r>
+      <t>ΔH</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>f,Ox</t>
+    </r>
+  </si>
+  <si>
+    <t>first term eq. 9</t>
+  </si>
+  <si>
+    <r>
+      <t>ΔH</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">f,Ox - </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>WCT</t>
+    </r>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="5">
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="0.00000"/>
@@ -610,7 +657,7 @@
     <numFmt numFmtId="167" formatCode="0.0"/>
     <numFmt numFmtId="168" formatCode="_-* #,##0.00\ [$€]_-;\-* #,##0.00\ [$€]_-;_-* &quot;-&quot;??\ [$€]_-;_-@_-"/>
   </numFmts>
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Times New Roman"/>
@@ -628,6 +675,7 @@
     <font>
       <sz val="10"/>
       <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
     <font>
       <b/>
@@ -651,12 +699,27 @@
       <sz val="10"/>
       <color theme="10"/>
       <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
     <font>
       <u/>
       <sz val="10"/>
       <color theme="11"/>
       <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <vertAlign val="subscript"/>
+      <sz val="12"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="8">
@@ -965,7 +1028,7 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="208">
+  <cellXfs count="209">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1168,9 +1231,6 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="2" fontId="2" fillId="0" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="2" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="2" fontId="2" fillId="2" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1418,28 +1478,40 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="2" fillId="7" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="12">
     <cellStyle name="Euro" xfId="3"/>
-    <cellStyle name="Lien hypertexte" xfId="4" builtinId="8" hidden="1"/>
-    <cellStyle name="Lien hypertexte" xfId="6" builtinId="8" hidden="1"/>
-    <cellStyle name="Lien hypertexte" xfId="8" builtinId="8" hidden="1"/>
-    <cellStyle name="Lien hypertexte" xfId="10" builtinId="8" hidden="1"/>
-    <cellStyle name="Lien hypertexte visité" xfId="5" builtinId="9" hidden="1"/>
-    <cellStyle name="Lien hypertexte visité" xfId="7" builtinId="9" hidden="1"/>
-    <cellStyle name="Lien hypertexte visité" xfId="9" builtinId="9" hidden="1"/>
-    <cellStyle name="Lien hypertexte visité" xfId="11" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="5" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="9" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="11" builtinId="9" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="4" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="6" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="8" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="10" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal_Classeur1" xfId="1"/>
     <cellStyle name="Normal_Minimisation" xfId="2"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Est Van Hinsberg DH  7Å "/>
@@ -1824,121 +1896,124 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr enableFormatConditionsCalculation="0">
+  <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:IV187"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="75" workbookViewId="0">
-      <selection activeCell="R85" sqref="R85"/>
+    <sheetView tabSelected="1" topLeftCell="BB32" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="75" workbookViewId="0">
+      <pane ySplit="11" topLeftCell="A73" activePane="bottomLeft" state="frozen"/>
+      <selection activeCell="BM32" sqref="BM32"/>
+      <selection pane="bottomLeft" activeCell="BL75" sqref="BL75"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="13.33203125" defaultRowHeight="11" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="13.296875" defaultRowHeight="11.5" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="17.5" style="1" customWidth="1"/>
-    <col min="2" max="2" width="6.1640625" style="1" customWidth="1"/>
-    <col min="3" max="17" width="6.1640625" style="2" customWidth="1"/>
-    <col min="18" max="20" width="6.1640625" style="1" customWidth="1"/>
-    <col min="21" max="21" width="6.1640625" style="2" customWidth="1"/>
-    <col min="22" max="24" width="6.1640625" style="7" customWidth="1"/>
-    <col min="25" max="26" width="6.1640625" style="4" customWidth="1"/>
-    <col min="27" max="47" width="6.1640625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="17.19921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="17" width="6.19921875" style="2" customWidth="1"/>
+    <col min="18" max="20" width="6.19921875" style="1" customWidth="1"/>
+    <col min="21" max="21" width="6.19921875" style="2" customWidth="1"/>
+    <col min="22" max="24" width="6.19921875" style="7" customWidth="1"/>
+    <col min="25" max="26" width="6.19921875" style="4" customWidth="1"/>
+    <col min="27" max="47" width="6.19921875" style="1" customWidth="1"/>
     <col min="48" max="48" width="10.5" style="1" customWidth="1"/>
     <col min="49" max="50" width="6.5" style="1" customWidth="1"/>
     <col min="51" max="51" width="6" style="1" customWidth="1"/>
-    <col min="52" max="52" width="6.6640625" style="1" customWidth="1"/>
-    <col min="53" max="53" width="10.83203125" style="1" customWidth="1"/>
+    <col min="52" max="52" width="6.69921875" style="1" customWidth="1"/>
+    <col min="53" max="53" width="10.796875" style="1" customWidth="1"/>
     <col min="54" max="54" width="8" style="1" customWidth="1"/>
-    <col min="55" max="55" width="12.1640625" style="1" customWidth="1"/>
-    <col min="56" max="58" width="6.6640625" style="1" customWidth="1"/>
+    <col min="55" max="55" width="12.19921875" style="1" customWidth="1"/>
+    <col min="56" max="56" width="7.796875" style="1" bestFit="1" customWidth="1"/>
+    <col min="57" max="58" width="6.69921875" style="1" customWidth="1"/>
     <col min="59" max="59" width="6.5" style="1" customWidth="1"/>
     <col min="60" max="60" width="15.5" style="1" customWidth="1"/>
-    <col min="61" max="61" width="4.33203125" style="1" customWidth="1"/>
-    <col min="62" max="62" width="7.83203125" style="1" customWidth="1"/>
+    <col min="61" max="61" width="7.09765625" style="1" bestFit="1" customWidth="1"/>
+    <col min="62" max="62" width="7.796875" style="1" customWidth="1"/>
     <col min="63" max="63" width="9" style="1" customWidth="1"/>
-    <col min="64" max="64" width="10.33203125" style="4" customWidth="1"/>
+    <col min="64" max="64" width="10.296875" style="4" customWidth="1"/>
     <col min="65" max="65" width="9.5" style="2" customWidth="1"/>
-    <col min="66" max="66" width="9.1640625" style="1" customWidth="1"/>
-    <col min="67" max="67" width="9.83203125" style="1" customWidth="1"/>
-    <col min="68" max="68" width="8.6640625" style="1" customWidth="1"/>
+    <col min="66" max="66" width="9.19921875" style="1" customWidth="1"/>
+    <col min="67" max="67" width="9.796875" style="1" customWidth="1"/>
+    <col min="68" max="68" width="8.69921875" style="1" customWidth="1"/>
     <col min="69" max="70" width="9" style="1" customWidth="1"/>
-    <col min="71" max="72" width="9.83203125" style="1" customWidth="1"/>
-    <col min="73" max="73" width="8.6640625" style="1" customWidth="1"/>
+    <col min="71" max="72" width="9.796875" style="1" customWidth="1"/>
+    <col min="73" max="73" width="8.69921875" style="1" customWidth="1"/>
     <col min="74" max="74" width="7.5" style="1" customWidth="1"/>
-    <col min="75" max="75" width="8.6640625" style="1" customWidth="1"/>
+    <col min="75" max="75" width="8.69921875" style="1" customWidth="1"/>
     <col min="76" max="76" width="16" style="1" customWidth="1"/>
-    <col min="77" max="77" width="7.83203125" style="1" customWidth="1"/>
+    <col min="77" max="77" width="7.796875" style="1" customWidth="1"/>
     <col min="78" max="78" width="8" style="9" customWidth="1"/>
-    <col min="79" max="79" width="7.83203125" style="1" customWidth="1"/>
-    <col min="80" max="80" width="11.1640625" style="1" customWidth="1"/>
-    <col min="81" max="81" width="10.33203125" style="1" customWidth="1"/>
-    <col min="82" max="83" width="8.33203125" style="1" customWidth="1"/>
-    <col min="84" max="84" width="8.6640625" style="1" customWidth="1"/>
-    <col min="85" max="85" width="10.1640625" style="1" customWidth="1"/>
+    <col min="79" max="79" width="7.796875" style="1" customWidth="1"/>
+    <col min="80" max="80" width="11.19921875" style="1" customWidth="1"/>
+    <col min="81" max="81" width="10.296875" style="1" customWidth="1"/>
+    <col min="82" max="83" width="8.296875" style="1" customWidth="1"/>
+    <col min="84" max="84" width="8.69921875" style="1" customWidth="1"/>
+    <col min="85" max="85" width="10.19921875" style="1" customWidth="1"/>
     <col min="86" max="86" width="9" style="1" customWidth="1"/>
-    <col min="87" max="87" width="7.33203125" style="1" customWidth="1"/>
-    <col min="88" max="88" width="9.1640625" style="1" customWidth="1"/>
+    <col min="87" max="87" width="7.296875" style="1" customWidth="1"/>
+    <col min="88" max="88" width="9.19921875" style="1" customWidth="1"/>
     <col min="89" max="89" width="8" style="1" customWidth="1"/>
-    <col min="90" max="90" width="8.83203125" style="1" customWidth="1"/>
+    <col min="90" max="90" width="8.796875" style="1" customWidth="1"/>
     <col min="91" max="91" width="7.5" style="2" customWidth="1"/>
     <col min="92" max="92" width="8.5" style="2" customWidth="1"/>
     <col min="93" max="93" width="7.5" style="2" customWidth="1"/>
     <col min="94" max="94" width="8.5" style="2" customWidth="1"/>
-    <col min="95" max="95" width="8.83203125" style="1" customWidth="1"/>
-    <col min="96" max="96" width="8.6640625" style="1" customWidth="1"/>
-    <col min="97" max="97" width="8.1640625" style="1" customWidth="1"/>
-    <col min="98" max="98" width="9.33203125" style="1" customWidth="1"/>
+    <col min="95" max="95" width="8.796875" style="1" customWidth="1"/>
+    <col min="96" max="96" width="8.69921875" style="1" customWidth="1"/>
+    <col min="97" max="97" width="8.19921875" style="1" customWidth="1"/>
+    <col min="98" max="98" width="9.296875" style="1" customWidth="1"/>
     <col min="99" max="99" width="9" style="2" customWidth="1"/>
-    <col min="100" max="100" width="9.1640625" style="2" customWidth="1"/>
-    <col min="101" max="101" width="9.83203125" style="2" customWidth="1"/>
+    <col min="100" max="100" width="9.19921875" style="2" customWidth="1"/>
+    <col min="101" max="101" width="9.796875" style="2" customWidth="1"/>
     <col min="102" max="102" width="7" style="1" customWidth="1"/>
     <col min="103" max="103" width="10.5" style="1" customWidth="1"/>
-    <col min="104" max="104" width="11.33203125" style="1" customWidth="1"/>
+    <col min="104" max="104" width="11.296875" style="1" customWidth="1"/>
     <col min="105" max="105" width="14.5" style="8" customWidth="1"/>
     <col min="106" max="107" width="11" style="7" customWidth="1"/>
     <col min="108" max="108" width="11" style="1" customWidth="1"/>
     <col min="109" max="109" width="9" style="1" customWidth="1"/>
     <col min="110" max="110" width="11" style="1" customWidth="1"/>
-    <col min="111" max="112" width="8.1640625" style="1" customWidth="1"/>
+    <col min="111" max="112" width="8.19921875" style="1" customWidth="1"/>
     <col min="113" max="113" width="22" style="4" customWidth="1"/>
     <col min="114" max="114" width="13.5" style="6" customWidth="1"/>
     <col min="115" max="115" width="9.5" style="1" customWidth="1"/>
     <col min="116" max="116" width="10" style="1" customWidth="1"/>
-    <col min="117" max="117" width="11.1640625" style="5" customWidth="1"/>
-    <col min="118" max="118" width="11.83203125" style="5" customWidth="1"/>
-    <col min="119" max="119" width="9.33203125" style="5" customWidth="1"/>
-    <col min="120" max="120" width="9.1640625" style="5" customWidth="1"/>
-    <col min="121" max="121" width="18.6640625" style="4" customWidth="1"/>
-    <col min="122" max="122" width="8.33203125" style="1" customWidth="1"/>
+    <col min="117" max="117" width="11.19921875" style="5" customWidth="1"/>
+    <col min="118" max="118" width="11.796875" style="5" customWidth="1"/>
+    <col min="119" max="119" width="9.296875" style="5" customWidth="1"/>
+    <col min="120" max="120" width="9.19921875" style="5" customWidth="1"/>
+    <col min="121" max="121" width="18.69921875" style="4" customWidth="1"/>
+    <col min="122" max="122" width="8.296875" style="1" customWidth="1"/>
     <col min="123" max="123" width="11.5" style="1" customWidth="1"/>
-    <col min="124" max="124" width="9.83203125" style="1" customWidth="1"/>
+    <col min="124" max="124" width="9.796875" style="1" customWidth="1"/>
     <col min="125" max="125" width="11" style="1" customWidth="1"/>
-    <col min="126" max="126" width="11.33203125" style="1" customWidth="1"/>
-    <col min="127" max="127" width="9.1640625" style="1" customWidth="1"/>
-    <col min="128" max="131" width="7.83203125" style="1" customWidth="1"/>
+    <col min="126" max="126" width="11.296875" style="1" customWidth="1"/>
+    <col min="127" max="127" width="9.19921875" style="1" customWidth="1"/>
+    <col min="128" max="131" width="7.796875" style="1" customWidth="1"/>
     <col min="132" max="132" width="9" style="1" customWidth="1"/>
-    <col min="133" max="133" width="8.6640625" style="1" customWidth="1"/>
-    <col min="134" max="143" width="7.83203125" style="1" customWidth="1"/>
-    <col min="144" max="144" width="10.6640625" style="1" customWidth="1"/>
-    <col min="145" max="145" width="9.83203125" style="1" customWidth="1"/>
-    <col min="146" max="146" width="8.6640625" style="1" customWidth="1"/>
-    <col min="147" max="148" width="9.1640625" style="1" customWidth="1"/>
-    <col min="149" max="149" width="7.83203125" style="1" customWidth="1"/>
-    <col min="150" max="150" width="7.83203125" style="2" customWidth="1"/>
-    <col min="151" max="151" width="8.6640625" style="2" customWidth="1"/>
-    <col min="152" max="152" width="7.83203125" style="2" customWidth="1"/>
-    <col min="153" max="153" width="7.6640625" style="3" customWidth="1"/>
+    <col min="133" max="133" width="8.69921875" style="1" customWidth="1"/>
+    <col min="134" max="143" width="7.796875" style="1" customWidth="1"/>
+    <col min="144" max="144" width="10.69921875" style="1" customWidth="1"/>
+    <col min="145" max="145" width="9.796875" style="1" customWidth="1"/>
+    <col min="146" max="146" width="8.69921875" style="1" customWidth="1"/>
+    <col min="147" max="148" width="9.19921875" style="1" customWidth="1"/>
+    <col min="149" max="149" width="7.796875" style="1" customWidth="1"/>
+    <col min="150" max="150" width="7.796875" style="2" customWidth="1"/>
+    <col min="151" max="151" width="8.69921875" style="2" customWidth="1"/>
+    <col min="152" max="152" width="7.796875" style="2" customWidth="1"/>
+    <col min="153" max="153" width="7.69921875" style="3" customWidth="1"/>
     <col min="154" max="154" width="8" style="2" customWidth="1"/>
-    <col min="155" max="155" width="10.33203125" style="2" customWidth="1"/>
-    <col min="156" max="156" width="7.6640625" style="1" customWidth="1"/>
-    <col min="157" max="158" width="8.6640625" style="1" customWidth="1"/>
-    <col min="159" max="159" width="10.1640625" style="1" customWidth="1"/>
+    <col min="155" max="155" width="10.296875" style="2" customWidth="1"/>
+    <col min="156" max="156" width="7.69921875" style="1" customWidth="1"/>
+    <col min="157" max="158" width="8.69921875" style="1" customWidth="1"/>
+    <col min="159" max="159" width="10.19921875" style="1" customWidth="1"/>
     <col min="160" max="160" width="9" style="1" customWidth="1"/>
-    <col min="161" max="170" width="9.33203125" style="1" customWidth="1"/>
-    <col min="171" max="16384" width="13.33203125" style="1"/>
+    <col min="161" max="170" width="9.296875" style="1" customWidth="1"/>
+    <col min="171" max="16384" width="13.296875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:160">
+    <row r="1" spans="1:160" x14ac:dyDescent="0.25">
       <c r="B1" s="2"/>
       <c r="C1" s="4"/>
       <c r="F1" s="4"/>
@@ -1953,7 +2028,7 @@
       <c r="S1" s="15"/>
       <c r="T1" s="23"/>
     </row>
-    <row r="2" spans="1:160">
+    <row r="2" spans="1:160" x14ac:dyDescent="0.25">
       <c r="B2" s="2"/>
       <c r="C2" s="4"/>
       <c r="F2" s="4"/>
@@ -1967,7 +2042,7 @@
       <c r="S2" s="15"/>
       <c r="T2" s="23"/>
     </row>
-    <row r="3" spans="1:160">
+    <row r="3" spans="1:160" x14ac:dyDescent="0.25">
       <c r="B3" s="2"/>
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
@@ -1983,7 +2058,7 @@
       <c r="S3" s="23"/>
       <c r="T3" s="23"/>
     </row>
-    <row r="4" spans="1:160">
+    <row r="4" spans="1:160" x14ac:dyDescent="0.25">
       <c r="B4" s="2"/>
       <c r="C4" s="4"/>
       <c r="F4" s="1"/>
@@ -1996,7 +2071,7 @@
       <c r="S4" s="23"/>
       <c r="T4" s="23"/>
     </row>
-    <row r="5" spans="1:160">
+    <row r="5" spans="1:160" x14ac:dyDescent="0.25">
       <c r="B5" s="2"/>
       <c r="C5" s="1"/>
       <c r="F5" s="1"/>
@@ -2009,7 +2084,7 @@
       <c r="S5" s="23"/>
       <c r="T5" s="23"/>
     </row>
-    <row r="6" spans="1:160">
+    <row r="6" spans="1:160" x14ac:dyDescent="0.25">
       <c r="B6" s="2"/>
       <c r="C6" s="4"/>
       <c r="E6" s="1"/>
@@ -2023,7 +2098,7 @@
       <c r="S6" s="23"/>
       <c r="T6" s="23"/>
     </row>
-    <row r="7" spans="1:160">
+    <row r="7" spans="1:160" x14ac:dyDescent="0.25">
       <c r="B7" s="2"/>
       <c r="C7" s="1"/>
       <c r="E7" s="1"/>
@@ -2037,7 +2112,7 @@
       <c r="S7" s="23"/>
       <c r="T7" s="23"/>
     </row>
-    <row r="8" spans="1:160">
+    <row r="8" spans="1:160" x14ac:dyDescent="0.25">
       <c r="B8" s="2"/>
       <c r="C8" s="1"/>
       <c r="E8" s="1"/>
@@ -2051,7 +2126,7 @@
       <c r="S8" s="23"/>
       <c r="T8" s="23"/>
     </row>
-    <row r="9" spans="1:160">
+    <row r="9" spans="1:160" x14ac:dyDescent="0.25">
       <c r="B9" s="1" t="s">
         <v>146</v>
       </c>
@@ -2072,19 +2147,19 @@
       <c r="AE9" s="7"/>
       <c r="AF9" s="7"/>
       <c r="BZ9" s="1"/>
-      <c r="CD9" s="123"/>
-      <c r="CE9" s="123"/>
-      <c r="CF9" s="123"/>
-      <c r="CG9" s="123"/>
-      <c r="CH9" s="123"/>
-      <c r="CI9" s="123"/>
-      <c r="CJ9" s="123"/>
-      <c r="CK9" s="123"/>
-      <c r="CL9" s="123"/>
-      <c r="CM9" s="123"/>
-      <c r="CN9" s="123"/>
-      <c r="CO9" s="123"/>
-      <c r="CP9" s="123"/>
+      <c r="CD9" s="122"/>
+      <c r="CE9" s="122"/>
+      <c r="CF9" s="122"/>
+      <c r="CG9" s="122"/>
+      <c r="CH9" s="122"/>
+      <c r="CI9" s="122"/>
+      <c r="CJ9" s="122"/>
+      <c r="CK9" s="122"/>
+      <c r="CL9" s="122"/>
+      <c r="CM9" s="122"/>
+      <c r="CN9" s="122"/>
+      <c r="CO9" s="122"/>
+      <c r="CP9" s="122"/>
       <c r="CR9" s="2"/>
       <c r="CS9" s="2"/>
       <c r="CT9" s="2"/>
@@ -2098,7 +2173,7 @@
       <c r="FA9" s="2"/>
       <c r="FB9" s="2"/>
     </row>
-    <row r="10" spans="1:160">
+    <row r="10" spans="1:160" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>73</v>
       </c>
@@ -2121,22 +2196,22 @@
       <c r="AC10" s="2"/>
       <c r="AE10" s="7"/>
       <c r="AF10" s="7"/>
-      <c r="BZ10" s="155"/>
-      <c r="CA10" s="153"/>
-      <c r="CB10" s="153"/>
-      <c r="CC10" s="154"/>
-      <c r="CD10" s="153"/>
-      <c r="CE10" s="153"/>
-      <c r="CF10" s="153"/>
-      <c r="CG10" s="153"/>
-      <c r="CH10" s="153"/>
-      <c r="CI10" s="153"/>
-      <c r="CJ10" s="153"/>
-      <c r="CK10" s="153"/>
-      <c r="CL10" s="153"/>
-      <c r="CM10" s="154"/>
-      <c r="CN10" s="154"/>
-      <c r="CO10" s="154"/>
+      <c r="BZ10" s="154"/>
+      <c r="CA10" s="152"/>
+      <c r="CB10" s="152"/>
+      <c r="CC10" s="153"/>
+      <c r="CD10" s="152"/>
+      <c r="CE10" s="152"/>
+      <c r="CF10" s="152"/>
+      <c r="CG10" s="152"/>
+      <c r="CH10" s="152"/>
+      <c r="CI10" s="152"/>
+      <c r="CJ10" s="152"/>
+      <c r="CK10" s="152"/>
+      <c r="CL10" s="152"/>
+      <c r="CM10" s="153"/>
+      <c r="CN10" s="153"/>
+      <c r="CO10" s="153"/>
       <c r="CP10" s="1"/>
       <c r="CR10" s="2"/>
       <c r="CS10" s="2"/>
@@ -2151,7 +2226,7 @@
       <c r="FA10" s="2"/>
       <c r="FB10" s="2"/>
     </row>
-    <row r="11" spans="1:160">
+    <row r="11" spans="1:160" x14ac:dyDescent="0.25">
       <c r="M11" s="15"/>
       <c r="N11" s="15"/>
       <c r="O11" s="15"/>
@@ -2168,22 +2243,22 @@
       <c r="BW11" s="2"/>
       <c r="BX11" s="2"/>
       <c r="BY11" s="2"/>
-      <c r="BZ11" s="153"/>
-      <c r="CA11" s="154"/>
-      <c r="CB11" s="154"/>
-      <c r="CC11" s="154"/>
-      <c r="CD11" s="154"/>
-      <c r="CE11" s="154"/>
-      <c r="CF11" s="154"/>
-      <c r="CG11" s="154"/>
-      <c r="CH11" s="149"/>
-      <c r="CI11" s="154"/>
-      <c r="CJ11" s="149"/>
-      <c r="CK11" s="149"/>
-      <c r="CL11" s="149"/>
-      <c r="CM11" s="149"/>
-      <c r="CN11" s="149"/>
-      <c r="CO11" s="149"/>
+      <c r="BZ11" s="152"/>
+      <c r="CA11" s="153"/>
+      <c r="CB11" s="153"/>
+      <c r="CC11" s="153"/>
+      <c r="CD11" s="153"/>
+      <c r="CE11" s="153"/>
+      <c r="CF11" s="153"/>
+      <c r="CG11" s="153"/>
+      <c r="CH11" s="148"/>
+      <c r="CI11" s="153"/>
+      <c r="CJ11" s="148"/>
+      <c r="CK11" s="148"/>
+      <c r="CL11" s="148"/>
+      <c r="CM11" s="148"/>
+      <c r="CN11" s="148"/>
+      <c r="CO11" s="148"/>
       <c r="CP11" s="1"/>
       <c r="CR11" s="2"/>
       <c r="CS11" s="2"/>
@@ -2202,7 +2277,7 @@
       <c r="FA11" s="2"/>
       <c r="FB11" s="2"/>
     </row>
-    <row r="12" spans="1:160">
+    <row r="12" spans="1:160" x14ac:dyDescent="0.25">
       <c r="M12" s="15"/>
       <c r="N12" s="15"/>
       <c r="O12" s="15"/>
@@ -2219,22 +2294,22 @@
       <c r="BW12" s="2"/>
       <c r="BX12" s="2"/>
       <c r="BY12" s="2"/>
-      <c r="BZ12" s="153"/>
-      <c r="CA12" s="154"/>
-      <c r="CB12" s="154"/>
-      <c r="CC12" s="153"/>
-      <c r="CD12" s="154"/>
-      <c r="CE12" s="154"/>
-      <c r="CF12" s="154"/>
-      <c r="CG12" s="154"/>
-      <c r="CH12" s="154"/>
-      <c r="CI12" s="154"/>
-      <c r="CJ12" s="154"/>
-      <c r="CK12" s="154"/>
-      <c r="CL12" s="154"/>
-      <c r="CM12" s="154"/>
-      <c r="CN12" s="154"/>
-      <c r="CO12" s="154"/>
+      <c r="BZ12" s="152"/>
+      <c r="CA12" s="153"/>
+      <c r="CB12" s="153"/>
+      <c r="CC12" s="152"/>
+      <c r="CD12" s="153"/>
+      <c r="CE12" s="153"/>
+      <c r="CF12" s="153"/>
+      <c r="CG12" s="153"/>
+      <c r="CH12" s="153"/>
+      <c r="CI12" s="153"/>
+      <c r="CJ12" s="153"/>
+      <c r="CK12" s="153"/>
+      <c r="CL12" s="153"/>
+      <c r="CM12" s="153"/>
+      <c r="CN12" s="153"/>
+      <c r="CO12" s="153"/>
       <c r="CP12" s="1"/>
       <c r="CR12" s="2"/>
       <c r="CS12" s="2"/>
@@ -2255,11 +2330,11 @@
       <c r="FA12" s="2"/>
       <c r="FB12" s="2"/>
     </row>
-    <row r="13" spans="1:160">
+    <row r="13" spans="1:160" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="B13" s="147">
+      <c r="B13" s="146">
         <v>-597.9</v>
       </c>
       <c r="C13" s="5"/>
@@ -2271,7 +2346,7 @@
       <c r="I13" s="5"/>
       <c r="J13" s="5"/>
       <c r="M13" s="15"/>
-      <c r="N13" s="146"/>
+      <c r="N13" s="145"/>
       <c r="O13" s="15"/>
       <c r="P13" s="15"/>
       <c r="Q13" s="15"/>
@@ -2306,22 +2381,22 @@
       <c r="BW13" s="2"/>
       <c r="BX13" s="2"/>
       <c r="BY13" s="2"/>
-      <c r="BZ13" s="153"/>
-      <c r="CA13" s="154"/>
-      <c r="CB13" s="154"/>
-      <c r="CC13" s="153"/>
-      <c r="CD13" s="153"/>
-      <c r="CE13" s="153"/>
-      <c r="CF13" s="153"/>
-      <c r="CG13" s="153"/>
-      <c r="CH13" s="153"/>
-      <c r="CI13" s="153"/>
-      <c r="CJ13" s="153"/>
-      <c r="CK13" s="153"/>
-      <c r="CL13" s="153"/>
-      <c r="CM13" s="154"/>
-      <c r="CN13" s="154"/>
-      <c r="CO13" s="154"/>
+      <c r="BZ13" s="152"/>
+      <c r="CA13" s="153"/>
+      <c r="CB13" s="153"/>
+      <c r="CC13" s="152"/>
+      <c r="CD13" s="152"/>
+      <c r="CE13" s="152"/>
+      <c r="CF13" s="152"/>
+      <c r="CG13" s="152"/>
+      <c r="CH13" s="152"/>
+      <c r="CI13" s="152"/>
+      <c r="CJ13" s="152"/>
+      <c r="CK13" s="152"/>
+      <c r="CL13" s="152"/>
+      <c r="CM13" s="153"/>
+      <c r="CN13" s="153"/>
+      <c r="CO13" s="153"/>
       <c r="CP13" s="1"/>
       <c r="CR13" s="2"/>
       <c r="CS13" s="2"/>
@@ -2338,11 +2413,11 @@
       <c r="FA13" s="2"/>
       <c r="FB13" s="2"/>
     </row>
-    <row r="14" spans="1:160">
+    <row r="14" spans="1:160" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="B14" s="147">
+      <c r="B14" s="146">
         <v>-414.8</v>
       </c>
       <c r="C14" s="21"/>
@@ -2354,7 +2429,7 @@
       <c r="I14" s="5"/>
       <c r="J14" s="21"/>
       <c r="M14" s="15"/>
-      <c r="N14" s="146"/>
+      <c r="N14" s="145"/>
       <c r="O14" s="15"/>
       <c r="P14" s="15"/>
       <c r="Q14" s="15"/>
@@ -2392,22 +2467,22 @@
       <c r="BW14" s="2"/>
       <c r="BX14" s="2"/>
       <c r="BY14" s="2"/>
-      <c r="BZ14" s="153"/>
-      <c r="CA14" s="154"/>
-      <c r="CB14" s="154"/>
-      <c r="CC14" s="153"/>
-      <c r="CD14" s="153"/>
-      <c r="CE14" s="153"/>
-      <c r="CF14" s="153"/>
-      <c r="CG14" s="153"/>
-      <c r="CH14" s="153"/>
-      <c r="CI14" s="153"/>
-      <c r="CJ14" s="153"/>
-      <c r="CK14" s="153"/>
-      <c r="CL14" s="153"/>
-      <c r="CM14" s="153"/>
-      <c r="CN14" s="154"/>
-      <c r="CO14" s="154"/>
+      <c r="BZ14" s="152"/>
+      <c r="CA14" s="153"/>
+      <c r="CB14" s="153"/>
+      <c r="CC14" s="152"/>
+      <c r="CD14" s="152"/>
+      <c r="CE14" s="152"/>
+      <c r="CF14" s="152"/>
+      <c r="CG14" s="152"/>
+      <c r="CH14" s="152"/>
+      <c r="CI14" s="152"/>
+      <c r="CJ14" s="152"/>
+      <c r="CK14" s="152"/>
+      <c r="CL14" s="152"/>
+      <c r="CM14" s="152"/>
+      <c r="CN14" s="153"/>
+      <c r="CO14" s="153"/>
       <c r="CP14" s="1"/>
       <c r="CR14" s="2"/>
       <c r="CS14" s="2"/>
@@ -2429,11 +2504,11 @@
       <c r="FA14" s="2"/>
       <c r="FB14" s="2"/>
     </row>
-    <row r="15" spans="1:160">
+    <row r="15" spans="1:160" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="B15" s="147">
+      <c r="B15" s="146">
         <v>-363.17</v>
       </c>
       <c r="C15" s="21"/>
@@ -2445,7 +2520,7 @@
       <c r="I15" s="5"/>
       <c r="J15" s="21"/>
       <c r="M15" s="15"/>
-      <c r="N15" s="146"/>
+      <c r="N15" s="145"/>
       <c r="O15" s="15"/>
       <c r="P15" s="15"/>
       <c r="Q15" s="15"/>
@@ -2483,22 +2558,22 @@
       <c r="BW15" s="2"/>
       <c r="BX15" s="2"/>
       <c r="BY15" s="2"/>
-      <c r="BZ15" s="153"/>
-      <c r="CA15" s="154"/>
-      <c r="CB15" s="154"/>
-      <c r="CC15" s="153"/>
-      <c r="CD15" s="153"/>
-      <c r="CE15" s="153"/>
-      <c r="CF15" s="153"/>
-      <c r="CG15" s="153"/>
-      <c r="CH15" s="153"/>
-      <c r="CI15" s="153"/>
-      <c r="CJ15" s="153"/>
-      <c r="CK15" s="153"/>
-      <c r="CL15" s="153"/>
-      <c r="CM15" s="153"/>
-      <c r="CN15" s="154"/>
-      <c r="CO15" s="153"/>
+      <c r="BZ15" s="152"/>
+      <c r="CA15" s="153"/>
+      <c r="CB15" s="153"/>
+      <c r="CC15" s="152"/>
+      <c r="CD15" s="152"/>
+      <c r="CE15" s="152"/>
+      <c r="CF15" s="152"/>
+      <c r="CG15" s="152"/>
+      <c r="CH15" s="152"/>
+      <c r="CI15" s="152"/>
+      <c r="CJ15" s="152"/>
+      <c r="CK15" s="152"/>
+      <c r="CL15" s="152"/>
+      <c r="CM15" s="152"/>
+      <c r="CN15" s="153"/>
+      <c r="CO15" s="152"/>
       <c r="CP15" s="1"/>
       <c r="CR15" s="2"/>
       <c r="CS15" s="2"/>
@@ -2514,11 +2589,11 @@
       <c r="FA15" s="2"/>
       <c r="FB15" s="2"/>
     </row>
-    <row r="16" spans="1:160">
+    <row r="16" spans="1:160" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="B16" s="147">
+      <c r="B16" s="146">
         <v>-601.6</v>
       </c>
       <c r="C16" s="21"/>
@@ -2530,7 +2605,7 @@
       <c r="I16" s="21"/>
       <c r="J16" s="21"/>
       <c r="M16" s="15"/>
-      <c r="N16" s="146"/>
+      <c r="N16" s="145"/>
       <c r="O16" s="29"/>
       <c r="P16" s="15"/>
       <c r="Q16" s="15"/>
@@ -2568,22 +2643,22 @@
       <c r="BW16" s="2"/>
       <c r="BX16" s="2"/>
       <c r="BY16" s="2"/>
-      <c r="BZ16" s="153"/>
-      <c r="CA16" s="154"/>
-      <c r="CB16" s="154"/>
-      <c r="CC16" s="153"/>
-      <c r="CD16" s="153"/>
-      <c r="CE16" s="153"/>
-      <c r="CF16" s="153"/>
-      <c r="CG16" s="153"/>
-      <c r="CH16" s="153"/>
-      <c r="CI16" s="153"/>
-      <c r="CJ16" s="153"/>
-      <c r="CK16" s="153"/>
-      <c r="CL16" s="153"/>
-      <c r="CM16" s="153"/>
-      <c r="CN16" s="154"/>
-      <c r="CO16" s="154"/>
+      <c r="BZ16" s="152"/>
+      <c r="CA16" s="153"/>
+      <c r="CB16" s="153"/>
+      <c r="CC16" s="152"/>
+      <c r="CD16" s="152"/>
+      <c r="CE16" s="152"/>
+      <c r="CF16" s="152"/>
+      <c r="CG16" s="152"/>
+      <c r="CH16" s="152"/>
+      <c r="CI16" s="152"/>
+      <c r="CJ16" s="152"/>
+      <c r="CK16" s="152"/>
+      <c r="CL16" s="152"/>
+      <c r="CM16" s="152"/>
+      <c r="CN16" s="153"/>
+      <c r="CO16" s="153"/>
       <c r="CP16" s="1"/>
       <c r="CR16" s="2"/>
       <c r="CS16" s="2"/>
@@ -2605,11 +2680,11 @@
       <c r="FC16" s="12"/>
       <c r="FD16" s="12"/>
     </row>
-    <row r="17" spans="1:160">
+    <row r="17" spans="1:160" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="B17" s="147">
+      <c r="B17" s="146">
         <v>-634.91999999999996</v>
       </c>
       <c r="C17" s="21"/>
@@ -2622,7 +2697,7 @@
       <c r="J17" s="21"/>
       <c r="K17" s="1"/>
       <c r="M17" s="15"/>
-      <c r="N17" s="146"/>
+      <c r="N17" s="145"/>
       <c r="O17" s="29"/>
       <c r="P17" s="15"/>
       <c r="Q17" s="15"/>
@@ -2663,22 +2738,22 @@
       <c r="BW17" s="2"/>
       <c r="BX17" s="15"/>
       <c r="BY17" s="15"/>
-      <c r="BZ17" s="131"/>
-      <c r="CA17" s="152"/>
-      <c r="CB17" s="152"/>
-      <c r="CC17" s="131"/>
+      <c r="BZ17" s="130"/>
+      <c r="CA17" s="151"/>
+      <c r="CB17" s="151"/>
+      <c r="CC17" s="130"/>
       <c r="CD17" s="32"/>
       <c r="CE17" s="32"/>
       <c r="CF17" s="32"/>
       <c r="CG17" s="32"/>
       <c r="CH17" s="32"/>
-      <c r="CI17" s="131"/>
-      <c r="CJ17" s="131"/>
-      <c r="CK17" s="153"/>
-      <c r="CL17" s="153"/>
-      <c r="CM17" s="154"/>
-      <c r="CN17" s="154"/>
-      <c r="CO17" s="154"/>
+      <c r="CI17" s="130"/>
+      <c r="CJ17" s="130"/>
+      <c r="CK17" s="152"/>
+      <c r="CL17" s="152"/>
+      <c r="CM17" s="153"/>
+      <c r="CN17" s="153"/>
+      <c r="CO17" s="153"/>
       <c r="CP17" s="1"/>
       <c r="CR17" s="2"/>
       <c r="CS17" s="2"/>
@@ -2705,11 +2780,11 @@
       <c r="FC17" s="12"/>
       <c r="FD17" s="12"/>
     </row>
-    <row r="18" spans="1:160">
+    <row r="18" spans="1:160" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="B18" s="147">
+      <c r="B18" s="146">
         <v>-272.04000000000002</v>
       </c>
       <c r="C18" s="21"/>
@@ -2721,7 +2796,7 @@
       <c r="I18" s="5"/>
       <c r="J18" s="7"/>
       <c r="M18" s="15"/>
-      <c r="N18" s="146"/>
+      <c r="N18" s="145"/>
       <c r="O18" s="29"/>
       <c r="P18" s="15"/>
       <c r="Q18" s="15"/>
@@ -2758,22 +2833,22 @@
       <c r="BW18" s="2"/>
       <c r="BX18" s="15"/>
       <c r="BY18" s="15"/>
-      <c r="BZ18" s="131"/>
-      <c r="CA18" s="152"/>
-      <c r="CB18" s="152"/>
-      <c r="CC18" s="131"/>
-      <c r="CD18" s="131"/>
-      <c r="CE18" s="131"/>
-      <c r="CF18" s="131"/>
-      <c r="CG18" s="131"/>
-      <c r="CH18" s="131"/>
-      <c r="CI18" s="131"/>
-      <c r="CJ18" s="131"/>
-      <c r="CK18" s="153"/>
-      <c r="CL18" s="131"/>
-      <c r="CM18" s="152"/>
-      <c r="CN18" s="152"/>
-      <c r="CO18" s="152"/>
+      <c r="BZ18" s="130"/>
+      <c r="CA18" s="151"/>
+      <c r="CB18" s="151"/>
+      <c r="CC18" s="130"/>
+      <c r="CD18" s="130"/>
+      <c r="CE18" s="130"/>
+      <c r="CF18" s="130"/>
+      <c r="CG18" s="130"/>
+      <c r="CH18" s="130"/>
+      <c r="CI18" s="130"/>
+      <c r="CJ18" s="130"/>
+      <c r="CK18" s="152"/>
+      <c r="CL18" s="130"/>
+      <c r="CM18" s="151"/>
+      <c r="CN18" s="151"/>
+      <c r="CO18" s="151"/>
       <c r="CP18" s="23"/>
       <c r="CQ18" s="23"/>
       <c r="CR18" s="15"/>
@@ -2805,11 +2880,11 @@
       <c r="FC18" s="12"/>
       <c r="FD18" s="12"/>
     </row>
-    <row r="19" spans="1:160">
+    <row r="19" spans="1:160" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="B19" s="147">
+      <c r="B19" s="146">
         <v>-826.23</v>
       </c>
       <c r="C19" s="21"/>
@@ -2821,7 +2896,7 @@
       <c r="I19" s="5"/>
       <c r="J19" s="21"/>
       <c r="M19" s="15"/>
-      <c r="N19" s="146"/>
+      <c r="N19" s="145"/>
       <c r="O19" s="15"/>
       <c r="P19" s="15"/>
       <c r="Q19" s="15"/>
@@ -2861,19 +2936,19 @@
       <c r="BZ19" s="29"/>
       <c r="CA19" s="29"/>
       <c r="CB19" s="29"/>
-      <c r="CC19" s="130"/>
-      <c r="CD19" s="131"/>
-      <c r="CE19" s="131"/>
-      <c r="CF19" s="131"/>
-      <c r="CG19" s="131"/>
-      <c r="CH19" s="131"/>
-      <c r="CI19" s="131"/>
-      <c r="CJ19" s="131"/>
-      <c r="CK19" s="153"/>
-      <c r="CL19" s="131"/>
-      <c r="CM19" s="152"/>
-      <c r="CN19" s="152"/>
-      <c r="CO19" s="152"/>
+      <c r="CC19" s="129"/>
+      <c r="CD19" s="130"/>
+      <c r="CE19" s="130"/>
+      <c r="CF19" s="130"/>
+      <c r="CG19" s="130"/>
+      <c r="CH19" s="130"/>
+      <c r="CI19" s="130"/>
+      <c r="CJ19" s="130"/>
+      <c r="CK19" s="152"/>
+      <c r="CL19" s="130"/>
+      <c r="CM19" s="151"/>
+      <c r="CN19" s="151"/>
+      <c r="CO19" s="151"/>
       <c r="CP19" s="23"/>
       <c r="CQ19" s="23"/>
       <c r="CR19" s="15"/>
@@ -2903,11 +2978,11 @@
       <c r="EZ19" s="2"/>
       <c r="FA19" s="2"/>
     </row>
-    <row r="20" spans="1:160">
+    <row r="20" spans="1:160" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="B20" s="147">
+      <c r="B20" s="146">
         <v>-1675.7</v>
       </c>
       <c r="C20" s="21"/>
@@ -2919,7 +2994,7 @@
       <c r="I20" s="21"/>
       <c r="J20" s="21"/>
       <c r="M20" s="15"/>
-      <c r="N20" s="146"/>
+      <c r="N20" s="145"/>
       <c r="O20" s="15"/>
       <c r="P20" s="15"/>
       <c r="Q20" s="15"/>
@@ -2963,18 +3038,18 @@
       <c r="CA20" s="29"/>
       <c r="CB20" s="29"/>
       <c r="CC20" s="31"/>
-      <c r="CD20" s="134"/>
-      <c r="CE20" s="134"/>
-      <c r="CF20" s="134"/>
-      <c r="CG20" s="134"/>
-      <c r="CH20" s="134"/>
-      <c r="CI20" s="134"/>
-      <c r="CJ20" s="148"/>
-      <c r="CK20" s="151"/>
-      <c r="CL20" s="150"/>
-      <c r="CM20" s="150"/>
-      <c r="CN20" s="150"/>
-      <c r="CO20" s="150"/>
+      <c r="CD20" s="133"/>
+      <c r="CE20" s="133"/>
+      <c r="CF20" s="133"/>
+      <c r="CG20" s="133"/>
+      <c r="CH20" s="133"/>
+      <c r="CI20" s="133"/>
+      <c r="CJ20" s="147"/>
+      <c r="CK20" s="150"/>
+      <c r="CL20" s="149"/>
+      <c r="CM20" s="149"/>
+      <c r="CN20" s="149"/>
+      <c r="CO20" s="149"/>
       <c r="CP20" s="23"/>
       <c r="CQ20" s="23"/>
       <c r="CR20" s="15"/>
@@ -3010,11 +3085,11 @@
       <c r="FC20" s="12"/>
       <c r="FD20" s="12"/>
     </row>
-    <row r="21" spans="1:160">
+    <row r="21" spans="1:160" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="B21" s="147">
+      <c r="B21" s="146">
         <v>-910.7</v>
       </c>
       <c r="C21" s="21"/>
@@ -3026,7 +3101,7 @@
       <c r="I21" s="21"/>
       <c r="J21" s="21"/>
       <c r="M21" s="15"/>
-      <c r="N21" s="130"/>
+      <c r="N21" s="129"/>
       <c r="O21" s="15"/>
       <c r="P21" s="15"/>
       <c r="Q21" s="15"/>
@@ -3065,21 +3140,21 @@
       <c r="BX21" s="15"/>
       <c r="BY21" s="29"/>
       <c r="BZ21" s="31"/>
-      <c r="CA21" s="125"/>
-      <c r="CB21" s="125"/>
+      <c r="CA21" s="124"/>
+      <c r="CB21" s="124"/>
       <c r="CC21" s="29"/>
-      <c r="CD21" s="134"/>
-      <c r="CE21" s="134"/>
-      <c r="CF21" s="134"/>
-      <c r="CG21" s="134"/>
-      <c r="CH21" s="134"/>
-      <c r="CI21" s="134"/>
-      <c r="CJ21" s="148"/>
-      <c r="CK21" s="149"/>
-      <c r="CL21" s="148"/>
-      <c r="CM21" s="125"/>
-      <c r="CN21" s="148"/>
-      <c r="CO21" s="148"/>
+      <c r="CD21" s="133"/>
+      <c r="CE21" s="133"/>
+      <c r="CF21" s="133"/>
+      <c r="CG21" s="133"/>
+      <c r="CH21" s="133"/>
+      <c r="CI21" s="133"/>
+      <c r="CJ21" s="147"/>
+      <c r="CK21" s="148"/>
+      <c r="CL21" s="147"/>
+      <c r="CM21" s="124"/>
+      <c r="CN21" s="147"/>
+      <c r="CO21" s="147"/>
       <c r="CP21" s="23"/>
       <c r="CQ21" s="23"/>
       <c r="CR21" s="15"/>
@@ -3117,11 +3192,11 @@
       <c r="EZ21" s="2"/>
       <c r="FA21" s="2"/>
     </row>
-    <row r="22" spans="1:160">
+    <row r="22" spans="1:160" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="B22" s="147">
+      <c r="B22" s="146">
         <v>-285.83</v>
       </c>
       <c r="C22" s="21"/>
@@ -3133,7 +3208,7 @@
       <c r="I22" s="5"/>
       <c r="J22" s="5"/>
       <c r="M22" s="15"/>
-      <c r="N22" s="146"/>
+      <c r="N22" s="145"/>
       <c r="O22" s="15"/>
       <c r="P22" s="15"/>
       <c r="Q22" s="15"/>
@@ -3154,19 +3229,19 @@
       <c r="AJ22" s="2"/>
       <c r="AK22" s="2"/>
       <c r="AL22" s="2"/>
-      <c r="AM22" s="145" t="s">
+      <c r="AM22" s="144" t="s">
         <v>120</v>
       </c>
-      <c r="AN22" s="143" t="s">
+      <c r="AN22" s="142" t="s">
         <v>119</v>
       </c>
-      <c r="AO22" s="144" t="s">
+      <c r="AO22" s="143" t="s">
         <v>118</v>
       </c>
-      <c r="AP22" s="143" t="s">
+      <c r="AP22" s="142" t="s">
         <v>117</v>
       </c>
-      <c r="AQ22" s="142" t="s">
+      <c r="AQ22" s="141" t="s">
         <v>116</v>
       </c>
       <c r="AR22" s="2"/>
@@ -3182,7 +3257,7 @@
       <c r="BZ22" s="31"/>
       <c r="CA22" s="31"/>
       <c r="CB22" s="31"/>
-      <c r="CC22" s="120"/>
+      <c r="CC22" s="119"/>
       <c r="CD22" s="31"/>
       <c r="CE22" s="31"/>
       <c r="CF22" s="31"/>
@@ -3231,7 +3306,7 @@
       <c r="EZ22" s="2"/>
       <c r="FA22" s="2"/>
     </row>
-    <row r="23" spans="1:160">
+    <row r="23" spans="1:160" x14ac:dyDescent="0.25">
       <c r="D23" s="1"/>
       <c r="M23" s="15"/>
       <c r="N23" s="15"/>
@@ -3252,23 +3327,23 @@
       <c r="AG23" s="2"/>
       <c r="AH23" s="2"/>
       <c r="AI23" s="2"/>
-      <c r="AM23" s="141">
+      <c r="AM23" s="140">
         <f>BU29</f>
         <v>453</v>
       </c>
-      <c r="AN23" s="137">
+      <c r="AN23" s="136">
         <f>BV29</f>
         <v>260</v>
       </c>
-      <c r="AO23" s="140">
+      <c r="AO23" s="139">
         <f>BW29</f>
         <v>14.24</v>
       </c>
-      <c r="AP23" s="137">
+      <c r="AP23" s="136">
         <f>BX29</f>
         <v>-71.22995929163136</v>
       </c>
-      <c r="AQ23" s="135">
+      <c r="AQ23" s="134">
         <f>BY29</f>
         <v>-147.25</v>
       </c>
@@ -3278,20 +3353,20 @@
       <c r="CA23" s="31"/>
       <c r="CB23" s="31"/>
       <c r="CC23" s="31"/>
-      <c r="CD23" s="134"/>
-      <c r="CE23" s="134"/>
-      <c r="CF23" s="134"/>
+      <c r="CD23" s="133"/>
+      <c r="CE23" s="133"/>
+      <c r="CF23" s="133"/>
       <c r="CG23" s="31"/>
       <c r="CH23" s="31"/>
-      <c r="CI23" s="125"/>
-      <c r="CJ23" s="125"/>
-      <c r="CK23" s="125"/>
+      <c r="CI23" s="124"/>
+      <c r="CJ23" s="124"/>
+      <c r="CK23" s="124"/>
       <c r="CL23" s="31"/>
       <c r="CM23" s="31"/>
-      <c r="CN23" s="125"/>
-      <c r="CO23" s="125"/>
+      <c r="CN23" s="124"/>
+      <c r="CO23" s="124"/>
       <c r="CP23" s="15"/>
-      <c r="CQ23" s="125"/>
+      <c r="CQ23" s="124"/>
       <c r="CR23" s="31"/>
       <c r="CS23" s="31"/>
       <c r="CT23" s="31"/>
@@ -3300,14 +3375,14 @@
       <c r="CW23" s="23"/>
       <c r="CX23" s="15"/>
       <c r="CY23" s="15"/>
-      <c r="CZ23" s="127"/>
-      <c r="DA23" s="127"/>
-      <c r="DB23" s="127"/>
-      <c r="DC23" s="127"/>
-      <c r="DD23" s="127"/>
-      <c r="DE23" s="127"/>
-      <c r="DF23" s="127"/>
-      <c r="DG23" s="127"/>
+      <c r="CZ23" s="126"/>
+      <c r="DA23" s="126"/>
+      <c r="DB23" s="126"/>
+      <c r="DC23" s="126"/>
+      <c r="DD23" s="126"/>
+      <c r="DE23" s="126"/>
+      <c r="DF23" s="126"/>
+      <c r="DG23" s="126"/>
       <c r="DH23" s="23"/>
       <c r="DQ23" s="20"/>
       <c r="DR23" s="18"/>
@@ -3328,7 +3403,7 @@
       <c r="EZ23" s="2"/>
       <c r="FA23" s="2"/>
     </row>
-    <row r="24" spans="1:160">
+    <row r="24" spans="1:160" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>129</v>
       </c>
@@ -3365,20 +3440,20 @@
       <c r="AF24" s="7"/>
       <c r="AH24" s="2"/>
       <c r="AI24" s="2"/>
-      <c r="AM24" s="133"/>
+      <c r="AM24" s="132"/>
       <c r="AN24" s="2"/>
       <c r="AO24" s="2"/>
       <c r="AP24" s="2"/>
-      <c r="AQ24" s="108"/>
+      <c r="AQ24" s="107"/>
       <c r="BX24" s="23"/>
       <c r="BY24" s="31"/>
       <c r="BZ24" s="31"/>
       <c r="CA24" s="31"/>
       <c r="CB24" s="31"/>
       <c r="CC24" s="31"/>
-      <c r="CD24" s="134"/>
-      <c r="CE24" s="134"/>
-      <c r="CF24" s="134"/>
+      <c r="CD24" s="133"/>
+      <c r="CE24" s="133"/>
+      <c r="CF24" s="133"/>
       <c r="CG24" s="31"/>
       <c r="CH24" s="31"/>
       <c r="CI24" s="31"/>
@@ -3398,14 +3473,14 @@
       <c r="CW24" s="23"/>
       <c r="CX24" s="15"/>
       <c r="CY24" s="15"/>
-      <c r="CZ24" s="127"/>
-      <c r="DA24" s="127"/>
-      <c r="DB24" s="127"/>
-      <c r="DC24" s="126"/>
-      <c r="DD24" s="127"/>
-      <c r="DE24" s="127"/>
-      <c r="DF24" s="127"/>
-      <c r="DG24" s="126"/>
+      <c r="CZ24" s="126"/>
+      <c r="DA24" s="126"/>
+      <c r="DB24" s="126"/>
+      <c r="DC24" s="125"/>
+      <c r="DD24" s="126"/>
+      <c r="DE24" s="126"/>
+      <c r="DF24" s="126"/>
+      <c r="DG24" s="125"/>
       <c r="DH24" s="23"/>
       <c r="DL24" s="20"/>
       <c r="DM24" s="21"/>
@@ -3427,11 +3502,11 @@
       <c r="EZ24" s="2"/>
       <c r="FA24" s="2"/>
     </row>
-    <row r="25" spans="1:160">
+    <row r="25" spans="1:160" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="B25" s="139">
+      <c r="B25" s="138">
         <f>BZ33</f>
         <v>-311.97648306982126</v>
       </c>
@@ -3478,7 +3553,7 @@
       <c r="AP25" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="AQ25" s="106" t="s">
+      <c r="AQ25" s="105" t="s">
         <v>107</v>
       </c>
       <c r="AR25" s="7" t="s">
@@ -3497,7 +3572,7 @@
       <c r="BZ25" s="31"/>
       <c r="CA25" s="31"/>
       <c r="CB25" s="31"/>
-      <c r="CC25" s="120"/>
+      <c r="CC25" s="119"/>
       <c r="CD25" s="31"/>
       <c r="CE25" s="31"/>
       <c r="CF25" s="31"/>
@@ -3520,14 +3595,14 @@
       <c r="CW25" s="23"/>
       <c r="CX25" s="15"/>
       <c r="CY25" s="15"/>
-      <c r="CZ25" s="127"/>
-      <c r="DA25" s="127"/>
-      <c r="DB25" s="127"/>
-      <c r="DC25" s="126"/>
-      <c r="DD25" s="127"/>
-      <c r="DE25" s="127"/>
-      <c r="DF25" s="127"/>
-      <c r="DG25" s="126"/>
+      <c r="CZ25" s="126"/>
+      <c r="DA25" s="126"/>
+      <c r="DB25" s="126"/>
+      <c r="DC25" s="125"/>
+      <c r="DD25" s="126"/>
+      <c r="DE25" s="126"/>
+      <c r="DF25" s="126"/>
+      <c r="DG25" s="125"/>
       <c r="DH25" s="23"/>
       <c r="DO25" s="21"/>
       <c r="DR25" s="2"/>
@@ -3539,11 +3614,11 @@
       <c r="EZ25" s="2"/>
       <c r="FA25" s="2"/>
     </row>
-    <row r="26" spans="1:160">
+    <row r="26" spans="1:160" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="B26" s="139">
+      <c r="B26" s="138">
         <f>CA33</f>
         <v>-287.19938243327937</v>
       </c>
@@ -3563,23 +3638,23 @@
       <c r="AJ26" s="2"/>
       <c r="AK26" s="2"/>
       <c r="AL26" s="2"/>
-      <c r="AM26" s="138">
+      <c r="AM26" s="137">
         <f>'[1]Don. extrap. (2)'!$C$50</f>
         <v>-154.26171937771397</v>
       </c>
-      <c r="AN26" s="136">
+      <c r="AN26" s="135">
         <f>BV31</f>
         <v>-191.72158528078518</v>
       </c>
-      <c r="AO26" s="137">
+      <c r="AO26" s="136">
         <f>BW31</f>
         <v>-230.7909714677144</v>
       </c>
-      <c r="AP26" s="136">
+      <c r="AP26" s="135">
         <f>BX31</f>
         <v>-251.753632508815</v>
       </c>
-      <c r="AQ26" s="135">
+      <c r="AQ26" s="134">
         <f>BY31</f>
         <v>-290.78716840217356</v>
       </c>
@@ -3602,17 +3677,17 @@
       <c r="BZ26" s="31"/>
       <c r="CA26" s="31"/>
       <c r="CB26" s="31"/>
-      <c r="CC26" s="120"/>
-      <c r="CD26" s="134"/>
+      <c r="CC26" s="119"/>
+      <c r="CD26" s="133"/>
       <c r="CE26" s="31"/>
-      <c r="CF26" s="125"/>
+      <c r="CF26" s="124"/>
       <c r="CG26" s="31"/>
       <c r="CH26" s="31"/>
-      <c r="CI26" s="125"/>
-      <c r="CJ26" s="125"/>
-      <c r="CK26" s="125"/>
+      <c r="CI26" s="124"/>
+      <c r="CJ26" s="124"/>
+      <c r="CK26" s="124"/>
       <c r="CL26" s="31"/>
-      <c r="CM26" s="125"/>
+      <c r="CM26" s="124"/>
       <c r="CN26" s="31"/>
       <c r="CO26" s="31"/>
       <c r="CP26" s="31"/>
@@ -3625,14 +3700,14 @@
       <c r="CW26" s="15"/>
       <c r="CX26" s="15"/>
       <c r="CY26" s="15"/>
-      <c r="CZ26" s="127"/>
-      <c r="DA26" s="127"/>
-      <c r="DB26" s="127"/>
-      <c r="DC26" s="126"/>
-      <c r="DD26" s="127"/>
-      <c r="DE26" s="127"/>
-      <c r="DF26" s="127"/>
-      <c r="DG26" s="126"/>
+      <c r="CZ26" s="126"/>
+      <c r="DA26" s="126"/>
+      <c r="DB26" s="126"/>
+      <c r="DC26" s="125"/>
+      <c r="DD26" s="126"/>
+      <c r="DE26" s="126"/>
+      <c r="DF26" s="126"/>
+      <c r="DG26" s="125"/>
       <c r="DH26" s="23"/>
       <c r="DL26" s="4"/>
       <c r="DR26" s="2"/>
@@ -3644,7 +3719,7 @@
       <c r="EZ26" s="2"/>
       <c r="FA26" s="2"/>
     </row>
-    <row r="27" spans="1:160">
+    <row r="27" spans="1:160" x14ac:dyDescent="0.25">
       <c r="B27" s="23"/>
       <c r="C27" s="23"/>
       <c r="D27" s="23"/>
@@ -3664,11 +3739,11 @@
       <c r="S27" s="2"/>
       <c r="T27" s="2"/>
       <c r="V27" s="2"/>
-      <c r="W27" s="133"/>
+      <c r="W27" s="132"/>
       <c r="X27" s="2"/>
       <c r="Y27" s="2"/>
       <c r="Z27" s="2"/>
-      <c r="AA27" s="108"/>
+      <c r="AA27" s="107"/>
       <c r="AB27" s="2"/>
       <c r="AC27" s="2"/>
       <c r="AD27" s="2"/>
@@ -3678,20 +3753,20 @@
       <c r="AW27" s="2"/>
       <c r="BH27" s="23"/>
       <c r="BI27" s="23"/>
-      <c r="BJ27" s="132"/>
-      <c r="BK27" s="131"/>
-      <c r="BL27" s="132"/>
-      <c r="BM27" s="131"/>
+      <c r="BJ27" s="131"/>
+      <c r="BK27" s="130"/>
+      <c r="BL27" s="131"/>
+      <c r="BM27" s="130"/>
       <c r="BN27" s="23"/>
       <c r="BO27" s="23"/>
       <c r="BP27" s="23"/>
       <c r="BQ27" s="23"/>
       <c r="BR27" s="23"/>
-      <c r="BS27" s="125"/>
-      <c r="BT27" s="125"/>
-      <c r="BU27" s="125"/>
+      <c r="BS27" s="124"/>
+      <c r="BT27" s="124"/>
+      <c r="BU27" s="124"/>
       <c r="BV27" s="31"/>
-      <c r="BW27" s="125"/>
+      <c r="BW27" s="124"/>
       <c r="BX27" s="31"/>
       <c r="BY27" s="31"/>
       <c r="BZ27" s="31"/>
@@ -3704,14 +3779,14 @@
       <c r="CG27" s="15"/>
       <c r="CH27" s="15"/>
       <c r="CI27" s="15"/>
-      <c r="CJ27" s="127"/>
-      <c r="CK27" s="127"/>
-      <c r="CL27" s="127"/>
-      <c r="CM27" s="126"/>
-      <c r="CN27" s="127"/>
-      <c r="CO27" s="127"/>
-      <c r="CP27" s="127"/>
-      <c r="CQ27" s="126"/>
+      <c r="CJ27" s="126"/>
+      <c r="CK27" s="126"/>
+      <c r="CL27" s="126"/>
+      <c r="CM27" s="125"/>
+      <c r="CN27" s="126"/>
+      <c r="CO27" s="126"/>
+      <c r="CP27" s="126"/>
+      <c r="CQ27" s="125"/>
       <c r="CR27" s="23"/>
       <c r="CS27" s="4"/>
       <c r="CT27" s="6"/>
@@ -3743,7 +3818,7 @@
       <c r="EX27" s="1"/>
       <c r="EY27" s="1"/>
     </row>
-    <row r="28" spans="1:160">
+    <row r="28" spans="1:160" x14ac:dyDescent="0.25">
       <c r="A28" s="7"/>
       <c r="B28" s="5"/>
       <c r="C28" s="5"/>
@@ -3776,9 +3851,9 @@
       <c r="AE28" s="32"/>
       <c r="AF28" s="32"/>
       <c r="AG28" s="32"/>
-      <c r="AH28" s="123"/>
-      <c r="AI28" s="123"/>
-      <c r="AJ28" s="123"/>
+      <c r="AH28" s="122"/>
+      <c r="AI28" s="122"/>
+      <c r="AJ28" s="122"/>
       <c r="AV28" s="4"/>
       <c r="AW28" s="2"/>
       <c r="AZ28" s="23"/>
@@ -3786,9 +3861,9 @@
       <c r="BB28" s="23"/>
       <c r="BC28" s="31"/>
       <c r="BD28" s="31"/>
-      <c r="BH28" s="121"/>
+      <c r="BH28" s="120"/>
       <c r="BI28" s="23"/>
-      <c r="BJ28" s="130"/>
+      <c r="BJ28" s="129"/>
       <c r="BK28" s="23"/>
       <c r="BL28" s="23"/>
       <c r="BM28" s="23"/>
@@ -3798,43 +3873,43 @@
       <c r="BQ28" s="23"/>
       <c r="BR28" s="23"/>
       <c r="BS28" s="23"/>
-      <c r="BT28" s="156" t="s">
+      <c r="BT28" s="155" t="s">
         <v>121</v>
       </c>
-      <c r="BU28" s="157" t="s">
+      <c r="BU28" s="156" t="s">
         <v>120</v>
       </c>
-      <c r="BV28" s="157" t="s">
+      <c r="BV28" s="156" t="s">
         <v>119</v>
       </c>
-      <c r="BW28" s="158" t="s">
+      <c r="BW28" s="157" t="s">
         <v>118</v>
       </c>
-      <c r="BX28" s="157" t="s">
+      <c r="BX28" s="156" t="s">
         <v>117</v>
       </c>
-      <c r="BY28" s="159" t="s">
+      <c r="BY28" s="158" t="s">
         <v>116</v>
       </c>
-      <c r="BZ28" s="160"/>
-      <c r="CA28" s="156" t="s">
+      <c r="BZ28" s="159"/>
+      <c r="CA28" s="155" t="s">
         <v>115</v>
       </c>
-      <c r="CB28" s="157" t="s">
+      <c r="CB28" s="156" t="s">
         <v>114</v>
       </c>
-      <c r="CC28" s="159" t="s">
+      <c r="CC28" s="158" t="s">
         <v>113</v>
       </c>
       <c r="CI28" s="23"/>
-      <c r="CJ28" s="127"/>
-      <c r="CK28" s="127"/>
-      <c r="CL28" s="127"/>
-      <c r="CM28" s="126"/>
-      <c r="CN28" s="127"/>
-      <c r="CO28" s="127"/>
-      <c r="CP28" s="127"/>
-      <c r="CQ28" s="126"/>
+      <c r="CJ28" s="126"/>
+      <c r="CK28" s="126"/>
+      <c r="CL28" s="126"/>
+      <c r="CM28" s="125"/>
+      <c r="CN28" s="126"/>
+      <c r="CO28" s="126"/>
+      <c r="CP28" s="126"/>
+      <c r="CQ28" s="125"/>
       <c r="CR28" s="28"/>
       <c r="CS28" s="28"/>
       <c r="CT28" s="29"/>
@@ -3875,86 +3950,86 @@
       <c r="EX28" s="1"/>
       <c r="EY28" s="1"/>
     </row>
-    <row r="29" spans="1:160">
+    <row r="29" spans="1:160" x14ac:dyDescent="0.25">
       <c r="A29" s="8"/>
-      <c r="B29" s="129"/>
-      <c r="C29" s="128"/>
-      <c r="D29" s="128"/>
-      <c r="E29" s="128"/>
-      <c r="F29" s="128"/>
-      <c r="G29" s="128"/>
-      <c r="H29" s="128"/>
+      <c r="B29" s="128"/>
+      <c r="C29" s="127"/>
+      <c r="D29" s="127"/>
+      <c r="E29" s="127"/>
+      <c r="F29" s="127"/>
+      <c r="G29" s="127"/>
+      <c r="H29" s="127"/>
       <c r="I29" s="5"/>
       <c r="J29" s="5"/>
       <c r="K29" s="5"/>
       <c r="L29" s="5"/>
-      <c r="M29" s="129"/>
-      <c r="N29" s="129"/>
-      <c r="O29" s="129"/>
-      <c r="P29" s="129"/>
-      <c r="Q29" s="129"/>
-      <c r="R29" s="129"/>
+      <c r="M29" s="128"/>
+      <c r="N29" s="128"/>
+      <c r="O29" s="128"/>
+      <c r="P29" s="128"/>
+      <c r="Q29" s="128"/>
+      <c r="R29" s="128"/>
       <c r="S29" s="7"/>
       <c r="T29" s="13"/>
       <c r="U29" s="13"/>
-      <c r="W29" s="128"/>
-      <c r="X29" s="128"/>
-      <c r="Y29" s="128"/>
-      <c r="Z29" s="128"/>
-      <c r="AA29" s="128"/>
-      <c r="AB29" s="128"/>
+      <c r="W29" s="127"/>
+      <c r="X29" s="127"/>
+      <c r="Y29" s="127"/>
+      <c r="Z29" s="127"/>
+      <c r="AA29" s="127"/>
+      <c r="AB29" s="127"/>
       <c r="AC29" s="5"/>
       <c r="AE29" s="2"/>
-      <c r="AF29" s="128"/>
-      <c r="AG29" s="128"/>
+      <c r="AF29" s="127"/>
+      <c r="AG29" s="127"/>
       <c r="AV29" s="4"/>
       <c r="AW29" s="2"/>
       <c r="AZ29" s="23"/>
       <c r="BA29" s="23"/>
-      <c r="BB29" s="122"/>
+      <c r="BB29" s="121"/>
       <c r="BC29" s="31"/>
       <c r="BD29" s="31"/>
       <c r="BH29" s="12"/>
       <c r="BJ29" s="9"/>
       <c r="BL29" s="1"/>
       <c r="BM29" s="1"/>
-      <c r="BT29" s="161">
+      <c r="BT29" s="160">
         <v>-0.8565710937039972</v>
       </c>
-      <c r="BU29" s="162">
+      <c r="BU29" s="161">
         <v>453</v>
       </c>
-      <c r="BV29" s="163">
+      <c r="BV29" s="162">
         <v>260</v>
       </c>
-      <c r="BW29" s="164">
+      <c r="BW29" s="163">
         <v>14.24</v>
       </c>
-      <c r="BX29" s="163">
+      <c r="BX29" s="162">
         <v>-71.22995929163136</v>
       </c>
-      <c r="BY29" s="165">
+      <c r="BY29" s="164">
         <v>-147.25</v>
       </c>
-      <c r="BZ29" s="160"/>
-      <c r="CA29" s="166">
+      <c r="BZ29" s="159"/>
+      <c r="CA29" s="165">
         <v>-285.32948153870637</v>
       </c>
-      <c r="CB29" s="167">
+      <c r="CB29" s="166">
         <v>-260.44539176978185</v>
       </c>
-      <c r="CC29" s="168">
+      <c r="CC29" s="167">
         <v>-310</v>
       </c>
       <c r="CI29" s="23"/>
-      <c r="CJ29" s="127"/>
-      <c r="CK29" s="127"/>
-      <c r="CL29" s="127"/>
-      <c r="CM29" s="126"/>
-      <c r="CN29" s="127"/>
-      <c r="CO29" s="127"/>
-      <c r="CP29" s="127"/>
-      <c r="CQ29" s="126"/>
+      <c r="CJ29" s="126"/>
+      <c r="CK29" s="126"/>
+      <c r="CL29" s="126"/>
+      <c r="CM29" s="125"/>
+      <c r="CN29" s="126"/>
+      <c r="CO29" s="126"/>
+      <c r="CP29" s="126"/>
+      <c r="CQ29" s="125"/>
       <c r="CR29" s="28"/>
       <c r="CS29" s="28"/>
       <c r="CT29" s="30"/>
@@ -3992,10 +4067,10 @@
       <c r="EX29" s="1"/>
       <c r="EY29" s="1"/>
     </row>
-    <row r="30" spans="1:160">
+    <row r="30" spans="1:160" x14ac:dyDescent="0.25">
       <c r="A30" s="7"/>
-      <c r="B30" s="129"/>
-      <c r="C30" s="128"/>
+      <c r="B30" s="128"/>
+      <c r="C30" s="127"/>
       <c r="D30" s="5"/>
       <c r="E30" s="5"/>
       <c r="F30" s="5"/>
@@ -4034,42 +4109,42 @@
       <c r="BJ30" s="9"/>
       <c r="BL30" s="1"/>
       <c r="BM30" s="1"/>
-      <c r="BT30" s="156" t="s">
+      <c r="BT30" s="155" t="s">
         <v>112</v>
       </c>
-      <c r="BU30" s="157" t="s">
+      <c r="BU30" s="156" t="s">
         <v>111</v>
       </c>
-      <c r="BV30" s="157" t="s">
+      <c r="BV30" s="156" t="s">
         <v>110</v>
       </c>
-      <c r="BW30" s="157" t="s">
+      <c r="BW30" s="156" t="s">
         <v>109</v>
       </c>
-      <c r="BX30" s="157" t="s">
+      <c r="BX30" s="156" t="s">
         <v>108</v>
       </c>
-      <c r="BY30" s="157" t="s">
+      <c r="BY30" s="156" t="s">
         <v>107</v>
       </c>
-      <c r="BZ30" s="159" t="s">
+      <c r="BZ30" s="158" t="s">
         <v>106</v>
       </c>
-      <c r="CA30" s="160"/>
-      <c r="CB30" s="160"/>
-      <c r="CC30" s="160"/>
+      <c r="CA30" s="159"/>
+      <c r="CB30" s="159"/>
+      <c r="CC30" s="159"/>
       <c r="CD30" s="23"/>
       <c r="CE30" s="15"/>
       <c r="CF30" s="15"/>
       <c r="CI30" s="23"/>
-      <c r="CJ30" s="127"/>
-      <c r="CK30" s="127"/>
-      <c r="CL30" s="127"/>
-      <c r="CM30" s="126"/>
-      <c r="CN30" s="127"/>
-      <c r="CO30" s="127"/>
-      <c r="CP30" s="127"/>
-      <c r="CQ30" s="126"/>
+      <c r="CJ30" s="126"/>
+      <c r="CK30" s="126"/>
+      <c r="CL30" s="126"/>
+      <c r="CM30" s="125"/>
+      <c r="CN30" s="126"/>
+      <c r="CO30" s="126"/>
+      <c r="CP30" s="126"/>
+      <c r="CQ30" s="125"/>
       <c r="CR30" s="28"/>
       <c r="CS30" s="28"/>
       <c r="CT30" s="30"/>
@@ -4083,7 +4158,7 @@
       <c r="DB30" s="28"/>
       <c r="DC30" s="23"/>
       <c r="DD30" s="23"/>
-      <c r="DE30" s="120"/>
+      <c r="DE30" s="119"/>
       <c r="DF30" s="23"/>
       <c r="DI30" s="1"/>
       <c r="DJ30" s="1"/>
@@ -4105,7 +4180,7 @@
       <c r="EX30" s="1"/>
       <c r="EY30" s="1"/>
     </row>
-    <row r="31" spans="1:160">
+    <row r="31" spans="1:160" x14ac:dyDescent="0.25">
       <c r="A31" s="7"/>
       <c r="B31" s="5"/>
       <c r="C31" s="5"/>
@@ -4142,7 +4217,7 @@
       <c r="AW31" s="2"/>
       <c r="AZ31" s="23"/>
       <c r="BA31" s="23"/>
-      <c r="BB31" s="122"/>
+      <c r="BB31" s="121"/>
       <c r="BC31" s="31"/>
       <c r="BD31" s="31"/>
       <c r="BJ31" s="9"/>
@@ -4151,30 +4226,30 @@
       <c r="BM31" s="1"/>
       <c r="BN31" s="24"/>
       <c r="BO31" s="24"/>
-      <c r="BT31" s="161">
+      <c r="BT31" s="160">
         <v>-0.57904563823703115</v>
       </c>
-      <c r="BU31" s="162">
+      <c r="BU31" s="161">
         <v>-110</v>
       </c>
-      <c r="BV31" s="169">
+      <c r="BV31" s="168">
         <v>-191.72158528078518</v>
       </c>
-      <c r="BW31" s="163">
+      <c r="BW31" s="162">
         <v>-230.7909714677144</v>
       </c>
-      <c r="BX31" s="162">
+      <c r="BX31" s="161">
         <v>-251.753632508815</v>
       </c>
-      <c r="BY31" s="162">
+      <c r="BY31" s="161">
         <v>-290.78716840217356</v>
       </c>
-      <c r="BZ31" s="170">
+      <c r="BZ31" s="169">
         <v>-249.57662413235681</v>
       </c>
-      <c r="CA31" s="160"/>
-      <c r="CB31" s="160"/>
-      <c r="CC31" s="160"/>
+      <c r="CA31" s="159"/>
+      <c r="CB31" s="159"/>
+      <c r="CC31" s="159"/>
       <c r="CD31" s="23"/>
       <c r="CE31" s="15"/>
       <c r="CF31" s="15"/>
@@ -4200,7 +4275,7 @@
       <c r="DB31" s="23"/>
       <c r="DC31" s="23"/>
       <c r="DD31" s="31"/>
-      <c r="DE31" s="120"/>
+      <c r="DE31" s="119"/>
       <c r="DF31" s="23"/>
       <c r="DI31" s="1"/>
       <c r="DJ31" s="1"/>
@@ -4222,7 +4297,7 @@
       <c r="EX31" s="1"/>
       <c r="EY31" s="1"/>
     </row>
-    <row r="32" spans="1:160" ht="13.5" customHeight="1">
+    <row r="32" spans="1:160" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B32" s="29"/>
       <c r="C32" s="29"/>
       <c r="D32" s="29"/>
@@ -4271,11 +4346,11 @@
       <c r="AS32" s="24"/>
       <c r="AT32" s="24"/>
       <c r="AU32" s="24"/>
-      <c r="AV32" s="124"/>
-      <c r="AW32" s="123"/>
+      <c r="AV32" s="123"/>
+      <c r="AW32" s="122"/>
       <c r="AX32" s="24"/>
       <c r="AY32" s="24"/>
-      <c r="AZ32" s="122"/>
+      <c r="AZ32" s="121"/>
       <c r="BA32" s="23"/>
       <c r="BB32" s="23"/>
       <c r="BC32" s="23"/>
@@ -4286,36 +4361,36 @@
       <c r="BM32" s="1"/>
       <c r="BN32" s="25"/>
       <c r="BO32" s="10"/>
-      <c r="BT32" s="156" t="s">
+      <c r="BT32" s="155" t="s">
         <v>105</v>
       </c>
-      <c r="BU32" s="171" t="s">
+      <c r="BU32" s="170" t="s">
         <v>104</v>
       </c>
-      <c r="BV32" s="157" t="s">
+      <c r="BV32" s="156" t="s">
         <v>103</v>
       </c>
-      <c r="BW32" s="157" t="s">
+      <c r="BW32" s="156" t="s">
         <v>102</v>
       </c>
-      <c r="BX32" s="157" t="s">
+      <c r="BX32" s="156" t="s">
         <v>101</v>
       </c>
-      <c r="BY32" s="157" t="s">
+      <c r="BY32" s="156" t="s">
         <v>100</v>
       </c>
-      <c r="BZ32" s="159" t="s">
+      <c r="BZ32" s="158" t="s">
         <v>99</v>
       </c>
-      <c r="CA32" s="172" t="s">
+      <c r="CA32" s="171" t="s">
         <v>98</v>
       </c>
-      <c r="CB32" s="160"/>
-      <c r="CC32" s="160"/>
+      <c r="CB32" s="159"/>
+      <c r="CC32" s="159"/>
       <c r="CD32" s="23"/>
       <c r="CE32" s="15"/>
       <c r="CF32" s="15"/>
-      <c r="CI32" s="121"/>
+      <c r="CI32" s="120"/>
       <c r="CJ32" s="23"/>
       <c r="CK32" s="81"/>
       <c r="CL32" s="31"/>
@@ -4337,7 +4412,7 @@
       <c r="DB32" s="23"/>
       <c r="DC32" s="23"/>
       <c r="DD32" s="23"/>
-      <c r="DE32" s="120"/>
+      <c r="DE32" s="119"/>
       <c r="DF32" s="23"/>
       <c r="DI32" s="1"/>
       <c r="DJ32" s="1"/>
@@ -4367,7 +4442,7 @@
       <c r="EX32" s="1"/>
       <c r="EY32" s="1"/>
     </row>
-    <row r="33" spans="1:164" ht="13" customHeight="1">
+    <row r="33" spans="1:164" ht="13" customHeight="1" x14ac:dyDescent="0.45">
       <c r="C33" s="1"/>
       <c r="D33" s="1"/>
       <c r="F33" s="7"/>
@@ -4391,35 +4466,44 @@
       <c r="Z33" s="1"/>
       <c r="AV33" s="4"/>
       <c r="AW33" s="2"/>
+      <c r="BA33" s="208" t="s">
+        <v>148</v>
+      </c>
+      <c r="BB33" s="208" t="s">
+        <v>150</v>
+      </c>
+      <c r="BD33" t="s">
+        <v>149</v>
+      </c>
       <c r="BJ33" s="9"/>
       <c r="BL33" s="1"/>
       <c r="BM33" s="1"/>
-      <c r="BT33" s="173">
+      <c r="BT33" s="172">
         <v>-0.10795581599922</v>
       </c>
-      <c r="BU33" s="174">
+      <c r="BU33" s="173">
         <v>66.34</v>
       </c>
-      <c r="BV33" s="167">
+      <c r="BV33" s="166">
         <v>-88.979098491421311</v>
       </c>
-      <c r="BW33" s="174">
+      <c r="BW33" s="173">
         <v>-216.99081720155993</v>
       </c>
-      <c r="BX33" s="175">
+      <c r="BX33" s="174">
         <v>-229.05168514308144</v>
       </c>
-      <c r="BY33" s="175">
+      <c r="BY33" s="174">
         <v>-288.9920622671911</v>
       </c>
-      <c r="BZ33" s="168">
+      <c r="BZ33" s="167">
         <v>-311.97648306982126</v>
       </c>
-      <c r="CA33" s="168">
+      <c r="CA33" s="167">
         <v>-287.19938243327937</v>
       </c>
-      <c r="CB33" s="160"/>
-      <c r="CC33" s="160"/>
+      <c r="CB33" s="159"/>
+      <c r="CC33" s="159"/>
       <c r="CD33" s="23"/>
       <c r="CE33" s="15"/>
       <c r="CF33" s="15"/>
@@ -4446,7 +4530,7 @@
       <c r="DB33" s="23"/>
       <c r="DC33" s="23"/>
       <c r="DD33" s="23"/>
-      <c r="DE33" s="120"/>
+      <c r="DE33" s="119"/>
       <c r="DF33" s="23"/>
       <c r="DI33" s="1"/>
       <c r="DJ33" s="1"/>
@@ -4468,7 +4552,7 @@
       <c r="EX33" s="1"/>
       <c r="EY33" s="1"/>
     </row>
-    <row r="34" spans="1:164" ht="12" thickBot="1">
+    <row r="34" spans="1:164" ht="12" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C34" s="1"/>
       <c r="D34" s="1"/>
       <c r="F34" s="7"/>
@@ -4524,7 +4608,7 @@
       <c r="DB34" s="23"/>
       <c r="DC34" s="23"/>
       <c r="DD34" s="23"/>
-      <c r="DE34" s="120"/>
+      <c r="DE34" s="119"/>
       <c r="DF34" s="23"/>
       <c r="DI34" s="1"/>
       <c r="DJ34" s="1"/>
@@ -4546,9 +4630,9 @@
       <c r="EX34" s="1"/>
       <c r="EY34" s="1"/>
     </row>
-    <row r="35" spans="1:164">
-      <c r="A35" s="96"/>
-      <c r="B35" s="119" t="s">
+    <row r="35" spans="1:164" x14ac:dyDescent="0.25">
+      <c r="A35" s="95"/>
+      <c r="B35" s="118" t="s">
         <v>97</v>
       </c>
       <c r="C35" s="49"/>
@@ -4556,27 +4640,27 @@
       <c r="E35" s="49"/>
       <c r="F35" s="49"/>
       <c r="G35" s="49"/>
-      <c r="H35" s="93" t="s">
+      <c r="H35" s="92" t="s">
         <v>96</v>
       </c>
-      <c r="I35" s="119" t="s">
+      <c r="I35" s="118" t="s">
         <v>95</v>
       </c>
-      <c r="J35" s="95"/>
-      <c r="K35" s="95"/>
+      <c r="J35" s="94"/>
+      <c r="K35" s="94"/>
       <c r="L35" s="49"/>
       <c r="M35" s="49"/>
       <c r="N35" s="49"/>
-      <c r="O35" s="93" t="s">
+      <c r="O35" s="92" t="s">
         <v>94</v>
       </c>
-      <c r="P35" s="92"/>
+      <c r="P35" s="91"/>
       <c r="Q35" s="49"/>
       <c r="R35" s="49"/>
       <c r="S35" s="49"/>
       <c r="T35" s="49"/>
-      <c r="U35" s="94"/>
-      <c r="V35" s="93" t="s">
+      <c r="U35" s="93"/>
+      <c r="V35" s="92" t="s">
         <v>93</v>
       </c>
       <c r="W35" s="49"/>
@@ -4585,7 +4669,7 @@
       <c r="Z35" s="49"/>
       <c r="AA35" s="49"/>
       <c r="AB35" s="49"/>
-      <c r="AC35" s="93" t="s">
+      <c r="AC35" s="92" t="s">
         <v>93</v>
       </c>
       <c r="AD35" s="49"/>
@@ -4593,67 +4677,67 @@
       <c r="AF35" s="49"/>
       <c r="AG35" s="49"/>
       <c r="AH35" s="49"/>
-      <c r="AI35" s="93" t="s">
+      <c r="AI35" s="92" t="s">
         <v>93</v>
       </c>
-      <c r="AJ35" s="94" t="s">
+      <c r="AJ35" s="93" t="s">
         <v>40</v>
       </c>
-      <c r="AK35" s="94"/>
-      <c r="AL35" s="94"/>
-      <c r="AM35" s="118" t="s">
+      <c r="AK35" s="93"/>
+      <c r="AL35" s="93"/>
+      <c r="AM35" s="117" t="s">
         <v>93</v>
       </c>
-      <c r="AN35" s="94" t="s">
+      <c r="AN35" s="93" t="s">
         <v>39</v>
       </c>
-      <c r="AO35" s="94"/>
-      <c r="AP35" s="94"/>
-      <c r="AQ35" s="94" t="s">
+      <c r="AO35" s="93"/>
+      <c r="AP35" s="93"/>
+      <c r="AQ35" s="93" t="s">
         <v>93</v>
       </c>
-      <c r="AR35" s="117"/>
-      <c r="AS35" s="94"/>
-      <c r="AT35" s="92"/>
-      <c r="AU35" s="94"/>
-      <c r="AV35" s="91"/>
-      <c r="AW35" s="90"/>
-      <c r="AX35" s="96"/>
-      <c r="AY35" s="94"/>
-      <c r="AZ35" s="94"/>
-      <c r="BA35" s="94"/>
-      <c r="BB35" s="94"/>
-      <c r="BC35" s="94"/>
-      <c r="BD35" s="94"/>
-      <c r="BE35" s="94"/>
-      <c r="BF35" s="94"/>
-      <c r="BG35" s="94"/>
-      <c r="BH35" s="96"/>
-      <c r="BI35" s="88"/>
-      <c r="BJ35" s="88"/>
-      <c r="BK35" s="94"/>
-      <c r="BL35" s="92"/>
-      <c r="BM35" s="92"/>
-      <c r="BN35" s="92"/>
-      <c r="BO35" s="92"/>
-      <c r="BP35" s="92"/>
-      <c r="BQ35" s="92"/>
-      <c r="BR35" s="92"/>
-      <c r="BS35" s="92"/>
-      <c r="BT35" s="92"/>
-      <c r="BU35" s="92"/>
-      <c r="BV35" s="92"/>
-      <c r="BW35" s="92"/>
-      <c r="BX35" s="95"/>
-      <c r="BY35" s="95"/>
-      <c r="BZ35" s="95"/>
-      <c r="CA35" s="92"/>
-      <c r="CB35" s="92"/>
-      <c r="CC35" s="116" t="s">
+      <c r="AR35" s="116"/>
+      <c r="AS35" s="93"/>
+      <c r="AT35" s="91"/>
+      <c r="AU35" s="93"/>
+      <c r="AV35" s="90"/>
+      <c r="AW35" s="89"/>
+      <c r="AX35" s="95"/>
+      <c r="AY35" s="93"/>
+      <c r="AZ35" s="93"/>
+      <c r="BA35" s="93"/>
+      <c r="BB35" s="93"/>
+      <c r="BC35" s="93"/>
+      <c r="BD35" s="93"/>
+      <c r="BE35" s="93"/>
+      <c r="BF35" s="93"/>
+      <c r="BG35" s="93"/>
+      <c r="BH35" s="95"/>
+      <c r="BI35" s="87"/>
+      <c r="BJ35" s="87"/>
+      <c r="BK35" s="93"/>
+      <c r="BL35" s="91"/>
+      <c r="BM35" s="91"/>
+      <c r="BN35" s="91"/>
+      <c r="BO35" s="91"/>
+      <c r="BP35" s="91"/>
+      <c r="BQ35" s="91"/>
+      <c r="BR35" s="91"/>
+      <c r="BS35" s="91"/>
+      <c r="BT35" s="91"/>
+      <c r="BU35" s="91"/>
+      <c r="BV35" s="91"/>
+      <c r="BW35" s="91"/>
+      <c r="BX35" s="94"/>
+      <c r="BY35" s="94"/>
+      <c r="BZ35" s="94"/>
+      <c r="CA35" s="91"/>
+      <c r="CB35" s="91"/>
+      <c r="CC35" s="115" t="s">
         <v>92</v>
       </c>
-      <c r="CD35" s="92"/>
-      <c r="CE35" s="92"/>
+      <c r="CD35" s="91"/>
+      <c r="CE35" s="91"/>
       <c r="CF35" s="49" t="s">
         <v>91</v>
       </c>
@@ -4671,7 +4755,7 @@
       <c r="CR35" s="23"/>
       <c r="CS35" s="23"/>
       <c r="CT35" s="28"/>
-      <c r="CU35" s="115"/>
+      <c r="CU35" s="114"/>
       <c r="CV35" s="23"/>
       <c r="CW35" s="23"/>
       <c r="CX35" s="29"/>
@@ -4710,7 +4794,7 @@
       <c r="FD35" s="2"/>
       <c r="FE35" s="2"/>
     </row>
-    <row r="36" spans="1:164" ht="12">
+    <row r="36" spans="1:164" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A36" s="22" t="s">
         <v>90</v>
       </c>
@@ -4759,13 +4843,13 @@
       <c r="AB36" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="AC36" s="106" t="s">
+      <c r="AC36" s="105" t="s">
         <v>78</v>
       </c>
       <c r="AD36" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="AI36" s="106" t="s">
+      <c r="AI36" s="105" t="s">
         <v>78</v>
       </c>
       <c r="AJ36" s="7" t="s">
@@ -4773,14 +4857,14 @@
       </c>
       <c r="AK36" s="7"/>
       <c r="AL36" s="7"/>
-      <c r="AM36" s="105" t="s">
+      <c r="AM36" s="104" t="s">
         <v>78</v>
       </c>
       <c r="AN36" s="7" t="s">
         <v>79</v>
       </c>
       <c r="AO36" s="7"/>
-      <c r="AP36" s="105"/>
+      <c r="AP36" s="104"/>
       <c r="AQ36" s="7" t="s">
         <v>78</v>
       </c>
@@ -4903,7 +4987,7 @@
       <c r="CJ36" s="23"/>
       <c r="CK36" s="23"/>
       <c r="CL36" s="31"/>
-      <c r="CM36" s="114"/>
+      <c r="CM36" s="113"/>
       <c r="CN36" s="29"/>
       <c r="CO36" s="28"/>
       <c r="CP36" s="23"/>
@@ -4925,16 +5009,16 @@
       <c r="DF36" s="15"/>
       <c r="DG36" s="15"/>
       <c r="DH36" s="23"/>
-      <c r="DI36" s="110" t="s">
+      <c r="DI36" s="109" t="s">
         <v>89</v>
       </c>
-      <c r="DJ36" s="113">
+      <c r="DJ36" s="112">
         <v>252.37103794281114</v>
       </c>
-      <c r="DL36" s="113">
+      <c r="DL36" s="112">
         <v>279.54563282406787</v>
       </c>
-      <c r="DM36" s="113">
+      <c r="DM36" s="112">
         <v>280.6079574123732</v>
       </c>
       <c r="DN36" s="1" t="e">
@@ -4985,8 +5069,8 @@
       <c r="FG36" s="5"/>
       <c r="FH36" s="5"/>
     </row>
-    <row r="37" spans="1:164" ht="13" thickBot="1">
-      <c r="A37" s="112" t="s">
+    <row r="37" spans="1:164" ht="13" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="111" t="s">
         <v>65</v>
       </c>
       <c r="B37" s="44" t="s">
@@ -5060,7 +5144,7 @@
         <v>57</v>
       </c>
       <c r="AB37" s="53"/>
-      <c r="AC37" s="101"/>
+      <c r="AC37" s="100"/>
       <c r="AD37" s="53" t="s">
         <v>60</v>
       </c>
@@ -5076,7 +5160,7 @@
       <c r="AH37" s="53" t="s">
         <v>57</v>
       </c>
-      <c r="AI37" s="102"/>
+      <c r="AI37" s="101"/>
       <c r="AJ37" s="44" t="s">
         <v>56</v>
       </c>
@@ -5086,14 +5170,14 @@
       <c r="AL37" s="53" t="s">
         <v>54</v>
       </c>
-      <c r="AM37" s="101"/>
+      <c r="AM37" s="100"/>
       <c r="AN37" s="44" t="s">
         <v>56</v>
       </c>
       <c r="AO37" s="44" t="s">
         <v>55</v>
       </c>
-      <c r="AP37" s="101" t="s">
+      <c r="AP37" s="100" t="s">
         <v>54</v>
       </c>
       <c r="AQ37" s="53"/>
@@ -5101,16 +5185,16 @@
       <c r="AS37" s="53"/>
       <c r="AT37" s="61"/>
       <c r="AU37" s="53"/>
-      <c r="AV37" s="111" t="s">
+      <c r="AV37" s="110" t="s">
         <v>65</v>
       </c>
       <c r="AW37" s="56" t="s">
         <v>88</v>
       </c>
-      <c r="AX37" s="99" t="s">
+      <c r="AX37" s="98" t="s">
         <v>53</v>
       </c>
-      <c r="AY37" s="98" t="s">
+      <c r="AY37" s="97" t="s">
         <v>52</v>
       </c>
       <c r="AZ37" s="44" t="s">
@@ -5137,7 +5221,7 @@
       <c r="BG37" s="61" t="s">
         <v>46</v>
       </c>
-      <c r="BH37" s="97"/>
+      <c r="BH37" s="96"/>
       <c r="BI37" s="57" t="s">
         <v>45</v>
       </c>
@@ -5232,16 +5316,16 @@
       <c r="DF37" s="15"/>
       <c r="DG37" s="15"/>
       <c r="DH37" s="23"/>
-      <c r="DI37" s="110" t="s">
+      <c r="DI37" s="109" t="s">
         <v>87</v>
       </c>
-      <c r="DJ37" s="109">
+      <c r="DJ37" s="108">
         <v>32.76</v>
       </c>
-      <c r="DL37" s="109">
+      <c r="DL37" s="108">
         <v>32.76</v>
       </c>
-      <c r="DM37" s="109">
+      <c r="DM37" s="108">
         <v>32.76</v>
       </c>
       <c r="DN37" s="19"/>
@@ -5278,8 +5362,8 @@
       <c r="FG37" s="5"/>
       <c r="FH37" s="5"/>
     </row>
-    <row r="38" spans="1:164">
-      <c r="A38" s="107"/>
+    <row r="38" spans="1:164" x14ac:dyDescent="0.25">
+      <c r="A38" s="106"/>
       <c r="B38" s="13"/>
       <c r="C38" s="5"/>
       <c r="D38" s="5"/>
@@ -5315,14 +5399,14 @@
       <c r="AJ38" s="7"/>
       <c r="AK38" s="7"/>
       <c r="AL38" s="7"/>
-      <c r="AM38" s="105"/>
+      <c r="AM38" s="104"/>
       <c r="AN38" s="7"/>
       <c r="AO38" s="7"/>
       <c r="AP38" s="7"/>
       <c r="AQ38" s="7"/>
       <c r="AR38" s="67"/>
       <c r="AS38" s="7"/>
-      <c r="AU38" s="105"/>
+      <c r="AU38" s="104"/>
       <c r="AV38" s="13"/>
       <c r="AW38" s="2"/>
       <c r="AX38" s="48"/>
@@ -5388,8 +5472,8 @@
       <c r="FA38" s="2"/>
       <c r="FB38" s="2"/>
     </row>
-    <row r="39" spans="1:164">
-      <c r="A39" s="107"/>
+    <row r="39" spans="1:164" x14ac:dyDescent="0.25">
+      <c r="A39" s="106"/>
       <c r="B39" s="13"/>
       <c r="C39" s="5"/>
       <c r="D39" s="5"/>
@@ -5425,14 +5509,14 @@
       <c r="AJ39" s="7"/>
       <c r="AK39" s="7"/>
       <c r="AL39" s="7"/>
-      <c r="AM39" s="105"/>
+      <c r="AM39" s="104"/>
       <c r="AN39" s="7"/>
       <c r="AO39" s="7"/>
       <c r="AP39" s="7"/>
       <c r="AQ39" s="7"/>
       <c r="AR39" s="67"/>
       <c r="AS39" s="7"/>
-      <c r="AU39" s="105"/>
+      <c r="AU39" s="104"/>
       <c r="AV39" s="13"/>
       <c r="AW39" s="2"/>
       <c r="AX39" s="48"/>
@@ -5498,8 +5582,8 @@
       <c r="FA39" s="2"/>
       <c r="FB39" s="2"/>
     </row>
-    <row r="40" spans="1:164">
-      <c r="A40" s="107"/>
+    <row r="40" spans="1:164" x14ac:dyDescent="0.25">
+      <c r="A40" s="106"/>
       <c r="B40" s="13"/>
       <c r="C40" s="5"/>
       <c r="D40" s="5"/>
@@ -5535,14 +5619,14 @@
       <c r="AJ40" s="7"/>
       <c r="AK40" s="7"/>
       <c r="AL40" s="7"/>
-      <c r="AM40" s="105"/>
+      <c r="AM40" s="104"/>
       <c r="AN40" s="7"/>
       <c r="AO40" s="7"/>
       <c r="AP40" s="7"/>
       <c r="AQ40" s="7"/>
       <c r="AR40" s="67"/>
       <c r="AS40" s="7"/>
-      <c r="AU40" s="105"/>
+      <c r="AU40" s="104"/>
       <c r="AV40" s="13"/>
       <c r="AW40" s="2"/>
       <c r="AX40" s="48"/>
@@ -5608,8 +5692,8 @@
       <c r="FA40" s="2"/>
       <c r="FB40" s="2"/>
     </row>
-    <row r="41" spans="1:164">
-      <c r="A41" s="107"/>
+    <row r="41" spans="1:164" x14ac:dyDescent="0.25">
+      <c r="A41" s="106"/>
       <c r="B41" s="13" t="s">
         <v>86</v>
       </c>
@@ -5653,13 +5737,13 @@
       <c r="AB41" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="AC41" s="106" t="s">
+      <c r="AC41" s="105" t="s">
         <v>78</v>
       </c>
       <c r="AD41" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="AI41" s="106" t="s">
+      <c r="AI41" s="105" t="s">
         <v>78</v>
       </c>
       <c r="AJ41" s="7" t="s">
@@ -5667,14 +5751,14 @@
       </c>
       <c r="AK41" s="7"/>
       <c r="AL41" s="7"/>
-      <c r="AM41" s="105" t="s">
+      <c r="AM41" s="104" t="s">
         <v>78</v>
       </c>
       <c r="AN41" s="7" t="s">
         <v>79</v>
       </c>
       <c r="AO41" s="7"/>
-      <c r="AP41" s="105"/>
+      <c r="AP41" s="104"/>
       <c r="AQ41" s="7" t="s">
         <v>78</v>
       </c>
@@ -5687,7 +5771,7 @@
       <c r="AT41" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="AU41" s="105" t="s">
+      <c r="AU41" s="104" t="s">
         <v>77</v>
       </c>
       <c r="AV41" s="13"/>
@@ -5833,8 +5917,8 @@
       <c r="FA41" s="2"/>
       <c r="FB41" s="2"/>
     </row>
-    <row r="42" spans="1:164" ht="12" thickBot="1">
-      <c r="A42" s="104" t="s">
+    <row r="42" spans="1:164" ht="12" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="103" t="s">
         <v>65</v>
       </c>
       <c r="B42" s="44" t="s">
@@ -5852,7 +5936,7 @@
       <c r="F42" s="44" t="s">
         <v>62</v>
       </c>
-      <c r="G42" s="103" t="s">
+      <c r="G42" s="102" t="s">
         <v>61</v>
       </c>
       <c r="H42" s="62"/>
@@ -5908,7 +5992,7 @@
         <v>57</v>
       </c>
       <c r="AB42" s="53"/>
-      <c r="AC42" s="101"/>
+      <c r="AC42" s="100"/>
       <c r="AD42" s="53" t="s">
         <v>60</v>
       </c>
@@ -5924,7 +6008,7 @@
       <c r="AH42" s="53" t="s">
         <v>57</v>
       </c>
-      <c r="AI42" s="102"/>
+      <c r="AI42" s="101"/>
       <c r="AJ42" s="44" t="s">
         <v>56</v>
       </c>
@@ -5934,27 +6018,27 @@
       <c r="AL42" s="53" t="s">
         <v>54</v>
       </c>
-      <c r="AM42" s="101"/>
+      <c r="AM42" s="100"/>
       <c r="AN42" s="44" t="s">
         <v>56</v>
       </c>
       <c r="AO42" s="44" t="s">
         <v>55</v>
       </c>
-      <c r="AP42" s="101" t="s">
+      <c r="AP42" s="100" t="s">
         <v>54</v>
       </c>
       <c r="AQ42" s="53"/>
       <c r="AR42" s="63"/>
       <c r="AS42" s="53"/>
       <c r="AT42" s="61"/>
-      <c r="AU42" s="101"/>
-      <c r="AV42" s="100"/>
+      <c r="AU42" s="100"/>
+      <c r="AV42" s="99"/>
       <c r="AW42" s="56"/>
-      <c r="AX42" s="99" t="s">
+      <c r="AX42" s="98" t="s">
         <v>53</v>
       </c>
-      <c r="AY42" s="98" t="s">
+      <c r="AY42" s="97" t="s">
         <v>52</v>
       </c>
       <c r="AZ42" s="44" t="s">
@@ -5981,7 +6065,7 @@
       <c r="BG42" s="61" t="s">
         <v>46</v>
       </c>
-      <c r="BH42" s="97"/>
+      <c r="BH42" s="96"/>
       <c r="BI42" s="57" t="s">
         <v>45</v>
       </c>
@@ -6090,8 +6174,8 @@
       <c r="FA42" s="2"/>
       <c r="FB42" s="2"/>
     </row>
-    <row r="43" spans="1:164">
-      <c r="A43" s="96" t="s">
+    <row r="43" spans="1:164" x14ac:dyDescent="0.25">
+      <c r="A43" s="95" t="s">
         <v>34</v>
       </c>
       <c r="B43" s="49"/>
@@ -6105,8 +6189,8 @@
         <f t="shared" ref="G43:G77" si="0">1-SUM(B43:F43)</f>
         <v>0.65999999999999992</v>
       </c>
-      <c r="H43" s="93">
-        <f t="shared" ref="H43:H77" si="1">(B43+C43+D43)/2+E43++F43</f>
+      <c r="H43" s="92">
+        <f t="shared" ref="H43:H76" si="1">(B43+C43+D43)/2+E43++F43</f>
         <v>0.17</v>
       </c>
       <c r="I43" s="49">
@@ -6118,11 +6202,11 @@
       </c>
       <c r="L43" s="49"/>
       <c r="M43" s="49"/>
-      <c r="N43" s="94">
+      <c r="N43" s="93">
         <f t="shared" ref="N43:N77" si="2">SUM(I43:M43)</f>
         <v>2</v>
       </c>
-      <c r="O43" s="93">
+      <c r="O43" s="92">
         <f t="shared" ref="O43:O77" si="3">(M43/2+I43+J43+(K43+L43)*1.5)</f>
         <v>2.8299999999999996</v>
       </c>
@@ -6134,7 +6218,7 @@
       <c r="U43" s="49">
         <v>0</v>
       </c>
-      <c r="V43" s="93">
+      <c r="V43" s="92">
         <f t="shared" ref="V43:V77" si="4">(T43/2+P43+Q43+(R43+S43)*1.5)</f>
         <v>0</v>
       </c>
@@ -6150,7 +6234,7 @@
       <c r="AF43" s="83"/>
       <c r="AG43" s="83"/>
       <c r="AH43" s="83"/>
-      <c r="AI43" s="92"/>
+      <c r="AI43" s="91"/>
       <c r="AJ43" s="49">
         <v>2</v>
       </c>
@@ -6158,7 +6242,7 @@
         <v>0</v>
       </c>
       <c r="AL43" s="83"/>
-      <c r="AM43" s="93">
+      <c r="AM43" s="92">
         <f t="shared" ref="AM43:AM77" si="5">(AJ43*2+(AK43+AL43)*1.5)</f>
         <v>4</v>
       </c>
@@ -6169,26 +6253,26 @@
         <v>0</v>
       </c>
       <c r="AP43" s="83"/>
-      <c r="AQ43" s="93">
+      <c r="AQ43" s="92">
         <f t="shared" ref="AQ43:AQ77" si="6">(AN43*2+(AO43+AP43)*1.5)</f>
         <v>4</v>
       </c>
-      <c r="AR43" s="92">
+      <c r="AR43" s="91">
         <v>1</v>
       </c>
       <c r="AS43" s="83"/>
-      <c r="AT43" s="92"/>
+      <c r="AT43" s="91"/>
       <c r="AU43" s="83">
         <f t="shared" ref="AU43:AU79" si="7">((B43+C43+D43+M43+T43+W43+AD43)+(E43+F43+I43+J43+P43+Q43+X43+Y43+AE43+AF43)*2+(K43+L43+R43+S43+Z43+AA43+AG43+AH43+AK43+AL43+AO43+AP43)*3+(AJ43+AN43)*4)/2+AR43+AS43+AT43</f>
         <v>12</v>
       </c>
-      <c r="AV43" s="91" t="str">
+      <c r="AV43" s="90" t="str">
         <f t="shared" ref="AV43:AV70" si="8">A43</f>
         <v>L.C. Montmor-Na</v>
       </c>
-      <c r="AW43" s="90"/>
-      <c r="AX43" s="89"/>
-      <c r="AY43" s="88"/>
+      <c r="AW43" s="89"/>
+      <c r="AX43" s="88"/>
+      <c r="AY43" s="87"/>
       <c r="AZ43" s="49"/>
       <c r="BA43" s="49">
         <f t="shared" ref="BA43:BA77" si="9">CF43</f>
@@ -6198,11 +6282,14 @@
         <f t="shared" ref="BB43:BB77" si="10">BA43-AR43*(B$22-B$24)-AS43*(B$22-B$25)-AT43*(B$22-B$26)</f>
         <v>-95.892646370588352</v>
       </c>
-      <c r="BC43" s="87">
+      <c r="BC43" s="86">
         <f t="shared" ref="BC43:BC77" si="11">B43/2*B$15+C43/2*B$14+(D43+M43+T43+W43+AD43)/2*B$13+(E43+I43+P43+X43+AE43)*B$16+F43*B$17+(J43+Q43+Y43+AF43)*B$18+(K43+R43+Z43+AG43+AK43+AO43)*B$20/2+(L43+S43+AA43+AH43+AL43+AP43)*B$19/2+(AJ43+AN43)*B$21+(AR43+AS43+AT43)*B$22+BB43</f>
         <v>-5690.4136463705881</v>
       </c>
-      <c r="BD43" s="86"/>
+      <c r="BD43" s="5">
+        <f>BC43-BB43</f>
+        <v>-5594.5209999999997</v>
+      </c>
       <c r="BE43" s="49"/>
       <c r="BF43" s="49"/>
       <c r="BG43" s="85"/>
@@ -6348,7 +6435,7 @@
       <c r="FA43" s="2"/>
       <c r="FB43" s="2"/>
     </row>
-    <row r="44" spans="1:164">
+    <row r="44" spans="1:164" x14ac:dyDescent="0.25">
       <c r="A44" s="48" t="s">
         <v>33</v>
       </c>
@@ -6455,10 +6542,13 @@
         <v>-117.76597970392169</v>
       </c>
       <c r="BC44" s="36">
-        <f t="shared" si="11"/>
+        <f>B44/2*B$15+C44/2*B$14+(D44+M44+T44+W44+AD44)/2*B$13+(E44+I44+P44+X44+AE44)*B$16+F44*B$17+(J44+Q44+Y44+AF44)*B$18+(K44+R44+Z44+AG44+AK44+AO44)*B$20/2+(L44+S44+AA44+AH44+AL44+AP44)*B$19/2+(AJ44+AN44)*B$21+(AR44+AS44+AT44)*B$22+BB44</f>
         <v>-5703.5098797039209</v>
       </c>
-      <c r="BD44" s="5"/>
+      <c r="BD44" s="5">
+        <f>BC44-BB44</f>
+        <v>-5585.7438999999995</v>
+      </c>
       <c r="BE44" s="7"/>
       <c r="BF44" s="7"/>
       <c r="BG44" s="66"/>
@@ -6604,7 +6694,7 @@
       <c r="FA44" s="2"/>
       <c r="FB44" s="2"/>
     </row>
-    <row r="45" spans="1:164">
+    <row r="45" spans="1:164" x14ac:dyDescent="0.25">
       <c r="A45" s="48" t="s">
         <v>32</v>
       </c>
@@ -6714,7 +6804,10 @@
         <f t="shared" si="11"/>
         <v>-5690.2946509842031</v>
       </c>
-      <c r="BD45" s="5"/>
+      <c r="BD45" s="5">
+        <f t="shared" ref="BD45:BD77" si="37">BC45-BB45</f>
+        <v>-5631.9413999999997</v>
+      </c>
       <c r="BE45" s="7"/>
       <c r="BF45" s="7"/>
       <c r="BG45" s="66"/>
@@ -6860,7 +6953,7 @@
       <c r="FA45" s="2"/>
       <c r="FB45" s="2"/>
     </row>
-    <row r="46" spans="1:164" ht="12" thickBot="1">
+    <row r="46" spans="1:164" ht="12" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A46" s="77" t="s">
         <v>31</v>
       </c>
@@ -6972,7 +7065,10 @@
         <f t="shared" si="11"/>
         <v>-5676.0146463705887</v>
       </c>
-      <c r="BD46" s="42"/>
+      <c r="BD46" s="5">
+        <f t="shared" si="37"/>
+        <v>-5626.277</v>
+      </c>
       <c r="BE46" s="43"/>
       <c r="BF46" s="43"/>
       <c r="BG46" s="72"/>
@@ -7118,7 +7214,7 @@
       <c r="FA46" s="2"/>
       <c r="FB46" s="2"/>
     </row>
-    <row r="47" spans="1:164">
+    <row r="47" spans="1:164" x14ac:dyDescent="0.25">
       <c r="A47" s="48" t="s">
         <v>30</v>
       </c>
@@ -7232,7 +7328,10 @@
         <f t="shared" si="11"/>
         <v>-5737.230764448047</v>
       </c>
-      <c r="BD47" s="5"/>
+      <c r="BD47" s="5">
+        <f t="shared" si="37"/>
+        <v>-5650.0770000000002</v>
+      </c>
       <c r="BE47" s="7"/>
       <c r="BF47" s="7"/>
       <c r="BG47" s="66"/>
@@ -7378,7 +7477,7 @@
       <c r="FA47" s="2"/>
       <c r="FB47" s="2"/>
     </row>
-    <row r="48" spans="1:164">
+    <row r="48" spans="1:164" x14ac:dyDescent="0.25">
       <c r="A48" s="48" t="s">
         <v>29</v>
       </c>
@@ -7492,7 +7591,10 @@
         <f t="shared" si="11"/>
         <v>-5749.8621894480466</v>
       </c>
-      <c r="BD48" s="5"/>
+      <c r="BD48" s="5">
+        <f t="shared" si="37"/>
+        <v>-5641.2999</v>
+      </c>
       <c r="BE48" s="7"/>
       <c r="BF48" s="7"/>
       <c r="BG48" s="66"/>
@@ -7638,7 +7740,7 @@
       <c r="FA48" s="2"/>
       <c r="FB48" s="2"/>
     </row>
-    <row r="49" spans="1:158">
+    <row r="49" spans="1:158" x14ac:dyDescent="0.25">
       <c r="A49" s="48" t="s">
         <v>28</v>
       </c>
@@ -7752,7 +7854,10 @@
         <f t="shared" si="11"/>
         <v>-5737.9094812136227</v>
       </c>
-      <c r="BD49" s="5"/>
+      <c r="BD49" s="5">
+        <f t="shared" si="37"/>
+        <v>-5687.4974000000002</v>
+      </c>
       <c r="BE49" s="7"/>
       <c r="BF49" s="7"/>
       <c r="BG49" s="66"/>
@@ -7898,7 +8003,7 @@
       <c r="FA49" s="2"/>
       <c r="FB49" s="2"/>
     </row>
-    <row r="50" spans="1:158">
+    <row r="50" spans="1:158" x14ac:dyDescent="0.25">
       <c r="A50" s="77" t="s">
         <v>27</v>
       </c>
@@ -8014,7 +8119,10 @@
         <f t="shared" si="11"/>
         <v>-5723.8125581980466</v>
       </c>
-      <c r="BD50" s="42"/>
+      <c r="BD50" s="5">
+        <f t="shared" si="37"/>
+        <v>-5681.8330000000005</v>
+      </c>
       <c r="BE50" s="43"/>
       <c r="BF50" s="43"/>
       <c r="BG50" s="72"/>
@@ -8160,7 +8268,7 @@
       <c r="FA50" s="2"/>
       <c r="FB50" s="2"/>
     </row>
-    <row r="51" spans="1:158">
+    <row r="51" spans="1:158" x14ac:dyDescent="0.25">
       <c r="A51" s="48" t="s">
         <v>26</v>
       </c>
@@ -8270,7 +8378,10 @@
         <f t="shared" si="11"/>
         <v>-5734.6271897761726</v>
       </c>
-      <c r="BD51" s="5"/>
+      <c r="BD51" s="5">
+        <f t="shared" si="37"/>
+        <v>-5587.02</v>
+      </c>
       <c r="BE51" s="7"/>
       <c r="BF51" s="7"/>
       <c r="BG51" s="66"/>
@@ -8416,7 +8527,7 @@
       <c r="FA51" s="2"/>
       <c r="FB51" s="2"/>
     </row>
-    <row r="52" spans="1:158">
+    <row r="52" spans="1:158" x14ac:dyDescent="0.25">
       <c r="A52" s="48" t="s">
         <v>25</v>
       </c>
@@ -8526,7 +8637,10 @@
         <f t="shared" si="11"/>
         <v>-5757.7381897761725</v>
       </c>
-      <c r="BD52" s="5"/>
+      <c r="BD52" s="5">
+        <f t="shared" si="37"/>
+        <v>-5571.5309999999999</v>
+      </c>
       <c r="BE52" s="7"/>
       <c r="BF52" s="7"/>
       <c r="BG52" s="66"/>
@@ -8672,7 +8786,7 @@
       <c r="FA52" s="2"/>
       <c r="FB52" s="2"/>
     </row>
-    <row r="53" spans="1:158">
+    <row r="53" spans="1:158" x14ac:dyDescent="0.25">
       <c r="A53" s="48" t="s">
         <v>24</v>
       </c>
@@ -8782,7 +8896,10 @@
         <f t="shared" si="11"/>
         <v>-5734.4171979178464</v>
       </c>
-      <c r="BD53" s="5"/>
+      <c r="BD53" s="5">
+        <f t="shared" si="37"/>
+        <v>-5653.0560000000005</v>
+      </c>
       <c r="BE53" s="7"/>
       <c r="BF53" s="7"/>
       <c r="BG53" s="66"/>
@@ -8928,7 +9045,7 @@
       <c r="FA53" s="2"/>
       <c r="FB53" s="2"/>
     </row>
-    <row r="54" spans="1:158" ht="12" thickBot="1">
+    <row r="54" spans="1:158" ht="12" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A54" s="77" t="s">
         <v>23</v>
       </c>
@@ -9040,7 +9157,10 @@
         <f t="shared" si="11"/>
         <v>-5709.2171897761718</v>
       </c>
-      <c r="BD54" s="42"/>
+      <c r="BD54" s="5">
+        <f t="shared" si="37"/>
+        <v>-5643.0599999999995</v>
+      </c>
       <c r="BE54" s="43"/>
       <c r="BF54" s="43"/>
       <c r="BG54" s="72"/>
@@ -9186,7 +9306,7 @@
       <c r="FA54" s="2"/>
       <c r="FB54" s="2"/>
     </row>
-    <row r="55" spans="1:158">
+    <row r="55" spans="1:158" x14ac:dyDescent="0.25">
       <c r="A55" s="48" t="s">
         <v>22</v>
       </c>
@@ -9251,7 +9371,7 @@
       <c r="AG55" s="10"/>
       <c r="AH55" s="10"/>
       <c r="AJ55" s="5">
-        <f t="shared" ref="AJ55:AJ66" si="37">3.66/2</f>
+        <f t="shared" ref="AJ55:AJ66" si="38">3.66/2</f>
         <v>1.83</v>
       </c>
       <c r="AK55" s="5">
@@ -9263,7 +9383,7 @@
         <v>3.915</v>
       </c>
       <c r="AN55" s="5">
-        <f t="shared" ref="AN55:AN66" si="38">3.66/2</f>
+        <f t="shared" ref="AN55:AN66" si="39">3.66/2</f>
         <v>1.83</v>
       </c>
       <c r="AO55" s="5">
@@ -9302,7 +9422,10 @@
         <f t="shared" si="11"/>
         <v>-5997.7630045156939</v>
       </c>
-      <c r="BD55" s="5"/>
+      <c r="BD55" s="5">
+        <f t="shared" si="37"/>
+        <v>-5779.1770000000006</v>
+      </c>
       <c r="BE55" s="7"/>
       <c r="BF55" s="7"/>
       <c r="BG55" s="66"/>
@@ -9448,7 +9571,7 @@
       <c r="FA55" s="2"/>
       <c r="FB55" s="2"/>
     </row>
-    <row r="56" spans="1:158">
+    <row r="56" spans="1:158" x14ac:dyDescent="0.25">
       <c r="A56" s="48" t="s">
         <v>21</v>
       </c>
@@ -9513,7 +9636,7 @@
       <c r="AG56" s="10"/>
       <c r="AH56" s="10"/>
       <c r="AJ56" s="5">
-        <f t="shared" si="37"/>
+        <f t="shared" si="38"/>
         <v>1.83</v>
       </c>
       <c r="AK56" s="5">
@@ -9525,7 +9648,7 @@
         <v>3.915</v>
       </c>
       <c r="AN56" s="5">
-        <f t="shared" si="38"/>
+        <f t="shared" si="39"/>
         <v>1.83</v>
       </c>
       <c r="AO56" s="5">
@@ -9564,7 +9687,10 @@
         <f t="shared" si="11"/>
         <v>-6010.3944295156934</v>
       </c>
-      <c r="BD56" s="5"/>
+      <c r="BD56" s="5">
+        <f t="shared" si="37"/>
+        <v>-5770.3999000000003</v>
+      </c>
       <c r="BE56" s="7"/>
       <c r="BF56" s="7"/>
       <c r="BG56" s="66"/>
@@ -9710,7 +9836,7 @@
       <c r="FA56" s="2"/>
       <c r="FB56" s="2"/>
     </row>
-    <row r="57" spans="1:158">
+    <row r="57" spans="1:158" x14ac:dyDescent="0.25">
       <c r="A57" s="48" t="s">
         <v>20</v>
       </c>
@@ -9775,7 +9901,7 @@
       <c r="AG57" s="10"/>
       <c r="AH57" s="10"/>
       <c r="AJ57" s="5">
-        <f t="shared" si="37"/>
+        <f t="shared" si="38"/>
         <v>1.83</v>
       </c>
       <c r="AK57" s="5">
@@ -9787,7 +9913,7 @@
         <v>3.915</v>
       </c>
       <c r="AN57" s="5">
-        <f t="shared" si="38"/>
+        <f t="shared" si="39"/>
         <v>1.83</v>
       </c>
       <c r="AO57" s="5">
@@ -9826,7 +9952,10 @@
         <f t="shared" si="11"/>
         <v>-5998.4417212812696</v>
       </c>
-      <c r="BD57" s="5"/>
+      <c r="BD57" s="5">
+        <f t="shared" si="37"/>
+        <v>-5816.5974000000006</v>
+      </c>
       <c r="BE57" s="7"/>
       <c r="BF57" s="7"/>
       <c r="BG57" s="66"/>
@@ -9972,7 +10101,7 @@
       <c r="FA57" s="2"/>
       <c r="FB57" s="2"/>
     </row>
-    <row r="58" spans="1:158" ht="12" thickBot="1">
+    <row r="58" spans="1:158" ht="12" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A58" s="77" t="s">
         <v>19</v>
       </c>
@@ -10038,7 +10167,7 @@
       <c r="AH58" s="39"/>
       <c r="AI58" s="40"/>
       <c r="AJ58" s="5">
-        <f t="shared" si="37"/>
+        <f t="shared" si="38"/>
         <v>1.83</v>
       </c>
       <c r="AK58" s="5">
@@ -10050,7 +10179,7 @@
         <v>3.915</v>
       </c>
       <c r="AN58" s="5">
-        <f t="shared" si="38"/>
+        <f t="shared" si="39"/>
         <v>1.83</v>
       </c>
       <c r="AO58" s="5">
@@ -10090,7 +10219,10 @@
         <f t="shared" si="11"/>
         <v>-5984.3447982656944</v>
       </c>
-      <c r="BD58" s="42"/>
+      <c r="BD58" s="5">
+        <f t="shared" si="37"/>
+        <v>-5810.9330000000009</v>
+      </c>
       <c r="BE58" s="43"/>
       <c r="BF58" s="43"/>
       <c r="BG58" s="72"/>
@@ -10236,7 +10368,7 @@
       <c r="FA58" s="2"/>
       <c r="FB58" s="2"/>
     </row>
-    <row r="59" spans="1:158">
+    <row r="59" spans="1:158" x14ac:dyDescent="0.25">
       <c r="A59" s="48" t="s">
         <v>18</v>
       </c>
@@ -10303,7 +10435,7 @@
       <c r="AG59" s="10"/>
       <c r="AH59" s="10"/>
       <c r="AJ59" s="5">
-        <f t="shared" si="37"/>
+        <f t="shared" si="38"/>
         <v>1.83</v>
       </c>
       <c r="AK59" s="5">
@@ -10315,7 +10447,7 @@
         <v>3.915</v>
       </c>
       <c r="AN59" s="5">
-        <f t="shared" si="38"/>
+        <f t="shared" si="39"/>
         <v>1.83</v>
       </c>
       <c r="AO59" s="5">
@@ -10354,7 +10486,10 @@
         <f t="shared" si="11"/>
         <v>-5632.9100283107782</v>
       </c>
-      <c r="BD59" s="5"/>
+      <c r="BD59" s="5">
+        <f t="shared" si="37"/>
+        <v>-5449.6170000000002</v>
+      </c>
       <c r="BE59" s="7"/>
       <c r="BF59" s="7"/>
       <c r="BG59" s="66"/>
@@ -10500,7 +10635,7 @@
       <c r="FA59" s="2"/>
       <c r="FB59" s="2"/>
     </row>
-    <row r="60" spans="1:158">
+    <row r="60" spans="1:158" x14ac:dyDescent="0.25">
       <c r="A60" s="48" t="s">
         <v>17</v>
       </c>
@@ -10567,7 +10702,7 @@
       <c r="AG60" s="10"/>
       <c r="AH60" s="10"/>
       <c r="AJ60" s="5">
-        <f t="shared" si="37"/>
+        <f t="shared" si="38"/>
         <v>1.83</v>
       </c>
       <c r="AK60" s="5">
@@ -10579,7 +10714,7 @@
         <v>3.915</v>
       </c>
       <c r="AN60" s="5">
-        <f t="shared" si="38"/>
+        <f t="shared" si="39"/>
         <v>1.83</v>
       </c>
       <c r="AO60" s="5">
@@ -10618,7 +10753,10 @@
         <f t="shared" si="11"/>
         <v>-5645.5414533107787</v>
       </c>
-      <c r="BD60" s="5"/>
+      <c r="BD60" s="5">
+        <f t="shared" si="37"/>
+        <v>-5440.8399000000009</v>
+      </c>
       <c r="BE60" s="7"/>
       <c r="BF60" s="7"/>
       <c r="BG60" s="66"/>
@@ -10764,7 +10902,7 @@
       <c r="FA60" s="2"/>
       <c r="FB60" s="2"/>
     </row>
-    <row r="61" spans="1:158">
+    <row r="61" spans="1:158" x14ac:dyDescent="0.25">
       <c r="A61" s="48" t="s">
         <v>16</v>
       </c>
@@ -10831,7 +10969,7 @@
       <c r="AG61" s="10"/>
       <c r="AH61" s="10"/>
       <c r="AJ61" s="5">
-        <f t="shared" si="37"/>
+        <f t="shared" si="38"/>
         <v>1.83</v>
       </c>
       <c r="AK61" s="5">
@@ -10843,7 +10981,7 @@
         <v>3.915</v>
       </c>
       <c r="AN61" s="5">
-        <f t="shared" si="38"/>
+        <f t="shared" si="39"/>
         <v>1.83</v>
       </c>
       <c r="AO61" s="5">
@@ -10882,7 +11020,10 @@
         <f t="shared" si="11"/>
         <v>-5633.5887450763539</v>
       </c>
-      <c r="BD61" s="5"/>
+      <c r="BD61" s="5">
+        <f t="shared" si="37"/>
+        <v>-5487.0374000000002</v>
+      </c>
       <c r="BE61" s="7"/>
       <c r="BF61" s="7"/>
       <c r="BG61" s="66"/>
@@ -11028,7 +11169,7 @@
       <c r="FA61" s="2"/>
       <c r="FB61" s="2"/>
     </row>
-    <row r="62" spans="1:158" ht="12" thickBot="1">
+    <row r="62" spans="1:158" ht="12" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A62" s="77" t="s">
         <v>15</v>
       </c>
@@ -11096,7 +11237,7 @@
       <c r="AH62" s="39"/>
       <c r="AI62" s="40"/>
       <c r="AJ62" s="5">
-        <f t="shared" si="37"/>
+        <f t="shared" si="38"/>
         <v>1.83</v>
       </c>
       <c r="AK62" s="5">
@@ -11108,7 +11249,7 @@
         <v>3.915</v>
       </c>
       <c r="AN62" s="5">
-        <f t="shared" si="38"/>
+        <f t="shared" si="39"/>
         <v>1.83</v>
       </c>
       <c r="AO62" s="5">
@@ -11148,7 +11289,10 @@
         <f t="shared" si="11"/>
         <v>-5619.4918220607769</v>
       </c>
-      <c r="BD62" s="42"/>
+      <c r="BD62" s="5">
+        <f t="shared" si="37"/>
+        <v>-5481.3729999999996</v>
+      </c>
       <c r="BE62" s="43"/>
       <c r="BF62" s="43"/>
       <c r="BG62" s="72"/>
@@ -11294,7 +11438,7 @@
       <c r="FA62" s="2"/>
       <c r="FB62" s="2"/>
     </row>
-    <row r="63" spans="1:158">
+    <row r="63" spans="1:158" x14ac:dyDescent="0.25">
       <c r="A63" s="48" t="s">
         <v>14</v>
       </c>
@@ -11361,7 +11505,7 @@
       <c r="AG63" s="10"/>
       <c r="AH63" s="10"/>
       <c r="AJ63" s="5">
-        <f t="shared" si="37"/>
+        <f t="shared" si="38"/>
         <v>1.83</v>
       </c>
       <c r="AK63" s="5">
@@ -11373,7 +11517,7 @@
         <v>3.915</v>
       </c>
       <c r="AN63" s="5">
-        <f t="shared" si="38"/>
+        <f t="shared" si="39"/>
         <v>1.83</v>
       </c>
       <c r="AO63" s="5">
@@ -11412,7 +11556,10 @@
         <f t="shared" si="11"/>
         <v>-4981.642555914359</v>
       </c>
-      <c r="BD63" s="5"/>
+      <c r="BD63" s="5">
+        <f t="shared" si="37"/>
+        <v>-4940.76955</v>
+      </c>
       <c r="BE63" s="7"/>
       <c r="BF63" s="7"/>
       <c r="BG63" s="66"/>
@@ -11558,7 +11705,7 @@
       <c r="FA63" s="2"/>
       <c r="FB63" s="2"/>
     </row>
-    <row r="64" spans="1:158">
+    <row r="64" spans="1:158" x14ac:dyDescent="0.25">
       <c r="A64" s="48" t="s">
         <v>13</v>
       </c>
@@ -11625,7 +11772,7 @@
       <c r="AG64" s="10"/>
       <c r="AH64" s="10"/>
       <c r="AJ64" s="5">
-        <f t="shared" si="37"/>
+        <f t="shared" si="38"/>
         <v>1.83</v>
       </c>
       <c r="AK64" s="5">
@@ -11637,7 +11784,7 @@
         <v>3.915</v>
       </c>
       <c r="AN64" s="5">
-        <f t="shared" si="38"/>
+        <f t="shared" si="39"/>
         <v>1.83</v>
       </c>
       <c r="AO64" s="5">
@@ -11676,7 +11823,10 @@
         <f t="shared" si="11"/>
         <v>-4994.2739809143586</v>
       </c>
-      <c r="BD64" s="5"/>
+      <c r="BD64" s="5">
+        <f t="shared" si="37"/>
+        <v>-4931.9924499999997</v>
+      </c>
       <c r="BE64" s="7"/>
       <c r="BF64" s="7"/>
       <c r="BG64" s="66"/>
@@ -11822,7 +11972,7 @@
       <c r="FA64" s="2"/>
       <c r="FB64" s="2"/>
     </row>
-    <row r="65" spans="1:240">
+    <row r="65" spans="1:240" x14ac:dyDescent="0.25">
       <c r="A65" s="48" t="s">
         <v>12</v>
       </c>
@@ -11889,7 +12039,7 @@
       <c r="AG65" s="10"/>
       <c r="AH65" s="10"/>
       <c r="AJ65" s="5">
-        <f t="shared" si="37"/>
+        <f t="shared" si="38"/>
         <v>1.83</v>
       </c>
       <c r="AK65" s="5">
@@ -11901,7 +12051,7 @@
         <v>3.915</v>
       </c>
       <c r="AN65" s="5">
-        <f t="shared" si="38"/>
+        <f t="shared" si="39"/>
         <v>1.83</v>
       </c>
       <c r="AO65" s="5">
@@ -11940,7 +12090,10 @@
         <f t="shared" si="11"/>
         <v>-4982.3212726799347</v>
       </c>
-      <c r="BD65" s="5"/>
+      <c r="BD65" s="5">
+        <f t="shared" si="37"/>
+        <v>-4978.18995</v>
+      </c>
       <c r="BE65" s="7"/>
       <c r="BF65" s="7"/>
       <c r="BG65" s="66"/>
@@ -12086,7 +12239,7 @@
       <c r="FA65" s="2"/>
       <c r="FB65" s="2"/>
     </row>
-    <row r="66" spans="1:240">
+    <row r="66" spans="1:240" x14ac:dyDescent="0.25">
       <c r="A66" s="77" t="s">
         <v>11</v>
       </c>
@@ -12154,7 +12307,7 @@
       <c r="AH66" s="39"/>
       <c r="AI66" s="40"/>
       <c r="AJ66" s="5">
-        <f t="shared" si="37"/>
+        <f t="shared" si="38"/>
         <v>1.83</v>
       </c>
       <c r="AK66" s="5">
@@ -12166,7 +12319,7 @@
         <v>3.915</v>
       </c>
       <c r="AN66" s="5">
-        <f t="shared" si="38"/>
+        <f t="shared" si="39"/>
         <v>1.83</v>
       </c>
       <c r="AO66" s="5">
@@ -12206,7 +12359,10 @@
         <f t="shared" si="11"/>
         <v>-4968.2243496643596</v>
       </c>
-      <c r="BD66" s="42"/>
+      <c r="BD66" s="5">
+        <f t="shared" si="37"/>
+        <v>-4972.5255500000003</v>
+      </c>
       <c r="BE66" s="43"/>
       <c r="BF66" s="43"/>
       <c r="BG66" s="72"/>
@@ -12352,7 +12508,7 @@
       <c r="FA66" s="2"/>
       <c r="FB66" s="2"/>
     </row>
-    <row r="67" spans="1:240">
+    <row r="67" spans="1:240" x14ac:dyDescent="0.25">
       <c r="A67" s="48" t="s">
         <v>10</v>
       </c>
@@ -12462,7 +12618,10 @@
         <f t="shared" si="11"/>
         <v>-5881.3882279047994</v>
       </c>
-      <c r="BD67" s="5"/>
+      <c r="BD67" s="5">
+        <f t="shared" si="37"/>
+        <v>-5655.9047499999997</v>
+      </c>
       <c r="BE67" s="7"/>
       <c r="BF67" s="7"/>
       <c r="BG67" s="66"/>
@@ -12608,7 +12767,7 @@
       <c r="FA67" s="2"/>
       <c r="FB67" s="2"/>
     </row>
-    <row r="68" spans="1:240">
+    <row r="68" spans="1:240" x14ac:dyDescent="0.25">
       <c r="A68" s="48" t="s">
         <v>9</v>
       </c>
@@ -12718,7 +12877,10 @@
         <f t="shared" si="11"/>
         <v>-5796.2922454630516</v>
       </c>
-      <c r="BD68" s="5"/>
+      <c r="BD68" s="5">
+        <f t="shared" si="37"/>
+        <v>-5573.5147500000003</v>
+      </c>
       <c r="BE68" s="7"/>
       <c r="BF68" s="7"/>
       <c r="BG68" s="66"/>
@@ -12864,7 +13026,7 @@
       <c r="FA68" s="2"/>
       <c r="FB68" s="2"/>
     </row>
-    <row r="69" spans="1:240">
+    <row r="69" spans="1:240" x14ac:dyDescent="0.25">
       <c r="A69" s="48" t="s">
         <v>8</v>
       </c>
@@ -12975,7 +13137,10 @@
         <f t="shared" si="11"/>
         <v>-5795.3869090997277</v>
       </c>
-      <c r="BD69" s="5"/>
+      <c r="BD69" s="5">
+        <f>BC69-BB69</f>
+        <v>-5590.5709999999999</v>
+      </c>
       <c r="BE69" s="7"/>
       <c r="BF69" s="7"/>
       <c r="BG69" s="66"/>
@@ -13121,7 +13286,7 @@
       <c r="FA69" s="2"/>
       <c r="FB69" s="2"/>
     </row>
-    <row r="70" spans="1:240">
+    <row r="70" spans="1:240" x14ac:dyDescent="0.25">
       <c r="A70" s="77" t="s">
         <v>7</v>
       </c>
@@ -13231,7 +13396,10 @@
         <f t="shared" si="11"/>
         <v>-5913.654370753412</v>
       </c>
-      <c r="BD70" s="42"/>
+      <c r="BD70" s="5">
+        <f t="shared" si="37"/>
+        <v>-5696.7547500000001</v>
+      </c>
       <c r="BE70" s="43"/>
       <c r="BF70" s="43"/>
       <c r="BG70" s="72"/>
@@ -13377,7 +13545,7 @@
       <c r="FA70" s="2"/>
       <c r="FB70" s="2"/>
     </row>
-    <row r="71" spans="1:240">
+    <row r="71" spans="1:240" x14ac:dyDescent="0.25">
       <c r="A71" s="67" t="s">
         <v>6</v>
       </c>
@@ -13480,7 +13648,10 @@
         <f t="shared" si="11"/>
         <v>-6143.2561077930395</v>
       </c>
-      <c r="BD71" s="2"/>
+      <c r="BD71" s="5">
+        <f t="shared" si="37"/>
+        <v>-5849.143</v>
+      </c>
       <c r="BE71" s="2"/>
       <c r="BF71" s="2"/>
       <c r="BG71" s="35"/>
@@ -13623,7 +13794,7 @@
       <c r="FA71" s="2"/>
       <c r="FB71" s="2"/>
     </row>
-    <row r="72" spans="1:240">
+    <row r="72" spans="1:240" x14ac:dyDescent="0.25">
       <c r="A72" s="67" t="s">
         <v>5</v>
       </c>
@@ -13725,7 +13896,10 @@
         <f t="shared" si="11"/>
         <v>-6173.4080661263724</v>
       </c>
-      <c r="BD72" s="2"/>
+      <c r="BD72" s="5">
+        <f t="shared" si="37"/>
+        <v>-5826.9421000000002</v>
+      </c>
       <c r="BE72" s="2"/>
       <c r="BF72" s="2"/>
       <c r="BG72" s="35"/>
@@ -13868,7 +14042,7 @@
       <c r="FA72" s="2"/>
       <c r="FB72" s="2"/>
     </row>
-    <row r="73" spans="1:240">
+    <row r="73" spans="1:240" x14ac:dyDescent="0.25">
       <c r="A73" s="67" t="s">
         <v>4</v>
       </c>
@@ -13971,7 +14145,10 @@
         <f t="shared" si="11"/>
         <v>-6148.0588210855249</v>
       </c>
-      <c r="BD73" s="2"/>
+      <c r="BD73" s="5">
+        <f t="shared" si="37"/>
+        <v>-5943.7946000000011</v>
+      </c>
       <c r="BE73" s="2"/>
       <c r="BF73" s="2"/>
       <c r="BG73" s="35"/>
@@ -14114,7 +14291,7 @@
       <c r="FA73" s="2"/>
       <c r="FB73" s="2"/>
     </row>
-    <row r="74" spans="1:240" ht="12" thickBot="1">
+    <row r="74" spans="1:240" ht="12" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A74" s="63" t="s">
         <v>3</v>
       </c>
@@ -14225,7 +14402,10 @@
         <f t="shared" si="11"/>
         <v>-6113.11015154304</v>
       </c>
-      <c r="BD74" s="57"/>
+      <c r="BD74" s="5">
+        <f t="shared" si="37"/>
+        <v>-5929.4670000000006</v>
+      </c>
       <c r="BE74" s="57"/>
       <c r="BF74" s="57"/>
       <c r="BG74" s="56"/>
@@ -14368,519 +14548,528 @@
       <c r="FA74" s="2"/>
       <c r="FB74" s="2"/>
     </row>
-    <row r="75" spans="1:240" s="197" customFormat="1">
-      <c r="A75" s="191" t="s">
+    <row r="75" spans="1:240" s="196" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A75" s="190" t="s">
         <v>2</v>
       </c>
-      <c r="B75" s="192"/>
-      <c r="C75" s="192"/>
-      <c r="D75" s="192"/>
-      <c r="E75" s="192"/>
-      <c r="F75" s="192"/>
-      <c r="G75" s="193">
+      <c r="B75" s="191"/>
+      <c r="C75" s="191"/>
+      <c r="D75" s="191"/>
+      <c r="E75" s="191"/>
+      <c r="F75" s="191"/>
+      <c r="G75" s="192">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="H75" s="194">
+      <c r="H75" s="193">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I75" s="192"/>
-      <c r="J75" s="192">
+      <c r="I75" s="191"/>
+      <c r="J75" s="191">
         <f>2.34*2/3</f>
         <v>1.5599999999999998</v>
       </c>
-      <c r="K75" s="192">
+      <c r="K75" s="191">
         <f>0.33*2/3</f>
         <v>0.22</v>
       </c>
-      <c r="L75" s="192">
+      <c r="L75" s="191">
         <f>0.33*2/3</f>
         <v>0.22</v>
       </c>
-      <c r="M75" s="192"/>
-      <c r="N75" s="195">
+      <c r="M75" s="191"/>
+      <c r="N75" s="194">
         <f t="shared" si="2"/>
         <v>1.9999999999999998</v>
       </c>
-      <c r="O75" s="194">
-        <f t="shared" si="3"/>
+      <c r="O75" s="193">
+        <f>(M75/2+I75+J75+(K75+L75)*1.5)</f>
         <v>2.2199999999999998</v>
       </c>
-      <c r="P75" s="192"/>
-      <c r="Q75" s="192">
+      <c r="P75" s="191"/>
+      <c r="Q75" s="191">
         <f>2.34/3</f>
         <v>0.77999999999999992</v>
       </c>
-      <c r="R75" s="192">
+      <c r="R75" s="191">
         <f>0.33/3</f>
         <v>0.11</v>
       </c>
-      <c r="S75" s="192">
+      <c r="S75" s="191">
         <f>0.33/3</f>
         <v>0.11</v>
       </c>
-      <c r="T75" s="192"/>
-      <c r="U75" s="192">
-        <v>0</v>
-      </c>
-      <c r="V75" s="194">
+      <c r="T75" s="191"/>
+      <c r="U75" s="191">
+        <v>0</v>
+      </c>
+      <c r="V75" s="193">
         <f t="shared" si="4"/>
         <v>1.1099999999999999</v>
       </c>
-      <c r="W75" s="196"/>
-      <c r="X75" s="196"/>
-      <c r="Y75" s="196"/>
-      <c r="Z75" s="196"/>
-      <c r="AA75" s="196"/>
-      <c r="AB75" s="196"/>
-      <c r="AC75" s="196"/>
-      <c r="AD75" s="196"/>
-      <c r="AE75" s="196"/>
-      <c r="AF75" s="196"/>
-      <c r="AG75" s="196"/>
-      <c r="AH75" s="196"/>
-      <c r="AJ75" s="192">
+      <c r="W75" s="195"/>
+      <c r="X75" s="195"/>
+      <c r="Y75" s="195"/>
+      <c r="Z75" s="195"/>
+      <c r="AA75" s="195"/>
+      <c r="AB75" s="195"/>
+      <c r="AC75" s="195"/>
+      <c r="AD75" s="195"/>
+      <c r="AE75" s="195"/>
+      <c r="AF75" s="195"/>
+      <c r="AG75" s="195"/>
+      <c r="AH75" s="195"/>
+      <c r="AJ75" s="191">
         <f>1.34/2</f>
         <v>0.67</v>
       </c>
-      <c r="AK75" s="192">
+      <c r="AK75" s="191">
         <f>0.66/2</f>
         <v>0.33</v>
       </c>
-      <c r="AL75" s="196"/>
-      <c r="AM75" s="194">
+      <c r="AL75" s="195"/>
+      <c r="AM75" s="193">
         <f t="shared" si="5"/>
         <v>1.835</v>
       </c>
-      <c r="AN75" s="192">
+      <c r="AN75" s="191">
         <f>1.34/2</f>
         <v>0.67</v>
       </c>
-      <c r="AO75" s="192">
+      <c r="AO75" s="191">
         <f>0.66/2</f>
         <v>0.33</v>
       </c>
-      <c r="AP75" s="196"/>
-      <c r="AQ75" s="194">
+      <c r="AP75" s="195"/>
+      <c r="AQ75" s="207">
         <f t="shared" si="6"/>
         <v>1.835</v>
       </c>
-      <c r="AR75" s="197">
+      <c r="AR75" s="196">
         <v>0.5</v>
       </c>
-      <c r="AS75" s="196"/>
-      <c r="AT75" s="197">
+      <c r="AS75" s="195"/>
+      <c r="AT75" s="196">
         <v>1.5</v>
       </c>
-      <c r="AU75" s="196">
+      <c r="AU75" s="195">
+        <f>((B75+C75+D75+M75+T75+W75+AD75)+(E75+F75+I75+J75+P75+Q75+X75+Y75+AE75+AF75)*2+(K75+L75+R75+S75+Z75+AA75+AG75+AH75+AK75+AL75+AO75+AP75)*3+(AJ75+AN75)*4)/2+AR75+AS75+AT75</f>
+        <v>9</v>
+      </c>
+      <c r="AV75" s="197" t="str">
+        <f>A75</f>
+        <v>Berthierine th</v>
+      </c>
+      <c r="AW75" s="198"/>
+      <c r="AX75" s="199"/>
+      <c r="AY75" s="200"/>
+      <c r="AZ75" s="200"/>
+      <c r="BA75" s="191">
+        <f>CF75</f>
+        <v>-73.657781755390673</v>
+      </c>
+      <c r="BB75" s="191">
+        <f t="shared" si="10"/>
+        <v>-57.585167471488163</v>
+      </c>
+      <c r="BC75" s="191">
+        <f>B75/2*B$15+C75/2*B$14+(D75+M75+T75+W75+AD75)/2*B$13+(E75+I75+P75+X75+AE75)*B$16+F75*B$17+(J75+Q75+Y75+AF75)*B$18+(K75+R75+Z75+AG75+AK75+AO75)*B$20/2+(L75+S75+AA75+AH75+AL75+AP75)*B$19/2+(AJ75+AN75)*B$21+(AR75+AS75+AT75)*B$22+BB75</f>
+        <v>-3451.9562174714883</v>
+      </c>
+      <c r="BD75" s="5">
+        <f>BC75-BB75</f>
+        <v>-3394.3710500000002</v>
+      </c>
+      <c r="BE75" s="191">
+        <f>BA75-BB75</f>
+        <v>-16.07261428390251</v>
+      </c>
+      <c r="BF75" s="200"/>
+      <c r="BG75" s="198"/>
+      <c r="BH75" s="201" t="str">
+        <f t="shared" si="12"/>
+        <v>Berthierine th</v>
+      </c>
+      <c r="BI75" s="191">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="BJ75" s="191">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="BK75" s="191">
+        <f t="shared" si="15"/>
+        <v>2.2199999999999998</v>
+      </c>
+      <c r="BL75" s="191">
+        <f>(M75*BU$31/2+I75*BV$31+J75*BW$31+K75*BX$31*1.5+L75*BY$31*1.5)/BK75+BT$31*(I75*J75*ABS(BV$31-BW$31)+I75*K75*1.5*ABS(BV$31-BX$31)+I75*L75*1.5*ABS(BV$31-BY$31)+I75*M75/2*ABS(BV$31-BU$31)+J75*K75*1.5*ABS(BW$31-BX$31)+J75*L75*1.5*ABS(BW$31-BY$31)+J75*M75/2*ABS(BW$31-BU$31)+K75*1.5*L75*1.5*ABS(BX$31-BY$31)+K75*1.5*M75/2*ABS(BX$31-BU$31)+L75*1.5*M75/2*ABS(BY$31-BU$31))/(BK75^2)</f>
+        <v>-248.22159457350037</v>
+      </c>
+      <c r="BM75" s="191">
+        <f t="shared" si="16"/>
+        <v>1.1099999999999999</v>
+      </c>
+      <c r="BN75" s="191">
+        <f t="shared" si="17"/>
+        <v>-242.8253963019192</v>
+      </c>
+      <c r="BO75" s="191">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="BP75" s="191">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="BQ75" s="191">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="BR75" s="191">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="BS75" s="191">
+        <f t="shared" si="22"/>
+        <v>1.835</v>
+      </c>
+      <c r="BT75" s="191">
+        <f>(AJ75*CA$29*2+AK75*CB$29*1.5+AL75*CC$29*1.5)/BS75</f>
+        <v>-278.61687966643524</v>
+      </c>
+      <c r="BU75" s="191">
+        <f t="shared" si="24"/>
+        <v>1.835</v>
+      </c>
+      <c r="BV75" s="191">
+        <f t="shared" si="25"/>
+        <v>-278.61687966643524</v>
+      </c>
+      <c r="BW75" s="191">
+        <f t="shared" si="26"/>
+        <v>0.5</v>
+      </c>
+      <c r="BX75" s="191">
+        <f t="shared" si="27"/>
+        <v>-249.57662413235681</v>
+      </c>
+      <c r="BY75" s="191">
+        <f t="shared" si="28"/>
+        <v>0</v>
+      </c>
+      <c r="BZ75" s="191">
+        <f t="shared" si="29"/>
+        <v>-311.97648306982126</v>
+      </c>
+      <c r="CA75" s="191">
+        <f t="shared" si="30"/>
+        <v>1.5</v>
+      </c>
+      <c r="CB75" s="191">
+        <f t="shared" si="31"/>
+        <v>-287.19938243327937</v>
+      </c>
+      <c r="CC75" s="195">
+        <f t="shared" si="32"/>
+        <v>0</v>
+      </c>
+      <c r="CD75" s="195">
+        <f>I75*J75*ABS(BV$31-BW$31)+I75*K75*1.5*ABS(BV$31-BX$31)+I75*L75*1.5*ABS(BV$31-BY$31)+I75*M75/2*ABS(BV$31-BU$31)+J75*K75*1.5*ABS(BW$31-BX$31)+J75*L75*1.5*ABS(BW$31-BY$31)+J75*M75/2*ABS(BW$31-BU$31)+K75*1.5*L75*1.5*ABS(BX$31-BY$31)+K75*1.5*M75/2*ABS(BX$31-BU$31)+L75*1.5*M75/2*ABS(BY$31-BU$31)</f>
+        <v>45.928372144604907</v>
+      </c>
+      <c r="CE75" s="195">
+        <f t="shared" si="33"/>
+        <v>0</v>
+      </c>
+      <c r="CF75" s="202">
+        <f>-((BI75*BS75*(BJ75-BT75)+BI75*BU75*(BJ75-BV75)+BK75*BS75*ABS(BL75-BT75)+BK75*BU75*ABS(BL75-BV75)+BM75*BS75*ABS(BN75-BT75)+BM75*BU75*ABS(BN75-BV75)+BK75*BW75*ABS(BL75-BX75)+BM75*BW75*ABS(BN75-BX75)+BK75*BM75*ABS(BL75-BN75)+BS75*BU75*ABS(BT75-BV75))+(BO75*BY75*(BP75-BZ75)+BQ75*BY75*(BR75-BZ75)+BO75*BQ75*ABS(BP75-BR75)+BY75*BS75*(BT75-BZ75)+BY75*BU75*(BV75-BZ75))+(BK75*CA75*ABS(BL75-CB75)+BM75*CA75*ABS(BN75-CB75)+BS75*CA75*ABS(BT75-CB75)+BU75*CA75*ABS(BV75-CB75)))/AU75</f>
+        <v>-73.657781755390673</v>
+      </c>
+      <c r="CG75" s="203"/>
+      <c r="CH75" s="200"/>
+      <c r="CI75" s="200"/>
+      <c r="CJ75" s="191"/>
+      <c r="CK75" s="191"/>
+      <c r="CL75" s="204"/>
+      <c r="CM75" s="191"/>
+      <c r="CO75" s="191"/>
+      <c r="CP75" s="191"/>
+      <c r="CQ75" s="191"/>
+      <c r="CS75" s="200"/>
+      <c r="CT75" s="205"/>
+      <c r="CU75" s="204"/>
+      <c r="CX75" s="191"/>
+      <c r="CY75" s="191"/>
+      <c r="CZ75" s="191"/>
+      <c r="DA75" s="191"/>
+      <c r="DB75" s="205"/>
+      <c r="DG75" s="194"/>
+      <c r="EW75" s="200"/>
+      <c r="EX75" s="200"/>
+      <c r="EY75" s="200"/>
+      <c r="EZ75" s="206"/>
+      <c r="FA75" s="200"/>
+      <c r="FB75" s="200"/>
+    </row>
+    <row r="76" spans="1:240" s="196" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A76" s="190" t="s">
+        <v>1</v>
+      </c>
+      <c r="B76" s="191"/>
+      <c r="C76" s="191"/>
+      <c r="D76" s="191"/>
+      <c r="E76" s="191"/>
+      <c r="F76" s="191"/>
+      <c r="G76" s="191">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="H76" s="193">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I76" s="191"/>
+      <c r="J76" s="191">
+        <f>2*2/3</f>
+        <v>1.3333333333333333</v>
+      </c>
+      <c r="K76" s="191"/>
+      <c r="L76" s="191">
+        <f>1*2/3</f>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="M76" s="191"/>
+      <c r="N76" s="194">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="O76" s="193">
+        <f t="shared" si="3"/>
+        <v>2.333333333333333</v>
+      </c>
+      <c r="P76" s="191"/>
+      <c r="Q76" s="191">
+        <f>2/3</f>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="R76" s="191"/>
+      <c r="S76" s="191">
+        <f>1/3</f>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="T76" s="191"/>
+      <c r="U76" s="191">
+        <v>0</v>
+      </c>
+      <c r="V76" s="193">
+        <f t="shared" si="4"/>
+        <v>1.1666666666666665</v>
+      </c>
+      <c r="W76" s="195"/>
+      <c r="X76" s="195"/>
+      <c r="Y76" s="195"/>
+      <c r="Z76" s="195"/>
+      <c r="AA76" s="195"/>
+      <c r="AB76" s="195"/>
+      <c r="AC76" s="195"/>
+      <c r="AD76" s="195"/>
+      <c r="AE76" s="195"/>
+      <c r="AF76" s="195"/>
+      <c r="AG76" s="195"/>
+      <c r="AH76" s="195"/>
+      <c r="AJ76" s="191">
+        <v>0.5</v>
+      </c>
+      <c r="AK76" s="191">
+        <v>0</v>
+      </c>
+      <c r="AL76" s="195">
+        <v>0.5</v>
+      </c>
+      <c r="AM76" s="193">
+        <f t="shared" si="5"/>
+        <v>1.75</v>
+      </c>
+      <c r="AN76" s="191">
+        <v>0.5</v>
+      </c>
+      <c r="AO76" s="191">
+        <v>0</v>
+      </c>
+      <c r="AP76" s="195">
+        <v>0.5</v>
+      </c>
+      <c r="AQ76" s="193">
+        <f t="shared" si="6"/>
+        <v>1.75</v>
+      </c>
+      <c r="AR76" s="196">
+        <v>0.5</v>
+      </c>
+      <c r="AS76" s="195"/>
+      <c r="AT76" s="196">
+        <v>1.5</v>
+      </c>
+      <c r="AU76" s="195">
         <f t="shared" si="7"/>
         <v>9</v>
       </c>
-      <c r="AV75" s="198" t="str">
-        <f>A75</f>
-        <v>Berthierine th</v>
-      </c>
-      <c r="AW75" s="199"/>
-      <c r="AX75" s="200"/>
-      <c r="AY75" s="201"/>
-      <c r="AZ75" s="201"/>
-      <c r="BA75" s="192">
+      <c r="AV76" s="197" t="str">
+        <f>A76</f>
+        <v>Cronstedtite</v>
+      </c>
+      <c r="AW76" s="198"/>
+      <c r="AX76" s="199"/>
+      <c r="AY76" s="200"/>
+      <c r="AZ76" s="200"/>
+      <c r="BA76" s="191">
         <f t="shared" si="9"/>
-        <v>-79.727425571265186</v>
-      </c>
-      <c r="BB75" s="192">
+        <v>-70.603460381109855</v>
+      </c>
+      <c r="BB76" s="191">
         <f t="shared" si="10"/>
-        <v>-63.654811287362676</v>
-      </c>
-      <c r="BC75" s="192">
+        <v>-54.530846097207345</v>
+      </c>
+      <c r="BC76" s="191">
         <f t="shared" si="11"/>
-        <v>-3458.0258612873627</v>
-      </c>
-      <c r="BD75" s="201"/>
-      <c r="BE75" s="201"/>
-      <c r="BF75" s="201"/>
-      <c r="BG75" s="199"/>
-      <c r="BH75" s="202" t="str">
+        <v>-2907.2008460972074</v>
+      </c>
+      <c r="BD76" s="5">
+        <f t="shared" si="37"/>
+        <v>-2852.67</v>
+      </c>
+      <c r="BE76" s="200"/>
+      <c r="BF76" s="200"/>
+      <c r="BG76" s="198"/>
+      <c r="BH76" s="201" t="str">
         <f t="shared" si="12"/>
-        <v>Berthierine th</v>
-      </c>
-      <c r="BI75" s="192">
+        <v>Cronstedtite</v>
+      </c>
+      <c r="BI76" s="191">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="BJ75" s="192">
+      <c r="BJ76" s="191">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="BK75" s="192">
+      <c r="BK76" s="191">
         <f t="shared" si="15"/>
-        <v>2.2199999999999998</v>
-      </c>
-      <c r="BL75" s="192">
-        <f>(M75*BU$31/2+I75*BV$31+J75*BW$31+K75*BX$31*1.5+L75*BY$31*1.5)/BK75+CG$33*(I75*J75*ABS(BV$31-BW$31)+I75*K75*1.5*ABS(BV$31-BX$31)+I75*L75*1.5*ABS(BV$31-BY$31)+I75*M75/2*ABS(BV$31-BU$31)+J75*K75*1.5*ABS(BW$31-BX$31)+J75*L75*1.5*ABS(BW$31-BY$31)+J75*M75/2*ABS(BW$31-BU$31)+K75*1.5*L75*1.5*ABS(BX$31-BY$31)+K75*1.5*M75/2*ABS(BX$31-BU$31)+L75*1.5*M75/2*ABS(BY$31-BU$31))/(BK75^2)</f>
-        <v>-242.8253963019192</v>
-      </c>
-      <c r="BM75" s="192">
+        <v>2.333333333333333</v>
+      </c>
+      <c r="BL76" s="191">
+        <f t="shared" ref="BL76:BL77" si="40">(M76*BU$31/2+I76*BV$31+J76*BW$31+K76*BX$31*1.5+L76*BY$31*1.5)/BK76+BT$31*(I76*J76*ABS(BV$31-BW$31)+I76*K76*1.5*ABS(BV$31-BX$31)+I76*L76*1.5*ABS(BV$31-BY$31)+I76*M76/2*ABS(BV$31-BU$31)+J76*K76*1.5*ABS(BW$31-BX$31)+J76*L76*1.5*ABS(BW$31-BY$31)+J76*M76/2*ABS(BW$31-BU$31)+K76*1.5*L76*1.5*ABS(BX$31-BY$31)+K76*1.5*M76/2*ABS(BX$31-BU$31)+L76*1.5*M76/2*ABS(BY$31-BU$31))/(BK76^2)</f>
+        <v>-265.01151369979902</v>
+      </c>
+      <c r="BM76" s="191">
         <f t="shared" si="16"/>
-        <v>1.1099999999999999</v>
-      </c>
-      <c r="BN75" s="192">
+        <v>1.1666666666666665</v>
+      </c>
+      <c r="BN76" s="191">
         <f t="shared" si="17"/>
-        <v>-242.8253963019192</v>
-      </c>
-      <c r="BO75" s="192">
+        <v>-256.50362729676834</v>
+      </c>
+      <c r="BO76" s="191">
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="BP75" s="192">
+      <c r="BP76" s="191">
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
-      <c r="BQ75" s="192">
+      <c r="BQ76" s="191">
         <f t="shared" si="20"/>
         <v>0</v>
       </c>
-      <c r="BR75" s="192">
+      <c r="BR76" s="191">
         <f t="shared" si="21"/>
         <v>0</v>
       </c>
-      <c r="BS75" s="192">
+      <c r="BS76" s="191">
         <f t="shared" si="22"/>
-        <v>1.835</v>
-      </c>
-      <c r="BT75" s="192">
+        <v>1.75</v>
+      </c>
+      <c r="BT76" s="191">
         <f t="shared" si="23"/>
-        <v>-278.61687966643524</v>
-      </c>
-      <c r="BU75" s="192">
+        <v>-295.90256087926082</v>
+      </c>
+      <c r="BU76" s="191">
         <f t="shared" si="24"/>
-        <v>1.835</v>
-      </c>
-      <c r="BV75" s="192">
+        <v>1.75</v>
+      </c>
+      <c r="BV76" s="191">
         <f t="shared" si="25"/>
-        <v>-278.61687966643524</v>
-      </c>
-      <c r="BW75" s="192">
+        <v>-295.90256087926082</v>
+      </c>
+      <c r="BW76" s="191">
         <f t="shared" si="26"/>
         <v>0.5</v>
       </c>
-      <c r="BX75" s="192">
+      <c r="BX76" s="191">
         <f t="shared" si="27"/>
         <v>-249.57662413235681</v>
       </c>
-      <c r="BY75" s="192">
+      <c r="BY76" s="191">
         <f t="shared" si="28"/>
         <v>0</v>
       </c>
-      <c r="BZ75" s="192">
+      <c r="BZ76" s="191">
         <f t="shared" si="29"/>
         <v>-311.97648306982126</v>
       </c>
-      <c r="CA75" s="192">
+      <c r="CA76" s="191">
         <f t="shared" si="30"/>
         <v>1.5</v>
       </c>
-      <c r="CB75" s="192">
+      <c r="CB76" s="191">
         <f t="shared" si="31"/>
         <v>-287.19938243327937</v>
       </c>
-      <c r="CC75" s="196">
+      <c r="CC76" s="195">
         <f t="shared" si="32"/>
         <v>0</v>
       </c>
-      <c r="CD75" s="196">
-        <f t="shared" si="36"/>
-        <v>45.928372144604907</v>
-      </c>
-      <c r="CE75" s="196">
-        <f t="shared" si="33"/>
-        <v>0</v>
-      </c>
-      <c r="CF75" s="203">
-        <f t="shared" si="34"/>
-        <v>-79.727425571265186</v>
-      </c>
-      <c r="CG75" s="204"/>
-      <c r="CH75" s="201"/>
-      <c r="CI75" s="201"/>
-      <c r="CJ75" s="192"/>
-      <c r="CK75" s="192"/>
-      <c r="CL75" s="205"/>
-      <c r="CM75" s="192"/>
-      <c r="CO75" s="192"/>
-      <c r="CP75" s="192"/>
-      <c r="CQ75" s="192"/>
-      <c r="CS75" s="201"/>
-      <c r="CT75" s="206"/>
-      <c r="CU75" s="205"/>
-      <c r="CX75" s="192"/>
-      <c r="CY75" s="192"/>
-      <c r="CZ75" s="192"/>
-      <c r="DA75" s="192"/>
-      <c r="DB75" s="206"/>
-      <c r="DG75" s="195"/>
-      <c r="EW75" s="201"/>
-      <c r="EX75" s="201"/>
-      <c r="EY75" s="201"/>
-      <c r="EZ75" s="207"/>
-      <c r="FA75" s="201"/>
-      <c r="FB75" s="201"/>
-    </row>
-    <row r="76" spans="1:240" s="197" customFormat="1">
-      <c r="A76" s="191" t="s">
-        <v>1</v>
-      </c>
-      <c r="B76" s="192"/>
-      <c r="C76" s="192"/>
-      <c r="D76" s="192"/>
-      <c r="E76" s="192"/>
-      <c r="F76" s="192"/>
-      <c r="G76" s="192">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="H76" s="194">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="I76" s="192"/>
-      <c r="J76" s="192">
-        <f>2*2/3</f>
-        <v>1.3333333333333333</v>
-      </c>
-      <c r="K76" s="192"/>
-      <c r="L76" s="192">
-        <f>1*2/3</f>
-        <v>0.66666666666666663</v>
-      </c>
-      <c r="M76" s="192"/>
-      <c r="N76" s="195">
-        <f t="shared" si="2"/>
-        <v>2</v>
-      </c>
-      <c r="O76" s="194">
-        <f t="shared" si="3"/>
-        <v>2.333333333333333</v>
-      </c>
-      <c r="P76" s="192"/>
-      <c r="Q76" s="192">
-        <f>2/3</f>
-        <v>0.66666666666666663</v>
-      </c>
-      <c r="R76" s="192"/>
-      <c r="S76" s="192">
-        <f>1/3</f>
-        <v>0.33333333333333331</v>
-      </c>
-      <c r="T76" s="192"/>
-      <c r="U76" s="192">
-        <v>0</v>
-      </c>
-      <c r="V76" s="194">
-        <f t="shared" si="4"/>
-        <v>1.1666666666666665</v>
-      </c>
-      <c r="W76" s="196"/>
-      <c r="X76" s="196"/>
-      <c r="Y76" s="196"/>
-      <c r="Z76" s="196"/>
-      <c r="AA76" s="196"/>
-      <c r="AB76" s="196"/>
-      <c r="AC76" s="196"/>
-      <c r="AD76" s="196"/>
-      <c r="AE76" s="196"/>
-      <c r="AF76" s="196"/>
-      <c r="AG76" s="196"/>
-      <c r="AH76" s="196"/>
-      <c r="AJ76" s="192">
-        <v>0.5</v>
-      </c>
-      <c r="AK76" s="192">
-        <v>0</v>
-      </c>
-      <c r="AL76" s="196">
-        <v>0.5</v>
-      </c>
-      <c r="AM76" s="194">
-        <f t="shared" si="5"/>
-        <v>1.75</v>
-      </c>
-      <c r="AN76" s="192">
-        <v>0.5</v>
-      </c>
-      <c r="AO76" s="192">
-        <v>0</v>
-      </c>
-      <c r="AP76" s="196">
-        <v>0.5</v>
-      </c>
-      <c r="AQ76" s="194">
-        <f t="shared" si="6"/>
-        <v>1.75</v>
-      </c>
-      <c r="AR76" s="197">
-        <v>0.5</v>
-      </c>
-      <c r="AS76" s="196"/>
-      <c r="AT76" s="197">
-        <v>1.5</v>
-      </c>
-      <c r="AU76" s="196">
-        <f t="shared" si="7"/>
-        <v>9</v>
-      </c>
-      <c r="AV76" s="198" t="str">
-        <f>A76</f>
-        <v>Cronstedtite</v>
-      </c>
-      <c r="AW76" s="199"/>
-      <c r="AX76" s="200"/>
-      <c r="AY76" s="201"/>
-      <c r="AZ76" s="201"/>
-      <c r="BA76" s="192">
-        <f t="shared" si="9"/>
-        <v>-77.95595480348203</v>
-      </c>
-      <c r="BB76" s="192">
-        <f t="shared" si="10"/>
-        <v>-61.883340519579519</v>
-      </c>
-      <c r="BC76" s="192">
-        <f t="shared" si="11"/>
-        <v>-2914.5533405195797</v>
-      </c>
-      <c r="BD76" s="201"/>
-      <c r="BE76" s="201"/>
-      <c r="BF76" s="201"/>
-      <c r="BG76" s="199"/>
-      <c r="BH76" s="202" t="str">
-        <f t="shared" si="12"/>
-        <v>Cronstedtite</v>
-      </c>
-      <c r="BI76" s="192">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="BJ76" s="192">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="BK76" s="192">
-        <f t="shared" si="15"/>
-        <v>2.333333333333333</v>
-      </c>
-      <c r="BL76" s="192">
-        <f>(M76*BU$31/2+I76*BV$31+J76*BW$31+K76*BX$31*1.5+L76*BY$31*1.5)/BK76+CG$33*(I76*J76*ABS(BV$31-BW$31)+I76*K76*1.5*ABS(BV$31-BX$31)+I76*L76*1.5*ABS(BV$31-BY$31)+I76*M76/2*ABS(BV$31-BU$31)+J76*K76*1.5*ABS(BW$31-BX$31)+J76*L76*1.5*ABS(BW$31-BY$31)+J76*M76/2*ABS(BW$31-BU$31)+K76*1.5*L76*1.5*ABS(BX$31-BY$31)+K76*1.5*M76/2*ABS(BX$31-BU$31)+L76*1.5*M76/2*ABS(BY$31-BU$31))/(BK76^2)</f>
-        <v>-256.50362729676834</v>
-      </c>
-      <c r="BM76" s="192">
-        <f t="shared" si="16"/>
-        <v>1.1666666666666665</v>
-      </c>
-      <c r="BN76" s="192">
-        <f t="shared" si="17"/>
-        <v>-256.50362729676834</v>
-      </c>
-      <c r="BO76" s="192">
-        <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
-      <c r="BP76" s="192">
-        <f t="shared" si="19"/>
-        <v>0</v>
-      </c>
-      <c r="BQ76" s="192">
-        <f t="shared" si="20"/>
-        <v>0</v>
-      </c>
-      <c r="BR76" s="192">
-        <f t="shared" si="21"/>
-        <v>0</v>
-      </c>
-      <c r="BS76" s="192">
-        <f t="shared" si="22"/>
-        <v>1.75</v>
-      </c>
-      <c r="BT76" s="192">
-        <f t="shared" si="23"/>
-        <v>-295.90256087926082</v>
-      </c>
-      <c r="BU76" s="192">
-        <f t="shared" si="24"/>
-        <v>1.75</v>
-      </c>
-      <c r="BV76" s="192">
-        <f t="shared" si="25"/>
-        <v>-295.90256087926082</v>
-      </c>
-      <c r="BW76" s="192">
-        <f t="shared" si="26"/>
-        <v>0.5</v>
-      </c>
-      <c r="BX76" s="192">
-        <f t="shared" si="27"/>
-        <v>-249.57662413235681</v>
-      </c>
-      <c r="BY76" s="192">
-        <f t="shared" si="28"/>
-        <v>0</v>
-      </c>
-      <c r="BZ76" s="192">
-        <f t="shared" si="29"/>
-        <v>-311.97648306982126</v>
-      </c>
-      <c r="CA76" s="192">
-        <f t="shared" si="30"/>
-        <v>1.5</v>
-      </c>
-      <c r="CB76" s="192">
-        <f t="shared" si="31"/>
-        <v>-287.19938243327937</v>
-      </c>
-      <c r="CC76" s="196">
-        <f t="shared" si="32"/>
-        <v>0</v>
-      </c>
-      <c r="CD76" s="196">
+      <c r="CD76" s="195">
         <f t="shared" si="36"/>
         <v>79.994929245945542</v>
       </c>
-      <c r="CE76" s="196">
+      <c r="CE76" s="195">
         <f t="shared" si="33"/>
         <v>0</v>
       </c>
-      <c r="CF76" s="203">
-        <f t="shared" si="34"/>
-        <v>-77.95595480348203</v>
-      </c>
-      <c r="CG76" s="204"/>
-      <c r="CH76" s="201"/>
-      <c r="CI76" s="201"/>
-      <c r="CJ76" s="192"/>
-      <c r="CK76" s="192"/>
-      <c r="CL76" s="205"/>
-      <c r="CM76" s="192"/>
-      <c r="CO76" s="192"/>
-      <c r="CP76" s="192"/>
-      <c r="CQ76" s="192"/>
-      <c r="CS76" s="201"/>
-      <c r="CT76" s="206"/>
-      <c r="CU76" s="205"/>
-      <c r="CX76" s="192"/>
-      <c r="CY76" s="192"/>
-      <c r="CZ76" s="192"/>
-      <c r="DA76" s="192"/>
-      <c r="DB76" s="206"/>
-      <c r="DG76" s="195"/>
-      <c r="EW76" s="201"/>
-      <c r="EX76" s="201"/>
-      <c r="EY76" s="201"/>
-      <c r="EZ76" s="207"/>
-      <c r="FA76" s="201"/>
-      <c r="FB76" s="201"/>
+      <c r="CF76" s="202">
+        <f>-((BI76*BS76*(BJ76-BT76)+BI76*BU76*(BJ76-BV76)+BK76*BS76*ABS(BL76-BT76)+BK76*BU76*ABS(BL76-BV76)+BM76*BS76*ABS(BN76-BT76)+BM76*BU76*ABS(BN76-BV76)+BK76*BW76*ABS(BL76-BX76)+BM76*BW76*ABS(BN76-BX76)+BK76*BM76*ABS(BL76-BN76)+BS76*BU76*ABS(BT76-BV76))+(BO76*BY76*(BP76-BZ76)+BQ76*BY76*(BR76-BZ76)+BO76*BQ76*ABS(BP76-BR76)+BY76*BS76*(BT76-BZ76)+BY76*BU76*(BV76-BZ76))+(BK76*CA76*ABS(BL76-CB76)+BM76*CA76*ABS(BN76-CB76)+BS76*CA76*ABS(BT76-CB76)+BU76*CA76*ABS(BV76-CB76)))/AU76</f>
+        <v>-70.603460381109855</v>
+      </c>
+      <c r="CG76" s="203"/>
+      <c r="CH76" s="200"/>
+      <c r="CI76" s="200"/>
+      <c r="CJ76" s="191"/>
+      <c r="CK76" s="191"/>
+      <c r="CL76" s="204"/>
+      <c r="CM76" s="191"/>
+      <c r="CO76" s="191"/>
+      <c r="CP76" s="191"/>
+      <c r="CQ76" s="191"/>
+      <c r="CS76" s="200"/>
+      <c r="CT76" s="205"/>
+      <c r="CU76" s="204"/>
+      <c r="CX76" s="191"/>
+      <c r="CY76" s="191"/>
+      <c r="CZ76" s="191"/>
+      <c r="DA76" s="191"/>
+      <c r="DB76" s="205"/>
+      <c r="DG76" s="194"/>
+      <c r="EW76" s="200"/>
+      <c r="EX76" s="200"/>
+      <c r="EY76" s="200"/>
+      <c r="EZ76" s="206"/>
+      <c r="FA76" s="200"/>
+      <c r="FB76" s="200"/>
     </row>
-    <row r="77" spans="1:240" ht="12" thickBot="1">
+    <row r="77" spans="1:240" ht="12" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A77" s="46" t="s">
         <v>0</v>
       </c>
@@ -14991,17 +15180,20 @@
       <c r="AZ77" s="2"/>
       <c r="BA77" s="5">
         <f t="shared" si="9"/>
-        <v>-210.03124518934337</v>
+        <v>-196.51526385428747</v>
       </c>
       <c r="BB77" s="5">
         <f t="shared" si="10"/>
-        <v>-173.77786932170019</v>
+        <v>-160.2618879866443</v>
       </c>
       <c r="BC77" s="36">
         <f t="shared" si="11"/>
-        <v>-5164.6503693217001</v>
-      </c>
-      <c r="BD77" s="2"/>
+        <v>-5151.1343879866436</v>
+      </c>
+      <c r="BD77" s="5">
+        <f t="shared" si="37"/>
+        <v>-4990.8724999999995</v>
+      </c>
       <c r="BE77" s="2"/>
       <c r="BF77" s="2"/>
       <c r="BG77" s="35"/>
@@ -15021,9 +15213,9 @@
         <f t="shared" si="15"/>
         <v>2.75</v>
       </c>
-      <c r="BL77" s="29">
-        <f>(M77*BU$31/2+I77*BV$31+J77*BW$31+K77*BX$31*1.5+L77*BY$31*1.5)/BK77+CG$33*(I77*J77*ABS(BV$31-BW$31)+I77*K77*1.5*ABS(BV$31-BX$31)+I77*L77*1.5*ABS(BV$31-BY$31)+I77*M77/2*ABS(BV$31-BU$31)+J77*K77*1.5*ABS(BW$31-BX$31)+J77*L77*1.5*ABS(BW$31-BY$31)+J77*M77/2*ABS(BW$31-BU$31)+K77*1.5*L77*1.5*ABS(BX$31-BY$31)+K77*1.5*M77/2*ABS(BX$31-BU$31)+L77*1.5*M77/2*ABS(BY$31-BU$31))/(BK77^2)</f>
-        <v>-271.00425168436584</v>
+      <c r="BL77" s="191">
+        <f t="shared" si="40"/>
+        <v>-279.58299025074842</v>
       </c>
       <c r="BM77" s="5">
         <f t="shared" si="16"/>
@@ -15103,7 +15295,7 @@
       </c>
       <c r="CF77" s="33">
         <f t="shared" si="34"/>
-        <v>-210.03124518934337</v>
+        <v>-196.51526385428747</v>
       </c>
       <c r="CG77" s="32"/>
       <c r="CH77" s="2"/>
@@ -15147,7 +15339,7 @@
       <c r="FA77" s="2"/>
       <c r="FB77" s="2"/>
     </row>
-    <row r="78" spans="1:240" s="2" customFormat="1">
+    <row r="78" spans="1:240" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A78" s="1"/>
       <c r="C78" s="5"/>
       <c r="D78" s="1"/>
@@ -15380,129 +15572,129 @@
       <c r="IE78" s="1"/>
       <c r="IF78" s="1"/>
     </row>
-    <row r="79" spans="1:240" s="2" customFormat="1" ht="12" thickBot="1">
-      <c r="A79" s="176" t="s">
+    <row r="79" spans="1:240" s="2" customFormat="1" ht="12" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A79" s="175" t="s">
         <v>147</v>
       </c>
-      <c r="B79" s="180"/>
-      <c r="C79" s="179"/>
-      <c r="D79" s="181"/>
-      <c r="E79" s="179"/>
-      <c r="F79" s="179"/>
-      <c r="G79" s="179"/>
+      <c r="B79" s="179"/>
+      <c r="C79" s="178"/>
+      <c r="D79" s="180"/>
+      <c r="E79" s="178"/>
+      <c r="F79" s="178"/>
+      <c r="G79" s="178"/>
       <c r="H79" s="41">
-        <f t="shared" ref="H78:H79" si="39">(B79+C79+D79)/2+E79++F79</f>
-        <v>0</v>
-      </c>
-      <c r="I79" s="182">
+        <f t="shared" ref="H79" si="41">(B79+C79+D79)/2+E79++F79</f>
+        <v>0</v>
+      </c>
+      <c r="I79" s="181">
         <v>1.1919999999999999</v>
       </c>
-      <c r="J79" s="182">
+      <c r="J79" s="181">
         <v>0.68600000000000005</v>
       </c>
-      <c r="K79" s="182">
+      <c r="K79" s="181">
         <v>4.8000000000000001E-2</v>
       </c>
-      <c r="L79" s="182">
+      <c r="L79" s="181">
         <v>8.4000000000000005E-2</v>
       </c>
-      <c r="M79" s="179"/>
-      <c r="N79" s="183">
+      <c r="M79" s="178"/>
+      <c r="N79" s="182">
         <f>SUM(I79:M79)</f>
         <v>2.0100000000000002</v>
       </c>
-      <c r="O79" s="178">
+      <c r="O79" s="177">
         <f>(M79/2+I79+J79+(K79+L79)*1.5)</f>
         <v>2.0760000000000001</v>
       </c>
-      <c r="P79" s="182">
+      <c r="P79" s="181">
         <v>0.59099999999999997</v>
       </c>
-      <c r="Q79" s="182">
+      <c r="Q79" s="181">
         <v>0.34300000000000003</v>
       </c>
-      <c r="R79" s="182">
+      <c r="R79" s="181">
         <v>2.4E-2</v>
       </c>
-      <c r="S79" s="182">
+      <c r="S79" s="181">
         <v>4.2000000000000003E-2</v>
       </c>
-      <c r="T79" s="179"/>
-      <c r="U79" s="184">
+      <c r="T79" s="178"/>
+      <c r="U79" s="183">
         <f>1-SUM(P79:T79)</f>
         <v>0</v>
       </c>
-      <c r="V79" s="178">
+      <c r="V79" s="177">
         <f>(T79/2+P79+Q79+(R79+S79)*1.5)</f>
         <v>1.0329999999999999</v>
       </c>
-      <c r="W79" s="179"/>
-      <c r="X79" s="182">
+      <c r="W79" s="178"/>
+      <c r="X79" s="181">
         <v>1.1919999999999999</v>
       </c>
-      <c r="Y79" s="182">
+      <c r="Y79" s="181">
         <v>0.68600000000000005</v>
       </c>
-      <c r="Z79" s="182">
+      <c r="Z79" s="181">
         <v>4.8000000000000001E-2</v>
       </c>
-      <c r="AA79" s="182">
+      <c r="AA79" s="181">
         <v>8.4000000000000005E-2</v>
       </c>
-      <c r="AB79" s="179">
+      <c r="AB79" s="178">
         <f>SUM(W79:AA79)</f>
         <v>2.0100000000000002</v>
       </c>
-      <c r="AC79" s="178">
+      <c r="AC79" s="177">
         <f>(W79/2+X79+Y79+(Z79+AA79)*1.5)</f>
         <v>2.0760000000000001</v>
       </c>
-      <c r="AD79" s="179"/>
-      <c r="AE79" s="182">
-        <v>0</v>
-      </c>
-      <c r="AF79" s="182">
-        <v>0</v>
-      </c>
-      <c r="AG79" s="182">
+      <c r="AD79" s="178"/>
+      <c r="AE79" s="181">
+        <v>0</v>
+      </c>
+      <c r="AF79" s="181">
+        <v>0</v>
+      </c>
+      <c r="AG79" s="181">
         <v>1</v>
       </c>
-      <c r="AH79" s="182">
-        <v>0</v>
-      </c>
-      <c r="AI79" s="178">
-        <f t="shared" ref="AI79" si="40">(AD79/2+AE79+AF79+(AG79+AH79)*1.5)</f>
+      <c r="AH79" s="181">
+        <v>0</v>
+      </c>
+      <c r="AI79" s="177">
+        <f t="shared" ref="AI79" si="42">(AD79/2+AE79+AF79+(AG79+AH79)*1.5)</f>
         <v>1.5</v>
       </c>
-      <c r="AJ79" s="185">
+      <c r="AJ79" s="184">
         <v>2</v>
       </c>
-      <c r="AK79" s="185">
-        <v>0</v>
-      </c>
-      <c r="AL79" s="186"/>
-      <c r="AM79" s="179">
-        <f t="shared" ref="AM79" si="41">(AJ79*2+(AK79+AL79)*1.5)</f>
+      <c r="AK79" s="184">
+        <v>0</v>
+      </c>
+      <c r="AL79" s="185"/>
+      <c r="AM79" s="178">
+        <f t="shared" ref="AM79" si="43">(AJ79*2+(AK79+AL79)*1.5)</f>
         <v>4</v>
       </c>
-      <c r="AN79" s="187">
+      <c r="AN79" s="186">
         <v>0.63300000000000001</v>
       </c>
-      <c r="AO79" s="182">
+      <c r="AO79" s="181">
         <v>1.367</v>
       </c>
-      <c r="AP79" s="179"/>
-      <c r="AQ79" s="188">
+      <c r="AP79" s="178"/>
+      <c r="AQ79" s="187">
         <f>(AN79*2+(AO79+AP79)*1.5)</f>
         <v>3.3165</v>
       </c>
-      <c r="AR79" s="189">
+      <c r="AR79" s="188">
         <v>1</v>
       </c>
-      <c r="AS79" s="177">
+      <c r="AS79" s="176">
         <v>3</v>
       </c>
-      <c r="AT79" s="190">
+      <c r="AT79" s="189">
         <v>0</v>
       </c>
       <c r="AU79" s="39">
@@ -15516,15 +15708,15 @@
       <c r="AW79" s="35"/>
       <c r="AX79" s="37"/>
       <c r="BA79" s="5">
-        <f t="shared" ref="BA79" si="42">CF79</f>
+        <f t="shared" ref="BA79" si="44">CF79</f>
         <v>-224.29233518579622</v>
       </c>
       <c r="BB79" s="5">
-        <f t="shared" ref="BB79" si="43">BA79-AR79*(B$22-B$24)-AS79*(B$22-B$25)-AT79*(B$22-B$26)</f>
+        <f t="shared" ref="BB79" si="45">BA79-AR79*(B$22-B$24)-AS79*(B$22-B$25)-AT79*(B$22-B$26)</f>
         <v>-266.47840852761686</v>
       </c>
       <c r="BC79" s="36">
-        <f t="shared" ref="BC79" si="44">B79/2*B$15+C79/2*B$14+(D79+M79+T79+W79+AD79)/2*B$13+(E79+I79+P79+X79+AE79)*B$16+F79*B$17+(J79+Q79+Y79+AF79)*B$18+(K79+R79+Z79+AG79+AK79+AO79)*B$20/2+(L79+S79+AA79+AH79+AL79+AP79)*B$19/2+(AJ79+AN79)*B$21+(AR79+AS79+AT79)*B$22+BB79</f>
+        <f t="shared" ref="BC79" si="46">B79/2*B$15+C79/2*B$14+(D79+M79+T79+W79+AD79)/2*B$13+(E79+I79+P79+X79+AE79)*B$16+F79*B$17+(J79+Q79+Y79+AF79)*B$18+(K79+R79+Z79+AG79+AK79+AO79)*B$20/2+(L79+S79+AA79+AH79+AL79+AP79)*B$19/2+(AJ79+AN79)*B$21+(AR79+AS79+AT79)*B$22+BB79</f>
         <v>-8234.4672085276161</v>
       </c>
       <c r="BD79" s="2">
@@ -15532,19 +15724,19 @@
       </c>
       <c r="BG79" s="35"/>
       <c r="BH79" s="34" t="str">
-        <f t="shared" ref="BH79" si="45">A79</f>
+        <f t="shared" ref="BH79" si="47">A79</f>
         <v>Ripidolite</v>
       </c>
       <c r="BI79" s="5">
-        <f t="shared" ref="BI79" si="46">H79</f>
+        <f t="shared" ref="BI79" si="48">H79</f>
         <v>0</v>
       </c>
       <c r="BJ79" s="29">
-        <f t="shared" ref="BJ79" si="47">IF(BI79=0,0,(B79*BU$29/2+C79*BV$29/2+D79*BW$29/2+E79*BY$29+F79*BX$29)/BI79+BT$29*((B79/2*C79/2*ABS(BU$29-BV$29)+B79/2*D79/2*ABS(BU$29-BW$29)+B79/2*E79*ABS(BU$29-BY$29)+B79/2*F79*ABS(BU$29-BX$29)+C79/2*D79/2*ABS(BV$29-BW$29)+C79/2*E79*ABS(BV$29-BY$29)+C79/2*F79*ABS(BV$29-BX$29)+D79/2*F79*ABS(BW$29-BY$29)+D79/2*E79*ABS(BW$29-BX$29)+E79*F79*ABS(BX$29-BY$29))/(BI79^2)))</f>
+        <f t="shared" ref="BJ79" si="49">IF(BI79=0,0,(B79*BU$29/2+C79*BV$29/2+D79*BW$29/2+E79*BY$29+F79*BX$29)/BI79+BT$29*((B79/2*C79/2*ABS(BU$29-BV$29)+B79/2*D79/2*ABS(BU$29-BW$29)+B79/2*E79*ABS(BU$29-BY$29)+B79/2*F79*ABS(BU$29-BX$29)+C79/2*D79/2*ABS(BV$29-BW$29)+C79/2*E79*ABS(BV$29-BY$29)+C79/2*F79*ABS(BV$29-BX$29)+D79/2*F79*ABS(BW$29-BY$29)+D79/2*E79*ABS(BW$29-BX$29)+E79*F79*ABS(BX$29-BY$29))/(BI79^2)))</f>
         <v>0</v>
       </c>
       <c r="BK79" s="5">
-        <f t="shared" ref="BK79" si="48">O79</f>
+        <f t="shared" ref="BK79" si="50">O79</f>
         <v>2.0760000000000001</v>
       </c>
       <c r="BL79" s="29">
@@ -15552,15 +15744,15 @@
         <v>-220.59356855766214</v>
       </c>
       <c r="BM79" s="5">
-        <f t="shared" ref="BM79" si="49">V79</f>
+        <f t="shared" ref="BM79" si="51">V79</f>
         <v>1.0329999999999999</v>
       </c>
       <c r="BN79" s="5">
-        <f t="shared" ref="BN79" si="50">IF(BM79=0,0,(T79*BU$31/2+P79*BV$31+Q79*BW$31+R79*BX$31*1.5+S79*BY$31*1.5)/BM79)</f>
+        <f t="shared" ref="BN79" si="52">IF(BM79=0,0,(T79*BU$31/2+P79*BV$31+Q79*BW$31+R79*BX$31*1.5+S79*BY$31*1.5)/BM79)</f>
         <v>-212.8281534308077</v>
       </c>
       <c r="BO79" s="5">
-        <f t="shared" ref="BO79" si="51">AC79</f>
+        <f t="shared" ref="BO79" si="53">AC79</f>
         <v>2.0760000000000001</v>
       </c>
       <c r="BP79" s="29">
@@ -15568,67 +15760,67 @@
         <v>-152.13731982044357</v>
       </c>
       <c r="BQ79" s="5">
-        <f t="shared" ref="BQ79" si="52">AI79</f>
+        <f t="shared" ref="BQ79" si="54">AI79</f>
         <v>1.5</v>
       </c>
       <c r="BR79" s="5">
-        <f t="shared" ref="BR79" si="53">IF(AS79=0,0,(AD79*BU$33/2+AE79*BV$33+AF79*BW$33+AG79*BX$33*1.5+AH79*BY$33*1.5)/BQ79)</f>
+        <f t="shared" ref="BR79" si="55">IF(AS79=0,0,(AD79*BU$33/2+AE79*BV$33+AF79*BW$33+AG79*BX$33*1.5+AH79*BY$33*1.5)/BQ79)</f>
         <v>-229.05168514308147</v>
       </c>
       <c r="BS79" s="5">
-        <f t="shared" ref="BS79" si="54">AM79</f>
+        <f t="shared" ref="BS79" si="56">AM79</f>
         <v>4</v>
       </c>
       <c r="BT79" s="5">
-        <f t="shared" ref="BT79" si="55">(AJ79*CA$29*2+AK79*CB$29*1.5+AL79*CC$29*1.5)/BS79</f>
+        <f t="shared" ref="BT79" si="57">(AJ79*CA$29*2+AK79*CB$29*1.5+AL79*CC$29*1.5)/BS79</f>
         <v>-285.32948153870637</v>
       </c>
       <c r="BU79" s="5">
-        <f t="shared" ref="BU79" si="56">AQ79</f>
+        <f t="shared" ref="BU79" si="58">AQ79</f>
         <v>3.3165</v>
       </c>
       <c r="BV79" s="5">
-        <f t="shared" ref="BV79" si="57">(AN79*CA$29*2+AO79*CB$29*1.5+AP79*CC$29*1.5)/BU79</f>
+        <f t="shared" ref="BV79" si="59">(AN79*CA$29*2+AO79*CB$29*1.5+AP79*CC$29*1.5)/BU79</f>
         <v>-269.94433874625054</v>
       </c>
       <c r="BW79" s="5">
-        <f t="shared" ref="BW79" si="58">AR79</f>
+        <f t="shared" ref="BW79" si="60">AR79</f>
         <v>1</v>
       </c>
       <c r="BX79" s="5">
-        <f t="shared" ref="BX79" si="59">B$24</f>
+        <f t="shared" ref="BX79" si="61">B$24</f>
         <v>-249.57662413235681</v>
       </c>
       <c r="BY79" s="5">
-        <f t="shared" ref="BY79" si="60">AS79</f>
+        <f t="shared" ref="BY79" si="62">AS79</f>
         <v>3</v>
       </c>
       <c r="BZ79" s="5">
-        <f t="shared" ref="BZ79" si="61">B$25</f>
+        <f t="shared" ref="BZ79" si="63">B$25</f>
         <v>-311.97648306982126</v>
       </c>
       <c r="CA79" s="5">
-        <f t="shared" ref="CA79" si="62">AT79</f>
+        <f t="shared" ref="CA79" si="64">AT79</f>
         <v>0</v>
       </c>
       <c r="CB79" s="5">
-        <f t="shared" ref="CB79" si="63">B$26</f>
+        <f t="shared" ref="CB79" si="65">B$26</f>
         <v>-287.19938243327937</v>
       </c>
       <c r="CC79" s="10">
-        <f t="shared" ref="CC79" si="64">B79/2*C79/2*ABS(BU$29-BV$29)+B79/2*D79/2*ABS(BU$29-BW$29)+B79/2*E79*ABS(BU$29-BY$29)+B79/2*F79*ABS(BU$29-BX$29)+C79/2*D79/2*ABS(BV$29-BW$29)+C79/2*E79*ABS(BV$29-BY$29)+C79/2*F79*ABS(BV$29-BX$29)+D79/2*F79*ABS(BW$29-BY$29)+D79/2*E79*ABS(BW$29-BX$29)+E79*F79*ABS(BX$29-BY$29)</f>
+        <f t="shared" ref="CC79" si="66">B79/2*C79/2*ABS(BU$29-BV$29)+B79/2*D79/2*ABS(BU$29-BW$29)+B79/2*E79*ABS(BU$29-BY$29)+B79/2*F79*ABS(BU$29-BX$29)+C79/2*D79/2*ABS(BV$29-BW$29)+C79/2*E79*ABS(BV$29-BY$29)+C79/2*F79*ABS(BV$29-BX$29)+D79/2*F79*ABS(BW$29-BY$29)+D79/2*E79*ABS(BW$29-BX$29)+E79*F79*ABS(BX$29-BY$29)</f>
         <v>0</v>
       </c>
       <c r="CD79" s="10">
-        <f t="shared" ref="CD79" si="65">I79*J79*ABS(BV$31-BW$31)+I79*K79*1.5*ABS(BV$31-BX$31)+I79*L79*1.5*ABS(BV$31-BY$31)+I79*M79/2*ABS(BV$31-BU$31)+J79*K79*1.5*ABS(BW$31-BX$31)+J79*L79*1.5*ABS(BW$31-BY$31)+J79*M79/2*ABS(BW$31-BU$31)+K79*1.5*L79*1.5*ABS(BX$31-BY$31)+K79*1.5*M79/2*ABS(BX$31-BU$31)+L79*1.5*M79/2*ABS(BY$31-BU$31)</f>
+        <f t="shared" ref="CD79" si="67">I79*J79*ABS(BV$31-BW$31)+I79*K79*1.5*ABS(BV$31-BX$31)+I79*L79*1.5*ABS(BV$31-BY$31)+I79*M79/2*ABS(BV$31-BU$31)+J79*K79*1.5*ABS(BW$31-BX$31)+J79*L79*1.5*ABS(BW$31-BY$31)+J79*M79/2*ABS(BW$31-BU$31)+K79*1.5*L79*1.5*ABS(BX$31-BY$31)+K79*1.5*M79/2*ABS(BX$31-BU$31)+L79*1.5*M79/2*ABS(BY$31-BU$31)</f>
         <v>58.553885669145771</v>
       </c>
       <c r="CE79" s="10">
-        <f t="shared" ref="CE79" si="66">X79*Y79*ABS(BV$33-BW$33)+X79*Z79*1.5*ABS(BV$33-BX$33)+X79*AA79*1.5*ABS(BV$33-BY$33)+X79*W79/2*ABS(BV$33-BU$33)+Y79*Z79*1.5*ABS(BW$33-BX$33)+Y79*AA79*1.5*ABS(BW$33-BY$33)+Y79*W79/2*ABS(BW$33-BU$33)+Z79*1.5*AA79*1.5*ABS(BX$33-BY$33)+Z79*1.5*W79/2*ABS(BX$33-BU$33)+AA79*1.5*W79/2*ABS(BY$33-BU$33)</f>
+        <f t="shared" ref="CE79" si="68">X79*Y79*ABS(BV$33-BW$33)+X79*Z79*1.5*ABS(BV$33-BX$33)+X79*AA79*1.5*ABS(BV$33-BY$33)+X79*W79/2*ABS(BV$33-BU$33)+Y79*Z79*1.5*ABS(BW$33-BX$33)+Y79*AA79*1.5*ABS(BW$33-BY$33)+Y79*W79/2*ABS(BW$33-BU$33)+Z79*1.5*AA79*1.5*ABS(BX$33-BY$33)+Z79*1.5*W79/2*ABS(BX$33-BU$33)+AA79*1.5*W79/2*ABS(BY$33-BU$33)</f>
         <v>154.10164437123782</v>
       </c>
       <c r="CF79" s="33">
-        <f t="shared" ref="CF79" si="67">-((BI79*BS79*(BJ79-BT79)+BI79*BU79*(BJ79-BV79)+BK79*BS79*ABS(BL79-BT79)+BK79*BU79*ABS(BL79-BV79)+BM79*BS79*ABS(BN79-BT79)+BM79*BU79*ABS(BN79-BV79)+BK79*BW79*ABS(BL79-BX79)+BM79*BW79*ABS(BN79-BX79)+BK79*BM79*ABS(BL79-BN79)+BS79*BU79*ABS(BT79-BV79))+(BO79*BY79*(BP79-BZ79)+BQ79*BY79*(BR79-BZ79)+BO79*BQ79*ABS(BP79-BR79)+BY79*BS79*(BT79-BZ79)+BY79*BU79*(BV79-BZ79))+(BK79*CA79*ABS(BL79-CB79)+BM79*CA79*ABS(BN79-CB79)+BS79*CA79*ABS(BT79-CB79)+BU79*CA79*ABS(BV79-CB79)))/AU79</f>
+        <f t="shared" ref="CF79" si="69">-((BI79*BS79*(BJ79-BT79)+BI79*BU79*(BJ79-BV79)+BK79*BS79*ABS(BL79-BT79)+BK79*BU79*ABS(BL79-BV79)+BM79*BS79*ABS(BN79-BT79)+BM79*BU79*ABS(BN79-BV79)+BK79*BW79*ABS(BL79-BX79)+BM79*BW79*ABS(BN79-BX79)+BK79*BM79*ABS(BL79-BN79)+BS79*BU79*ABS(BT79-BV79))+(BO79*BY79*(BP79-BZ79)+BQ79*BY79*(BR79-BZ79)+BO79*BQ79*ABS(BP79-BR79)+BY79*BS79*(BT79-BZ79)+BY79*BU79*(BV79-BZ79))+(BK79*CA79*ABS(BL79-CB79)+BM79*CA79*ABS(BN79-CB79)+BS79*CA79*ABS(BT79-CB79)+BU79*CA79*ABS(BV79-CB79)))/AU79</f>
         <v>-224.29233518579622</v>
       </c>
       <c r="CG79" s="5"/>
@@ -15783,7 +15975,7 @@
       <c r="IE79" s="1"/>
       <c r="IF79" s="1"/>
     </row>
-    <row r="80" spans="1:240" s="2" customFormat="1">
+    <row r="80" spans="1:240" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A80" s="1"/>
       <c r="B80" s="1"/>
       <c r="C80" s="1"/>
@@ -15799,13 +15991,13 @@
       <c r="M80" s="1"/>
       <c r="N80" s="1"/>
       <c r="O80" s="1"/>
-      <c r="P80" s="1"/>
-      <c r="Q80" s="1"/>
-      <c r="R80" s="1"/>
-      <c r="S80" s="1"/>
-      <c r="T80" s="1"/>
-      <c r="U80" s="1"/>
-      <c r="V80" s="1"/>
+      <c r="P80" s="12"/>
+      <c r="Q80" s="12"/>
+      <c r="R80" s="12"/>
+      <c r="S80" s="12"/>
+      <c r="T80" s="12"/>
+      <c r="U80" s="12"/>
+      <c r="V80" s="12"/>
       <c r="W80" s="1"/>
       <c r="X80" s="1"/>
       <c r="Y80" s="1"/>
@@ -15814,13 +16006,13 @@
       <c r="AB80" s="1"/>
       <c r="AC80" s="1"/>
       <c r="AD80" s="1"/>
-      <c r="AE80" s="1"/>
-      <c r="AF80" s="1"/>
-      <c r="AG80" s="1"/>
-      <c r="AH80" s="1"/>
-      <c r="AI80" s="1"/>
-      <c r="AJ80" s="1"/>
-      <c r="AK80" s="1"/>
+      <c r="AE80" s="12"/>
+      <c r="AF80" s="12"/>
+      <c r="AG80" s="12"/>
+      <c r="AH80" s="12"/>
+      <c r="AI80" s="12"/>
+      <c r="AJ80" s="12"/>
+      <c r="AK80" s="12"/>
       <c r="AL80" s="1"/>
       <c r="AM80" s="1"/>
       <c r="AN80" s="1"/>
@@ -15830,14 +16022,14 @@
       <c r="AR80" s="1"/>
       <c r="AS80" s="1"/>
       <c r="AT80" s="1"/>
-      <c r="AU80" s="1"/>
+      <c r="AU80" s="12"/>
       <c r="AV80" s="1"/>
       <c r="AW80" s="1"/>
       <c r="AX80" s="1"/>
       <c r="AY80" s="1"/>
-      <c r="AZ80" s="129"/>
-      <c r="BA80" s="129"/>
-      <c r="BB80" s="129"/>
+      <c r="AZ80" s="128"/>
+      <c r="BA80" s="128"/>
+      <c r="BB80" s="128"/>
       <c r="BC80" s="1"/>
       <c r="BG80" s="1"/>
       <c r="BH80" s="1"/>
@@ -16017,7 +16209,7 @@
       <c r="IE80" s="1"/>
       <c r="IF80" s="1"/>
     </row>
-    <row r="81" spans="1:256" s="2" customFormat="1">
+    <row r="81" spans="1:256" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A81" s="1"/>
       <c r="C81" s="5"/>
       <c r="D81" s="1"/>
@@ -16250,7 +16442,7 @@
       <c r="IE81" s="1"/>
       <c r="IF81" s="1"/>
     </row>
-    <row r="82" spans="1:256" s="2" customFormat="1">
+    <row r="82" spans="1:256" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A82" s="1"/>
       <c r="C82" s="5"/>
       <c r="D82" s="1"/>
@@ -16483,7 +16675,7 @@
       <c r="IE82" s="1"/>
       <c r="IF82" s="1"/>
     </row>
-    <row r="83" spans="1:256" s="2" customFormat="1">
+    <row r="83" spans="1:256" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A83" s="1"/>
       <c r="C83" s="5"/>
       <c r="D83" s="1"/>
@@ -16716,7 +16908,7 @@
       <c r="IE83" s="1"/>
       <c r="IF83" s="1"/>
     </row>
-    <row r="84" spans="1:256" s="2" customFormat="1">
+    <row r="84" spans="1:256" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A84" s="7"/>
       <c r="B84" s="5"/>
       <c r="C84" s="5"/>
@@ -16951,7 +17143,7 @@
       <c r="IE84" s="1"/>
       <c r="IF84" s="1"/>
     </row>
-    <row r="85" spans="1:256" s="2" customFormat="1">
+    <row r="85" spans="1:256" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A85" s="7"/>
       <c r="B85" s="7"/>
       <c r="C85" s="6"/>
@@ -17202,7 +17394,7 @@
       <c r="IU85" s="1"/>
       <c r="IV85" s="1"/>
     </row>
-    <row r="86" spans="1:256" s="2" customFormat="1">
+    <row r="86" spans="1:256" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A86" s="1"/>
       <c r="B86" s="1"/>
       <c r="C86" s="6"/>
@@ -17453,7 +17645,7 @@
       <c r="IU86" s="1"/>
       <c r="IV86" s="1"/>
     </row>
-    <row r="87" spans="1:256" s="2" customFormat="1">
+    <row r="87" spans="1:256" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A87" s="1"/>
       <c r="B87" s="1"/>
       <c r="C87" s="6"/>
@@ -17704,7 +17896,7 @@
       <c r="IU87" s="1"/>
       <c r="IV87" s="1"/>
     </row>
-    <row r="88" spans="1:256" s="2" customFormat="1">
+    <row r="88" spans="1:256" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A88" s="1"/>
       <c r="B88" s="1"/>
       <c r="C88" s="6"/>
@@ -17955,7 +18147,7 @@
       <c r="IU88" s="1"/>
       <c r="IV88" s="1"/>
     </row>
-    <row r="89" spans="1:256" s="2" customFormat="1">
+    <row r="89" spans="1:256" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A89" s="1"/>
       <c r="B89" s="1"/>
       <c r="C89" s="6"/>
@@ -18206,7 +18398,7 @@
       <c r="IU89" s="1"/>
       <c r="IV89" s="1"/>
     </row>
-    <row r="90" spans="1:256" s="2" customFormat="1">
+    <row r="90" spans="1:256" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A90" s="1"/>
       <c r="B90" s="1"/>
       <c r="C90" s="6"/>
@@ -18457,7 +18649,7 @@
       <c r="IU90" s="1"/>
       <c r="IV90" s="1"/>
     </row>
-    <row r="91" spans="1:256" s="2" customFormat="1">
+    <row r="91" spans="1:256" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A91" s="1"/>
       <c r="B91" s="1"/>
       <c r="C91" s="6"/>
@@ -18706,7 +18898,7 @@
       <c r="IU91" s="1"/>
       <c r="IV91" s="1"/>
     </row>
-    <row r="92" spans="1:256" s="2" customFormat="1">
+    <row r="92" spans="1:256" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A92" s="1"/>
       <c r="B92" s="1"/>
       <c r="C92" s="6"/>
@@ -18955,7 +19147,7 @@
       <c r="IU92" s="1"/>
       <c r="IV92" s="1"/>
     </row>
-    <row r="93" spans="1:256" s="2" customFormat="1">
+    <row r="93" spans="1:256" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A93" s="1"/>
       <c r="B93" s="1"/>
       <c r="C93" s="6"/>
@@ -19204,7 +19396,7 @@
       <c r="IU93" s="1"/>
       <c r="IV93" s="1"/>
     </row>
-    <row r="94" spans="1:256" s="2" customFormat="1">
+    <row r="94" spans="1:256" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A94" s="1"/>
       <c r="B94" s="1"/>
       <c r="C94" s="6"/>
@@ -19453,7 +19645,7 @@
       <c r="IU94" s="1"/>
       <c r="IV94" s="1"/>
     </row>
-    <row r="95" spans="1:256" s="2" customFormat="1">
+    <row r="95" spans="1:256" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A95" s="7"/>
       <c r="B95" s="7"/>
       <c r="C95" s="6"/>
@@ -19704,7 +19896,7 @@
       <c r="IU95" s="1"/>
       <c r="IV95" s="1"/>
     </row>
-    <row r="96" spans="1:256" s="2" customFormat="1">
+    <row r="96" spans="1:256" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A96" s="7"/>
       <c r="B96" s="7"/>
       <c r="C96" s="6"/>
@@ -19955,7 +20147,7 @@
       <c r="IU96" s="1"/>
       <c r="IV96" s="1"/>
     </row>
-    <row r="97" spans="1:256" s="2" customFormat="1">
+    <row r="97" spans="1:256" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A97" s="12"/>
       <c r="B97" s="12"/>
       <c r="C97" s="6"/>
@@ -20205,7 +20397,7 @@
       <c r="IU97" s="1"/>
       <c r="IV97" s="1"/>
     </row>
-    <row r="98" spans="1:256" s="2" customFormat="1">
+    <row r="98" spans="1:256" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A98" s="7"/>
       <c r="B98" s="7"/>
       <c r="C98" s="6"/>
@@ -20455,7 +20647,7 @@
       <c r="IU98" s="1"/>
       <c r="IV98" s="1"/>
     </row>
-    <row r="99" spans="1:256" s="2" customFormat="1">
+    <row r="99" spans="1:256" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A99" s="7"/>
       <c r="B99" s="7"/>
       <c r="C99" s="6"/>
@@ -20705,7 +20897,7 @@
       <c r="IU99" s="1"/>
       <c r="IV99" s="1"/>
     </row>
-    <row r="100" spans="1:256" s="2" customFormat="1">
+    <row r="100" spans="1:256" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A100" s="7"/>
       <c r="B100" s="7"/>
       <c r="C100" s="6"/>
@@ -20955,7 +21147,7 @@
       <c r="IU100" s="1"/>
       <c r="IV100" s="1"/>
     </row>
-    <row r="101" spans="1:256" s="2" customFormat="1">
+    <row r="101" spans="1:256" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A101" s="7"/>
       <c r="B101" s="7"/>
       <c r="C101" s="6"/>
@@ -21205,7 +21397,7 @@
       <c r="IU101" s="1"/>
       <c r="IV101" s="1"/>
     </row>
-    <row r="102" spans="1:256" s="2" customFormat="1">
+    <row r="102" spans="1:256" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A102" s="7"/>
       <c r="B102" s="7"/>
       <c r="C102" s="6"/>
@@ -21455,7 +21647,7 @@
       <c r="IU102" s="1"/>
       <c r="IV102" s="1"/>
     </row>
-    <row r="103" spans="1:256" s="2" customFormat="1">
+    <row r="103" spans="1:256" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A103" s="7"/>
       <c r="B103" s="7"/>
       <c r="C103" s="6"/>
@@ -21705,7 +21897,7 @@
       <c r="IU103" s="1"/>
       <c r="IV103" s="1"/>
     </row>
-    <row r="104" spans="1:256" s="2" customFormat="1">
+    <row r="104" spans="1:256" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A104" s="7"/>
       <c r="B104" s="7"/>
       <c r="C104" s="6"/>
@@ -21956,7 +22148,7 @@
       <c r="IU104" s="1"/>
       <c r="IV104" s="1"/>
     </row>
-    <row r="105" spans="1:256" s="2" customFormat="1">
+    <row r="105" spans="1:256" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A105" s="1"/>
       <c r="B105" s="1"/>
       <c r="C105" s="6"/>
@@ -22207,7 +22399,7 @@
       <c r="IU105" s="1"/>
       <c r="IV105" s="1"/>
     </row>
-    <row r="106" spans="1:256" s="2" customFormat="1">
+    <row r="106" spans="1:256" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A106" s="1"/>
       <c r="B106" s="1"/>
       <c r="C106" s="6"/>
@@ -22458,7 +22650,7 @@
       <c r="IU106" s="1"/>
       <c r="IV106" s="1"/>
     </row>
-    <row r="107" spans="1:256" s="2" customFormat="1">
+    <row r="107" spans="1:256" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A107" s="1"/>
       <c r="B107" s="1"/>
       <c r="C107" s="6"/>
@@ -22709,7 +22901,7 @@
       <c r="IU107" s="1"/>
       <c r="IV107" s="1"/>
     </row>
-    <row r="108" spans="1:256" s="2" customFormat="1">
+    <row r="108" spans="1:256" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A108" s="1"/>
       <c r="B108" s="1"/>
       <c r="C108" s="6"/>
@@ -22960,7 +23152,7 @@
       <c r="IU108" s="1"/>
       <c r="IV108" s="1"/>
     </row>
-    <row r="109" spans="1:256" s="2" customFormat="1">
+    <row r="109" spans="1:256" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A109" s="1"/>
       <c r="B109" s="1"/>
       <c r="C109" s="6"/>
@@ -23211,7 +23403,7 @@
       <c r="IU109" s="1"/>
       <c r="IV109" s="1"/>
     </row>
-    <row r="110" spans="1:256" s="2" customFormat="1">
+    <row r="110" spans="1:256" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A110" s="1"/>
       <c r="B110" s="1"/>
       <c r="C110" s="6"/>
@@ -23462,7 +23654,7 @@
       <c r="IU110" s="1"/>
       <c r="IV110" s="1"/>
     </row>
-    <row r="111" spans="1:256" s="2" customFormat="1">
+    <row r="111" spans="1:256" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A111" s="1"/>
       <c r="B111" s="1"/>
       <c r="C111" s="6"/>
@@ -23713,7 +23905,7 @@
       <c r="IU111" s="1"/>
       <c r="IV111" s="1"/>
     </row>
-    <row r="112" spans="1:256" s="2" customFormat="1">
+    <row r="112" spans="1:256" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A112" s="1"/>
       <c r="B112" s="1"/>
       <c r="C112" s="6"/>
@@ -23964,7 +24156,7 @@
       <c r="IU112" s="1"/>
       <c r="IV112" s="1"/>
     </row>
-    <row r="113" spans="1:256" s="2" customFormat="1">
+    <row r="113" spans="1:256" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A113" s="1"/>
       <c r="B113" s="1"/>
       <c r="C113" s="6"/>
@@ -24215,7 +24407,7 @@
       <c r="IU113" s="1"/>
       <c r="IV113" s="1"/>
     </row>
-    <row r="114" spans="1:256" s="2" customFormat="1">
+    <row r="114" spans="1:256" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A114" s="1"/>
       <c r="B114" s="1"/>
       <c r="C114" s="6"/>
@@ -24466,7 +24658,7 @@
       <c r="IU114" s="1"/>
       <c r="IV114" s="1"/>
     </row>
-    <row r="115" spans="1:256" s="2" customFormat="1">
+    <row r="115" spans="1:256" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A115" s="1"/>
       <c r="B115" s="1"/>
       <c r="C115" s="6"/>
@@ -24717,7 +24909,7 @@
       <c r="IU115" s="1"/>
       <c r="IV115" s="1"/>
     </row>
-    <row r="116" spans="1:256" s="2" customFormat="1">
+    <row r="116" spans="1:256" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A116" s="1"/>
       <c r="B116" s="1"/>
       <c r="C116" s="6"/>
@@ -24968,7 +25160,7 @@
       <c r="IU116" s="1"/>
       <c r="IV116" s="1"/>
     </row>
-    <row r="117" spans="1:256" s="2" customFormat="1">
+    <row r="117" spans="1:256" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A117" s="1"/>
       <c r="B117" s="1"/>
       <c r="C117" s="6"/>
@@ -25219,7 +25411,7 @@
       <c r="IU117" s="1"/>
       <c r="IV117" s="1"/>
     </row>
-    <row r="118" spans="1:256" s="2" customFormat="1">
+    <row r="118" spans="1:256" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A118" s="1"/>
       <c r="B118" s="1"/>
       <c r="C118" s="6"/>
@@ -25470,7 +25662,7 @@
       <c r="IU118" s="1"/>
       <c r="IV118" s="1"/>
     </row>
-    <row r="119" spans="1:256" s="2" customFormat="1">
+    <row r="119" spans="1:256" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A119" s="1"/>
       <c r="B119" s="1"/>
       <c r="C119" s="6"/>
@@ -25721,7 +25913,7 @@
       <c r="IU119" s="1"/>
       <c r="IV119" s="1"/>
     </row>
-    <row r="120" spans="1:256" s="2" customFormat="1">
+    <row r="120" spans="1:256" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A120" s="1"/>
       <c r="B120" s="1"/>
       <c r="C120" s="6"/>
@@ -25972,7 +26164,7 @@
       <c r="IU120" s="1"/>
       <c r="IV120" s="1"/>
     </row>
-    <row r="121" spans="1:256">
+    <row r="121" spans="1:256" x14ac:dyDescent="0.25">
       <c r="C121" s="6"/>
       <c r="D121" s="6"/>
       <c r="E121" s="5"/>
@@ -26079,7 +26271,7 @@
       <c r="DG121" s="5"/>
       <c r="EW121" s="24"/>
     </row>
-    <row r="122" spans="1:256">
+    <row r="122" spans="1:256" x14ac:dyDescent="0.25">
       <c r="C122" s="6"/>
       <c r="D122" s="6"/>
       <c r="E122" s="5"/>
@@ -26186,7 +26378,7 @@
       <c r="DG122" s="5"/>
       <c r="EW122" s="24"/>
     </row>
-    <row r="123" spans="1:256">
+    <row r="123" spans="1:256" x14ac:dyDescent="0.25">
       <c r="C123" s="6"/>
       <c r="D123" s="6"/>
       <c r="E123" s="5"/>
@@ -26293,7 +26485,7 @@
       <c r="DG123" s="5"/>
       <c r="EW123" s="24"/>
     </row>
-    <row r="124" spans="1:256">
+    <row r="124" spans="1:256" x14ac:dyDescent="0.25">
       <c r="C124" s="6"/>
       <c r="D124" s="6"/>
       <c r="E124" s="5"/>
@@ -26400,7 +26592,7 @@
       <c r="DG124" s="5"/>
       <c r="EW124" s="24"/>
     </row>
-    <row r="125" spans="1:256">
+    <row r="125" spans="1:256" x14ac:dyDescent="0.25">
       <c r="C125" s="6"/>
       <c r="D125" s="6"/>
       <c r="E125" s="5"/>
@@ -26507,7 +26699,7 @@
       <c r="DG125" s="5"/>
       <c r="EW125" s="24"/>
     </row>
-    <row r="126" spans="1:256">
+    <row r="126" spans="1:256" x14ac:dyDescent="0.25">
       <c r="C126" s="6"/>
       <c r="D126" s="6"/>
       <c r="E126" s="5"/>
@@ -26614,7 +26806,7 @@
       <c r="DG126" s="5"/>
       <c r="EW126" s="24"/>
     </row>
-    <row r="127" spans="1:256">
+    <row r="127" spans="1:256" x14ac:dyDescent="0.25">
       <c r="CY127" s="5"/>
       <c r="CZ127" s="5"/>
       <c r="DA127" s="6"/>
@@ -26624,7 +26816,7 @@
       <c r="DG127" s="5"/>
       <c r="EW127" s="24"/>
     </row>
-    <row r="128" spans="1:256">
+    <row r="128" spans="1:256" x14ac:dyDescent="0.25">
       <c r="CZ128" s="5"/>
       <c r="DA128" s="6"/>
       <c r="DC128" s="5"/>
@@ -26633,7 +26825,7 @@
       <c r="DG128" s="5"/>
       <c r="EW128" s="24"/>
     </row>
-    <row r="129" spans="104:176">
+    <row r="129" spans="104:176" x14ac:dyDescent="0.25">
       <c r="CZ129" s="5"/>
       <c r="DA129" s="6"/>
       <c r="DC129" s="5"/>
@@ -26656,7 +26848,7 @@
       <c r="FS129" s="2"/>
       <c r="FT129" s="2"/>
     </row>
-    <row r="130" spans="104:176">
+    <row r="130" spans="104:176" x14ac:dyDescent="0.25">
       <c r="CZ130" s="5"/>
       <c r="DA130" s="6"/>
       <c r="DC130" s="5"/>
@@ -26688,7 +26880,7 @@
       <c r="FS130" s="2"/>
       <c r="FT130" s="2"/>
     </row>
-    <row r="131" spans="104:176">
+    <row r="131" spans="104:176" x14ac:dyDescent="0.25">
       <c r="CZ131" s="5"/>
       <c r="DA131" s="6"/>
       <c r="DC131" s="5"/>
@@ -26718,7 +26910,7 @@
       <c r="FS131" s="18"/>
       <c r="FT131" s="18"/>
     </row>
-    <row r="132" spans="104:176">
+    <row r="132" spans="104:176" x14ac:dyDescent="0.25">
       <c r="DH132" s="2"/>
       <c r="DI132" s="13"/>
       <c r="DK132" s="5"/>
@@ -26760,7 +26952,7 @@
       <c r="FF132" s="5"/>
       <c r="FG132" s="5"/>
     </row>
-    <row r="133" spans="104:176">
+    <row r="133" spans="104:176" x14ac:dyDescent="0.25">
       <c r="DH133" s="2"/>
       <c r="DI133" s="13"/>
       <c r="DK133" s="5"/>
@@ -26802,7 +26994,7 @@
       <c r="FF133" s="5"/>
       <c r="FG133" s="5"/>
     </row>
-    <row r="134" spans="104:176">
+    <row r="134" spans="104:176" x14ac:dyDescent="0.25">
       <c r="DH134" s="5"/>
       <c r="DI134" s="13"/>
       <c r="DK134" s="5"/>
@@ -26841,7 +27033,7 @@
       <c r="FF134" s="2"/>
       <c r="FG134" s="2"/>
     </row>
-    <row r="135" spans="104:176">
+    <row r="135" spans="104:176" x14ac:dyDescent="0.25">
       <c r="DH135" s="5"/>
       <c r="DI135" s="13"/>
       <c r="DK135" s="5"/>
@@ -26880,7 +27072,7 @@
       <c r="FF135" s="2"/>
       <c r="FG135" s="2"/>
     </row>
-    <row r="136" spans="104:176">
+    <row r="136" spans="104:176" x14ac:dyDescent="0.25">
       <c r="DH136" s="5"/>
       <c r="DI136" s="13"/>
       <c r="DK136" s="5"/>
@@ -26919,7 +27111,7 @@
       <c r="FF136" s="2"/>
       <c r="FG136" s="2"/>
     </row>
-    <row r="137" spans="104:176">
+    <row r="137" spans="104:176" x14ac:dyDescent="0.25">
       <c r="DH137" s="5"/>
       <c r="DI137" s="13"/>
       <c r="DK137" s="5"/>
@@ -26959,7 +27151,7 @@
       <c r="FF137" s="5"/>
       <c r="FG137" s="5"/>
     </row>
-    <row r="138" spans="104:176">
+    <row r="138" spans="104:176" x14ac:dyDescent="0.25">
       <c r="DH138" s="5"/>
       <c r="DI138" s="13"/>
       <c r="DK138" s="5"/>
@@ -26992,7 +27184,7 @@
       <c r="EZ138" s="2"/>
       <c r="FA138" s="2"/>
     </row>
-    <row r="139" spans="104:176">
+    <row r="139" spans="104:176" x14ac:dyDescent="0.25">
       <c r="DH139" s="5"/>
       <c r="DI139" s="13"/>
       <c r="DK139" s="5"/>
@@ -27025,7 +27217,7 @@
       <c r="EZ139" s="2"/>
       <c r="FA139" s="2"/>
     </row>
-    <row r="140" spans="104:176">
+    <row r="140" spans="104:176" x14ac:dyDescent="0.25">
       <c r="DH140" s="5"/>
       <c r="DI140" s="13"/>
       <c r="DK140" s="5"/>
@@ -27058,7 +27250,7 @@
       <c r="EZ140" s="2"/>
       <c r="FA140" s="2"/>
     </row>
-    <row r="141" spans="104:176">
+    <row r="141" spans="104:176" x14ac:dyDescent="0.25">
       <c r="DH141" s="5"/>
       <c r="DI141" s="13"/>
       <c r="DK141" s="5"/>
@@ -27091,7 +27283,7 @@
       <c r="EZ141" s="2"/>
       <c r="FA141" s="2"/>
     </row>
-    <row r="142" spans="104:176">
+    <row r="142" spans="104:176" x14ac:dyDescent="0.25">
       <c r="DH142" s="5"/>
       <c r="DI142" s="13"/>
       <c r="DK142" s="5"/>
@@ -27124,7 +27316,7 @@
       <c r="EZ142" s="2"/>
       <c r="FA142" s="2"/>
     </row>
-    <row r="143" spans="104:176">
+    <row r="143" spans="104:176" x14ac:dyDescent="0.25">
       <c r="DH143" s="5"/>
       <c r="DI143" s="13"/>
       <c r="DK143" s="5"/>
@@ -27159,7 +27351,7 @@
       <c r="EZ143" s="2"/>
       <c r="FA143" s="2"/>
     </row>
-    <row r="144" spans="104:176">
+    <row r="144" spans="104:176" x14ac:dyDescent="0.25">
       <c r="DH144" s="5"/>
       <c r="DI144" s="13"/>
       <c r="DK144" s="5"/>
@@ -27194,7 +27386,7 @@
       <c r="EZ144" s="2"/>
       <c r="FA144" s="2"/>
     </row>
-    <row r="145" spans="112:163">
+    <row r="145" spans="112:163" x14ac:dyDescent="0.25">
       <c r="DH145" s="5"/>
       <c r="DI145" s="13"/>
       <c r="DK145" s="5"/>
@@ -27229,7 +27421,7 @@
       <c r="EZ145" s="2"/>
       <c r="FA145" s="2"/>
     </row>
-    <row r="146" spans="112:163">
+    <row r="146" spans="112:163" x14ac:dyDescent="0.25">
       <c r="DH146" s="5"/>
       <c r="DI146" s="13"/>
       <c r="DK146" s="5"/>
@@ -27264,7 +27456,7 @@
       <c r="EZ146" s="2"/>
       <c r="FA146" s="2"/>
     </row>
-    <row r="147" spans="112:163">
+    <row r="147" spans="112:163" x14ac:dyDescent="0.25">
       <c r="DH147" s="5"/>
       <c r="DI147" s="13"/>
       <c r="DK147" s="5"/>
@@ -27299,7 +27491,7 @@
       <c r="EZ147" s="2"/>
       <c r="FA147" s="2"/>
     </row>
-    <row r="148" spans="112:163">
+    <row r="148" spans="112:163" x14ac:dyDescent="0.25">
       <c r="DH148" s="5"/>
       <c r="DI148" s="13"/>
       <c r="DK148" s="5"/>
@@ -27334,7 +27526,7 @@
       <c r="EZ148" s="2"/>
       <c r="FA148" s="2"/>
     </row>
-    <row r="149" spans="112:163">
+    <row r="149" spans="112:163" x14ac:dyDescent="0.25">
       <c r="DH149" s="5"/>
       <c r="DI149" s="13"/>
       <c r="DK149" s="5"/>
@@ -27376,7 +27568,7 @@
       <c r="FF149" s="5"/>
       <c r="FG149" s="5"/>
     </row>
-    <row r="150" spans="112:163">
+    <row r="150" spans="112:163" x14ac:dyDescent="0.25">
       <c r="DH150" s="5"/>
       <c r="DI150" s="13"/>
       <c r="DK150" s="5"/>
@@ -27418,7 +27610,7 @@
       <c r="FF150" s="5"/>
       <c r="FG150" s="5"/>
     </row>
-    <row r="151" spans="112:163">
+    <row r="151" spans="112:163" x14ac:dyDescent="0.25">
       <c r="DH151" s="5"/>
       <c r="DI151" s="13"/>
       <c r="DK151" s="5"/>
@@ -27460,7 +27652,7 @@
       <c r="FF151" s="5"/>
       <c r="FG151" s="5"/>
     </row>
-    <row r="152" spans="112:163">
+    <row r="152" spans="112:163" x14ac:dyDescent="0.25">
       <c r="DH152" s="5"/>
       <c r="DI152" s="13"/>
       <c r="DK152" s="5"/>
@@ -27501,7 +27693,7 @@
       <c r="FF152" s="2"/>
       <c r="FG152" s="2"/>
     </row>
-    <row r="153" spans="112:163">
+    <row r="153" spans="112:163" x14ac:dyDescent="0.25">
       <c r="DH153" s="5"/>
       <c r="DI153" s="13"/>
       <c r="DK153" s="5"/>
@@ -27542,7 +27734,7 @@
       <c r="FF153" s="2"/>
       <c r="FG153" s="2"/>
     </row>
-    <row r="154" spans="112:163">
+    <row r="154" spans="112:163" x14ac:dyDescent="0.25">
       <c r="DH154" s="5"/>
       <c r="DI154" s="13"/>
       <c r="DK154" s="5"/>
@@ -27584,7 +27776,7 @@
       <c r="FF154" s="5"/>
       <c r="FG154" s="5"/>
     </row>
-    <row r="155" spans="112:163">
+    <row r="155" spans="112:163" x14ac:dyDescent="0.25">
       <c r="DH155" s="5"/>
       <c r="DI155" s="13"/>
       <c r="DK155" s="5"/>
@@ -27625,7 +27817,7 @@
       <c r="FF155" s="5"/>
       <c r="FG155" s="5"/>
     </row>
-    <row r="156" spans="112:163">
+    <row r="156" spans="112:163" x14ac:dyDescent="0.25">
       <c r="DH156" s="5"/>
       <c r="DI156" s="13"/>
       <c r="DK156" s="5"/>
@@ -27666,7 +27858,7 @@
       <c r="FF156" s="5"/>
       <c r="FG156" s="5"/>
     </row>
-    <row r="157" spans="112:163">
+    <row r="157" spans="112:163" x14ac:dyDescent="0.25">
       <c r="DH157" s="5"/>
       <c r="DI157" s="13"/>
       <c r="DK157" s="5"/>
@@ -27707,7 +27899,7 @@
       <c r="FF157" s="5"/>
       <c r="FG157" s="5"/>
     </row>
-    <row r="158" spans="112:163">
+    <row r="158" spans="112:163" x14ac:dyDescent="0.25">
       <c r="DH158" s="5"/>
       <c r="DI158" s="13"/>
       <c r="DK158" s="5"/>
@@ -27748,7 +27940,7 @@
       <c r="FF158" s="5"/>
       <c r="FG158" s="5"/>
     </row>
-    <row r="159" spans="112:163">
+    <row r="159" spans="112:163" x14ac:dyDescent="0.25">
       <c r="DH159" s="5"/>
       <c r="DI159" s="13"/>
       <c r="DK159" s="5"/>
@@ -27790,7 +27982,7 @@
       <c r="FF159" s="5"/>
       <c r="FG159" s="5"/>
     </row>
-    <row r="160" spans="112:163">
+    <row r="160" spans="112:163" x14ac:dyDescent="0.25">
       <c r="DH160" s="5"/>
       <c r="DI160" s="13"/>
       <c r="DK160" s="5"/>
@@ -27832,7 +28024,7 @@
       <c r="FF160" s="5"/>
       <c r="FG160" s="5"/>
     </row>
-    <row r="161" spans="112:164">
+    <row r="161" spans="112:164" x14ac:dyDescent="0.25">
       <c r="DH161" s="5"/>
       <c r="DI161" s="13"/>
       <c r="DK161" s="5"/>
@@ -27875,7 +28067,7 @@
       <c r="FG161" s="2"/>
       <c r="FH161" s="5"/>
     </row>
-    <row r="162" spans="112:164">
+    <row r="162" spans="112:164" x14ac:dyDescent="0.25">
       <c r="DH162" s="5"/>
       <c r="DI162" s="13"/>
       <c r="DK162" s="5"/>
@@ -27917,7 +28109,7 @@
       <c r="FF162" s="5"/>
       <c r="FG162" s="5"/>
     </row>
-    <row r="163" spans="112:164">
+    <row r="163" spans="112:164" x14ac:dyDescent="0.25">
       <c r="DH163" s="5"/>
       <c r="DI163" s="13"/>
       <c r="DK163" s="5"/>
@@ -27960,7 +28152,7 @@
       <c r="FG163" s="2"/>
       <c r="FH163" s="5"/>
     </row>
-    <row r="164" spans="112:164">
+    <row r="164" spans="112:164" x14ac:dyDescent="0.25">
       <c r="DH164" s="5"/>
       <c r="DI164" s="13"/>
       <c r="DK164" s="5"/>
@@ -28001,7 +28193,7 @@
       <c r="FF164" s="5"/>
       <c r="FG164" s="5"/>
     </row>
-    <row r="165" spans="112:164">
+    <row r="165" spans="112:164" x14ac:dyDescent="0.25">
       <c r="DH165" s="5"/>
       <c r="DI165" s="13"/>
       <c r="DK165" s="5"/>
@@ -28041,7 +28233,7 @@
       <c r="FF165" s="5"/>
       <c r="FG165" s="5"/>
     </row>
-    <row r="166" spans="112:164">
+    <row r="166" spans="112:164" x14ac:dyDescent="0.25">
       <c r="DH166" s="5"/>
       <c r="DI166" s="13"/>
       <c r="DK166" s="5"/>
@@ -28081,7 +28273,7 @@
       <c r="FF166" s="5"/>
       <c r="FG166" s="5"/>
     </row>
-    <row r="167" spans="112:164">
+    <row r="167" spans="112:164" x14ac:dyDescent="0.25">
       <c r="DH167" s="5"/>
       <c r="DI167" s="13"/>
       <c r="DK167" s="5"/>
@@ -28121,7 +28313,7 @@
       <c r="FF167" s="5"/>
       <c r="FG167" s="5"/>
     </row>
-    <row r="168" spans="112:164">
+    <row r="168" spans="112:164" x14ac:dyDescent="0.25">
       <c r="DH168" s="5"/>
       <c r="DI168" s="13"/>
       <c r="DK168" s="5"/>
@@ -28161,7 +28353,7 @@
       <c r="FF168" s="5"/>
       <c r="FG168" s="5"/>
     </row>
-    <row r="169" spans="112:164">
+    <row r="169" spans="112:164" x14ac:dyDescent="0.25">
       <c r="DH169" s="5"/>
       <c r="DI169" s="13"/>
       <c r="DK169" s="5"/>
@@ -28201,7 +28393,7 @@
       <c r="FF169" s="2"/>
       <c r="FG169" s="2"/>
     </row>
-    <row r="170" spans="112:164">
+    <row r="170" spans="112:164" x14ac:dyDescent="0.25">
       <c r="DH170" s="5"/>
       <c r="DI170" s="13"/>
       <c r="DK170" s="5"/>
@@ -28242,7 +28434,7 @@
       <c r="FF170" s="5"/>
       <c r="FG170" s="5"/>
     </row>
-    <row r="171" spans="112:164">
+    <row r="171" spans="112:164" x14ac:dyDescent="0.25">
       <c r="DH171" s="5"/>
       <c r="DI171" s="13"/>
       <c r="DK171" s="5"/>
@@ -28282,7 +28474,7 @@
       <c r="FF171" s="2"/>
       <c r="FG171" s="5"/>
     </row>
-    <row r="172" spans="112:164">
+    <row r="172" spans="112:164" x14ac:dyDescent="0.25">
       <c r="DH172" s="5"/>
       <c r="DI172" s="13"/>
       <c r="DK172" s="5"/>
@@ -28322,7 +28514,7 @@
       <c r="FF172" s="2"/>
       <c r="FG172" s="2"/>
     </row>
-    <row r="173" spans="112:164">
+    <row r="173" spans="112:164" x14ac:dyDescent="0.25">
       <c r="DH173" s="5"/>
       <c r="DI173" s="13"/>
       <c r="DK173" s="5"/>
@@ -28362,7 +28554,7 @@
       <c r="FF173" s="2"/>
       <c r="FG173" s="2"/>
     </row>
-    <row r="174" spans="112:164">
+    <row r="174" spans="112:164" x14ac:dyDescent="0.25">
       <c r="DH174" s="5"/>
       <c r="DI174" s="13"/>
       <c r="DK174" s="5"/>
@@ -28403,7 +28595,7 @@
       <c r="FF174" s="2"/>
       <c r="FG174" s="2"/>
     </row>
-    <row r="175" spans="112:164">
+    <row r="175" spans="112:164" x14ac:dyDescent="0.25">
       <c r="DH175" s="5"/>
       <c r="DI175" s="13"/>
       <c r="DK175" s="5"/>
@@ -28443,7 +28635,7 @@
       <c r="FF175" s="2"/>
       <c r="FG175" s="2"/>
     </row>
-    <row r="176" spans="112:164">
+    <row r="176" spans="112:164" x14ac:dyDescent="0.25">
       <c r="DH176" s="5"/>
       <c r="DI176" s="13"/>
       <c r="DK176" s="5"/>
@@ -28483,7 +28675,7 @@
       <c r="FF176" s="2"/>
       <c r="FG176" s="2"/>
     </row>
-    <row r="177" spans="112:163">
+    <row r="177" spans="112:163" x14ac:dyDescent="0.25">
       <c r="DH177" s="5"/>
       <c r="DI177" s="13"/>
       <c r="DK177" s="5"/>
@@ -28523,7 +28715,7 @@
       <c r="FF177" s="2"/>
       <c r="FG177" s="2"/>
     </row>
-    <row r="178" spans="112:163">
+    <row r="178" spans="112:163" x14ac:dyDescent="0.25">
       <c r="DH178" s="5"/>
       <c r="DI178" s="13"/>
       <c r="DK178" s="5"/>
@@ -28563,7 +28755,7 @@
       <c r="FF178" s="2"/>
       <c r="FG178" s="2"/>
     </row>
-    <row r="179" spans="112:163">
+    <row r="179" spans="112:163" x14ac:dyDescent="0.25">
       <c r="DH179" s="5"/>
       <c r="DI179" s="13"/>
       <c r="DK179" s="5"/>
@@ -28603,7 +28795,7 @@
       <c r="FF179" s="2"/>
       <c r="FG179" s="2"/>
     </row>
-    <row r="180" spans="112:163">
+    <row r="180" spans="112:163" x14ac:dyDescent="0.25">
       <c r="DH180" s="5"/>
       <c r="DI180" s="13"/>
       <c r="DK180" s="5"/>
@@ -28643,7 +28835,7 @@
       <c r="FF180" s="2"/>
       <c r="FG180" s="2"/>
     </row>
-    <row r="181" spans="112:163">
+    <row r="181" spans="112:163" x14ac:dyDescent="0.25">
       <c r="DH181" s="5"/>
       <c r="DI181" s="13"/>
       <c r="DK181" s="5"/>
@@ -28683,7 +28875,7 @@
       <c r="FF181" s="2"/>
       <c r="FG181" s="2"/>
     </row>
-    <row r="182" spans="112:163">
+    <row r="182" spans="112:163" x14ac:dyDescent="0.25">
       <c r="DH182" s="5"/>
       <c r="DI182" s="13"/>
       <c r="DK182" s="5"/>
@@ -28723,7 +28915,7 @@
       <c r="FF182" s="2"/>
       <c r="FG182" s="2"/>
     </row>
-    <row r="183" spans="112:163">
+    <row r="183" spans="112:163" x14ac:dyDescent="0.25">
       <c r="DH183" s="5"/>
       <c r="DI183" s="13"/>
       <c r="DK183" s="5"/>
@@ -28763,7 +28955,7 @@
       <c r="FF183" s="2"/>
       <c r="FG183" s="2"/>
     </row>
-    <row r="184" spans="112:163">
+    <row r="184" spans="112:163" x14ac:dyDescent="0.25">
       <c r="DH184" s="5"/>
       <c r="DI184" s="13"/>
       <c r="DK184" s="5"/>
@@ -28803,7 +28995,7 @@
       <c r="FF184" s="2"/>
       <c r="FG184" s="2"/>
     </row>
-    <row r="185" spans="112:163">
+    <row r="185" spans="112:163" x14ac:dyDescent="0.25">
       <c r="DH185" s="5"/>
       <c r="DI185" s="13"/>
       <c r="DK185" s="5"/>
@@ -28844,15 +29036,15 @@
       <c r="FF185" s="2"/>
       <c r="FG185" s="2"/>
     </row>
-    <row r="186" spans="112:163">
+    <row r="186" spans="112:163" x14ac:dyDescent="0.25">
       <c r="DH186" s="5"/>
     </row>
-    <row r="187" spans="112:163">
+    <row r="187" spans="112:163" x14ac:dyDescent="0.25">
       <c r="DH187" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.17" right="0.17" top="0.31496062992125984" bottom="0.31496062992125984" header="0.11811023622047245" footer="0.19685039370078741"/>
-  <pageSetup paperSize="9" scale="10" fitToHeight="4" orientation="landscape"/>
+  <pageSetup paperSize="9" scale="10" fitToHeight="4" orientation="landscape" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">

--- a/table 14 version 2.xlsx
+++ b/table 14 version 2.xlsx
@@ -1,21 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="18067"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr autoCompressPictures="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cromp\Desktop\clay-thermodynamics\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="10400" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25605" windowHeight="10395" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="poles purs " sheetId="1" r:id="rId1"/>
   </sheets>
   <externalReferences>
     <externalReference r:id="rId2"/>
+    <externalReference r:id="rId3"/>
   </externalReferences>
   <definedNames>
     <definedName name="_xlnm.Database" localSheetId="0">#REF!</definedName>
@@ -64,7 +60,7 @@
     <definedName name="solver_val" localSheetId="0" hidden="1">0</definedName>
     <definedName name="solver_ver" localSheetId="0" hidden="1">3</definedName>
   </definedNames>
-  <calcPr calcId="171027" concurrentCalc="0"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -649,7 +645,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="5">
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="0.00000"/>
@@ -1028,7 +1024,7 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="209">
+  <cellXfs count="210">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1428,9 +1424,6 @@
     <xf numFmtId="164" fontId="2" fillId="6" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="2" fillId="6" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1482,6 +1475,12 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="6" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="6" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="12">
     <cellStyle name="Euro" xfId="3"/>
@@ -1569,6 +1568,31 @@
       <sheetData sheetId="16" refreshError="1"/>
       <sheetData sheetId="17" refreshError="1"/>
       <sheetData sheetId="18" refreshError="1"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="input"/>
+      <sheetName val="site Mtx"/>
+      <sheetName val="I mix"/>
+      <sheetName val="M3 mix"/>
+      <sheetName val="M2 mix"/>
+      <sheetName val="table 3"/>
+      <sheetName val="table 4"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0"/>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
+      <sheetData sheetId="3"/>
+      <sheetData sheetId="4"/>
+      <sheetData sheetId="5"/>
+      <sheetData sheetId="6"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -1901,119 +1925,117 @@
   </sheetPr>
   <dimension ref="A1:IV187"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="BB32" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="75" workbookViewId="0">
-      <pane ySplit="11" topLeftCell="A73" activePane="bottomLeft" state="frozen"/>
-      <selection activeCell="BM32" sqref="BM32"/>
-      <selection pane="bottomLeft" activeCell="BL75" sqref="BL75"/>
+    <sheetView tabSelected="1" topLeftCell="AB42" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="75" workbookViewId="0">
+      <selection activeCell="CF79" sqref="CF79"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="13.296875" defaultRowHeight="11.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="13.33203125" defaultRowHeight="12" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="17.5" style="1" customWidth="1"/>
-    <col min="2" max="2" width="17.19921875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="17" width="6.19921875" style="2" customWidth="1"/>
-    <col min="18" max="20" width="6.19921875" style="1" customWidth="1"/>
-    <col min="21" max="21" width="6.19921875" style="2" customWidth="1"/>
-    <col min="22" max="24" width="6.19921875" style="7" customWidth="1"/>
-    <col min="25" max="26" width="6.19921875" style="4" customWidth="1"/>
-    <col min="27" max="47" width="6.19921875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="17.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="17" width="6.1640625" style="2" customWidth="1"/>
+    <col min="18" max="20" width="6.1640625" style="1" customWidth="1"/>
+    <col min="21" max="21" width="6.1640625" style="2" customWidth="1"/>
+    <col min="22" max="24" width="6.1640625" style="7" customWidth="1"/>
+    <col min="25" max="26" width="6.1640625" style="4" customWidth="1"/>
+    <col min="27" max="47" width="6.1640625" style="1" customWidth="1"/>
     <col min="48" max="48" width="10.5" style="1" customWidth="1"/>
     <col min="49" max="50" width="6.5" style="1" customWidth="1"/>
     <col min="51" max="51" width="6" style="1" customWidth="1"/>
-    <col min="52" max="52" width="6.69921875" style="1" customWidth="1"/>
-    <col min="53" max="53" width="10.796875" style="1" customWidth="1"/>
+    <col min="52" max="52" width="6.6640625" style="1" customWidth="1"/>
+    <col min="53" max="53" width="10.83203125" style="1" customWidth="1"/>
     <col min="54" max="54" width="8" style="1" customWidth="1"/>
-    <col min="55" max="55" width="12.19921875" style="1" customWidth="1"/>
-    <col min="56" max="56" width="7.796875" style="1" bestFit="1" customWidth="1"/>
-    <col min="57" max="58" width="6.69921875" style="1" customWidth="1"/>
+    <col min="55" max="55" width="12.1640625" style="1" customWidth="1"/>
+    <col min="56" max="56" width="7.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="57" max="58" width="6.6640625" style="1" customWidth="1"/>
     <col min="59" max="59" width="6.5" style="1" customWidth="1"/>
     <col min="60" max="60" width="15.5" style="1" customWidth="1"/>
-    <col min="61" max="61" width="7.09765625" style="1" bestFit="1" customWidth="1"/>
-    <col min="62" max="62" width="7.796875" style="1" customWidth="1"/>
+    <col min="61" max="61" width="7.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="62" max="62" width="7.83203125" style="1" customWidth="1"/>
     <col min="63" max="63" width="9" style="1" customWidth="1"/>
-    <col min="64" max="64" width="10.296875" style="4" customWidth="1"/>
+    <col min="64" max="64" width="10.33203125" style="4" customWidth="1"/>
     <col min="65" max="65" width="9.5" style="2" customWidth="1"/>
-    <col min="66" max="66" width="9.19921875" style="1" customWidth="1"/>
-    <col min="67" max="67" width="9.796875" style="1" customWidth="1"/>
-    <col min="68" max="68" width="8.69921875" style="1" customWidth="1"/>
+    <col min="66" max="66" width="9.1640625" style="1" customWidth="1"/>
+    <col min="67" max="67" width="9.83203125" style="1" customWidth="1"/>
+    <col min="68" max="68" width="8.6640625" style="1" customWidth="1"/>
     <col min="69" max="70" width="9" style="1" customWidth="1"/>
-    <col min="71" max="72" width="9.796875" style="1" customWidth="1"/>
-    <col min="73" max="73" width="8.69921875" style="1" customWidth="1"/>
+    <col min="71" max="72" width="9.83203125" style="1" customWidth="1"/>
+    <col min="73" max="73" width="8.6640625" style="1" customWidth="1"/>
     <col min="74" max="74" width="7.5" style="1" customWidth="1"/>
-    <col min="75" max="75" width="8.69921875" style="1" customWidth="1"/>
+    <col min="75" max="75" width="8.6640625" style="1" customWidth="1"/>
     <col min="76" max="76" width="16" style="1" customWidth="1"/>
-    <col min="77" max="77" width="7.796875" style="1" customWidth="1"/>
+    <col min="77" max="77" width="7.83203125" style="1" customWidth="1"/>
     <col min="78" max="78" width="8" style="9" customWidth="1"/>
-    <col min="79" max="79" width="7.796875" style="1" customWidth="1"/>
-    <col min="80" max="80" width="11.19921875" style="1" customWidth="1"/>
-    <col min="81" max="81" width="10.296875" style="1" customWidth="1"/>
-    <col min="82" max="83" width="8.296875" style="1" customWidth="1"/>
-    <col min="84" max="84" width="8.69921875" style="1" customWidth="1"/>
-    <col min="85" max="85" width="10.19921875" style="1" customWidth="1"/>
+    <col min="79" max="79" width="7.83203125" style="1" customWidth="1"/>
+    <col min="80" max="80" width="11.1640625" style="1" customWidth="1"/>
+    <col min="81" max="81" width="10.33203125" style="1" customWidth="1"/>
+    <col min="82" max="83" width="8.33203125" style="1" customWidth="1"/>
+    <col min="84" max="84" width="8.6640625" style="1" customWidth="1"/>
+    <col min="85" max="85" width="10.1640625" style="1" customWidth="1"/>
     <col min="86" max="86" width="9" style="1" customWidth="1"/>
-    <col min="87" max="87" width="7.296875" style="1" customWidth="1"/>
-    <col min="88" max="88" width="9.19921875" style="1" customWidth="1"/>
+    <col min="87" max="87" width="7.33203125" style="1" customWidth="1"/>
+    <col min="88" max="88" width="9.1640625" style="1" customWidth="1"/>
     <col min="89" max="89" width="8" style="1" customWidth="1"/>
-    <col min="90" max="90" width="8.796875" style="1" customWidth="1"/>
+    <col min="90" max="90" width="8.83203125" style="1" customWidth="1"/>
     <col min="91" max="91" width="7.5" style="2" customWidth="1"/>
     <col min="92" max="92" width="8.5" style="2" customWidth="1"/>
     <col min="93" max="93" width="7.5" style="2" customWidth="1"/>
     <col min="94" max="94" width="8.5" style="2" customWidth="1"/>
-    <col min="95" max="95" width="8.796875" style="1" customWidth="1"/>
-    <col min="96" max="96" width="8.69921875" style="1" customWidth="1"/>
-    <col min="97" max="97" width="8.19921875" style="1" customWidth="1"/>
-    <col min="98" max="98" width="9.296875" style="1" customWidth="1"/>
+    <col min="95" max="95" width="8.83203125" style="1" customWidth="1"/>
+    <col min="96" max="96" width="8.6640625" style="1" customWidth="1"/>
+    <col min="97" max="97" width="8.1640625" style="1" customWidth="1"/>
+    <col min="98" max="98" width="9.33203125" style="1" customWidth="1"/>
     <col min="99" max="99" width="9" style="2" customWidth="1"/>
-    <col min="100" max="100" width="9.19921875" style="2" customWidth="1"/>
-    <col min="101" max="101" width="9.796875" style="2" customWidth="1"/>
+    <col min="100" max="100" width="9.1640625" style="2" customWidth="1"/>
+    <col min="101" max="101" width="9.83203125" style="2" customWidth="1"/>
     <col min="102" max="102" width="7" style="1" customWidth="1"/>
     <col min="103" max="103" width="10.5" style="1" customWidth="1"/>
-    <col min="104" max="104" width="11.296875" style="1" customWidth="1"/>
+    <col min="104" max="104" width="11.33203125" style="1" customWidth="1"/>
     <col min="105" max="105" width="14.5" style="8" customWidth="1"/>
     <col min="106" max="107" width="11" style="7" customWidth="1"/>
     <col min="108" max="108" width="11" style="1" customWidth="1"/>
     <col min="109" max="109" width="9" style="1" customWidth="1"/>
     <col min="110" max="110" width="11" style="1" customWidth="1"/>
-    <col min="111" max="112" width="8.19921875" style="1" customWidth="1"/>
+    <col min="111" max="112" width="8.1640625" style="1" customWidth="1"/>
     <col min="113" max="113" width="22" style="4" customWidth="1"/>
     <col min="114" max="114" width="13.5" style="6" customWidth="1"/>
     <col min="115" max="115" width="9.5" style="1" customWidth="1"/>
     <col min="116" max="116" width="10" style="1" customWidth="1"/>
-    <col min="117" max="117" width="11.19921875" style="5" customWidth="1"/>
-    <col min="118" max="118" width="11.796875" style="5" customWidth="1"/>
-    <col min="119" max="119" width="9.296875" style="5" customWidth="1"/>
-    <col min="120" max="120" width="9.19921875" style="5" customWidth="1"/>
-    <col min="121" max="121" width="18.69921875" style="4" customWidth="1"/>
-    <col min="122" max="122" width="8.296875" style="1" customWidth="1"/>
+    <col min="117" max="117" width="11.1640625" style="5" customWidth="1"/>
+    <col min="118" max="118" width="11.83203125" style="5" customWidth="1"/>
+    <col min="119" max="119" width="9.33203125" style="5" customWidth="1"/>
+    <col min="120" max="120" width="9.1640625" style="5" customWidth="1"/>
+    <col min="121" max="121" width="18.6640625" style="4" customWidth="1"/>
+    <col min="122" max="122" width="8.33203125" style="1" customWidth="1"/>
     <col min="123" max="123" width="11.5" style="1" customWidth="1"/>
-    <col min="124" max="124" width="9.796875" style="1" customWidth="1"/>
+    <col min="124" max="124" width="9.83203125" style="1" customWidth="1"/>
     <col min="125" max="125" width="11" style="1" customWidth="1"/>
-    <col min="126" max="126" width="11.296875" style="1" customWidth="1"/>
-    <col min="127" max="127" width="9.19921875" style="1" customWidth="1"/>
-    <col min="128" max="131" width="7.796875" style="1" customWidth="1"/>
+    <col min="126" max="126" width="11.33203125" style="1" customWidth="1"/>
+    <col min="127" max="127" width="9.1640625" style="1" customWidth="1"/>
+    <col min="128" max="131" width="7.83203125" style="1" customWidth="1"/>
     <col min="132" max="132" width="9" style="1" customWidth="1"/>
-    <col min="133" max="133" width="8.69921875" style="1" customWidth="1"/>
-    <col min="134" max="143" width="7.796875" style="1" customWidth="1"/>
-    <col min="144" max="144" width="10.69921875" style="1" customWidth="1"/>
-    <col min="145" max="145" width="9.796875" style="1" customWidth="1"/>
-    <col min="146" max="146" width="8.69921875" style="1" customWidth="1"/>
-    <col min="147" max="148" width="9.19921875" style="1" customWidth="1"/>
-    <col min="149" max="149" width="7.796875" style="1" customWidth="1"/>
-    <col min="150" max="150" width="7.796875" style="2" customWidth="1"/>
-    <col min="151" max="151" width="8.69921875" style="2" customWidth="1"/>
-    <col min="152" max="152" width="7.796875" style="2" customWidth="1"/>
-    <col min="153" max="153" width="7.69921875" style="3" customWidth="1"/>
+    <col min="133" max="133" width="8.6640625" style="1" customWidth="1"/>
+    <col min="134" max="143" width="7.83203125" style="1" customWidth="1"/>
+    <col min="144" max="144" width="10.6640625" style="1" customWidth="1"/>
+    <col min="145" max="145" width="9.83203125" style="1" customWidth="1"/>
+    <col min="146" max="146" width="8.6640625" style="1" customWidth="1"/>
+    <col min="147" max="148" width="9.1640625" style="1" customWidth="1"/>
+    <col min="149" max="149" width="7.83203125" style="1" customWidth="1"/>
+    <col min="150" max="150" width="7.83203125" style="2" customWidth="1"/>
+    <col min="151" max="151" width="8.6640625" style="2" customWidth="1"/>
+    <col min="152" max="152" width="7.83203125" style="2" customWidth="1"/>
+    <col min="153" max="153" width="7.6640625" style="3" customWidth="1"/>
     <col min="154" max="154" width="8" style="2" customWidth="1"/>
-    <col min="155" max="155" width="10.296875" style="2" customWidth="1"/>
-    <col min="156" max="156" width="7.69921875" style="1" customWidth="1"/>
-    <col min="157" max="158" width="8.69921875" style="1" customWidth="1"/>
-    <col min="159" max="159" width="10.19921875" style="1" customWidth="1"/>
+    <col min="155" max="155" width="10.33203125" style="2" customWidth="1"/>
+    <col min="156" max="156" width="7.6640625" style="1" customWidth="1"/>
+    <col min="157" max="158" width="8.6640625" style="1" customWidth="1"/>
+    <col min="159" max="159" width="10.1640625" style="1" customWidth="1"/>
     <col min="160" max="160" width="9" style="1" customWidth="1"/>
-    <col min="161" max="170" width="9.296875" style="1" customWidth="1"/>
-    <col min="171" max="16384" width="13.296875" style="1"/>
+    <col min="161" max="170" width="9.33203125" style="1" customWidth="1"/>
+    <col min="171" max="16384" width="13.33203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:160" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:160" x14ac:dyDescent="0.2">
       <c r="B1" s="2"/>
       <c r="C1" s="4"/>
       <c r="F1" s="4"/>
@@ -2028,7 +2050,7 @@
       <c r="S1" s="15"/>
       <c r="T1" s="23"/>
     </row>
-    <row r="2" spans="1:160" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:160" x14ac:dyDescent="0.2">
       <c r="B2" s="2"/>
       <c r="C2" s="4"/>
       <c r="F2" s="4"/>
@@ -2042,7 +2064,7 @@
       <c r="S2" s="15"/>
       <c r="T2" s="23"/>
     </row>
-    <row r="3" spans="1:160" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:160" x14ac:dyDescent="0.2">
       <c r="B3" s="2"/>
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
@@ -2058,7 +2080,7 @@
       <c r="S3" s="23"/>
       <c r="T3" s="23"/>
     </row>
-    <row r="4" spans="1:160" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:160" x14ac:dyDescent="0.2">
       <c r="B4" s="2"/>
       <c r="C4" s="4"/>
       <c r="F4" s="1"/>
@@ -2071,7 +2093,7 @@
       <c r="S4" s="23"/>
       <c r="T4" s="23"/>
     </row>
-    <row r="5" spans="1:160" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:160" x14ac:dyDescent="0.2">
       <c r="B5" s="2"/>
       <c r="C5" s="1"/>
       <c r="F5" s="1"/>
@@ -2084,7 +2106,7 @@
       <c r="S5" s="23"/>
       <c r="T5" s="23"/>
     </row>
-    <row r="6" spans="1:160" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:160" x14ac:dyDescent="0.2">
       <c r="B6" s="2"/>
       <c r="C6" s="4"/>
       <c r="E6" s="1"/>
@@ -2098,7 +2120,7 @@
       <c r="S6" s="23"/>
       <c r="T6" s="23"/>
     </row>
-    <row r="7" spans="1:160" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:160" x14ac:dyDescent="0.2">
       <c r="B7" s="2"/>
       <c r="C7" s="1"/>
       <c r="E7" s="1"/>
@@ -2112,7 +2134,7 @@
       <c r="S7" s="23"/>
       <c r="T7" s="23"/>
     </row>
-    <row r="8" spans="1:160" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:160" x14ac:dyDescent="0.2">
       <c r="B8" s="2"/>
       <c r="C8" s="1"/>
       <c r="E8" s="1"/>
@@ -2126,7 +2148,7 @@
       <c r="S8" s="23"/>
       <c r="T8" s="23"/>
     </row>
-    <row r="9" spans="1:160" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:160" x14ac:dyDescent="0.2">
       <c r="B9" s="1" t="s">
         <v>146</v>
       </c>
@@ -2173,7 +2195,7 @@
       <c r="FA9" s="2"/>
       <c r="FB9" s="2"/>
     </row>
-    <row r="10" spans="1:160" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:160" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>73</v>
       </c>
@@ -2226,7 +2248,7 @@
       <c r="FA10" s="2"/>
       <c r="FB10" s="2"/>
     </row>
-    <row r="11" spans="1:160" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:160" x14ac:dyDescent="0.2">
       <c r="M11" s="15"/>
       <c r="N11" s="15"/>
       <c r="O11" s="15"/>
@@ -2277,7 +2299,7 @@
       <c r="FA11" s="2"/>
       <c r="FB11" s="2"/>
     </row>
-    <row r="12" spans="1:160" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:160" x14ac:dyDescent="0.2">
       <c r="M12" s="15"/>
       <c r="N12" s="15"/>
       <c r="O12" s="15"/>
@@ -2330,7 +2352,7 @@
       <c r="FA12" s="2"/>
       <c r="FB12" s="2"/>
     </row>
-    <row r="13" spans="1:160" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:160" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>144</v>
       </c>
@@ -2413,7 +2435,7 @@
       <c r="FA13" s="2"/>
       <c r="FB13" s="2"/>
     </row>
-    <row r="14" spans="1:160" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:160" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>143</v>
       </c>
@@ -2504,7 +2526,7 @@
       <c r="FA14" s="2"/>
       <c r="FB14" s="2"/>
     </row>
-    <row r="15" spans="1:160" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:160" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>142</v>
       </c>
@@ -2589,7 +2611,7 @@
       <c r="FA15" s="2"/>
       <c r="FB15" s="2"/>
     </row>
-    <row r="16" spans="1:160" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:160" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>141</v>
       </c>
@@ -2680,7 +2702,7 @@
       <c r="FC16" s="12"/>
       <c r="FD16" s="12"/>
     </row>
-    <row r="17" spans="1:160" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:160" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>138</v>
       </c>
@@ -2780,7 +2802,7 @@
       <c r="FC17" s="12"/>
       <c r="FD17" s="12"/>
     </row>
-    <row r="18" spans="1:160" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:160" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
         <v>137</v>
       </c>
@@ -2880,7 +2902,7 @@
       <c r="FC18" s="12"/>
       <c r="FD18" s="12"/>
     </row>
-    <row r="19" spans="1:160" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:160" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
         <v>136</v>
       </c>
@@ -2978,7 +3000,7 @@
       <c r="EZ19" s="2"/>
       <c r="FA19" s="2"/>
     </row>
-    <row r="20" spans="1:160" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:160" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
         <v>135</v>
       </c>
@@ -3085,7 +3107,7 @@
       <c r="FC20" s="12"/>
       <c r="FD20" s="12"/>
     </row>
-    <row r="21" spans="1:160" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:160" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
         <v>133</v>
       </c>
@@ -3192,7 +3214,7 @@
       <c r="EZ21" s="2"/>
       <c r="FA21" s="2"/>
     </row>
-    <row r="22" spans="1:160" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:160" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
         <v>132</v>
       </c>
@@ -3306,7 +3328,7 @@
       <c r="EZ22" s="2"/>
       <c r="FA22" s="2"/>
     </row>
-    <row r="23" spans="1:160" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:160" x14ac:dyDescent="0.2">
       <c r="D23" s="1"/>
       <c r="M23" s="15"/>
       <c r="N23" s="15"/>
@@ -3403,7 +3425,7 @@
       <c r="EZ23" s="2"/>
       <c r="FA23" s="2"/>
     </row>
-    <row r="24" spans="1:160" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:160" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
         <v>129</v>
       </c>
@@ -3502,7 +3524,7 @@
       <c r="EZ24" s="2"/>
       <c r="FA24" s="2"/>
     </row>
-    <row r="25" spans="1:160" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:160" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
         <v>127</v>
       </c>
@@ -3614,7 +3636,7 @@
       <c r="EZ25" s="2"/>
       <c r="FA25" s="2"/>
     </row>
-    <row r="26" spans="1:160" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:160" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
         <v>122</v>
       </c>
@@ -3719,7 +3741,7 @@
       <c r="EZ26" s="2"/>
       <c r="FA26" s="2"/>
     </row>
-    <row r="27" spans="1:160" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:160" x14ac:dyDescent="0.2">
       <c r="B27" s="23"/>
       <c r="C27" s="23"/>
       <c r="D27" s="23"/>
@@ -3818,7 +3840,7 @@
       <c r="EX27" s="1"/>
       <c r="EY27" s="1"/>
     </row>
-    <row r="28" spans="1:160" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:160" x14ac:dyDescent="0.2">
       <c r="A28" s="7"/>
       <c r="B28" s="5"/>
       <c r="C28" s="5"/>
@@ -3950,7 +3972,7 @@
       <c r="EX28" s="1"/>
       <c r="EY28" s="1"/>
     </row>
-    <row r="29" spans="1:160" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:160" x14ac:dyDescent="0.2">
       <c r="A29" s="8"/>
       <c r="B29" s="128"/>
       <c r="C29" s="127"/>
@@ -4067,7 +4089,7 @@
       <c r="EX29" s="1"/>
       <c r="EY29" s="1"/>
     </row>
-    <row r="30" spans="1:160" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:160" x14ac:dyDescent="0.2">
       <c r="A30" s="7"/>
       <c r="B30" s="128"/>
       <c r="C30" s="127"/>
@@ -4180,7 +4202,7 @@
       <c r="EX30" s="1"/>
       <c r="EY30" s="1"/>
     </row>
-    <row r="31" spans="1:160" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:160" x14ac:dyDescent="0.2">
       <c r="A31" s="7"/>
       <c r="B31" s="5"/>
       <c r="C31" s="5"/>
@@ -4297,7 +4319,7 @@
       <c r="EX31" s="1"/>
       <c r="EY31" s="1"/>
     </row>
-    <row r="32" spans="1:160" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:160" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B32" s="29"/>
       <c r="C32" s="29"/>
       <c r="D32" s="29"/>
@@ -4442,7 +4464,7 @@
       <c r="EX32" s="1"/>
       <c r="EY32" s="1"/>
     </row>
-    <row r="33" spans="1:164" ht="13" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:164" ht="12.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C33" s="1"/>
       <c r="D33" s="1"/>
       <c r="F33" s="7"/>
@@ -4466,10 +4488,10 @@
       <c r="Z33" s="1"/>
       <c r="AV33" s="4"/>
       <c r="AW33" s="2"/>
-      <c r="BA33" s="208" t="s">
+      <c r="BA33" s="207" t="s">
         <v>148</v>
       </c>
-      <c r="BB33" s="208" t="s">
+      <c r="BB33" s="207" t="s">
         <v>150</v>
       </c>
       <c r="BD33" t="s">
@@ -4552,7 +4574,7 @@
       <c r="EX33" s="1"/>
       <c r="EY33" s="1"/>
     </row>
-    <row r="34" spans="1:164" ht="12" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:164" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C34" s="1"/>
       <c r="D34" s="1"/>
       <c r="F34" s="7"/>
@@ -4630,7 +4652,7 @@
       <c r="EX34" s="1"/>
       <c r="EY34" s="1"/>
     </row>
-    <row r="35" spans="1:164" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:164" x14ac:dyDescent="0.2">
       <c r="A35" s="95"/>
       <c r="B35" s="118" t="s">
         <v>97</v>
@@ -4794,7 +4816,7 @@
       <c r="FD35" s="2"/>
       <c r="FE35" s="2"/>
     </row>
-    <row r="36" spans="1:164" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:164" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A36" s="22" t="s">
         <v>90</v>
       </c>
@@ -5069,7 +5091,7 @@
       <c r="FG36" s="5"/>
       <c r="FH36" s="5"/>
     </row>
-    <row r="37" spans="1:164" ht="13" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:164" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A37" s="111" t="s">
         <v>65</v>
       </c>
@@ -5362,7 +5384,7 @@
       <c r="FG37" s="5"/>
       <c r="FH37" s="5"/>
     </row>
-    <row r="38" spans="1:164" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:164" x14ac:dyDescent="0.2">
       <c r="A38" s="106"/>
       <c r="B38" s="13"/>
       <c r="C38" s="5"/>
@@ -5472,7 +5494,7 @@
       <c r="FA38" s="2"/>
       <c r="FB38" s="2"/>
     </row>
-    <row r="39" spans="1:164" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:164" x14ac:dyDescent="0.2">
       <c r="A39" s="106"/>
       <c r="B39" s="13"/>
       <c r="C39" s="5"/>
@@ -5582,7 +5604,7 @@
       <c r="FA39" s="2"/>
       <c r="FB39" s="2"/>
     </row>
-    <row r="40" spans="1:164" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:164" x14ac:dyDescent="0.2">
       <c r="A40" s="106"/>
       <c r="B40" s="13"/>
       <c r="C40" s="5"/>
@@ -5692,7 +5714,7 @@
       <c r="FA40" s="2"/>
       <c r="FB40" s="2"/>
     </row>
-    <row r="41" spans="1:164" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:164" x14ac:dyDescent="0.2">
       <c r="A41" s="106"/>
       <c r="B41" s="13" t="s">
         <v>86</v>
@@ -5917,7 +5939,7 @@
       <c r="FA41" s="2"/>
       <c r="FB41" s="2"/>
     </row>
-    <row r="42" spans="1:164" ht="12" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:164" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A42" s="103" t="s">
         <v>65</v>
       </c>
@@ -6174,7 +6196,7 @@
       <c r="FA42" s="2"/>
       <c r="FB42" s="2"/>
     </row>
-    <row r="43" spans="1:164" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:164" x14ac:dyDescent="0.2">
       <c r="A43" s="95" t="s">
         <v>34</v>
       </c>
@@ -6283,7 +6305,7 @@
         <v>-95.892646370588352</v>
       </c>
       <c r="BC43" s="86">
-        <f t="shared" ref="BC43:BC77" si="11">B43/2*B$15+C43/2*B$14+(D43+M43+T43+W43+AD43)/2*B$13+(E43+I43+P43+X43+AE43)*B$16+F43*B$17+(J43+Q43+Y43+AF43)*B$18+(K43+R43+Z43+AG43+AK43+AO43)*B$20/2+(L43+S43+AA43+AH43+AL43+AP43)*B$19/2+(AJ43+AN43)*B$21+(AR43+AS43+AT43)*B$22+BB43</f>
+        <f>B43/2*B$15+C43/2*B$14+(D43+M43+T43+W43+AD43)/2*B$13+(E43+I43+P43+X43+AE43)*B$16+F43*B$17+(J43+Q43+Y43+AF43)*B$18+(K43+R43+Z43+AG43+AK43+AO43)*B$20/2+(L43+S43+AA43+AH43+AL43+AP43)*B$19/2+(AJ43+AN43)*B$21+(AR43+AS43+AT43)*B$22+BB43</f>
         <v>-5690.4136463705881</v>
       </c>
       <c r="BD43" s="5">
@@ -6294,19 +6316,19 @@
       <c r="BF43" s="49"/>
       <c r="BG43" s="85"/>
       <c r="BH43" s="84" t="str">
-        <f t="shared" ref="BH43:BH77" si="12">A43</f>
+        <f t="shared" ref="BH43:BH77" si="11">A43</f>
         <v>L.C. Montmor-Na</v>
       </c>
       <c r="BI43" s="49">
-        <f t="shared" ref="BI43:BI77" si="13">H43</f>
+        <f t="shared" ref="BI43:BI77" si="12">H43</f>
         <v>0.17</v>
       </c>
       <c r="BJ43" s="29">
-        <f t="shared" ref="BJ43:BJ77" si="14">IF(BI43=0,0,(B43*BU$29/2+C43*BV$29/2+D43*BW$29/2+E43*BY$29+F43*BX$29)/BI43+BT$29*((B43/2*C43/2*ABS(BU$29-BV$29)+B43/2*D43/2*ABS(BU$29-BW$29)+B43/2*E43*ABS(BU$29-BY$29)+B43/2*F43*ABS(BU$29-BX$29)+C43/2*D43/2*ABS(BV$29-BW$29)+C43/2*E43*ABS(BV$29-BY$29)+C43/2*F43*ABS(BV$29-BX$29)+D43/2*F43*ABS(BW$29-BY$29)+D43/2*E43*ABS(BW$29-BX$29)+E43*F43*ABS(BX$29-BY$29))/(BI43^2)))</f>
+        <f t="shared" ref="BJ43:BJ77" si="13">IF(BI43=0,0,(B43*BU$29/2+C43*BV$29/2+D43*BW$29/2+E43*BY$29+F43*BX$29)/BI43+BT$29*((B43/2*C43/2*ABS(BU$29-BV$29)+B43/2*D43/2*ABS(BU$29-BW$29)+B43/2*E43*ABS(BU$29-BY$29)+B43/2*F43*ABS(BU$29-BX$29)+C43/2*D43/2*ABS(BV$29-BW$29)+C43/2*E43*ABS(BV$29-BY$29)+C43/2*F43*ABS(BV$29-BX$29)+D43/2*F43*ABS(BW$29-BY$29)+D43/2*E43*ABS(BW$29-BX$29)+E43*F43*ABS(BX$29-BY$29))/(BI43^2)))</f>
         <v>260</v>
       </c>
       <c r="BK43" s="49">
-        <f t="shared" ref="BK43:BK77" si="15">O43</f>
+        <f t="shared" ref="BK43:BK77" si="14">O43</f>
         <v>2.8299999999999996</v>
       </c>
       <c r="BL43" s="29">
@@ -6314,71 +6336,71 @@
         <v>-248.21582789025302</v>
       </c>
       <c r="BM43" s="49">
-        <f t="shared" ref="BM43:BM77" si="16">V43</f>
+        <f t="shared" ref="BM43:BM77" si="15">V43</f>
         <v>0</v>
       </c>
       <c r="BN43" s="49">
-        <f t="shared" ref="BN43:BN77" si="17">IF(BM43=0,0,(T43*BU$31/2+P43*BV$31+Q43*BW$31+R43*BX$31*1.5+S43*BY$31*1.5)/BM43)</f>
+        <f t="shared" ref="BN43:BN77" si="16">IF(BM43=0,0,(T43*BU$31/2+P43*BV$31+Q43*BW$31+R43*BX$31*1.5+S43*BY$31*1.5)/BM43)</f>
         <v>0</v>
       </c>
       <c r="BO43" s="49">
-        <f t="shared" ref="BO43:BO77" si="18">AC43</f>
+        <f t="shared" ref="BO43:BO77" si="17">AC43</f>
         <v>0</v>
       </c>
       <c r="BP43" s="29">
-        <f t="shared" ref="BP43:BP77" si="19">IF(AS43=0,0,(W43*BU$33/2+X43*BV$33+Y43*BW$33+Z43*BX$33*1.5+AA43*BY$33*1.5)/BO43+BT$33*(X43*Y43*ABS(BV$33-BW$33)+X43*Z43*1.5*ABS(BV$33-BX$33)+X43*AA43*1.5*ABS(BV$33-BY$33)+X43*W43/2*ABS(BV$33-BU$33)+Y43*Z43*1.5*ABS(BW$33-BX$33)+Y43*AA43*1.5*ABS(BW$33-BY$33)+Y43*W43/2*ABS(BW$33-BU$33)+Z43*1.5*AA43*1.5*ABS(BX$33-BY$33)+Z43*1.5*W43/2*ABS(BX$33-BU$33)+AA43*1.5*W43/2*ABS(BY$33-BU$33))/(BO43^2))</f>
+        <f t="shared" ref="BP43:BP77" si="18">IF(AS43=0,0,(W43*BU$33/2+X43*BV$33+Y43*BW$33+Z43*BX$33*1.5+AA43*BY$33*1.5)/BO43+BT$33*(X43*Y43*ABS(BV$33-BW$33)+X43*Z43*1.5*ABS(BV$33-BX$33)+X43*AA43*1.5*ABS(BV$33-BY$33)+X43*W43/2*ABS(BV$33-BU$33)+Y43*Z43*1.5*ABS(BW$33-BX$33)+Y43*AA43*1.5*ABS(BW$33-BY$33)+Y43*W43/2*ABS(BW$33-BU$33)+Z43*1.5*AA43*1.5*ABS(BX$33-BY$33)+Z43*1.5*W43/2*ABS(BX$33-BU$33)+AA43*1.5*W43/2*ABS(BY$33-BU$33))/(BO43^2))</f>
         <v>0</v>
       </c>
       <c r="BQ43" s="49">
-        <f t="shared" ref="BQ43:BQ77" si="20">AI43</f>
+        <f t="shared" ref="BQ43:BQ77" si="19">AI43</f>
         <v>0</v>
       </c>
       <c r="BR43" s="49">
-        <f t="shared" ref="BR43:BR77" si="21">IF(AS43=0,0,(AD43*BU$33/2+AE43*BV$33+AF43*BW$33+AG43*BX$33*1.5+AH43*BY$33*1.5)/BQ43)</f>
+        <f t="shared" ref="BR43:BR77" si="20">IF(AS43=0,0,(AD43*BU$33/2+AE43*BV$33+AF43*BW$33+AG43*BX$33*1.5+AH43*BY$33*1.5)/BQ43)</f>
         <v>0</v>
       </c>
       <c r="BS43" s="49">
-        <f t="shared" ref="BS43:BS77" si="22">AM43</f>
+        <f t="shared" ref="BS43:BS77" si="21">AM43</f>
         <v>4</v>
       </c>
       <c r="BT43" s="49">
-        <f t="shared" ref="BT43:BT77" si="23">(AJ43*CA$29*2+AK43*CB$29*1.5+AL43*CC$29*1.5)/BS43</f>
+        <f t="shared" ref="BT43:BT77" si="22">(AJ43*CA$29*2+AK43*CB$29*1.5+AL43*CC$29*1.5)/BS43</f>
         <v>-285.32948153870637</v>
       </c>
       <c r="BU43" s="49">
-        <f t="shared" ref="BU43:BU77" si="24">AQ43</f>
+        <f t="shared" ref="BU43:BU77" si="23">AQ43</f>
         <v>4</v>
       </c>
       <c r="BV43" s="49">
-        <f t="shared" ref="BV43:BV77" si="25">(AN43*CA$29*2+AO43*CB$29*1.5+AP43*CC$29*1.5)/BU43</f>
+        <f t="shared" ref="BV43:BV77" si="24">(AN43*CA$29*2+AO43*CB$29*1.5+AP43*CC$29*1.5)/BU43</f>
         <v>-285.32948153870637</v>
       </c>
       <c r="BW43" s="49">
-        <f t="shared" ref="BW43:BW77" si="26">AR43</f>
+        <f t="shared" ref="BW43:BW77" si="25">AR43</f>
         <v>1</v>
       </c>
       <c r="BX43" s="49">
-        <f t="shared" ref="BX43:BX77" si="27">B$24</f>
+        <f t="shared" ref="BX43:BX77" si="26">B$24</f>
         <v>-249.57662413235681</v>
       </c>
       <c r="BY43" s="49">
-        <f t="shared" ref="BY43:BY77" si="28">AS43</f>
+        <f t="shared" ref="BY43:BY77" si="27">AS43</f>
         <v>0</v>
       </c>
       <c r="BZ43" s="49">
-        <f t="shared" ref="BZ43:BZ77" si="29">B$25</f>
+        <f t="shared" ref="BZ43:BZ77" si="28">B$25</f>
         <v>-311.97648306982126</v>
       </c>
       <c r="CA43" s="49">
-        <f t="shared" ref="CA43:CA77" si="30">AT43</f>
+        <f t="shared" ref="CA43:CA77" si="29">AT43</f>
         <v>0</v>
       </c>
       <c r="CB43" s="49">
-        <f t="shared" ref="CB43:CB77" si="31">B$26</f>
+        <f t="shared" ref="CB43:CB77" si="30">B$26</f>
         <v>-287.19938243327937</v>
       </c>
       <c r="CC43" s="83">
-        <f t="shared" ref="CC43:CC77" si="32">B43/2*C43/2*ABS(BU$29-BV$29)+B43/2*D43/2*ABS(BU$29-BW$29)+B43/2*E43*ABS(BU$29-BY$29)+B43/2*F43*ABS(BU$29-BX$29)+C43/2*D43/2*ABS(BV$29-BW$29)+C43/2*E43*ABS(BV$29-BY$29)+C43/2*F43*ABS(BV$29-BX$29)+D43/2*F43*ABS(BW$29-BY$29)+D43/2*E43*ABS(BW$29-BX$29)+E43*F43*ABS(BX$29-BY$29)</f>
+        <f t="shared" ref="CC43:CC77" si="31">B43/2*C43/2*ABS(BU$29-BV$29)+B43/2*D43/2*ABS(BU$29-BW$29)+B43/2*E43*ABS(BU$29-BY$29)+B43/2*F43*ABS(BU$29-BX$29)+C43/2*D43/2*ABS(BV$29-BW$29)+C43/2*E43*ABS(BV$29-BY$29)+C43/2*F43*ABS(BV$29-BX$29)+D43/2*F43*ABS(BW$29-BY$29)+D43/2*E43*ABS(BW$29-BX$29)+E43*F43*ABS(BX$29-BY$29)</f>
         <v>0</v>
       </c>
       <c r="CD43" s="83">
@@ -6386,11 +6408,11 @@
         <v>50.823131183250048</v>
       </c>
       <c r="CE43" s="83">
-        <f t="shared" ref="CE43:CE77" si="33">X43*Y43*ABS(BV$33-BW$33)+X43*Z43*1.5*ABS(BV$33-BX$33)+X43*AA43*1.5*ABS(BV$33-BY$33)+X43*W43/2*ABS(BV$33-BU$33)+Y43*Z43*1.5*ABS(BW$33-BX$33)+Y43*AA43*1.5*ABS(BW$33-BY$33)+Y43*W43/2*ABS(BW$33-BU$33)+Z43*1.5*AA43*1.5*ABS(BX$33-BY$33)+Z43*1.5*W43/2*ABS(BX$33-BU$33)+AA43*1.5*W43/2*ABS(BY$33-BU$33)</f>
+        <f t="shared" ref="CE43:CE77" si="32">X43*Y43*ABS(BV$33-BW$33)+X43*Z43*1.5*ABS(BV$33-BX$33)+X43*AA43*1.5*ABS(BV$33-BY$33)+X43*W43/2*ABS(BV$33-BU$33)+Y43*Z43*1.5*ABS(BW$33-BX$33)+Y43*AA43*1.5*ABS(BW$33-BY$33)+Y43*W43/2*ABS(BW$33-BU$33)+Z43*1.5*AA43*1.5*ABS(BX$33-BY$33)+Z43*1.5*W43/2*ABS(BX$33-BU$33)+AA43*1.5*W43/2*ABS(BY$33-BU$33)</f>
         <v>0</v>
       </c>
       <c r="CF43" s="82">
-        <f t="shared" ref="CF43:CF77" si="34">-((BI43*BS43*(BJ43-BT43)+BI43*BU43*(BJ43-BV43)+BK43*BS43*ABS(BL43-BT43)+BK43*BU43*ABS(BL43-BV43)+BM43*BS43*ABS(BN43-BT43)+BM43*BU43*ABS(BN43-BV43)+BK43*BW43*ABS(BL43-BX43)+BM43*BW43*ABS(BN43-BX43)+BK43*BM43*ABS(BL43-BN43)+BS43*BU43*ABS(BT43-BV43))+(BO43*BY43*(BP43-BZ43)+BQ43*BY43*(BR43-BZ43)+BO43*BQ43*ABS(BP43-BR43)+BY43*BS43*(BT43-BZ43)+BY43*BU43*(BV43-BZ43))+(BK43*CA43*ABS(BL43-CB43)+BM43*CA43*ABS(BN43-CB43)+BS43*CA43*ABS(BT43-CB43)+BU43*CA43*ABS(BV43-CB43)))/AU43</f>
+        <f t="shared" ref="CF43:CF77" si="33">-((BI43*BS43*(BJ43-BT43)+BI43*BU43*(BJ43-BV43)+BK43*BS43*ABS(BL43-BT43)+BK43*BU43*ABS(BL43-BV43)+BM43*BS43*ABS(BN43-BT43)+BM43*BU43*ABS(BN43-BV43)+BK43*BW43*ABS(BL43-BX43)+BM43*BW43*ABS(BN43-BX43)+BK43*BM43*ABS(BL43-BN43)+BS43*BU43*ABS(BT43-BV43))+(BO43*BY43*(BP43-BZ43)+BQ43*BY43*(BR43-BZ43)+BO43*BQ43*ABS(BP43-BR43)+BY43*BS43*(BT43-BZ43)+BY43*BU43*(BV43-BZ43))+(BK43*CA43*ABS(BL43-CB43)+BM43*CA43*ABS(BN43-CB43)+BS43*CA43*ABS(BT43-CB43)+BU43*CA43*ABS(BV43-CB43)))/AU43</f>
         <v>-132.14602223823152</v>
       </c>
       <c r="CG43" s="33"/>
@@ -6435,7 +6457,7 @@
       <c r="FA43" s="2"/>
       <c r="FB43" s="2"/>
     </row>
-    <row r="44" spans="1:164" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:164" x14ac:dyDescent="0.2">
       <c r="A44" s="48" t="s">
         <v>33</v>
       </c>
@@ -6553,103 +6575,103 @@
       <c r="BF44" s="7"/>
       <c r="BG44" s="66"/>
       <c r="BH44" s="64" t="str">
+        <f t="shared" si="11"/>
+        <v>L.C. Montmor-K</v>
+      </c>
+      <c r="BI44" s="5">
         <f t="shared" si="12"/>
-        <v>L.C. Montmor-K</v>
-      </c>
-      <c r="BI44" s="5">
+        <v>0.17</v>
+      </c>
+      <c r="BJ44" s="29">
         <f t="shared" si="13"/>
-        <v>0.17</v>
-      </c>
-      <c r="BJ44" s="29">
+        <v>453</v>
+      </c>
+      <c r="BK44" s="5">
         <f t="shared" si="14"/>
-        <v>453</v>
-      </c>
-      <c r="BK44" s="5">
+        <v>2.8299999999999996</v>
+      </c>
+      <c r="BL44" s="29">
+        <f t="shared" ref="BL44:BL74" si="34">(M44*BU$31/2+I44*BV$31+J44*BW$31+K44*BX$31*1.5+L44*BY$31*1.5)/BK44+BT$31*(I44*J44*ABS(BV$31-BW$31)+I44*K44*1.5*ABS(BV$31-BX$31)+I44*L44*1.5*ABS(BV$31-BY$31)+I44*M44/2*ABS(BV$31-BU$31)+J44*K44*1.5*ABS(BW$31-BX$31)+J44*L44*1.5*ABS(BW$31-BY$31)+J44*M44/2*ABS(BW$31-BU$31)+K44*1.5*L44*1.5*ABS(BX$31-BY$31)+K44*1.5*M44/2*ABS(BX$31-BU$31)+L44*1.5*M44/2*ABS(BY$31-BU$31))/(BK44^2)</f>
+        <v>-248.21582789025302</v>
+      </c>
+      <c r="BM44" s="5">
         <f t="shared" si="15"/>
-        <v>2.8299999999999996</v>
-      </c>
-      <c r="BL44" s="29">
-        <f t="shared" ref="BL44:BL74" si="35">(M44*BU$31/2+I44*BV$31+J44*BW$31+K44*BX$31*1.5+L44*BY$31*1.5)/BK44+BT$31*(I44*J44*ABS(BV$31-BW$31)+I44*K44*1.5*ABS(BV$31-BX$31)+I44*L44*1.5*ABS(BV$31-BY$31)+I44*M44/2*ABS(BV$31-BU$31)+J44*K44*1.5*ABS(BW$31-BX$31)+J44*L44*1.5*ABS(BW$31-BY$31)+J44*M44/2*ABS(BW$31-BU$31)+K44*1.5*L44*1.5*ABS(BX$31-BY$31)+K44*1.5*M44/2*ABS(BX$31-BU$31)+L44*1.5*M44/2*ABS(BY$31-BU$31))/(BK44^2)</f>
-        <v>-248.21582789025302</v>
-      </c>
-      <c r="BM44" s="5">
+        <v>0</v>
+      </c>
+      <c r="BN44" s="5">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="BN44" s="5">
+      <c r="BO44" s="5">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="BO44" s="5">
+      <c r="BP44" s="29">
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="BP44" s="29">
+      <c r="BQ44" s="5">
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
-      <c r="BQ44" s="5">
+      <c r="BR44" s="5">
         <f t="shared" si="20"/>
         <v>0</v>
       </c>
-      <c r="BR44" s="5">
+      <c r="BS44" s="5">
         <f t="shared" si="21"/>
-        <v>0</v>
-      </c>
-      <c r="BS44" s="5">
+        <v>4</v>
+      </c>
+      <c r="BT44" s="5">
         <f t="shared" si="22"/>
+        <v>-285.32948153870637</v>
+      </c>
+      <c r="BU44" s="5">
+        <f t="shared" si="23"/>
         <v>4</v>
       </c>
-      <c r="BT44" s="5">
-        <f t="shared" si="23"/>
+      <c r="BV44" s="5">
+        <f t="shared" si="24"/>
         <v>-285.32948153870637</v>
       </c>
-      <c r="BU44" s="5">
-        <f t="shared" si="24"/>
-        <v>4</v>
-      </c>
-      <c r="BV44" s="5">
+      <c r="BW44" s="5">
         <f t="shared" si="25"/>
-        <v>-285.32948153870637</v>
-      </c>
-      <c r="BW44" s="5">
+        <v>1</v>
+      </c>
+      <c r="BX44" s="5">
         <f t="shared" si="26"/>
-        <v>1</v>
-      </c>
-      <c r="BX44" s="5">
+        <v>-249.57662413235681</v>
+      </c>
+      <c r="BY44" s="5">
         <f t="shared" si="27"/>
-        <v>-249.57662413235681</v>
-      </c>
-      <c r="BY44" s="5">
+        <v>0</v>
+      </c>
+      <c r="BZ44" s="5">
         <f t="shared" si="28"/>
-        <v>0</v>
-      </c>
-      <c r="BZ44" s="5">
+        <v>-311.97648306982126</v>
+      </c>
+      <c r="CA44" s="5">
         <f t="shared" si="29"/>
-        <v>-311.97648306982126</v>
-      </c>
-      <c r="CA44" s="5">
+        <v>0</v>
+      </c>
+      <c r="CB44" s="5">
         <f t="shared" si="30"/>
-        <v>0</v>
-      </c>
-      <c r="CB44" s="5">
+        <v>-287.19938243327937</v>
+      </c>
+      <c r="CC44" s="10">
         <f t="shared" si="31"/>
-        <v>-287.19938243327937</v>
-      </c>
-      <c r="CC44" s="10">
+        <v>0</v>
+      </c>
+      <c r="CD44" s="10">
+        <f t="shared" ref="CD44:CD77" si="35">I44*J44*ABS(BV$31-BW$31)+I44*K44*1.5*ABS(BV$31-BX$31)+I44*L44*1.5*ABS(BV$31-BY$31)+I44*M44/2*ABS(BV$31-BU$31)+J44*K44*1.5*ABS(BW$31-BX$31)+J44*L44*1.5*ABS(BW$31-BY$31)+J44*M44/2*ABS(BW$31-BU$31)+K44*1.5*L44*1.5*ABS(BX$31-BY$31)+K44*1.5*M44/2*ABS(BX$31-BU$31)+L44*1.5*M44/2*ABS(BY$31-BU$31)</f>
+        <v>50.823131183250048</v>
+      </c>
+      <c r="CE44" s="10">
         <f t="shared" si="32"/>
         <v>0</v>
       </c>
-      <c r="CD44" s="10">
-        <f t="shared" ref="CD44:CD77" si="36">I44*J44*ABS(BV$31-BW$31)+I44*K44*1.5*ABS(BV$31-BX$31)+I44*L44*1.5*ABS(BV$31-BY$31)+I44*M44/2*ABS(BV$31-BU$31)+J44*K44*1.5*ABS(BW$31-BX$31)+J44*L44*1.5*ABS(BW$31-BY$31)+J44*M44/2*ABS(BW$31-BU$31)+K44*1.5*L44*1.5*ABS(BX$31-BY$31)+K44*1.5*M44/2*ABS(BX$31-BU$31)+L44*1.5*M44/2*ABS(BY$31-BU$31)</f>
-        <v>50.823131183250048</v>
-      </c>
-      <c r="CE44" s="10">
+      <c r="CF44" s="33">
         <f t="shared" si="33"/>
-        <v>0</v>
-      </c>
-      <c r="CF44" s="33">
-        <f t="shared" si="34"/>
         <v>-154.01935557156486</v>
       </c>
       <c r="CG44" s="32"/>
@@ -6694,7 +6716,7 @@
       <c r="FA44" s="2"/>
       <c r="FB44" s="2"/>
     </row>
-    <row r="45" spans="1:164" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:164" x14ac:dyDescent="0.2">
       <c r="A45" s="48" t="s">
         <v>32</v>
       </c>
@@ -6801,114 +6823,114 @@
         <v>-58.353250984203456</v>
       </c>
       <c r="BC45" s="36">
-        <f t="shared" si="11"/>
+        <f>B45/2*B$15+C45/2*B$14+(D45+M45+T45+W45+AD45)/2*B$13+(E45+I45+P45+X45+AE45)*B$16+F45*B$17+(J45+Q45+Y45+AF45)*B$18+(K45+R45+Z45+AG45+AK45+AO45)*B$20/2+(L45+S45+AA45+AH45+AL45+AP45)*B$19/2+(AJ45+AN45)*B$21+(AR45+AS45+AT45)*B$22+BB45</f>
         <v>-5690.2946509842031</v>
       </c>
       <c r="BD45" s="5">
-        <f t="shared" ref="BD45:BD77" si="37">BC45-BB45</f>
+        <f t="shared" ref="BD45:BD79" si="36">BC45-BB45</f>
         <v>-5631.9413999999997</v>
       </c>
       <c r="BE45" s="7"/>
       <c r="BF45" s="7"/>
       <c r="BG45" s="66"/>
       <c r="BH45" s="64" t="str">
+        <f t="shared" si="11"/>
+        <v>L.C. Montmor-Ca</v>
+      </c>
+      <c r="BI45" s="5">
         <f t="shared" si="12"/>
-        <v>L.C. Montmor-Ca</v>
-      </c>
-      <c r="BI45" s="5">
+        <v>0.17</v>
+      </c>
+      <c r="BJ45" s="29">
         <f t="shared" si="13"/>
-        <v>0.17</v>
-      </c>
-      <c r="BJ45" s="29">
+        <v>-71.22995929163136</v>
+      </c>
+      <c r="BK45" s="5">
         <f t="shared" si="14"/>
-        <v>-71.22995929163136</v>
-      </c>
-      <c r="BK45" s="5">
+        <v>2.8299999999999996</v>
+      </c>
+      <c r="BL45" s="29">
+        <f t="shared" si="34"/>
+        <v>-248.21582789025302</v>
+      </c>
+      <c r="BM45" s="5">
         <f t="shared" si="15"/>
-        <v>2.8299999999999996</v>
-      </c>
-      <c r="BL45" s="29">
+        <v>0</v>
+      </c>
+      <c r="BN45" s="5">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="BO45" s="5">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="BP45" s="29">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="BQ45" s="5">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="BR45" s="5">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="BS45" s="5">
+        <f t="shared" si="21"/>
+        <v>4</v>
+      </c>
+      <c r="BT45" s="5">
+        <f t="shared" si="22"/>
+        <v>-285.32948153870637</v>
+      </c>
+      <c r="BU45" s="5">
+        <f t="shared" si="23"/>
+        <v>4</v>
+      </c>
+      <c r="BV45" s="5">
+        <f t="shared" si="24"/>
+        <v>-285.32948153870637</v>
+      </c>
+      <c r="BW45" s="5">
+        <f t="shared" si="25"/>
+        <v>1</v>
+      </c>
+      <c r="BX45" s="5">
+        <f t="shared" si="26"/>
+        <v>-249.57662413235681</v>
+      </c>
+      <c r="BY45" s="5">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+      <c r="BZ45" s="5">
+        <f t="shared" si="28"/>
+        <v>-311.97648306982126</v>
+      </c>
+      <c r="CA45" s="5">
+        <f t="shared" si="29"/>
+        <v>0</v>
+      </c>
+      <c r="CB45" s="5">
+        <f t="shared" si="30"/>
+        <v>-287.19938243327937</v>
+      </c>
+      <c r="CC45" s="10">
+        <f t="shared" si="31"/>
+        <v>0</v>
+      </c>
+      <c r="CD45" s="10">
         <f t="shared" si="35"/>
-        <v>-248.21582789025302</v>
-      </c>
-      <c r="BM45" s="5">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="BN45" s="5">
-        <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="BO45" s="5">
-        <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
-      <c r="BP45" s="29">
-        <f t="shared" si="19"/>
-        <v>0</v>
-      </c>
-      <c r="BQ45" s="5">
-        <f t="shared" si="20"/>
-        <v>0</v>
-      </c>
-      <c r="BR45" s="5">
-        <f t="shared" si="21"/>
-        <v>0</v>
-      </c>
-      <c r="BS45" s="5">
-        <f t="shared" si="22"/>
-        <v>4</v>
-      </c>
-      <c r="BT45" s="5">
-        <f t="shared" si="23"/>
-        <v>-285.32948153870637</v>
-      </c>
-      <c r="BU45" s="5">
-        <f t="shared" si="24"/>
-        <v>4</v>
-      </c>
-      <c r="BV45" s="5">
-        <f t="shared" si="25"/>
-        <v>-285.32948153870637</v>
-      </c>
-      <c r="BW45" s="5">
-        <f t="shared" si="26"/>
-        <v>1</v>
-      </c>
-      <c r="BX45" s="5">
-        <f t="shared" si="27"/>
-        <v>-249.57662413235681</v>
-      </c>
-      <c r="BY45" s="5">
-        <f t="shared" si="28"/>
-        <v>0</v>
-      </c>
-      <c r="BZ45" s="5">
-        <f t="shared" si="29"/>
-        <v>-311.97648306982126</v>
-      </c>
-      <c r="CA45" s="5">
-        <f t="shared" si="30"/>
-        <v>0</v>
-      </c>
-      <c r="CB45" s="5">
-        <f t="shared" si="31"/>
-        <v>-287.19938243327937</v>
-      </c>
-      <c r="CC45" s="10">
+        <v>50.823131183250048</v>
+      </c>
+      <c r="CE45" s="10">
         <f t="shared" si="32"/>
         <v>0</v>
       </c>
-      <c r="CD45" s="10">
-        <f t="shared" si="36"/>
-        <v>50.823131183250048</v>
-      </c>
-      <c r="CE45" s="10">
+      <c r="CF45" s="33">
         <f t="shared" si="33"/>
-        <v>0</v>
-      </c>
-      <c r="CF45" s="33">
-        <f t="shared" si="34"/>
         <v>-94.606626851846627</v>
       </c>
       <c r="CG45" s="32"/>
@@ -6953,7 +6975,7 @@
       <c r="FA45" s="2"/>
       <c r="FB45" s="2"/>
     </row>
-    <row r="46" spans="1:164" ht="12" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:164" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A46" s="77" t="s">
         <v>31</v>
       </c>
@@ -7062,114 +7084,114 @@
         <v>-49.737646370588337</v>
       </c>
       <c r="BC46" s="73">
-        <f t="shared" si="11"/>
+        <f t="shared" ref="BC43:BC77" si="37">B46/2*B$15+C46/2*B$14+(D46+M46+T46+W46+AD46)/2*B$13+(E46+I46+P46+X46+AE46)*B$16+F46*B$17+(J46+Q46+Y46+AF46)*B$18+(K46+R46+Z46+AG46+AK46+AO46)*B$20/2+(L46+S46+AA46+AH46+AL46+AP46)*B$19/2+(AJ46+AN46)*B$21+(AR46+AS46+AT46)*B$22+BB46</f>
         <v>-5676.0146463705887</v>
       </c>
       <c r="BD46" s="5">
-        <f t="shared" si="37"/>
+        <f t="shared" si="36"/>
         <v>-5626.277</v>
       </c>
       <c r="BE46" s="43"/>
       <c r="BF46" s="43"/>
       <c r="BG46" s="72"/>
       <c r="BH46" s="71" t="str">
+        <f t="shared" si="11"/>
+        <v>L.C. Montmor-Mg</v>
+      </c>
+      <c r="BI46" s="42">
         <f t="shared" si="12"/>
-        <v>L.C. Montmor-Mg</v>
-      </c>
-      <c r="BI46" s="42">
+        <v>0.17</v>
+      </c>
+      <c r="BJ46" s="70">
         <f t="shared" si="13"/>
-        <v>0.17</v>
-      </c>
-      <c r="BJ46" s="70">
+        <v>-147.25</v>
+      </c>
+      <c r="BK46" s="42">
         <f t="shared" si="14"/>
-        <v>-147.25</v>
-      </c>
-      <c r="BK46" s="42">
+        <v>2.8299999999999996</v>
+      </c>
+      <c r="BL46" s="70">
+        <f t="shared" si="34"/>
+        <v>-248.21582789025302</v>
+      </c>
+      <c r="BM46" s="42">
         <f t="shared" si="15"/>
-        <v>2.8299999999999996</v>
-      </c>
-      <c r="BL46" s="70">
+        <v>0</v>
+      </c>
+      <c r="BN46" s="42">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="BO46" s="42">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="BP46" s="70">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="BQ46" s="42">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="BR46" s="42">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="BS46" s="42">
+        <f t="shared" si="21"/>
+        <v>4</v>
+      </c>
+      <c r="BT46" s="42">
+        <f t="shared" si="22"/>
+        <v>-285.32948153870637</v>
+      </c>
+      <c r="BU46" s="42">
+        <f t="shared" si="23"/>
+        <v>4</v>
+      </c>
+      <c r="BV46" s="42">
+        <f t="shared" si="24"/>
+        <v>-285.32948153870637</v>
+      </c>
+      <c r="BW46" s="42">
+        <f t="shared" si="25"/>
+        <v>1</v>
+      </c>
+      <c r="BX46" s="42">
+        <f t="shared" si="26"/>
+        <v>-249.57662413235681</v>
+      </c>
+      <c r="BY46" s="42">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+      <c r="BZ46" s="42">
+        <f t="shared" si="28"/>
+        <v>-311.97648306982126</v>
+      </c>
+      <c r="CA46" s="42">
+        <f t="shared" si="29"/>
+        <v>0</v>
+      </c>
+      <c r="CB46" s="42">
+        <f t="shared" si="30"/>
+        <v>-287.19938243327937</v>
+      </c>
+      <c r="CC46" s="39">
+        <f t="shared" si="31"/>
+        <v>0</v>
+      </c>
+      <c r="CD46" s="39">
         <f t="shared" si="35"/>
-        <v>-248.21582789025302</v>
-      </c>
-      <c r="BM46" s="42">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="BN46" s="42">
-        <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="BO46" s="42">
-        <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
-      <c r="BP46" s="70">
-        <f t="shared" si="19"/>
-        <v>0</v>
-      </c>
-      <c r="BQ46" s="42">
-        <f t="shared" si="20"/>
-        <v>0</v>
-      </c>
-      <c r="BR46" s="42">
-        <f t="shared" si="21"/>
-        <v>0</v>
-      </c>
-      <c r="BS46" s="42">
-        <f t="shared" si="22"/>
-        <v>4</v>
-      </c>
-      <c r="BT46" s="42">
-        <f t="shared" si="23"/>
-        <v>-285.32948153870637</v>
-      </c>
-      <c r="BU46" s="42">
-        <f t="shared" si="24"/>
-        <v>4</v>
-      </c>
-      <c r="BV46" s="42">
-        <f t="shared" si="25"/>
-        <v>-285.32948153870637</v>
-      </c>
-      <c r="BW46" s="42">
-        <f t="shared" si="26"/>
-        <v>1</v>
-      </c>
-      <c r="BX46" s="42">
-        <f t="shared" si="27"/>
-        <v>-249.57662413235681</v>
-      </c>
-      <c r="BY46" s="42">
-        <f t="shared" si="28"/>
-        <v>0</v>
-      </c>
-      <c r="BZ46" s="42">
-        <f t="shared" si="29"/>
-        <v>-311.97648306982126</v>
-      </c>
-      <c r="CA46" s="42">
-        <f t="shared" si="30"/>
-        <v>0</v>
-      </c>
-      <c r="CB46" s="42">
-        <f t="shared" si="31"/>
-        <v>-287.19938243327937</v>
-      </c>
-      <c r="CC46" s="39">
+        <v>50.823131183250048</v>
+      </c>
+      <c r="CE46" s="39">
         <f t="shared" si="32"/>
         <v>0</v>
       </c>
-      <c r="CD46" s="39">
-        <f t="shared" si="36"/>
-        <v>50.823131183250048</v>
-      </c>
-      <c r="CE46" s="39">
+      <c r="CF46" s="69">
         <f t="shared" si="33"/>
-        <v>0</v>
-      </c>
-      <c r="CF46" s="69">
-        <f t="shared" si="34"/>
         <v>-85.991022238231508</v>
       </c>
       <c r="CG46" s="32"/>
@@ -7214,7 +7236,7 @@
       <c r="FA46" s="2"/>
       <c r="FB46" s="2"/>
     </row>
-    <row r="47" spans="1:164" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:164" x14ac:dyDescent="0.2">
       <c r="A47" s="48" t="s">
         <v>30</v>
       </c>
@@ -7325,114 +7347,114 @@
         <v>-87.153764448046374</v>
       </c>
       <c r="BC47" s="36">
-        <f t="shared" si="11"/>
+        <f t="shared" si="37"/>
         <v>-5737.230764448047</v>
       </c>
       <c r="BD47" s="5">
-        <f t="shared" si="37"/>
+        <f t="shared" si="36"/>
         <v>-5650.0770000000002</v>
       </c>
       <c r="BE47" s="7"/>
       <c r="BF47" s="7"/>
       <c r="BG47" s="66"/>
       <c r="BH47" s="64" t="str">
+        <f t="shared" si="11"/>
+        <v>Beidellite-Na</v>
+      </c>
+      <c r="BI47" s="5">
         <f t="shared" si="12"/>
-        <v>Beidellite-Na</v>
-      </c>
-      <c r="BI47" s="5">
+        <v>0.17</v>
+      </c>
+      <c r="BJ47" s="29">
         <f t="shared" si="13"/>
-        <v>0.17</v>
-      </c>
-      <c r="BJ47" s="29">
+        <v>260</v>
+      </c>
+      <c r="BK47" s="5">
         <f t="shared" si="14"/>
-        <v>260</v>
-      </c>
-      <c r="BK47" s="5">
+        <v>3</v>
+      </c>
+      <c r="BL47" s="29">
+        <f t="shared" si="34"/>
+        <v>-251.753632508815</v>
+      </c>
+      <c r="BM47" s="5">
         <f t="shared" si="15"/>
-        <v>3</v>
-      </c>
-      <c r="BL47" s="29">
+        <v>0</v>
+      </c>
+      <c r="BN47" s="5">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="BO47" s="5">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="BP47" s="29">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="BQ47" s="5">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="BR47" s="5">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="BS47" s="5">
+        <f t="shared" si="21"/>
+        <v>3.915</v>
+      </c>
+      <c r="BT47" s="5">
+        <f t="shared" si="22"/>
+        <v>-283.70867875682239</v>
+      </c>
+      <c r="BU47" s="5">
+        <f t="shared" si="23"/>
+        <v>3.915</v>
+      </c>
+      <c r="BV47" s="5">
+        <f t="shared" si="24"/>
+        <v>-283.70867875682239</v>
+      </c>
+      <c r="BW47" s="5">
+        <f t="shared" si="25"/>
+        <v>1</v>
+      </c>
+      <c r="BX47" s="5">
+        <f t="shared" si="26"/>
+        <v>-249.57662413235681</v>
+      </c>
+      <c r="BY47" s="5">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+      <c r="BZ47" s="5">
+        <f t="shared" si="28"/>
+        <v>-311.97648306982126</v>
+      </c>
+      <c r="CA47" s="5">
+        <f t="shared" si="29"/>
+        <v>0</v>
+      </c>
+      <c r="CB47" s="5">
+        <f t="shared" si="30"/>
+        <v>-287.19938243327937</v>
+      </c>
+      <c r="CC47" s="10">
+        <f t="shared" si="31"/>
+        <v>0</v>
+      </c>
+      <c r="CD47" s="10">
         <f t="shared" si="35"/>
-        <v>-251.753632508815</v>
-      </c>
-      <c r="BM47" s="5">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="BN47" s="5">
-        <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="BO47" s="5">
-        <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
-      <c r="BP47" s="29">
-        <f t="shared" si="19"/>
-        <v>0</v>
-      </c>
-      <c r="BQ47" s="5">
-        <f t="shared" si="20"/>
-        <v>0</v>
-      </c>
-      <c r="BR47" s="5">
-        <f t="shared" si="21"/>
-        <v>0</v>
-      </c>
-      <c r="BS47" s="5">
-        <f t="shared" si="22"/>
-        <v>3.915</v>
-      </c>
-      <c r="BT47" s="5">
-        <f t="shared" si="23"/>
-        <v>-283.70867875682239</v>
-      </c>
-      <c r="BU47" s="5">
-        <f t="shared" si="24"/>
-        <v>3.915</v>
-      </c>
-      <c r="BV47" s="5">
-        <f t="shared" si="25"/>
-        <v>-283.70867875682239</v>
-      </c>
-      <c r="BW47" s="5">
-        <f t="shared" si="26"/>
-        <v>1</v>
-      </c>
-      <c r="BX47" s="5">
-        <f t="shared" si="27"/>
-        <v>-249.57662413235681</v>
-      </c>
-      <c r="BY47" s="5">
-        <f t="shared" si="28"/>
-        <v>0</v>
-      </c>
-      <c r="BZ47" s="5">
-        <f t="shared" si="29"/>
-        <v>-311.97648306982126</v>
-      </c>
-      <c r="CA47" s="5">
-        <f t="shared" si="30"/>
-        <v>0</v>
-      </c>
-      <c r="CB47" s="5">
-        <f t="shared" si="31"/>
-        <v>-287.19938243327937</v>
-      </c>
-      <c r="CC47" s="10">
+        <v>0</v>
+      </c>
+      <c r="CE47" s="10">
         <f t="shared" si="32"/>
         <v>0</v>
       </c>
-      <c r="CD47" s="10">
-        <f t="shared" si="36"/>
-        <v>0</v>
-      </c>
-      <c r="CE47" s="10">
+      <c r="CF47" s="33">
         <f t="shared" si="33"/>
-        <v>0</v>
-      </c>
-      <c r="CF47" s="33">
-        <f t="shared" si="34"/>
         <v>-123.40714031568955</v>
       </c>
       <c r="CG47" s="32"/>
@@ -7477,7 +7499,7 @@
       <c r="FA47" s="2"/>
       <c r="FB47" s="2"/>
     </row>
-    <row r="48" spans="1:164" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:164" x14ac:dyDescent="0.2">
       <c r="A48" s="48" t="s">
         <v>29</v>
       </c>
@@ -7588,114 +7610,114 @@
         <v>-108.56228944804636</v>
       </c>
       <c r="BC48" s="36">
-        <f t="shared" si="11"/>
+        <f t="shared" si="37"/>
         <v>-5749.8621894480466</v>
       </c>
       <c r="BD48" s="5">
-        <f t="shared" si="37"/>
+        <f t="shared" si="36"/>
         <v>-5641.2999</v>
       </c>
       <c r="BE48" s="7"/>
       <c r="BF48" s="7"/>
       <c r="BG48" s="66"/>
       <c r="BH48" s="64" t="str">
+        <f t="shared" si="11"/>
+        <v>Beidellite-K</v>
+      </c>
+      <c r="BI48" s="5">
         <f t="shared" si="12"/>
-        <v>Beidellite-K</v>
-      </c>
-      <c r="BI48" s="5">
+        <v>0.17</v>
+      </c>
+      <c r="BJ48" s="29">
         <f t="shared" si="13"/>
-        <v>0.17</v>
-      </c>
-      <c r="BJ48" s="29">
+        <v>453</v>
+      </c>
+      <c r="BK48" s="5">
         <f t="shared" si="14"/>
-        <v>453</v>
-      </c>
-      <c r="BK48" s="5">
+        <v>3</v>
+      </c>
+      <c r="BL48" s="29">
+        <f t="shared" si="34"/>
+        <v>-251.753632508815</v>
+      </c>
+      <c r="BM48" s="5">
         <f t="shared" si="15"/>
-        <v>3</v>
-      </c>
-      <c r="BL48" s="29">
+        <v>0</v>
+      </c>
+      <c r="BN48" s="5">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="BO48" s="5">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="BP48" s="29">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="BQ48" s="5">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="BR48" s="5">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="BS48" s="5">
+        <f t="shared" si="21"/>
+        <v>3.915</v>
+      </c>
+      <c r="BT48" s="5">
+        <f t="shared" si="22"/>
+        <v>-283.70867875682239</v>
+      </c>
+      <c r="BU48" s="5">
+        <f t="shared" si="23"/>
+        <v>3.915</v>
+      </c>
+      <c r="BV48" s="5">
+        <f t="shared" si="24"/>
+        <v>-283.70867875682239</v>
+      </c>
+      <c r="BW48" s="5">
+        <f t="shared" si="25"/>
+        <v>1</v>
+      </c>
+      <c r="BX48" s="5">
+        <f t="shared" si="26"/>
+        <v>-249.57662413235681</v>
+      </c>
+      <c r="BY48" s="5">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+      <c r="BZ48" s="5">
+        <f t="shared" si="28"/>
+        <v>-311.97648306982126</v>
+      </c>
+      <c r="CA48" s="5">
+        <f t="shared" si="29"/>
+        <v>0</v>
+      </c>
+      <c r="CB48" s="5">
+        <f t="shared" si="30"/>
+        <v>-287.19938243327937</v>
+      </c>
+      <c r="CC48" s="10">
+        <f t="shared" si="31"/>
+        <v>0</v>
+      </c>
+      <c r="CD48" s="10">
         <f t="shared" si="35"/>
-        <v>-251.753632508815</v>
-      </c>
-      <c r="BM48" s="5">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="BN48" s="5">
-        <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="BO48" s="5">
-        <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
-      <c r="BP48" s="29">
-        <f t="shared" si="19"/>
-        <v>0</v>
-      </c>
-      <c r="BQ48" s="5">
-        <f t="shared" si="20"/>
-        <v>0</v>
-      </c>
-      <c r="BR48" s="5">
-        <f t="shared" si="21"/>
-        <v>0</v>
-      </c>
-      <c r="BS48" s="5">
-        <f t="shared" si="22"/>
-        <v>3.915</v>
-      </c>
-      <c r="BT48" s="5">
-        <f t="shared" si="23"/>
-        <v>-283.70867875682239</v>
-      </c>
-      <c r="BU48" s="5">
-        <f t="shared" si="24"/>
-        <v>3.915</v>
-      </c>
-      <c r="BV48" s="5">
-        <f t="shared" si="25"/>
-        <v>-283.70867875682239</v>
-      </c>
-      <c r="BW48" s="5">
-        <f t="shared" si="26"/>
-        <v>1</v>
-      </c>
-      <c r="BX48" s="5">
-        <f t="shared" si="27"/>
-        <v>-249.57662413235681</v>
-      </c>
-      <c r="BY48" s="5">
-        <f t="shared" si="28"/>
-        <v>0</v>
-      </c>
-      <c r="BZ48" s="5">
-        <f t="shared" si="29"/>
-        <v>-311.97648306982126</v>
-      </c>
-      <c r="CA48" s="5">
-        <f t="shared" si="30"/>
-        <v>0</v>
-      </c>
-      <c r="CB48" s="5">
-        <f t="shared" si="31"/>
-        <v>-287.19938243327937</v>
-      </c>
-      <c r="CC48" s="10">
+        <v>0</v>
+      </c>
+      <c r="CE48" s="10">
         <f t="shared" si="32"/>
         <v>0</v>
       </c>
-      <c r="CD48" s="10">
-        <f t="shared" si="36"/>
-        <v>0</v>
-      </c>
-      <c r="CE48" s="10">
+      <c r="CF48" s="33">
         <f t="shared" si="33"/>
-        <v>0</v>
-      </c>
-      <c r="CF48" s="33">
-        <f t="shared" si="34"/>
         <v>-144.81566531568953</v>
       </c>
       <c r="CG48" s="32"/>
@@ -7740,7 +7762,7 @@
       <c r="FA48" s="2"/>
       <c r="FB48" s="2"/>
     </row>
-    <row r="49" spans="1:158" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:158" x14ac:dyDescent="0.2">
       <c r="A49" s="48" t="s">
         <v>28</v>
       </c>
@@ -7851,114 +7873,114 @@
         <v>-50.412081213622173</v>
       </c>
       <c r="BC49" s="36">
-        <f t="shared" si="11"/>
+        <f t="shared" si="37"/>
         <v>-5737.9094812136227</v>
       </c>
       <c r="BD49" s="5">
-        <f t="shared" si="37"/>
+        <f t="shared" si="36"/>
         <v>-5687.4974000000002</v>
       </c>
       <c r="BE49" s="7"/>
       <c r="BF49" s="7"/>
       <c r="BG49" s="66"/>
       <c r="BH49" s="64" t="str">
+        <f t="shared" si="11"/>
+        <v>Beidellite-Ca</v>
+      </c>
+      <c r="BI49" s="5">
         <f t="shared" si="12"/>
-        <v>Beidellite-Ca</v>
-      </c>
-      <c r="BI49" s="5">
+        <v>0.17</v>
+      </c>
+      <c r="BJ49" s="29">
         <f t="shared" si="13"/>
-        <v>0.17</v>
-      </c>
-      <c r="BJ49" s="29">
+        <v>-71.22995929163136</v>
+      </c>
+      <c r="BK49" s="5">
         <f t="shared" si="14"/>
-        <v>-71.22995929163136</v>
-      </c>
-      <c r="BK49" s="5">
+        <v>3</v>
+      </c>
+      <c r="BL49" s="29">
+        <f t="shared" si="34"/>
+        <v>-251.753632508815</v>
+      </c>
+      <c r="BM49" s="5">
         <f t="shared" si="15"/>
-        <v>3</v>
-      </c>
-      <c r="BL49" s="29">
+        <v>0</v>
+      </c>
+      <c r="BN49" s="5">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="BO49" s="5">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="BP49" s="29">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="BQ49" s="5">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="BR49" s="5">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="BS49" s="5">
+        <f t="shared" si="21"/>
+        <v>3.915</v>
+      </c>
+      <c r="BT49" s="5">
+        <f t="shared" si="22"/>
+        <v>-283.70867875682239</v>
+      </c>
+      <c r="BU49" s="5">
+        <f t="shared" si="23"/>
+        <v>3.915</v>
+      </c>
+      <c r="BV49" s="5">
+        <f t="shared" si="24"/>
+        <v>-283.70867875682239</v>
+      </c>
+      <c r="BW49" s="5">
+        <f t="shared" si="25"/>
+        <v>1</v>
+      </c>
+      <c r="BX49" s="5">
+        <f t="shared" si="26"/>
+        <v>-249.57662413235681</v>
+      </c>
+      <c r="BY49" s="5">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+      <c r="BZ49" s="5">
+        <f t="shared" si="28"/>
+        <v>-311.97648306982126</v>
+      </c>
+      <c r="CA49" s="5">
+        <f t="shared" si="29"/>
+        <v>0</v>
+      </c>
+      <c r="CB49" s="5">
+        <f t="shared" si="30"/>
+        <v>-287.19938243327937</v>
+      </c>
+      <c r="CC49" s="10">
+        <f t="shared" si="31"/>
+        <v>0</v>
+      </c>
+      <c r="CD49" s="10">
         <f t="shared" si="35"/>
-        <v>-251.753632508815</v>
-      </c>
-      <c r="BM49" s="5">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="BN49" s="5">
-        <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="BO49" s="5">
-        <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
-      <c r="BP49" s="29">
-        <f t="shared" si="19"/>
-        <v>0</v>
-      </c>
-      <c r="BQ49" s="5">
-        <f t="shared" si="20"/>
-        <v>0</v>
-      </c>
-      <c r="BR49" s="5">
-        <f t="shared" si="21"/>
-        <v>0</v>
-      </c>
-      <c r="BS49" s="5">
-        <f t="shared" si="22"/>
-        <v>3.915</v>
-      </c>
-      <c r="BT49" s="5">
-        <f t="shared" si="23"/>
-        <v>-283.70867875682239</v>
-      </c>
-      <c r="BU49" s="5">
-        <f t="shared" si="24"/>
-        <v>3.915</v>
-      </c>
-      <c r="BV49" s="5">
-        <f t="shared" si="25"/>
-        <v>-283.70867875682239</v>
-      </c>
-      <c r="BW49" s="5">
-        <f t="shared" si="26"/>
-        <v>1</v>
-      </c>
-      <c r="BX49" s="5">
-        <f t="shared" si="27"/>
-        <v>-249.57662413235681</v>
-      </c>
-      <c r="BY49" s="5">
-        <f t="shared" si="28"/>
-        <v>0</v>
-      </c>
-      <c r="BZ49" s="5">
-        <f t="shared" si="29"/>
-        <v>-311.97648306982126</v>
-      </c>
-      <c r="CA49" s="5">
-        <f t="shared" si="30"/>
-        <v>0</v>
-      </c>
-      <c r="CB49" s="5">
-        <f t="shared" si="31"/>
-        <v>-287.19938243327937</v>
-      </c>
-      <c r="CC49" s="10">
+        <v>0</v>
+      </c>
+      <c r="CE49" s="10">
         <f t="shared" si="32"/>
         <v>0</v>
       </c>
-      <c r="CD49" s="10">
-        <f t="shared" si="36"/>
-        <v>0</v>
-      </c>
-      <c r="CE49" s="10">
+      <c r="CF49" s="33">
         <f t="shared" si="33"/>
-        <v>0</v>
-      </c>
-      <c r="CF49" s="33">
-        <f t="shared" si="34"/>
         <v>-86.665457081265345</v>
       </c>
       <c r="CG49" s="32"/>
@@ -8003,7 +8025,7 @@
       <c r="FA49" s="2"/>
       <c r="FB49" s="2"/>
     </row>
-    <row r="50" spans="1:158" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:158" x14ac:dyDescent="0.2">
       <c r="A50" s="77" t="s">
         <v>27</v>
       </c>
@@ -8116,114 +8138,114 @@
         <v>-41.979558198046377</v>
       </c>
       <c r="BC50" s="73">
-        <f t="shared" si="11"/>
+        <f t="shared" si="37"/>
         <v>-5723.8125581980466</v>
       </c>
       <c r="BD50" s="5">
-        <f t="shared" si="37"/>
+        <f t="shared" si="36"/>
         <v>-5681.8330000000005</v>
       </c>
       <c r="BE50" s="43"/>
       <c r="BF50" s="43"/>
       <c r="BG50" s="72"/>
       <c r="BH50" s="71" t="str">
+        <f t="shared" si="11"/>
+        <v>Beidellite-Mg</v>
+      </c>
+      <c r="BI50" s="42">
         <f t="shared" si="12"/>
-        <v>Beidellite-Mg</v>
-      </c>
-      <c r="BI50" s="42">
+        <v>0.17</v>
+      </c>
+      <c r="BJ50" s="70">
         <f t="shared" si="13"/>
-        <v>0.17</v>
-      </c>
-      <c r="BJ50" s="70">
+        <v>-147.25</v>
+      </c>
+      <c r="BK50" s="42">
         <f t="shared" si="14"/>
-        <v>-147.25</v>
-      </c>
-      <c r="BK50" s="42">
+        <v>3</v>
+      </c>
+      <c r="BL50" s="70">
+        <f t="shared" si="34"/>
+        <v>-251.753632508815</v>
+      </c>
+      <c r="BM50" s="42">
         <f t="shared" si="15"/>
-        <v>3</v>
-      </c>
-      <c r="BL50" s="70">
+        <v>0</v>
+      </c>
+      <c r="BN50" s="42">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="BO50" s="42">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="BP50" s="70">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="BQ50" s="42">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="BR50" s="42">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="BS50" s="42">
+        <f t="shared" si="21"/>
+        <v>3.915</v>
+      </c>
+      <c r="BT50" s="42">
+        <f t="shared" si="22"/>
+        <v>-283.70867875682239</v>
+      </c>
+      <c r="BU50" s="42">
+        <f t="shared" si="23"/>
+        <v>3.915</v>
+      </c>
+      <c r="BV50" s="42">
+        <f t="shared" si="24"/>
+        <v>-283.70867875682239</v>
+      </c>
+      <c r="BW50" s="42">
+        <f t="shared" si="25"/>
+        <v>1</v>
+      </c>
+      <c r="BX50" s="42">
+        <f t="shared" si="26"/>
+        <v>-249.57662413235681</v>
+      </c>
+      <c r="BY50" s="42">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+      <c r="BZ50" s="42">
+        <f t="shared" si="28"/>
+        <v>-311.97648306982126</v>
+      </c>
+      <c r="CA50" s="42">
+        <f t="shared" si="29"/>
+        <v>0</v>
+      </c>
+      <c r="CB50" s="42">
+        <f t="shared" si="30"/>
+        <v>-287.19938243327937</v>
+      </c>
+      <c r="CC50" s="39">
+        <f t="shared" si="31"/>
+        <v>0</v>
+      </c>
+      <c r="CD50" s="39">
         <f t="shared" si="35"/>
-        <v>-251.753632508815</v>
-      </c>
-      <c r="BM50" s="42">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="BN50" s="42">
-        <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="BO50" s="42">
-        <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
-      <c r="BP50" s="70">
-        <f t="shared" si="19"/>
-        <v>0</v>
-      </c>
-      <c r="BQ50" s="42">
-        <f t="shared" si="20"/>
-        <v>0</v>
-      </c>
-      <c r="BR50" s="42">
-        <f t="shared" si="21"/>
-        <v>0</v>
-      </c>
-      <c r="BS50" s="42">
-        <f t="shared" si="22"/>
-        <v>3.915</v>
-      </c>
-      <c r="BT50" s="42">
-        <f t="shared" si="23"/>
-        <v>-283.70867875682239</v>
-      </c>
-      <c r="BU50" s="42">
-        <f t="shared" si="24"/>
-        <v>3.915</v>
-      </c>
-      <c r="BV50" s="42">
-        <f t="shared" si="25"/>
-        <v>-283.70867875682239</v>
-      </c>
-      <c r="BW50" s="42">
-        <f t="shared" si="26"/>
-        <v>1</v>
-      </c>
-      <c r="BX50" s="42">
-        <f t="shared" si="27"/>
-        <v>-249.57662413235681</v>
-      </c>
-      <c r="BY50" s="42">
-        <f t="shared" si="28"/>
-        <v>0</v>
-      </c>
-      <c r="BZ50" s="42">
-        <f t="shared" si="29"/>
-        <v>-311.97648306982126</v>
-      </c>
-      <c r="CA50" s="42">
-        <f t="shared" si="30"/>
-        <v>0</v>
-      </c>
-      <c r="CB50" s="42">
-        <f t="shared" si="31"/>
-        <v>-287.19938243327937</v>
-      </c>
-      <c r="CC50" s="39">
+        <v>0</v>
+      </c>
+      <c r="CE50" s="39">
         <f t="shared" si="32"/>
         <v>0</v>
       </c>
-      <c r="CD50" s="39">
-        <f t="shared" si="36"/>
-        <v>0</v>
-      </c>
-      <c r="CE50" s="39">
+      <c r="CF50" s="69">
         <f t="shared" si="33"/>
-        <v>0</v>
-      </c>
-      <c r="CF50" s="69">
-        <f t="shared" si="34"/>
         <v>-78.232934065689548</v>
       </c>
       <c r="CG50" s="32"/>
@@ -8268,7 +8290,7 @@
       <c r="FA50" s="2"/>
       <c r="FB50" s="2"/>
     </row>
-    <row r="51" spans="1:158" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:158" x14ac:dyDescent="0.2">
       <c r="A51" s="48" t="s">
         <v>26</v>
       </c>
@@ -8375,114 +8397,114 @@
         <v>-147.60718977617236</v>
       </c>
       <c r="BC51" s="36">
-        <f t="shared" si="11"/>
+        <f t="shared" si="37"/>
         <v>-5734.6271897761726</v>
       </c>
       <c r="BD51" s="5">
-        <f t="shared" si="37"/>
+        <f t="shared" si="36"/>
         <v>-5587.02</v>
       </c>
       <c r="BE51" s="7"/>
       <c r="BF51" s="7"/>
       <c r="BG51" s="66"/>
       <c r="BH51" s="64" t="str">
+        <f t="shared" si="11"/>
+        <v>H.C. Montmor-Na</v>
+      </c>
+      <c r="BI51" s="5">
         <f t="shared" si="12"/>
-        <v>H.C. Montmor-Na</v>
-      </c>
-      <c r="BI51" s="5">
+        <v>0.3</v>
+      </c>
+      <c r="BJ51" s="29">
         <f t="shared" si="13"/>
-        <v>0.3</v>
-      </c>
-      <c r="BJ51" s="29">
+        <v>260</v>
+      </c>
+      <c r="BK51" s="5">
         <f t="shared" si="14"/>
-        <v>260</v>
-      </c>
-      <c r="BK51" s="5">
+        <v>2.6999999999999997</v>
+      </c>
+      <c r="BL51" s="29">
+        <f t="shared" si="34"/>
+        <v>-244.4213026485815</v>
+      </c>
+      <c r="BM51" s="5">
         <f t="shared" si="15"/>
-        <v>2.6999999999999997</v>
-      </c>
-      <c r="BL51" s="29">
+        <v>0</v>
+      </c>
+      <c r="BN51" s="5">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="BO51" s="5">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="BP51" s="29">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="BQ51" s="5">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="BR51" s="5">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="BS51" s="5">
+        <f t="shared" si="21"/>
+        <v>4</v>
+      </c>
+      <c r="BT51" s="5">
+        <f t="shared" si="22"/>
+        <v>-285.32948153870637</v>
+      </c>
+      <c r="BU51" s="5">
+        <f t="shared" si="23"/>
+        <v>4</v>
+      </c>
+      <c r="BV51" s="5">
+        <f t="shared" si="24"/>
+        <v>-285.32948153870637</v>
+      </c>
+      <c r="BW51" s="5">
+        <f t="shared" si="25"/>
+        <v>1</v>
+      </c>
+      <c r="BX51" s="5">
+        <f t="shared" si="26"/>
+        <v>-249.57662413235681</v>
+      </c>
+      <c r="BY51" s="5">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+      <c r="BZ51" s="5">
+        <f t="shared" si="28"/>
+        <v>-311.97648306982126</v>
+      </c>
+      <c r="CA51" s="5">
+        <f t="shared" si="29"/>
+        <v>0</v>
+      </c>
+      <c r="CB51" s="5">
+        <f t="shared" si="30"/>
+        <v>-287.19938243327937</v>
+      </c>
+      <c r="CC51" s="10">
+        <f t="shared" si="31"/>
+        <v>0</v>
+      </c>
+      <c r="CD51" s="10">
         <f t="shared" si="35"/>
-        <v>-244.4213026485815</v>
-      </c>
-      <c r="BM51" s="5">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="BN51" s="5">
-        <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="BO51" s="5">
-        <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
-      <c r="BP51" s="29">
-        <f t="shared" si="19"/>
-        <v>0</v>
-      </c>
-      <c r="BQ51" s="5">
-        <f t="shared" si="20"/>
-        <v>0</v>
-      </c>
-      <c r="BR51" s="5">
-        <f t="shared" si="21"/>
-        <v>0</v>
-      </c>
-      <c r="BS51" s="5">
-        <f t="shared" si="22"/>
-        <v>4</v>
-      </c>
-      <c r="BT51" s="5">
-        <f t="shared" si="23"/>
-        <v>-285.32948153870637</v>
-      </c>
-      <c r="BU51" s="5">
-        <f t="shared" si="24"/>
-        <v>4</v>
-      </c>
-      <c r="BV51" s="5">
-        <f t="shared" si="25"/>
-        <v>-285.32948153870637</v>
-      </c>
-      <c r="BW51" s="5">
-        <f t="shared" si="26"/>
-        <v>1</v>
-      </c>
-      <c r="BX51" s="5">
-        <f t="shared" si="27"/>
-        <v>-249.57662413235681</v>
-      </c>
-      <c r="BY51" s="5">
-        <f t="shared" si="28"/>
-        <v>0</v>
-      </c>
-      <c r="BZ51" s="5">
-        <f t="shared" si="29"/>
-        <v>-311.97648306982126</v>
-      </c>
-      <c r="CA51" s="5">
-        <f t="shared" si="30"/>
-        <v>0</v>
-      </c>
-      <c r="CB51" s="5">
-        <f t="shared" si="31"/>
-        <v>-287.19938243327937</v>
-      </c>
-      <c r="CC51" s="10">
+        <v>75.640379507317576</v>
+      </c>
+      <c r="CE51" s="10">
         <f t="shared" si="32"/>
         <v>0</v>
       </c>
-      <c r="CD51" s="10">
-        <f t="shared" si="36"/>
-        <v>75.640379507317576</v>
-      </c>
-      <c r="CE51" s="10">
+      <c r="CF51" s="33">
         <f t="shared" si="33"/>
-        <v>0</v>
-      </c>
-      <c r="CF51" s="33">
-        <f t="shared" si="34"/>
         <v>-183.86056564381553</v>
       </c>
       <c r="CG51" s="32"/>
@@ -8527,7 +8549,7 @@
       <c r="FA51" s="2"/>
       <c r="FB51" s="2"/>
     </row>
-    <row r="52" spans="1:158" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:158" x14ac:dyDescent="0.2">
       <c r="A52" s="48" t="s">
         <v>25</v>
       </c>
@@ -8634,114 +8656,114 @@
         <v>-186.20718977617233</v>
       </c>
       <c r="BC52" s="36">
-        <f t="shared" si="11"/>
+        <f t="shared" si="37"/>
         <v>-5757.7381897761725</v>
       </c>
       <c r="BD52" s="5">
-        <f t="shared" si="37"/>
+        <f t="shared" si="36"/>
         <v>-5571.5309999999999</v>
       </c>
       <c r="BE52" s="7"/>
       <c r="BF52" s="7"/>
       <c r="BG52" s="66"/>
       <c r="BH52" s="64" t="str">
+        <f t="shared" si="11"/>
+        <v>H.C. Montmor-K</v>
+      </c>
+      <c r="BI52" s="5">
         <f t="shared" si="12"/>
-        <v>H.C. Montmor-K</v>
-      </c>
-      <c r="BI52" s="5">
+        <v>0.3</v>
+      </c>
+      <c r="BJ52" s="29">
         <f t="shared" si="13"/>
-        <v>0.3</v>
-      </c>
-      <c r="BJ52" s="29">
+        <v>453.00000000000006</v>
+      </c>
+      <c r="BK52" s="5">
         <f t="shared" si="14"/>
-        <v>453.00000000000006</v>
-      </c>
-      <c r="BK52" s="5">
+        <v>2.6999999999999997</v>
+      </c>
+      <c r="BL52" s="29">
+        <f t="shared" si="34"/>
+        <v>-244.4213026485815</v>
+      </c>
+      <c r="BM52" s="5">
         <f t="shared" si="15"/>
-        <v>2.6999999999999997</v>
-      </c>
-      <c r="BL52" s="29">
+        <v>0</v>
+      </c>
+      <c r="BN52" s="5">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="BO52" s="5">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="BP52" s="29">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="BQ52" s="5">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="BR52" s="5">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="BS52" s="5">
+        <f t="shared" si="21"/>
+        <v>4</v>
+      </c>
+      <c r="BT52" s="5">
+        <f t="shared" si="22"/>
+        <v>-285.32948153870637</v>
+      </c>
+      <c r="BU52" s="5">
+        <f t="shared" si="23"/>
+        <v>4</v>
+      </c>
+      <c r="BV52" s="5">
+        <f t="shared" si="24"/>
+        <v>-285.32948153870637</v>
+      </c>
+      <c r="BW52" s="5">
+        <f t="shared" si="25"/>
+        <v>1</v>
+      </c>
+      <c r="BX52" s="5">
+        <f t="shared" si="26"/>
+        <v>-249.57662413235681</v>
+      </c>
+      <c r="BY52" s="5">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+      <c r="BZ52" s="5">
+        <f t="shared" si="28"/>
+        <v>-311.97648306982126</v>
+      </c>
+      <c r="CA52" s="5">
+        <f t="shared" si="29"/>
+        <v>0</v>
+      </c>
+      <c r="CB52" s="5">
+        <f t="shared" si="30"/>
+        <v>-287.19938243327937</v>
+      </c>
+      <c r="CC52" s="10">
+        <f t="shared" si="31"/>
+        <v>0</v>
+      </c>
+      <c r="CD52" s="10">
         <f t="shared" si="35"/>
-        <v>-244.4213026485815</v>
-      </c>
-      <c r="BM52" s="5">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="BN52" s="5">
-        <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="BO52" s="5">
-        <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
-      <c r="BP52" s="29">
-        <f t="shared" si="19"/>
-        <v>0</v>
-      </c>
-      <c r="BQ52" s="5">
-        <f t="shared" si="20"/>
-        <v>0</v>
-      </c>
-      <c r="BR52" s="5">
-        <f t="shared" si="21"/>
-        <v>0</v>
-      </c>
-      <c r="BS52" s="5">
-        <f t="shared" si="22"/>
-        <v>4</v>
-      </c>
-      <c r="BT52" s="5">
-        <f t="shared" si="23"/>
-        <v>-285.32948153870637</v>
-      </c>
-      <c r="BU52" s="5">
-        <f t="shared" si="24"/>
-        <v>4</v>
-      </c>
-      <c r="BV52" s="5">
-        <f t="shared" si="25"/>
-        <v>-285.32948153870637</v>
-      </c>
-      <c r="BW52" s="5">
-        <f t="shared" si="26"/>
-        <v>1</v>
-      </c>
-      <c r="BX52" s="5">
-        <f t="shared" si="27"/>
-        <v>-249.57662413235681</v>
-      </c>
-      <c r="BY52" s="5">
-        <f t="shared" si="28"/>
-        <v>0</v>
-      </c>
-      <c r="BZ52" s="5">
-        <f t="shared" si="29"/>
-        <v>-311.97648306982126</v>
-      </c>
-      <c r="CA52" s="5">
-        <f t="shared" si="30"/>
-        <v>0</v>
-      </c>
-      <c r="CB52" s="5">
-        <f t="shared" si="31"/>
-        <v>-287.19938243327937</v>
-      </c>
-      <c r="CC52" s="10">
+        <v>75.640379507317576</v>
+      </c>
+      <c r="CE52" s="10">
         <f t="shared" si="32"/>
         <v>0</v>
       </c>
-      <c r="CD52" s="10">
-        <f t="shared" si="36"/>
-        <v>75.640379507317576</v>
-      </c>
-      <c r="CE52" s="10">
+      <c r="CF52" s="33">
         <f t="shared" si="33"/>
-        <v>0</v>
-      </c>
-      <c r="CF52" s="33">
-        <f t="shared" si="34"/>
         <v>-222.4605656438155</v>
       </c>
       <c r="CG52" s="32"/>
@@ -8786,7 +8808,7 @@
       <c r="FA52" s="2"/>
       <c r="FB52" s="2"/>
     </row>
-    <row r="53" spans="1:158" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:158" x14ac:dyDescent="0.2">
       <c r="A53" s="48" t="s">
         <v>24</v>
       </c>
@@ -8893,114 +8915,114 @@
         <v>-81.361197917846027</v>
       </c>
       <c r="BC53" s="36">
-        <f t="shared" si="11"/>
+        <f t="shared" si="37"/>
         <v>-5734.4171979178464</v>
       </c>
       <c r="BD53" s="5">
-        <f t="shared" si="37"/>
+        <f t="shared" si="36"/>
         <v>-5653.0560000000005</v>
       </c>
       <c r="BE53" s="7"/>
       <c r="BF53" s="7"/>
       <c r="BG53" s="66"/>
       <c r="BH53" s="64" t="str">
+        <f t="shared" si="11"/>
+        <v>H.C. Montmor-Ca</v>
+      </c>
+      <c r="BI53" s="5">
         <f t="shared" si="12"/>
-        <v>H.C. Montmor-Ca</v>
-      </c>
-      <c r="BI53" s="5">
+        <v>0.3</v>
+      </c>
+      <c r="BJ53" s="29">
         <f t="shared" si="13"/>
-        <v>0.3</v>
-      </c>
-      <c r="BJ53" s="29">
+        <v>-71.22995929163136</v>
+      </c>
+      <c r="BK53" s="5">
         <f t="shared" si="14"/>
-        <v>-71.22995929163136</v>
-      </c>
-      <c r="BK53" s="5">
+        <v>2.6999999999999997</v>
+      </c>
+      <c r="BL53" s="29">
+        <f t="shared" si="34"/>
+        <v>-244.4213026485815</v>
+      </c>
+      <c r="BM53" s="5">
         <f t="shared" si="15"/>
-        <v>2.6999999999999997</v>
-      </c>
-      <c r="BL53" s="29">
+        <v>0</v>
+      </c>
+      <c r="BN53" s="5">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="BO53" s="5">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="BP53" s="29">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="BQ53" s="5">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="BR53" s="5">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="BS53" s="5">
+        <f t="shared" si="21"/>
+        <v>4</v>
+      </c>
+      <c r="BT53" s="5">
+        <f t="shared" si="22"/>
+        <v>-285.32948153870637</v>
+      </c>
+      <c r="BU53" s="5">
+        <f t="shared" si="23"/>
+        <v>4</v>
+      </c>
+      <c r="BV53" s="5">
+        <f t="shared" si="24"/>
+        <v>-285.32948153870637</v>
+      </c>
+      <c r="BW53" s="5">
+        <f t="shared" si="25"/>
+        <v>1</v>
+      </c>
+      <c r="BX53" s="5">
+        <f t="shared" si="26"/>
+        <v>-249.57662413235681</v>
+      </c>
+      <c r="BY53" s="5">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+      <c r="BZ53" s="5">
+        <f t="shared" si="28"/>
+        <v>-311.97648306982126</v>
+      </c>
+      <c r="CA53" s="5">
+        <f t="shared" si="29"/>
+        <v>0</v>
+      </c>
+      <c r="CB53" s="5">
+        <f t="shared" si="30"/>
+        <v>-287.19938243327937</v>
+      </c>
+      <c r="CC53" s="10">
+        <f t="shared" si="31"/>
+        <v>0</v>
+      </c>
+      <c r="CD53" s="10">
         <f t="shared" si="35"/>
-        <v>-244.4213026485815</v>
-      </c>
-      <c r="BM53" s="5">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="BN53" s="5">
-        <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="BO53" s="5">
-        <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
-      <c r="BP53" s="29">
-        <f t="shared" si="19"/>
-        <v>0</v>
-      </c>
-      <c r="BQ53" s="5">
-        <f t="shared" si="20"/>
-        <v>0</v>
-      </c>
-      <c r="BR53" s="5">
-        <f t="shared" si="21"/>
-        <v>0</v>
-      </c>
-      <c r="BS53" s="5">
-        <f t="shared" si="22"/>
-        <v>4</v>
-      </c>
-      <c r="BT53" s="5">
-        <f t="shared" si="23"/>
-        <v>-285.32948153870637</v>
-      </c>
-      <c r="BU53" s="5">
-        <f t="shared" si="24"/>
-        <v>4</v>
-      </c>
-      <c r="BV53" s="5">
-        <f t="shared" si="25"/>
-        <v>-285.32948153870637</v>
-      </c>
-      <c r="BW53" s="5">
-        <f t="shared" si="26"/>
-        <v>1</v>
-      </c>
-      <c r="BX53" s="5">
-        <f t="shared" si="27"/>
-        <v>-249.57662413235681</v>
-      </c>
-      <c r="BY53" s="5">
-        <f t="shared" si="28"/>
-        <v>0</v>
-      </c>
-      <c r="BZ53" s="5">
-        <f t="shared" si="29"/>
-        <v>-311.97648306982126</v>
-      </c>
-      <c r="CA53" s="5">
-        <f t="shared" si="30"/>
-        <v>0</v>
-      </c>
-      <c r="CB53" s="5">
-        <f t="shared" si="31"/>
-        <v>-287.19938243327937</v>
-      </c>
-      <c r="CC53" s="10">
+        <v>75.640379507317576</v>
+      </c>
+      <c r="CE53" s="10">
         <f t="shared" si="32"/>
         <v>0</v>
       </c>
-      <c r="CD53" s="10">
-        <f t="shared" si="36"/>
-        <v>75.640379507317576</v>
-      </c>
-      <c r="CE53" s="10">
+      <c r="CF53" s="33">
         <f t="shared" si="33"/>
-        <v>0</v>
-      </c>
-      <c r="CF53" s="33">
-        <f t="shared" si="34"/>
         <v>-117.6145737854892</v>
       </c>
       <c r="CG53" s="32"/>
@@ -9045,7 +9067,7 @@
       <c r="FA53" s="2"/>
       <c r="FB53" s="2"/>
     </row>
-    <row r="54" spans="1:158" ht="12" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:158" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A54" s="77" t="s">
         <v>23</v>
       </c>
@@ -9154,114 +9176,114 @@
         <v>-66.157189776172331</v>
       </c>
       <c r="BC54" s="73">
-        <f t="shared" si="11"/>
+        <f t="shared" si="37"/>
         <v>-5709.2171897761718</v>
       </c>
       <c r="BD54" s="5">
-        <f t="shared" si="37"/>
+        <f t="shared" si="36"/>
         <v>-5643.0599999999995</v>
       </c>
       <c r="BE54" s="43"/>
       <c r="BF54" s="43"/>
       <c r="BG54" s="72"/>
       <c r="BH54" s="71" t="str">
+        <f t="shared" si="11"/>
+        <v>H.C. Montmor-Mg</v>
+      </c>
+      <c r="BI54" s="42">
         <f t="shared" si="12"/>
-        <v>H.C. Montmor-Mg</v>
-      </c>
-      <c r="BI54" s="42">
+        <v>0.3</v>
+      </c>
+      <c r="BJ54" s="70">
         <f t="shared" si="13"/>
-        <v>0.3</v>
-      </c>
-      <c r="BJ54" s="70">
+        <v>-147.25</v>
+      </c>
+      <c r="BK54" s="42">
         <f t="shared" si="14"/>
-        <v>-147.25</v>
-      </c>
-      <c r="BK54" s="42">
+        <v>2.6999999999999997</v>
+      </c>
+      <c r="BL54" s="70">
+        <f t="shared" si="34"/>
+        <v>-244.4213026485815</v>
+      </c>
+      <c r="BM54" s="42">
         <f t="shared" si="15"/>
-        <v>2.6999999999999997</v>
-      </c>
-      <c r="BL54" s="70">
+        <v>0</v>
+      </c>
+      <c r="BN54" s="42">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="BO54" s="42">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="BP54" s="70">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="BQ54" s="42">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="BR54" s="42">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="BS54" s="42">
+        <f t="shared" si="21"/>
+        <v>4</v>
+      </c>
+      <c r="BT54" s="42">
+        <f t="shared" si="22"/>
+        <v>-285.32948153870637</v>
+      </c>
+      <c r="BU54" s="42">
+        <f t="shared" si="23"/>
+        <v>4</v>
+      </c>
+      <c r="BV54" s="42">
+        <f t="shared" si="24"/>
+        <v>-285.32948153870637</v>
+      </c>
+      <c r="BW54" s="42">
+        <f t="shared" si="25"/>
+        <v>1</v>
+      </c>
+      <c r="BX54" s="42">
+        <f t="shared" si="26"/>
+        <v>-249.57662413235681</v>
+      </c>
+      <c r="BY54" s="42">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+      <c r="BZ54" s="42">
+        <f t="shared" si="28"/>
+        <v>-311.97648306982126</v>
+      </c>
+      <c r="CA54" s="42">
+        <f t="shared" si="29"/>
+        <v>0</v>
+      </c>
+      <c r="CB54" s="42">
+        <f t="shared" si="30"/>
+        <v>-287.19938243327937</v>
+      </c>
+      <c r="CC54" s="39">
+        <f t="shared" si="31"/>
+        <v>0</v>
+      </c>
+      <c r="CD54" s="39">
         <f t="shared" si="35"/>
-        <v>-244.4213026485815</v>
-      </c>
-      <c r="BM54" s="42">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="BN54" s="42">
-        <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="BO54" s="42">
-        <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
-      <c r="BP54" s="70">
-        <f t="shared" si="19"/>
-        <v>0</v>
-      </c>
-      <c r="BQ54" s="42">
-        <f t="shared" si="20"/>
-        <v>0</v>
-      </c>
-      <c r="BR54" s="42">
-        <f t="shared" si="21"/>
-        <v>0</v>
-      </c>
-      <c r="BS54" s="42">
-        <f t="shared" si="22"/>
-        <v>4</v>
-      </c>
-      <c r="BT54" s="42">
-        <f t="shared" si="23"/>
-        <v>-285.32948153870637</v>
-      </c>
-      <c r="BU54" s="42">
-        <f t="shared" si="24"/>
-        <v>4</v>
-      </c>
-      <c r="BV54" s="42">
-        <f t="shared" si="25"/>
-        <v>-285.32948153870637</v>
-      </c>
-      <c r="BW54" s="42">
-        <f t="shared" si="26"/>
-        <v>1</v>
-      </c>
-      <c r="BX54" s="42">
-        <f t="shared" si="27"/>
-        <v>-249.57662413235681</v>
-      </c>
-      <c r="BY54" s="42">
-        <f t="shared" si="28"/>
-        <v>0</v>
-      </c>
-      <c r="BZ54" s="42">
-        <f t="shared" si="29"/>
-        <v>-311.97648306982126</v>
-      </c>
-      <c r="CA54" s="42">
-        <f t="shared" si="30"/>
-        <v>0</v>
-      </c>
-      <c r="CB54" s="42">
-        <f t="shared" si="31"/>
-        <v>-287.19938243327937</v>
-      </c>
-      <c r="CC54" s="39">
+        <v>75.640379507317576</v>
+      </c>
+      <c r="CE54" s="39">
         <f t="shared" si="32"/>
         <v>0</v>
       </c>
-      <c r="CD54" s="39">
-        <f t="shared" si="36"/>
-        <v>75.640379507317576</v>
-      </c>
-      <c r="CE54" s="39">
+      <c r="CF54" s="69">
         <f t="shared" si="33"/>
-        <v>0</v>
-      </c>
-      <c r="CF54" s="69">
-        <f t="shared" si="34"/>
         <v>-102.4105656438155</v>
       </c>
       <c r="CG54" s="32"/>
@@ -9306,7 +9328,7 @@
       <c r="FA54" s="2"/>
       <c r="FB54" s="2"/>
     </row>
-    <row r="55" spans="1:158" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:158" x14ac:dyDescent="0.2">
       <c r="A55" s="48" t="s">
         <v>22</v>
       </c>
@@ -9419,114 +9441,114 @@
         <v>-218.58600451569313</v>
       </c>
       <c r="BC55" s="36">
-        <f t="shared" si="11"/>
+        <f t="shared" si="37"/>
         <v>-5997.7630045156939</v>
       </c>
       <c r="BD55" s="5">
-        <f t="shared" si="37"/>
+        <f t="shared" si="36"/>
         <v>-5779.1770000000006</v>
       </c>
       <c r="BE55" s="7"/>
       <c r="BF55" s="7"/>
       <c r="BG55" s="66"/>
       <c r="BH55" s="64" t="str">
+        <f t="shared" si="11"/>
+        <v>Saponite-Na</v>
+      </c>
+      <c r="BI55" s="5">
         <f t="shared" si="12"/>
-        <v>Saponite-Na</v>
-      </c>
-      <c r="BI55" s="5">
+        <v>0.17</v>
+      </c>
+      <c r="BJ55" s="29">
         <f t="shared" si="13"/>
-        <v>0.17</v>
-      </c>
-      <c r="BJ55" s="29">
+        <v>260</v>
+      </c>
+      <c r="BK55" s="5">
         <f t="shared" si="14"/>
-        <v>260</v>
-      </c>
-      <c r="BK55" s="5">
+        <v>2</v>
+      </c>
+      <c r="BL55" s="29">
+        <f t="shared" si="34"/>
+        <v>-191.72158528078518</v>
+      </c>
+      <c r="BM55" s="5">
         <f t="shared" si="15"/>
-        <v>2</v>
-      </c>
-      <c r="BL55" s="29">
+        <v>1</v>
+      </c>
+      <c r="BN55" s="5">
+        <f t="shared" si="16"/>
+        <v>-191.72158528078518</v>
+      </c>
+      <c r="BO55" s="5">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="BP55" s="29">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="BQ55" s="5">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="BR55" s="5">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="BS55" s="5">
+        <f t="shared" si="21"/>
+        <v>3.915</v>
+      </c>
+      <c r="BT55" s="5">
+        <f t="shared" si="22"/>
+        <v>-283.70867875682239</v>
+      </c>
+      <c r="BU55" s="5">
+        <f t="shared" si="23"/>
+        <v>3.915</v>
+      </c>
+      <c r="BV55" s="5">
+        <f t="shared" si="24"/>
+        <v>-283.70867875682239</v>
+      </c>
+      <c r="BW55" s="5">
+        <f t="shared" si="25"/>
+        <v>1</v>
+      </c>
+      <c r="BX55" s="5">
+        <f t="shared" si="26"/>
+        <v>-249.57662413235681</v>
+      </c>
+      <c r="BY55" s="5">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+      <c r="BZ55" s="5">
+        <f t="shared" si="28"/>
+        <v>-311.97648306982126</v>
+      </c>
+      <c r="CA55" s="5">
+        <f t="shared" si="29"/>
+        <v>0</v>
+      </c>
+      <c r="CB55" s="5">
+        <f t="shared" si="30"/>
+        <v>-287.19938243327937</v>
+      </c>
+      <c r="CC55" s="10">
+        <f t="shared" si="31"/>
+        <v>0</v>
+      </c>
+      <c r="CD55" s="10">
         <f t="shared" si="35"/>
-        <v>-191.72158528078518</v>
-      </c>
-      <c r="BM55" s="5">
-        <f t="shared" si="16"/>
-        <v>1</v>
-      </c>
-      <c r="BN55" s="5">
-        <f t="shared" si="17"/>
-        <v>-191.72158528078518</v>
-      </c>
-      <c r="BO55" s="5">
-        <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
-      <c r="BP55" s="29">
-        <f t="shared" si="19"/>
-        <v>0</v>
-      </c>
-      <c r="BQ55" s="5">
-        <f t="shared" si="20"/>
-        <v>0</v>
-      </c>
-      <c r="BR55" s="5">
-        <f t="shared" si="21"/>
-        <v>0</v>
-      </c>
-      <c r="BS55" s="5">
-        <f t="shared" si="22"/>
-        <v>3.915</v>
-      </c>
-      <c r="BT55" s="5">
-        <f t="shared" si="23"/>
-        <v>-283.70867875682239</v>
-      </c>
-      <c r="BU55" s="5">
-        <f t="shared" si="24"/>
-        <v>3.915</v>
-      </c>
-      <c r="BV55" s="5">
-        <f t="shared" si="25"/>
-        <v>-283.70867875682239</v>
-      </c>
-      <c r="BW55" s="5">
-        <f t="shared" si="26"/>
-        <v>1</v>
-      </c>
-      <c r="BX55" s="5">
-        <f t="shared" si="27"/>
-        <v>-249.57662413235681</v>
-      </c>
-      <c r="BY55" s="5">
-        <f t="shared" si="28"/>
-        <v>0</v>
-      </c>
-      <c r="BZ55" s="5">
-        <f t="shared" si="29"/>
-        <v>-311.97648306982126</v>
-      </c>
-      <c r="CA55" s="5">
-        <f t="shared" si="30"/>
-        <v>0</v>
-      </c>
-      <c r="CB55" s="5">
-        <f t="shared" si="31"/>
-        <v>-287.19938243327937</v>
-      </c>
-      <c r="CC55" s="10">
+        <v>0</v>
+      </c>
+      <c r="CE55" s="10">
         <f t="shared" si="32"/>
         <v>0</v>
       </c>
-      <c r="CD55" s="10">
-        <f t="shared" si="36"/>
-        <v>0</v>
-      </c>
-      <c r="CE55" s="10">
+      <c r="CF55" s="33">
         <f t="shared" si="33"/>
-        <v>0</v>
-      </c>
-      <c r="CF55" s="33">
-        <f t="shared" si="34"/>
         <v>-254.83938038333631</v>
       </c>
       <c r="CG55" s="32"/>
@@ -9571,7 +9593,7 @@
       <c r="FA55" s="2"/>
       <c r="FB55" s="2"/>
     </row>
-    <row r="56" spans="1:158" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:158" x14ac:dyDescent="0.2">
       <c r="A56" s="48" t="s">
         <v>21</v>
       </c>
@@ -9684,114 +9706,114 @@
         <v>-239.9945295156931</v>
       </c>
       <c r="BC56" s="36">
-        <f t="shared" si="11"/>
+        <f t="shared" si="37"/>
         <v>-6010.3944295156934</v>
       </c>
       <c r="BD56" s="5">
-        <f t="shared" si="37"/>
+        <f t="shared" si="36"/>
         <v>-5770.3999000000003</v>
       </c>
       <c r="BE56" s="7"/>
       <c r="BF56" s="7"/>
       <c r="BG56" s="66"/>
       <c r="BH56" s="64" t="str">
+        <f t="shared" si="11"/>
+        <v>Saponite-K</v>
+      </c>
+      <c r="BI56" s="5">
         <f t="shared" si="12"/>
-        <v>Saponite-K</v>
-      </c>
-      <c r="BI56" s="5">
+        <v>0.17</v>
+      </c>
+      <c r="BJ56" s="29">
         <f t="shared" si="13"/>
-        <v>0.17</v>
-      </c>
-      <c r="BJ56" s="29">
+        <v>453</v>
+      </c>
+      <c r="BK56" s="5">
         <f t="shared" si="14"/>
-        <v>453</v>
-      </c>
-      <c r="BK56" s="5">
+        <v>2</v>
+      </c>
+      <c r="BL56" s="29">
+        <f t="shared" si="34"/>
+        <v>-191.72158528078518</v>
+      </c>
+      <c r="BM56" s="5">
         <f t="shared" si="15"/>
-        <v>2</v>
-      </c>
-      <c r="BL56" s="29">
+        <v>1</v>
+      </c>
+      <c r="BN56" s="5">
+        <f t="shared" si="16"/>
+        <v>-191.72158528078518</v>
+      </c>
+      <c r="BO56" s="5">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="BP56" s="29">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="BQ56" s="5">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="BR56" s="5">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="BS56" s="5">
+        <f t="shared" si="21"/>
+        <v>3.915</v>
+      </c>
+      <c r="BT56" s="5">
+        <f t="shared" si="22"/>
+        <v>-283.70867875682239</v>
+      </c>
+      <c r="BU56" s="5">
+        <f t="shared" si="23"/>
+        <v>3.915</v>
+      </c>
+      <c r="BV56" s="5">
+        <f t="shared" si="24"/>
+        <v>-283.70867875682239</v>
+      </c>
+      <c r="BW56" s="5">
+        <f t="shared" si="25"/>
+        <v>1</v>
+      </c>
+      <c r="BX56" s="5">
+        <f t="shared" si="26"/>
+        <v>-249.57662413235681</v>
+      </c>
+      <c r="BY56" s="5">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+      <c r="BZ56" s="5">
+        <f t="shared" si="28"/>
+        <v>-311.97648306982126</v>
+      </c>
+      <c r="CA56" s="5">
+        <f t="shared" si="29"/>
+        <v>0</v>
+      </c>
+      <c r="CB56" s="5">
+        <f t="shared" si="30"/>
+        <v>-287.19938243327937</v>
+      </c>
+      <c r="CC56" s="10">
+        <f t="shared" si="31"/>
+        <v>0</v>
+      </c>
+      <c r="CD56" s="10">
         <f t="shared" si="35"/>
-        <v>-191.72158528078518</v>
-      </c>
-      <c r="BM56" s="5">
-        <f t="shared" si="16"/>
-        <v>1</v>
-      </c>
-      <c r="BN56" s="5">
-        <f t="shared" si="17"/>
-        <v>-191.72158528078518</v>
-      </c>
-      <c r="BO56" s="5">
-        <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
-      <c r="BP56" s="29">
-        <f t="shared" si="19"/>
-        <v>0</v>
-      </c>
-      <c r="BQ56" s="5">
-        <f t="shared" si="20"/>
-        <v>0</v>
-      </c>
-      <c r="BR56" s="5">
-        <f t="shared" si="21"/>
-        <v>0</v>
-      </c>
-      <c r="BS56" s="5">
-        <f t="shared" si="22"/>
-        <v>3.915</v>
-      </c>
-      <c r="BT56" s="5">
-        <f t="shared" si="23"/>
-        <v>-283.70867875682239</v>
-      </c>
-      <c r="BU56" s="5">
-        <f t="shared" si="24"/>
-        <v>3.915</v>
-      </c>
-      <c r="BV56" s="5">
-        <f t="shared" si="25"/>
-        <v>-283.70867875682239</v>
-      </c>
-      <c r="BW56" s="5">
-        <f t="shared" si="26"/>
-        <v>1</v>
-      </c>
-      <c r="BX56" s="5">
-        <f t="shared" si="27"/>
-        <v>-249.57662413235681</v>
-      </c>
-      <c r="BY56" s="5">
-        <f t="shared" si="28"/>
-        <v>0</v>
-      </c>
-      <c r="BZ56" s="5">
-        <f t="shared" si="29"/>
-        <v>-311.97648306982126</v>
-      </c>
-      <c r="CA56" s="5">
-        <f t="shared" si="30"/>
-        <v>0</v>
-      </c>
-      <c r="CB56" s="5">
-        <f t="shared" si="31"/>
-        <v>-287.19938243327937</v>
-      </c>
-      <c r="CC56" s="10">
+        <v>0</v>
+      </c>
+      <c r="CE56" s="10">
         <f t="shared" si="32"/>
         <v>0</v>
       </c>
-      <c r="CD56" s="10">
-        <f t="shared" si="36"/>
-        <v>0</v>
-      </c>
-      <c r="CE56" s="10">
+      <c r="CF56" s="33">
         <f t="shared" si="33"/>
-        <v>0</v>
-      </c>
-      <c r="CF56" s="33">
-        <f t="shared" si="34"/>
         <v>-276.24790538333627</v>
       </c>
       <c r="CG56" s="32"/>
@@ -9836,7 +9858,7 @@
       <c r="FA56" s="2"/>
       <c r="FB56" s="2"/>
     </row>
-    <row r="57" spans="1:158" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:158" x14ac:dyDescent="0.2">
       <c r="A57" s="48" t="s">
         <v>20</v>
       </c>
@@ -9949,114 +9971,114 @@
         <v>-181.84432128126892</v>
       </c>
       <c r="BC57" s="36">
-        <f t="shared" si="11"/>
+        <f t="shared" si="37"/>
         <v>-5998.4417212812696</v>
       </c>
       <c r="BD57" s="5">
-        <f t="shared" si="37"/>
+        <f t="shared" si="36"/>
         <v>-5816.5974000000006</v>
       </c>
       <c r="BE57" s="7"/>
       <c r="BF57" s="7"/>
       <c r="BG57" s="66"/>
       <c r="BH57" s="64" t="str">
+        <f t="shared" si="11"/>
+        <v>Saponite-Ca</v>
+      </c>
+      <c r="BI57" s="5">
         <f t="shared" si="12"/>
-        <v>Saponite-Ca</v>
-      </c>
-      <c r="BI57" s="5">
+        <v>0.17</v>
+      </c>
+      <c r="BJ57" s="29">
         <f t="shared" si="13"/>
-        <v>0.17</v>
-      </c>
-      <c r="BJ57" s="29">
+        <v>-71.22995929163136</v>
+      </c>
+      <c r="BK57" s="5">
         <f t="shared" si="14"/>
-        <v>-71.22995929163136</v>
-      </c>
-      <c r="BK57" s="5">
+        <v>2</v>
+      </c>
+      <c r="BL57" s="29">
+        <f t="shared" si="34"/>
+        <v>-191.72158528078518</v>
+      </c>
+      <c r="BM57" s="5">
         <f t="shared" si="15"/>
-        <v>2</v>
-      </c>
-      <c r="BL57" s="29">
+        <v>1</v>
+      </c>
+      <c r="BN57" s="5">
+        <f t="shared" si="16"/>
+        <v>-191.72158528078518</v>
+      </c>
+      <c r="BO57" s="5">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="BP57" s="29">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="BQ57" s="5">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="BR57" s="5">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="BS57" s="5">
+        <f t="shared" si="21"/>
+        <v>3.915</v>
+      </c>
+      <c r="BT57" s="5">
+        <f t="shared" si="22"/>
+        <v>-283.70867875682239</v>
+      </c>
+      <c r="BU57" s="5">
+        <f t="shared" si="23"/>
+        <v>3.915</v>
+      </c>
+      <c r="BV57" s="5">
+        <f t="shared" si="24"/>
+        <v>-283.70867875682239</v>
+      </c>
+      <c r="BW57" s="5">
+        <f t="shared" si="25"/>
+        <v>1</v>
+      </c>
+      <c r="BX57" s="5">
+        <f t="shared" si="26"/>
+        <v>-249.57662413235681</v>
+      </c>
+      <c r="BY57" s="5">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+      <c r="BZ57" s="5">
+        <f t="shared" si="28"/>
+        <v>-311.97648306982126</v>
+      </c>
+      <c r="CA57" s="5">
+        <f t="shared" si="29"/>
+        <v>0</v>
+      </c>
+      <c r="CB57" s="5">
+        <f t="shared" si="30"/>
+        <v>-287.19938243327937</v>
+      </c>
+      <c r="CC57" s="10">
+        <f t="shared" si="31"/>
+        <v>0</v>
+      </c>
+      <c r="CD57" s="10">
         <f t="shared" si="35"/>
-        <v>-191.72158528078518</v>
-      </c>
-      <c r="BM57" s="5">
-        <f t="shared" si="16"/>
-        <v>1</v>
-      </c>
-      <c r="BN57" s="5">
-        <f t="shared" si="17"/>
-        <v>-191.72158528078518</v>
-      </c>
-      <c r="BO57" s="5">
-        <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
-      <c r="BP57" s="29">
-        <f t="shared" si="19"/>
-        <v>0</v>
-      </c>
-      <c r="BQ57" s="5">
-        <f t="shared" si="20"/>
-        <v>0</v>
-      </c>
-      <c r="BR57" s="5">
-        <f t="shared" si="21"/>
-        <v>0</v>
-      </c>
-      <c r="BS57" s="5">
-        <f t="shared" si="22"/>
-        <v>3.915</v>
-      </c>
-      <c r="BT57" s="5">
-        <f t="shared" si="23"/>
-        <v>-283.70867875682239</v>
-      </c>
-      <c r="BU57" s="5">
-        <f t="shared" si="24"/>
-        <v>3.915</v>
-      </c>
-      <c r="BV57" s="5">
-        <f t="shared" si="25"/>
-        <v>-283.70867875682239</v>
-      </c>
-      <c r="BW57" s="5">
-        <f t="shared" si="26"/>
-        <v>1</v>
-      </c>
-      <c r="BX57" s="5">
-        <f t="shared" si="27"/>
-        <v>-249.57662413235681</v>
-      </c>
-      <c r="BY57" s="5">
-        <f t="shared" si="28"/>
-        <v>0</v>
-      </c>
-      <c r="BZ57" s="5">
-        <f t="shared" si="29"/>
-        <v>-311.97648306982126</v>
-      </c>
-      <c r="CA57" s="5">
-        <f t="shared" si="30"/>
-        <v>0</v>
-      </c>
-      <c r="CB57" s="5">
-        <f t="shared" si="31"/>
-        <v>-287.19938243327937</v>
-      </c>
-      <c r="CC57" s="10">
+        <v>0</v>
+      </c>
+      <c r="CE57" s="10">
         <f t="shared" si="32"/>
         <v>0</v>
       </c>
-      <c r="CD57" s="10">
-        <f t="shared" si="36"/>
-        <v>0</v>
-      </c>
-      <c r="CE57" s="10">
+      <c r="CF57" s="33">
         <f t="shared" si="33"/>
-        <v>0</v>
-      </c>
-      <c r="CF57" s="33">
-        <f t="shared" si="34"/>
         <v>-218.09769714891209</v>
       </c>
       <c r="CG57" s="32"/>
@@ -10101,7 +10123,7 @@
       <c r="FA57" s="2"/>
       <c r="FB57" s="2"/>
     </row>
-    <row r="58" spans="1:158" ht="12" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:158" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A58" s="77" t="s">
         <v>19</v>
       </c>
@@ -10216,114 +10238,114 @@
         <v>-173.41179826569314</v>
       </c>
       <c r="BC58" s="73">
-        <f t="shared" si="11"/>
+        <f t="shared" si="37"/>
         <v>-5984.3447982656944</v>
       </c>
       <c r="BD58" s="5">
-        <f t="shared" si="37"/>
+        <f t="shared" si="36"/>
         <v>-5810.9330000000009</v>
       </c>
       <c r="BE58" s="43"/>
       <c r="BF58" s="43"/>
       <c r="BG58" s="72"/>
       <c r="BH58" s="71" t="str">
+        <f t="shared" si="11"/>
+        <v>Saponite-Mg</v>
+      </c>
+      <c r="BI58" s="42">
         <f t="shared" si="12"/>
-        <v>Saponite-Mg</v>
-      </c>
-      <c r="BI58" s="42">
+        <v>0.17</v>
+      </c>
+      <c r="BJ58" s="70">
         <f t="shared" si="13"/>
-        <v>0.17</v>
-      </c>
-      <c r="BJ58" s="70">
+        <v>-147.25</v>
+      </c>
+      <c r="BK58" s="42">
         <f t="shared" si="14"/>
-        <v>-147.25</v>
-      </c>
-      <c r="BK58" s="42">
+        <v>2</v>
+      </c>
+      <c r="BL58" s="70">
+        <f t="shared" si="34"/>
+        <v>-191.72158528078518</v>
+      </c>
+      <c r="BM58" s="42">
         <f t="shared" si="15"/>
-        <v>2</v>
-      </c>
-      <c r="BL58" s="70">
+        <v>1</v>
+      </c>
+      <c r="BN58" s="42">
+        <f t="shared" si="16"/>
+        <v>-191.72158528078518</v>
+      </c>
+      <c r="BO58" s="42">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="BP58" s="70">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="BQ58" s="42">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="BR58" s="42">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="BS58" s="42">
+        <f t="shared" si="21"/>
+        <v>3.915</v>
+      </c>
+      <c r="BT58" s="42">
+        <f t="shared" si="22"/>
+        <v>-283.70867875682239</v>
+      </c>
+      <c r="BU58" s="42">
+        <f t="shared" si="23"/>
+        <v>3.915</v>
+      </c>
+      <c r="BV58" s="42">
+        <f t="shared" si="24"/>
+        <v>-283.70867875682239</v>
+      </c>
+      <c r="BW58" s="42">
+        <f t="shared" si="25"/>
+        <v>1</v>
+      </c>
+      <c r="BX58" s="42">
+        <f t="shared" si="26"/>
+        <v>-249.57662413235681</v>
+      </c>
+      <c r="BY58" s="42">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+      <c r="BZ58" s="42">
+        <f t="shared" si="28"/>
+        <v>-311.97648306982126</v>
+      </c>
+      <c r="CA58" s="42">
+        <f t="shared" si="29"/>
+        <v>0</v>
+      </c>
+      <c r="CB58" s="42">
+        <f t="shared" si="30"/>
+        <v>-287.19938243327937</v>
+      </c>
+      <c r="CC58" s="39">
+        <f t="shared" si="31"/>
+        <v>0</v>
+      </c>
+      <c r="CD58" s="39">
         <f t="shared" si="35"/>
-        <v>-191.72158528078518</v>
-      </c>
-      <c r="BM58" s="42">
-        <f t="shared" si="16"/>
-        <v>1</v>
-      </c>
-      <c r="BN58" s="42">
-        <f t="shared" si="17"/>
-        <v>-191.72158528078518</v>
-      </c>
-      <c r="BO58" s="42">
-        <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
-      <c r="BP58" s="70">
-        <f t="shared" si="19"/>
-        <v>0</v>
-      </c>
-      <c r="BQ58" s="42">
-        <f t="shared" si="20"/>
-        <v>0</v>
-      </c>
-      <c r="BR58" s="42">
-        <f t="shared" si="21"/>
-        <v>0</v>
-      </c>
-      <c r="BS58" s="42">
-        <f t="shared" si="22"/>
-        <v>3.915</v>
-      </c>
-      <c r="BT58" s="42">
-        <f t="shared" si="23"/>
-        <v>-283.70867875682239</v>
-      </c>
-      <c r="BU58" s="42">
-        <f t="shared" si="24"/>
-        <v>3.915</v>
-      </c>
-      <c r="BV58" s="42">
-        <f t="shared" si="25"/>
-        <v>-283.70867875682239</v>
-      </c>
-      <c r="BW58" s="42">
-        <f t="shared" si="26"/>
-        <v>1</v>
-      </c>
-      <c r="BX58" s="42">
-        <f t="shared" si="27"/>
-        <v>-249.57662413235681</v>
-      </c>
-      <c r="BY58" s="42">
-        <f t="shared" si="28"/>
-        <v>0</v>
-      </c>
-      <c r="BZ58" s="42">
-        <f t="shared" si="29"/>
-        <v>-311.97648306982126</v>
-      </c>
-      <c r="CA58" s="42">
-        <f t="shared" si="30"/>
-        <v>0</v>
-      </c>
-      <c r="CB58" s="42">
-        <f t="shared" si="31"/>
-        <v>-287.19938243327937</v>
-      </c>
-      <c r="CC58" s="39">
+        <v>0</v>
+      </c>
+      <c r="CE58" s="39">
         <f t="shared" si="32"/>
         <v>0</v>
       </c>
-      <c r="CD58" s="39">
-        <f t="shared" si="36"/>
-        <v>0</v>
-      </c>
-      <c r="CE58" s="39">
+      <c r="CF58" s="69">
         <f t="shared" si="33"/>
-        <v>0</v>
-      </c>
-      <c r="CF58" s="69">
-        <f t="shared" si="34"/>
         <v>-209.66517413333631</v>
       </c>
       <c r="CG58" s="32"/>
@@ -10368,7 +10390,7 @@
       <c r="FA58" s="2"/>
       <c r="FB58" s="2"/>
     </row>
-    <row r="59" spans="1:158" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:158" x14ac:dyDescent="0.2">
       <c r="A59" s="48" t="s">
         <v>18</v>
       </c>
@@ -10483,114 +10505,114 @@
         <v>-183.29302831077757</v>
       </c>
       <c r="BC59" s="36">
-        <f t="shared" si="11"/>
+        <f t="shared" si="37"/>
         <v>-5632.9100283107782</v>
       </c>
       <c r="BD59" s="5">
-        <f t="shared" si="37"/>
+        <f t="shared" si="36"/>
         <v>-5449.6170000000002</v>
       </c>
       <c r="BE59" s="7"/>
       <c r="BF59" s="7"/>
       <c r="BG59" s="66"/>
       <c r="BH59" s="64" t="str">
+        <f t="shared" si="11"/>
+        <v>Fe Saponite-Na</v>
+      </c>
+      <c r="BI59" s="5">
         <f t="shared" si="12"/>
-        <v>Fe Saponite-Na</v>
-      </c>
-      <c r="BI59" s="5">
+        <v>0.17</v>
+      </c>
+      <c r="BJ59" s="29">
         <f t="shared" si="13"/>
-        <v>0.17</v>
-      </c>
-      <c r="BJ59" s="29">
+        <v>260</v>
+      </c>
+      <c r="BK59" s="5">
         <f t="shared" si="14"/>
-        <v>260</v>
-      </c>
-      <c r="BK59" s="5">
+        <v>2</v>
+      </c>
+      <c r="BL59" s="29">
+        <f t="shared" si="34"/>
+        <v>-209.84965904614407</v>
+      </c>
+      <c r="BM59" s="5">
         <f t="shared" si="15"/>
-        <v>2</v>
-      </c>
-      <c r="BL59" s="29">
+        <v>1</v>
+      </c>
+      <c r="BN59" s="5">
+        <f t="shared" si="16"/>
+        <v>-204.61448272247182</v>
+      </c>
+      <c r="BO59" s="5">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="BP59" s="29">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="BQ59" s="5">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="BR59" s="5">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="BS59" s="5">
+        <f t="shared" si="21"/>
+        <v>3.915</v>
+      </c>
+      <c r="BT59" s="5">
+        <f t="shared" si="22"/>
+        <v>-283.70867875682239</v>
+      </c>
+      <c r="BU59" s="5">
+        <f t="shared" si="23"/>
+        <v>3.915</v>
+      </c>
+      <c r="BV59" s="5">
+        <f t="shared" si="24"/>
+        <v>-283.70867875682239</v>
+      </c>
+      <c r="BW59" s="5">
+        <f t="shared" si="25"/>
+        <v>1</v>
+      </c>
+      <c r="BX59" s="5">
+        <f t="shared" si="26"/>
+        <v>-249.57662413235681</v>
+      </c>
+      <c r="BY59" s="5">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+      <c r="BZ59" s="5">
+        <f t="shared" si="28"/>
+        <v>-311.97648306982126</v>
+      </c>
+      <c r="CA59" s="5">
+        <f t="shared" si="29"/>
+        <v>0</v>
+      </c>
+      <c r="CB59" s="5">
+        <f t="shared" si="30"/>
+        <v>-287.19938243327937</v>
+      </c>
+      <c r="CC59" s="10">
+        <f t="shared" si="31"/>
+        <v>0</v>
+      </c>
+      <c r="CD59" s="10">
         <f t="shared" si="35"/>
-        <v>-209.84965904614407</v>
-      </c>
-      <c r="BM59" s="5">
-        <f t="shared" si="16"/>
-        <v>1</v>
-      </c>
-      <c r="BN59" s="5">
-        <f t="shared" si="17"/>
-        <v>-204.61448272247182</v>
-      </c>
-      <c r="BO59" s="5">
-        <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
-      <c r="BP59" s="29">
-        <f t="shared" si="19"/>
-        <v>0</v>
-      </c>
-      <c r="BQ59" s="5">
-        <f t="shared" si="20"/>
-        <v>0</v>
-      </c>
-      <c r="BR59" s="5">
-        <f t="shared" si="21"/>
-        <v>0</v>
-      </c>
-      <c r="BS59" s="5">
-        <f t="shared" si="22"/>
-        <v>3.915</v>
-      </c>
-      <c r="BT59" s="5">
-        <f t="shared" si="23"/>
-        <v>-283.70867875682239</v>
-      </c>
-      <c r="BU59" s="5">
-        <f t="shared" si="24"/>
-        <v>3.915</v>
-      </c>
-      <c r="BV59" s="5">
-        <f t="shared" si="25"/>
-        <v>-283.70867875682239</v>
-      </c>
-      <c r="BW59" s="5">
-        <f t="shared" si="26"/>
-        <v>1</v>
-      </c>
-      <c r="BX59" s="5">
-        <f t="shared" si="27"/>
-        <v>-249.57662413235681</v>
-      </c>
-      <c r="BY59" s="5">
-        <f t="shared" si="28"/>
-        <v>0</v>
-      </c>
-      <c r="BZ59" s="5">
-        <f t="shared" si="29"/>
-        <v>-311.97648306982126</v>
-      </c>
-      <c r="CA59" s="5">
-        <f t="shared" si="30"/>
-        <v>0</v>
-      </c>
-      <c r="CB59" s="5">
-        <f t="shared" si="31"/>
-        <v>-287.19938243327937</v>
-      </c>
-      <c r="CC59" s="10">
+        <v>34.814730031172637</v>
+      </c>
+      <c r="CE59" s="10">
         <f t="shared" si="32"/>
         <v>0</v>
       </c>
-      <c r="CD59" s="10">
-        <f t="shared" si="36"/>
-        <v>34.814730031172637</v>
-      </c>
-      <c r="CE59" s="10">
+      <c r="CF59" s="33">
         <f t="shared" si="33"/>
-        <v>0</v>
-      </c>
-      <c r="CF59" s="33">
-        <f t="shared" si="34"/>
         <v>-219.54640417842074</v>
       </c>
       <c r="CG59" s="32"/>
@@ -10635,7 +10657,7 @@
       <c r="FA59" s="2"/>
       <c r="FB59" s="2"/>
     </row>
-    <row r="60" spans="1:158" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:158" x14ac:dyDescent="0.2">
       <c r="A60" s="48" t="s">
         <v>17</v>
       </c>
@@ -10750,114 +10772,114 @@
         <v>-204.70155331077754</v>
       </c>
       <c r="BC60" s="36">
-        <f t="shared" si="11"/>
+        <f t="shared" si="37"/>
         <v>-5645.5414533107787</v>
       </c>
       <c r="BD60" s="5">
-        <f t="shared" si="37"/>
+        <f t="shared" si="36"/>
         <v>-5440.8399000000009</v>
       </c>
       <c r="BE60" s="7"/>
       <c r="BF60" s="7"/>
       <c r="BG60" s="66"/>
       <c r="BH60" s="64" t="str">
+        <f t="shared" si="11"/>
+        <v>Fe Saponite-K</v>
+      </c>
+      <c r="BI60" s="5">
         <f t="shared" si="12"/>
-        <v>Fe Saponite-K</v>
-      </c>
-      <c r="BI60" s="5">
+        <v>0.17</v>
+      </c>
+      <c r="BJ60" s="29">
         <f t="shared" si="13"/>
-        <v>0.17</v>
-      </c>
-      <c r="BJ60" s="29">
+        <v>453</v>
+      </c>
+      <c r="BK60" s="5">
         <f t="shared" si="14"/>
-        <v>453</v>
-      </c>
-      <c r="BK60" s="5">
+        <v>2</v>
+      </c>
+      <c r="BL60" s="29">
+        <f t="shared" si="34"/>
+        <v>-209.84965904614407</v>
+      </c>
+      <c r="BM60" s="5">
         <f t="shared" si="15"/>
-        <v>2</v>
-      </c>
-      <c r="BL60" s="29">
+        <v>1</v>
+      </c>
+      <c r="BN60" s="5">
+        <f t="shared" si="16"/>
+        <v>-204.61448272247182</v>
+      </c>
+      <c r="BO60" s="5">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="BP60" s="29">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="BQ60" s="5">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="BR60" s="5">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="BS60" s="5">
+        <f t="shared" si="21"/>
+        <v>3.915</v>
+      </c>
+      <c r="BT60" s="5">
+        <f t="shared" si="22"/>
+        <v>-283.70867875682239</v>
+      </c>
+      <c r="BU60" s="5">
+        <f t="shared" si="23"/>
+        <v>3.915</v>
+      </c>
+      <c r="BV60" s="5">
+        <f t="shared" si="24"/>
+        <v>-283.70867875682239</v>
+      </c>
+      <c r="BW60" s="5">
+        <f t="shared" si="25"/>
+        <v>1</v>
+      </c>
+      <c r="BX60" s="5">
+        <f t="shared" si="26"/>
+        <v>-249.57662413235681</v>
+      </c>
+      <c r="BY60" s="5">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+      <c r="BZ60" s="5">
+        <f t="shared" si="28"/>
+        <v>-311.97648306982126</v>
+      </c>
+      <c r="CA60" s="5">
+        <f t="shared" si="29"/>
+        <v>0</v>
+      </c>
+      <c r="CB60" s="5">
+        <f t="shared" si="30"/>
+        <v>-287.19938243327937</v>
+      </c>
+      <c r="CC60" s="10">
+        <f t="shared" si="31"/>
+        <v>0</v>
+      </c>
+      <c r="CD60" s="10">
         <f t="shared" si="35"/>
-        <v>-209.84965904614407</v>
-      </c>
-      <c r="BM60" s="5">
-        <f t="shared" si="16"/>
-        <v>1</v>
-      </c>
-      <c r="BN60" s="5">
-        <f t="shared" si="17"/>
-        <v>-204.61448272247182</v>
-      </c>
-      <c r="BO60" s="5">
-        <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
-      <c r="BP60" s="29">
-        <f t="shared" si="19"/>
-        <v>0</v>
-      </c>
-      <c r="BQ60" s="5">
-        <f t="shared" si="20"/>
-        <v>0</v>
-      </c>
-      <c r="BR60" s="5">
-        <f t="shared" si="21"/>
-        <v>0</v>
-      </c>
-      <c r="BS60" s="5">
-        <f t="shared" si="22"/>
-        <v>3.915</v>
-      </c>
-      <c r="BT60" s="5">
-        <f t="shared" si="23"/>
-        <v>-283.70867875682239</v>
-      </c>
-      <c r="BU60" s="5">
-        <f t="shared" si="24"/>
-        <v>3.915</v>
-      </c>
-      <c r="BV60" s="5">
-        <f t="shared" si="25"/>
-        <v>-283.70867875682239</v>
-      </c>
-      <c r="BW60" s="5">
-        <f t="shared" si="26"/>
-        <v>1</v>
-      </c>
-      <c r="BX60" s="5">
-        <f t="shared" si="27"/>
-        <v>-249.57662413235681</v>
-      </c>
-      <c r="BY60" s="5">
-        <f t="shared" si="28"/>
-        <v>0</v>
-      </c>
-      <c r="BZ60" s="5">
-        <f t="shared" si="29"/>
-        <v>-311.97648306982126</v>
-      </c>
-      <c r="CA60" s="5">
-        <f t="shared" si="30"/>
-        <v>0</v>
-      </c>
-      <c r="CB60" s="5">
-        <f t="shared" si="31"/>
-        <v>-287.19938243327937</v>
-      </c>
-      <c r="CC60" s="10">
+        <v>34.814730031172637</v>
+      </c>
+      <c r="CE60" s="10">
         <f t="shared" si="32"/>
         <v>0</v>
       </c>
-      <c r="CD60" s="10">
-        <f t="shared" si="36"/>
-        <v>34.814730031172637</v>
-      </c>
-      <c r="CE60" s="10">
+      <c r="CF60" s="33">
         <f t="shared" si="33"/>
-        <v>0</v>
-      </c>
-      <c r="CF60" s="33">
-        <f t="shared" si="34"/>
         <v>-240.95492917842071</v>
       </c>
       <c r="CG60" s="32"/>
@@ -10902,7 +10924,7 @@
       <c r="FA60" s="2"/>
       <c r="FB60" s="2"/>
     </row>
-    <row r="61" spans="1:158" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:158" x14ac:dyDescent="0.2">
       <c r="A61" s="48" t="s">
         <v>16</v>
       </c>
@@ -11017,114 +11039,114 @@
         <v>-146.55134507635339</v>
       </c>
       <c r="BC61" s="36">
-        <f t="shared" si="11"/>
+        <f t="shared" si="37"/>
         <v>-5633.5887450763539</v>
       </c>
       <c r="BD61" s="5">
-        <f t="shared" si="37"/>
+        <f t="shared" si="36"/>
         <v>-5487.0374000000002</v>
       </c>
       <c r="BE61" s="7"/>
       <c r="BF61" s="7"/>
       <c r="BG61" s="66"/>
       <c r="BH61" s="64" t="str">
+        <f t="shared" si="11"/>
+        <v>Fe Saponite-Ca</v>
+      </c>
+      <c r="BI61" s="5">
         <f t="shared" si="12"/>
-        <v>Fe Saponite-Ca</v>
-      </c>
-      <c r="BI61" s="5">
+        <v>0.17</v>
+      </c>
+      <c r="BJ61" s="29">
         <f t="shared" si="13"/>
-        <v>0.17</v>
-      </c>
-      <c r="BJ61" s="29">
+        <v>-71.22995929163136</v>
+      </c>
+      <c r="BK61" s="5">
         <f t="shared" si="14"/>
-        <v>-71.22995929163136</v>
-      </c>
-      <c r="BK61" s="5">
+        <v>2</v>
+      </c>
+      <c r="BL61" s="29">
+        <f t="shared" si="34"/>
+        <v>-209.84965904614407</v>
+      </c>
+      <c r="BM61" s="5">
         <f t="shared" si="15"/>
-        <v>2</v>
-      </c>
-      <c r="BL61" s="29">
+        <v>1</v>
+      </c>
+      <c r="BN61" s="5">
+        <f t="shared" si="16"/>
+        <v>-204.61448272247182</v>
+      </c>
+      <c r="BO61" s="5">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="BP61" s="29">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="BQ61" s="5">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="BR61" s="5">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="BS61" s="5">
+        <f t="shared" si="21"/>
+        <v>3.915</v>
+      </c>
+      <c r="BT61" s="5">
+        <f t="shared" si="22"/>
+        <v>-283.70867875682239</v>
+      </c>
+      <c r="BU61" s="5">
+        <f t="shared" si="23"/>
+        <v>3.915</v>
+      </c>
+      <c r="BV61" s="5">
+        <f t="shared" si="24"/>
+        <v>-283.70867875682239</v>
+      </c>
+      <c r="BW61" s="5">
+        <f t="shared" si="25"/>
+        <v>1</v>
+      </c>
+      <c r="BX61" s="5">
+        <f t="shared" si="26"/>
+        <v>-249.57662413235681</v>
+      </c>
+      <c r="BY61" s="5">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+      <c r="BZ61" s="5">
+        <f t="shared" si="28"/>
+        <v>-311.97648306982126</v>
+      </c>
+      <c r="CA61" s="5">
+        <f t="shared" si="29"/>
+        <v>0</v>
+      </c>
+      <c r="CB61" s="5">
+        <f t="shared" si="30"/>
+        <v>-287.19938243327937</v>
+      </c>
+      <c r="CC61" s="10">
+        <f t="shared" si="31"/>
+        <v>0</v>
+      </c>
+      <c r="CD61" s="10">
         <f t="shared" si="35"/>
-        <v>-209.84965904614407</v>
-      </c>
-      <c r="BM61" s="5">
-        <f t="shared" si="16"/>
-        <v>1</v>
-      </c>
-      <c r="BN61" s="5">
-        <f t="shared" si="17"/>
-        <v>-204.61448272247182</v>
-      </c>
-      <c r="BO61" s="5">
-        <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
-      <c r="BP61" s="29">
-        <f t="shared" si="19"/>
-        <v>0</v>
-      </c>
-      <c r="BQ61" s="5">
-        <f t="shared" si="20"/>
-        <v>0</v>
-      </c>
-      <c r="BR61" s="5">
-        <f t="shared" si="21"/>
-        <v>0</v>
-      </c>
-      <c r="BS61" s="5">
-        <f t="shared" si="22"/>
-        <v>3.915</v>
-      </c>
-      <c r="BT61" s="5">
-        <f t="shared" si="23"/>
-        <v>-283.70867875682239</v>
-      </c>
-      <c r="BU61" s="5">
-        <f t="shared" si="24"/>
-        <v>3.915</v>
-      </c>
-      <c r="BV61" s="5">
-        <f t="shared" si="25"/>
-        <v>-283.70867875682239</v>
-      </c>
-      <c r="BW61" s="5">
-        <f t="shared" si="26"/>
-        <v>1</v>
-      </c>
-      <c r="BX61" s="5">
-        <f t="shared" si="27"/>
-        <v>-249.57662413235681</v>
-      </c>
-      <c r="BY61" s="5">
-        <f t="shared" si="28"/>
-        <v>0</v>
-      </c>
-      <c r="BZ61" s="5">
-        <f t="shared" si="29"/>
-        <v>-311.97648306982126</v>
-      </c>
-      <c r="CA61" s="5">
-        <f t="shared" si="30"/>
-        <v>0</v>
-      </c>
-      <c r="CB61" s="5">
-        <f t="shared" si="31"/>
-        <v>-287.19938243327937</v>
-      </c>
-      <c r="CC61" s="10">
+        <v>34.814730031172637</v>
+      </c>
+      <c r="CE61" s="10">
         <f t="shared" si="32"/>
         <v>0</v>
       </c>
-      <c r="CD61" s="10">
-        <f t="shared" si="36"/>
-        <v>34.814730031172637</v>
-      </c>
-      <c r="CE61" s="10">
+      <c r="CF61" s="33">
         <f t="shared" si="33"/>
-        <v>0</v>
-      </c>
-      <c r="CF61" s="33">
-        <f t="shared" si="34"/>
         <v>-182.80472094399656</v>
       </c>
       <c r="CG61" s="32"/>
@@ -11169,7 +11191,7 @@
       <c r="FA61" s="2"/>
       <c r="FB61" s="2"/>
     </row>
-    <row r="62" spans="1:158" ht="12" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:158" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A62" s="77" t="s">
         <v>15</v>
       </c>
@@ -11286,114 +11308,114 @@
         <v>-138.11882206077757</v>
       </c>
       <c r="BC62" s="73">
-        <f t="shared" si="11"/>
+        <f t="shared" si="37"/>
         <v>-5619.4918220607769</v>
       </c>
       <c r="BD62" s="5">
-        <f t="shared" si="37"/>
+        <f t="shared" si="36"/>
         <v>-5481.3729999999996</v>
       </c>
       <c r="BE62" s="43"/>
       <c r="BF62" s="43"/>
       <c r="BG62" s="72"/>
       <c r="BH62" s="71" t="str">
+        <f t="shared" si="11"/>
+        <v>Fe Saponite-Mg</v>
+      </c>
+      <c r="BI62" s="42">
         <f t="shared" si="12"/>
-        <v>Fe Saponite-Mg</v>
-      </c>
-      <c r="BI62" s="42">
+        <v>0.17</v>
+      </c>
+      <c r="BJ62" s="70">
         <f t="shared" si="13"/>
-        <v>0.17</v>
-      </c>
-      <c r="BJ62" s="70">
+        <v>-147.25</v>
+      </c>
+      <c r="BK62" s="42">
         <f t="shared" si="14"/>
-        <v>-147.25</v>
-      </c>
-      <c r="BK62" s="42">
+        <v>2</v>
+      </c>
+      <c r="BL62" s="70">
+        <f t="shared" si="34"/>
+        <v>-209.84965904614407</v>
+      </c>
+      <c r="BM62" s="42">
         <f t="shared" si="15"/>
-        <v>2</v>
-      </c>
-      <c r="BL62" s="70">
+        <v>1</v>
+      </c>
+      <c r="BN62" s="42">
+        <f t="shared" si="16"/>
+        <v>-204.61448272247182</v>
+      </c>
+      <c r="BO62" s="42">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="BP62" s="70">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="BQ62" s="42">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="BR62" s="42">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="BS62" s="42">
+        <f t="shared" si="21"/>
+        <v>3.915</v>
+      </c>
+      <c r="BT62" s="42">
+        <f t="shared" si="22"/>
+        <v>-283.70867875682239</v>
+      </c>
+      <c r="BU62" s="42">
+        <f t="shared" si="23"/>
+        <v>3.915</v>
+      </c>
+      <c r="BV62" s="42">
+        <f t="shared" si="24"/>
+        <v>-283.70867875682239</v>
+      </c>
+      <c r="BW62" s="42">
+        <f t="shared" si="25"/>
+        <v>1</v>
+      </c>
+      <c r="BX62" s="42">
+        <f t="shared" si="26"/>
+        <v>-249.57662413235681</v>
+      </c>
+      <c r="BY62" s="42">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+      <c r="BZ62" s="42">
+        <f t="shared" si="28"/>
+        <v>-311.97648306982126</v>
+      </c>
+      <c r="CA62" s="42">
+        <f t="shared" si="29"/>
+        <v>0</v>
+      </c>
+      <c r="CB62" s="42">
+        <f t="shared" si="30"/>
+        <v>-287.19938243327937</v>
+      </c>
+      <c r="CC62" s="39">
+        <f t="shared" si="31"/>
+        <v>0</v>
+      </c>
+      <c r="CD62" s="39">
         <f t="shared" si="35"/>
-        <v>-209.84965904614407</v>
-      </c>
-      <c r="BM62" s="42">
-        <f t="shared" si="16"/>
-        <v>1</v>
-      </c>
-      <c r="BN62" s="42">
-        <f t="shared" si="17"/>
-        <v>-204.61448272247182</v>
-      </c>
-      <c r="BO62" s="42">
-        <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
-      <c r="BP62" s="70">
-        <f t="shared" si="19"/>
-        <v>0</v>
-      </c>
-      <c r="BQ62" s="42">
-        <f t="shared" si="20"/>
-        <v>0</v>
-      </c>
-      <c r="BR62" s="42">
-        <f t="shared" si="21"/>
-        <v>0</v>
-      </c>
-      <c r="BS62" s="42">
-        <f t="shared" si="22"/>
-        <v>3.915</v>
-      </c>
-      <c r="BT62" s="42">
-        <f t="shared" si="23"/>
-        <v>-283.70867875682239</v>
-      </c>
-      <c r="BU62" s="42">
-        <f t="shared" si="24"/>
-        <v>3.915</v>
-      </c>
-      <c r="BV62" s="42">
-        <f t="shared" si="25"/>
-        <v>-283.70867875682239</v>
-      </c>
-      <c r="BW62" s="42">
-        <f t="shared" si="26"/>
-        <v>1</v>
-      </c>
-      <c r="BX62" s="42">
-        <f t="shared" si="27"/>
-        <v>-249.57662413235681</v>
-      </c>
-      <c r="BY62" s="42">
-        <f t="shared" si="28"/>
-        <v>0</v>
-      </c>
-      <c r="BZ62" s="42">
-        <f t="shared" si="29"/>
-        <v>-311.97648306982126</v>
-      </c>
-      <c r="CA62" s="42">
-        <f t="shared" si="30"/>
-        <v>0</v>
-      </c>
-      <c r="CB62" s="42">
-        <f t="shared" si="31"/>
-        <v>-287.19938243327937</v>
-      </c>
-      <c r="CC62" s="39">
+        <v>34.814730031172637</v>
+      </c>
+      <c r="CE62" s="39">
         <f t="shared" si="32"/>
         <v>0</v>
       </c>
-      <c r="CD62" s="39">
-        <f t="shared" si="36"/>
-        <v>34.814730031172637</v>
-      </c>
-      <c r="CE62" s="39">
+      <c r="CF62" s="69">
         <f t="shared" si="33"/>
-        <v>0</v>
-      </c>
-      <c r="CF62" s="69">
-        <f t="shared" si="34"/>
         <v>-174.37219792842075</v>
       </c>
       <c r="CG62" s="32"/>
@@ -11438,7 +11460,7 @@
       <c r="FA62" s="2"/>
       <c r="FB62" s="2"/>
     </row>
-    <row r="63" spans="1:158" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:158" x14ac:dyDescent="0.2">
       <c r="A63" s="48" t="s">
         <v>14</v>
       </c>
@@ -11553,114 +11575,114 @@
         <v>-40.873005914359041</v>
       </c>
       <c r="BC63" s="36">
-        <f t="shared" si="11"/>
+        <f t="shared" si="37"/>
         <v>-4981.642555914359</v>
       </c>
       <c r="BD63" s="5">
-        <f t="shared" si="37"/>
+        <f t="shared" si="36"/>
         <v>-4940.76955</v>
       </c>
       <c r="BE63" s="7"/>
       <c r="BF63" s="7"/>
       <c r="BG63" s="66"/>
       <c r="BH63" s="64" t="str">
+        <f t="shared" si="11"/>
+        <v>Nontronite-Na</v>
+      </c>
+      <c r="BI63" s="5">
         <f t="shared" si="12"/>
-        <v>Nontronite-Na</v>
-      </c>
-      <c r="BI63" s="5">
+        <v>0.17</v>
+      </c>
+      <c r="BJ63" s="29">
         <f t="shared" si="13"/>
-        <v>0.17</v>
-      </c>
-      <c r="BJ63" s="29">
+        <v>260</v>
+      </c>
+      <c r="BK63" s="5">
         <f t="shared" si="14"/>
-        <v>260</v>
-      </c>
-      <c r="BK63" s="5">
+        <v>3</v>
+      </c>
+      <c r="BL63" s="29">
+        <f t="shared" si="34"/>
+        <v>-287.4606529062155</v>
+      </c>
+      <c r="BM63" s="5">
         <f t="shared" si="15"/>
-        <v>3</v>
-      </c>
-      <c r="BL63" s="29">
+        <v>0</v>
+      </c>
+      <c r="BN63" s="5">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="BO63" s="5">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="BP63" s="29">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="BQ63" s="5">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="BR63" s="5">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="BS63" s="5">
+        <f t="shared" si="21"/>
+        <v>3.915</v>
+      </c>
+      <c r="BT63" s="5">
+        <f t="shared" si="22"/>
+        <v>-283.70867875682239</v>
+      </c>
+      <c r="BU63" s="5">
+        <f t="shared" si="23"/>
+        <v>3.915</v>
+      </c>
+      <c r="BV63" s="5">
+        <f t="shared" si="24"/>
+        <v>-283.70867875682239</v>
+      </c>
+      <c r="BW63" s="5">
+        <f t="shared" si="25"/>
+        <v>1</v>
+      </c>
+      <c r="BX63" s="5">
+        <f t="shared" si="26"/>
+        <v>-249.57662413235681</v>
+      </c>
+      <c r="BY63" s="5">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+      <c r="BZ63" s="5">
+        <f t="shared" si="28"/>
+        <v>-311.97648306982126</v>
+      </c>
+      <c r="CA63" s="5">
+        <f t="shared" si="29"/>
+        <v>0</v>
+      </c>
+      <c r="CB63" s="5">
+        <f t="shared" si="30"/>
+        <v>-287.19938243327937</v>
+      </c>
+      <c r="CC63" s="10">
+        <f t="shared" si="31"/>
+        <v>0</v>
+      </c>
+      <c r="CD63" s="10">
         <f t="shared" si="35"/>
-        <v>-287.4606529062155</v>
-      </c>
-      <c r="BM63" s="5">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="BN63" s="5">
-        <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="BO63" s="5">
-        <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
-      <c r="BP63" s="29">
-        <f t="shared" si="19"/>
-        <v>0</v>
-      </c>
-      <c r="BQ63" s="5">
-        <f t="shared" si="20"/>
-        <v>0</v>
-      </c>
-      <c r="BR63" s="5">
-        <f t="shared" si="21"/>
-        <v>0</v>
-      </c>
-      <c r="BS63" s="5">
-        <f t="shared" si="22"/>
-        <v>3.915</v>
-      </c>
-      <c r="BT63" s="5">
-        <f t="shared" si="23"/>
-        <v>-283.70867875682239</v>
-      </c>
-      <c r="BU63" s="5">
-        <f t="shared" si="24"/>
-        <v>3.915</v>
-      </c>
-      <c r="BV63" s="5">
-        <f t="shared" si="25"/>
-        <v>-283.70867875682239</v>
-      </c>
-      <c r="BW63" s="5">
-        <f t="shared" si="26"/>
-        <v>1</v>
-      </c>
-      <c r="BX63" s="5">
-        <f t="shared" si="27"/>
-        <v>-249.57662413235681</v>
-      </c>
-      <c r="BY63" s="5">
-        <f t="shared" si="28"/>
-        <v>0</v>
-      </c>
-      <c r="BZ63" s="5">
-        <f t="shared" si="29"/>
-        <v>-311.97648306982126</v>
-      </c>
-      <c r="CA63" s="5">
-        <f t="shared" si="30"/>
-        <v>0</v>
-      </c>
-      <c r="CB63" s="5">
-        <f t="shared" si="31"/>
-        <v>-287.19938243327937</v>
-      </c>
-      <c r="CC63" s="10">
+        <v>48.400608669367287</v>
+      </c>
+      <c r="CE63" s="10">
         <f t="shared" si="32"/>
         <v>0</v>
       </c>
-      <c r="CD63" s="10">
-        <f t="shared" si="36"/>
-        <v>48.400608669367287</v>
-      </c>
-      <c r="CE63" s="10">
+      <c r="CF63" s="33">
         <f t="shared" si="33"/>
-        <v>0</v>
-      </c>
-      <c r="CF63" s="33">
-        <f t="shared" si="34"/>
         <v>-77.126381782002213</v>
       </c>
       <c r="CG63" s="32"/>
@@ -11705,7 +11727,7 @@
       <c r="FA63" s="2"/>
       <c r="FB63" s="2"/>
     </row>
-    <row r="64" spans="1:158" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:158" x14ac:dyDescent="0.2">
       <c r="A64" s="48" t="s">
         <v>13</v>
       </c>
@@ -11820,114 +11842,114 @@
         <v>-62.281530914359038</v>
       </c>
       <c r="BC64" s="36">
-        <f t="shared" si="11"/>
+        <f t="shared" si="37"/>
         <v>-4994.2739809143586</v>
       </c>
       <c r="BD64" s="5">
-        <f t="shared" si="37"/>
+        <f t="shared" si="36"/>
         <v>-4931.9924499999997</v>
       </c>
       <c r="BE64" s="7"/>
       <c r="BF64" s="7"/>
       <c r="BG64" s="66"/>
       <c r="BH64" s="64" t="str">
+        <f t="shared" si="11"/>
+        <v>Nontronite-K</v>
+      </c>
+      <c r="BI64" s="5">
         <f t="shared" si="12"/>
-        <v>Nontronite-K</v>
-      </c>
-      <c r="BI64" s="5">
+        <v>0.17</v>
+      </c>
+      <c r="BJ64" s="29">
         <f t="shared" si="13"/>
-        <v>0.17</v>
-      </c>
-      <c r="BJ64" s="29">
+        <v>453</v>
+      </c>
+      <c r="BK64" s="5">
         <f t="shared" si="14"/>
-        <v>453</v>
-      </c>
-      <c r="BK64" s="5">
+        <v>3</v>
+      </c>
+      <c r="BL64" s="29">
+        <f t="shared" si="34"/>
+        <v>-287.4606529062155</v>
+      </c>
+      <c r="BM64" s="5">
         <f t="shared" si="15"/>
-        <v>3</v>
-      </c>
-      <c r="BL64" s="29">
+        <v>0</v>
+      </c>
+      <c r="BN64" s="5">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="BO64" s="5">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="BP64" s="29">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="BQ64" s="5">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="BR64" s="5">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="BS64" s="5">
+        <f t="shared" si="21"/>
+        <v>3.915</v>
+      </c>
+      <c r="BT64" s="5">
+        <f t="shared" si="22"/>
+        <v>-283.70867875682239</v>
+      </c>
+      <c r="BU64" s="5">
+        <f t="shared" si="23"/>
+        <v>3.915</v>
+      </c>
+      <c r="BV64" s="5">
+        <f t="shared" si="24"/>
+        <v>-283.70867875682239</v>
+      </c>
+      <c r="BW64" s="5">
+        <f t="shared" si="25"/>
+        <v>1</v>
+      </c>
+      <c r="BX64" s="5">
+        <f t="shared" si="26"/>
+        <v>-249.57662413235681</v>
+      </c>
+      <c r="BY64" s="5">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+      <c r="BZ64" s="5">
+        <f t="shared" si="28"/>
+        <v>-311.97648306982126</v>
+      </c>
+      <c r="CA64" s="5">
+        <f t="shared" si="29"/>
+        <v>0</v>
+      </c>
+      <c r="CB64" s="5">
+        <f t="shared" si="30"/>
+        <v>-287.19938243327937</v>
+      </c>
+      <c r="CC64" s="10">
+        <f t="shared" si="31"/>
+        <v>0</v>
+      </c>
+      <c r="CD64" s="10">
         <f t="shared" si="35"/>
-        <v>-287.4606529062155</v>
-      </c>
-      <c r="BM64" s="5">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="BN64" s="5">
-        <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="BO64" s="5">
-        <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
-      <c r="BP64" s="29">
-        <f t="shared" si="19"/>
-        <v>0</v>
-      </c>
-      <c r="BQ64" s="5">
-        <f t="shared" si="20"/>
-        <v>0</v>
-      </c>
-      <c r="BR64" s="5">
-        <f t="shared" si="21"/>
-        <v>0</v>
-      </c>
-      <c r="BS64" s="5">
-        <f t="shared" si="22"/>
-        <v>3.915</v>
-      </c>
-      <c r="BT64" s="5">
-        <f t="shared" si="23"/>
-        <v>-283.70867875682239</v>
-      </c>
-      <c r="BU64" s="5">
-        <f t="shared" si="24"/>
-        <v>3.915</v>
-      </c>
-      <c r="BV64" s="5">
-        <f t="shared" si="25"/>
-        <v>-283.70867875682239</v>
-      </c>
-      <c r="BW64" s="5">
-        <f t="shared" si="26"/>
-        <v>1</v>
-      </c>
-      <c r="BX64" s="5">
-        <f t="shared" si="27"/>
-        <v>-249.57662413235681</v>
-      </c>
-      <c r="BY64" s="5">
-        <f t="shared" si="28"/>
-        <v>0</v>
-      </c>
-      <c r="BZ64" s="5">
-        <f t="shared" si="29"/>
-        <v>-311.97648306982126</v>
-      </c>
-      <c r="CA64" s="5">
-        <f t="shared" si="30"/>
-        <v>0</v>
-      </c>
-      <c r="CB64" s="5">
-        <f t="shared" si="31"/>
-        <v>-287.19938243327937</v>
-      </c>
-      <c r="CC64" s="10">
+        <v>48.400608669367287</v>
+      </c>
+      <c r="CE64" s="10">
         <f t="shared" si="32"/>
         <v>0</v>
       </c>
-      <c r="CD64" s="10">
-        <f t="shared" si="36"/>
-        <v>48.400608669367287</v>
-      </c>
-      <c r="CE64" s="10">
+      <c r="CF64" s="33">
         <f t="shared" si="33"/>
-        <v>0</v>
-      </c>
-      <c r="CF64" s="33">
-        <f t="shared" si="34"/>
         <v>-98.53490678200221</v>
       </c>
       <c r="CG64" s="32"/>
@@ -11972,7 +11994,7 @@
       <c r="FA64" s="2"/>
       <c r="FB64" s="2"/>
     </row>
-    <row r="65" spans="1:240" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:240" x14ac:dyDescent="0.2">
       <c r="A65" s="48" t="s">
         <v>12</v>
       </c>
@@ -12087,114 +12109,114 @@
         <v>-4.1313226799348257</v>
       </c>
       <c r="BC65" s="36">
-        <f t="shared" si="11"/>
+        <f t="shared" si="37"/>
         <v>-4982.3212726799347</v>
       </c>
       <c r="BD65" s="5">
-        <f t="shared" si="37"/>
+        <f t="shared" si="36"/>
         <v>-4978.18995</v>
       </c>
       <c r="BE65" s="7"/>
       <c r="BF65" s="7"/>
       <c r="BG65" s="66"/>
       <c r="BH65" s="64" t="str">
+        <f t="shared" si="11"/>
+        <v>Nontronite-Ca</v>
+      </c>
+      <c r="BI65" s="5">
         <f t="shared" si="12"/>
-        <v>Nontronite-Ca</v>
-      </c>
-      <c r="BI65" s="5">
+        <v>0.17</v>
+      </c>
+      <c r="BJ65" s="29">
         <f t="shared" si="13"/>
-        <v>0.17</v>
-      </c>
-      <c r="BJ65" s="29">
+        <v>-71.22995929163136</v>
+      </c>
+      <c r="BK65" s="5">
         <f t="shared" si="14"/>
-        <v>-71.22995929163136</v>
-      </c>
-      <c r="BK65" s="5">
+        <v>3</v>
+      </c>
+      <c r="BL65" s="29">
+        <f t="shared" si="34"/>
+        <v>-287.4606529062155</v>
+      </c>
+      <c r="BM65" s="5">
         <f t="shared" si="15"/>
-        <v>3</v>
-      </c>
-      <c r="BL65" s="29">
+        <v>0</v>
+      </c>
+      <c r="BN65" s="5">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="BO65" s="5">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="BP65" s="29">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="BQ65" s="5">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="BR65" s="5">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="BS65" s="5">
+        <f t="shared" si="21"/>
+        <v>3.915</v>
+      </c>
+      <c r="BT65" s="5">
+        <f t="shared" si="22"/>
+        <v>-283.70867875682239</v>
+      </c>
+      <c r="BU65" s="5">
+        <f t="shared" si="23"/>
+        <v>3.915</v>
+      </c>
+      <c r="BV65" s="5">
+        <f t="shared" si="24"/>
+        <v>-283.70867875682239</v>
+      </c>
+      <c r="BW65" s="5">
+        <f t="shared" si="25"/>
+        <v>1</v>
+      </c>
+      <c r="BX65" s="5">
+        <f t="shared" si="26"/>
+        <v>-249.57662413235681</v>
+      </c>
+      <c r="BY65" s="5">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+      <c r="BZ65" s="5">
+        <f t="shared" si="28"/>
+        <v>-311.97648306982126</v>
+      </c>
+      <c r="CA65" s="5">
+        <f t="shared" si="29"/>
+        <v>0</v>
+      </c>
+      <c r="CB65" s="5">
+        <f t="shared" si="30"/>
+        <v>-287.19938243327937</v>
+      </c>
+      <c r="CC65" s="10">
+        <f t="shared" si="31"/>
+        <v>0</v>
+      </c>
+      <c r="CD65" s="10">
         <f t="shared" si="35"/>
-        <v>-287.4606529062155</v>
-      </c>
-      <c r="BM65" s="5">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="BN65" s="5">
-        <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="BO65" s="5">
-        <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
-      <c r="BP65" s="29">
-        <f t="shared" si="19"/>
-        <v>0</v>
-      </c>
-      <c r="BQ65" s="5">
-        <f t="shared" si="20"/>
-        <v>0</v>
-      </c>
-      <c r="BR65" s="5">
-        <f t="shared" si="21"/>
-        <v>0</v>
-      </c>
-      <c r="BS65" s="5">
-        <f t="shared" si="22"/>
-        <v>3.915</v>
-      </c>
-      <c r="BT65" s="5">
-        <f t="shared" si="23"/>
-        <v>-283.70867875682239</v>
-      </c>
-      <c r="BU65" s="5">
-        <f t="shared" si="24"/>
-        <v>3.915</v>
-      </c>
-      <c r="BV65" s="5">
-        <f t="shared" si="25"/>
-        <v>-283.70867875682239</v>
-      </c>
-      <c r="BW65" s="5">
-        <f t="shared" si="26"/>
-        <v>1</v>
-      </c>
-      <c r="BX65" s="5">
-        <f t="shared" si="27"/>
-        <v>-249.57662413235681</v>
-      </c>
-      <c r="BY65" s="5">
-        <f t="shared" si="28"/>
-        <v>0</v>
-      </c>
-      <c r="BZ65" s="5">
-        <f t="shared" si="29"/>
-        <v>-311.97648306982126</v>
-      </c>
-      <c r="CA65" s="5">
-        <f t="shared" si="30"/>
-        <v>0</v>
-      </c>
-      <c r="CB65" s="5">
-        <f t="shared" si="31"/>
-        <v>-287.19938243327937</v>
-      </c>
-      <c r="CC65" s="10">
+        <v>48.400608669367287</v>
+      </c>
+      <c r="CE65" s="10">
         <f t="shared" si="32"/>
         <v>0</v>
       </c>
-      <c r="CD65" s="10">
-        <f t="shared" si="36"/>
-        <v>48.400608669367287</v>
-      </c>
-      <c r="CE65" s="10">
+      <c r="CF65" s="33">
         <f t="shared" si="33"/>
-        <v>0</v>
-      </c>
-      <c r="CF65" s="33">
-        <f t="shared" si="34"/>
         <v>-40.384698547577997</v>
       </c>
       <c r="CG65" s="32"/>
@@ -12239,7 +12261,7 @@
       <c r="FA65" s="2"/>
       <c r="FB65" s="2"/>
     </row>
-    <row r="66" spans="1:240" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:240" x14ac:dyDescent="0.2">
       <c r="A66" s="77" t="s">
         <v>11</v>
       </c>
@@ -12356,114 +12378,114 @@
         <v>4.3012003356409672</v>
       </c>
       <c r="BC66" s="73">
-        <f t="shared" si="11"/>
+        <f t="shared" si="37"/>
         <v>-4968.2243496643596</v>
       </c>
       <c r="BD66" s="5">
-        <f t="shared" si="37"/>
+        <f t="shared" si="36"/>
         <v>-4972.5255500000003</v>
       </c>
       <c r="BE66" s="43"/>
       <c r="BF66" s="43"/>
       <c r="BG66" s="72"/>
       <c r="BH66" s="71" t="str">
+        <f t="shared" si="11"/>
+        <v>Nontronite-Mg</v>
+      </c>
+      <c r="BI66" s="42">
         <f t="shared" si="12"/>
-        <v>Nontronite-Mg</v>
-      </c>
-      <c r="BI66" s="42">
+        <v>0.17</v>
+      </c>
+      <c r="BJ66" s="70">
         <f t="shared" si="13"/>
-        <v>0.17</v>
-      </c>
-      <c r="BJ66" s="70">
+        <v>-147.25</v>
+      </c>
+      <c r="BK66" s="42">
         <f t="shared" si="14"/>
-        <v>-147.25</v>
-      </c>
-      <c r="BK66" s="42">
+        <v>3</v>
+      </c>
+      <c r="BL66" s="70">
+        <f t="shared" si="34"/>
+        <v>-287.4606529062155</v>
+      </c>
+      <c r="BM66" s="42">
         <f t="shared" si="15"/>
-        <v>3</v>
-      </c>
-      <c r="BL66" s="70">
+        <v>0</v>
+      </c>
+      <c r="BN66" s="42">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="BO66" s="42">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="BP66" s="70">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="BQ66" s="42">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="BR66" s="42">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="BS66" s="42">
+        <f t="shared" si="21"/>
+        <v>3.915</v>
+      </c>
+      <c r="BT66" s="42">
+        <f t="shared" si="22"/>
+        <v>-283.70867875682239</v>
+      </c>
+      <c r="BU66" s="42">
+        <f t="shared" si="23"/>
+        <v>3.915</v>
+      </c>
+      <c r="BV66" s="42">
+        <f t="shared" si="24"/>
+        <v>-283.70867875682239</v>
+      </c>
+      <c r="BW66" s="42">
+        <f t="shared" si="25"/>
+        <v>1</v>
+      </c>
+      <c r="BX66" s="42">
+        <f t="shared" si="26"/>
+        <v>-249.57662413235681</v>
+      </c>
+      <c r="BY66" s="42">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+      <c r="BZ66" s="42">
+        <f t="shared" si="28"/>
+        <v>-311.97648306982126</v>
+      </c>
+      <c r="CA66" s="42">
+        <f t="shared" si="29"/>
+        <v>0</v>
+      </c>
+      <c r="CB66" s="42">
+        <f t="shared" si="30"/>
+        <v>-287.19938243327937</v>
+      </c>
+      <c r="CC66" s="39">
+        <f t="shared" si="31"/>
+        <v>0</v>
+      </c>
+      <c r="CD66" s="39">
         <f t="shared" si="35"/>
-        <v>-287.4606529062155</v>
-      </c>
-      <c r="BM66" s="42">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="BN66" s="42">
-        <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="BO66" s="42">
-        <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
-      <c r="BP66" s="70">
-        <f t="shared" si="19"/>
-        <v>0</v>
-      </c>
-      <c r="BQ66" s="42">
-        <f t="shared" si="20"/>
-        <v>0</v>
-      </c>
-      <c r="BR66" s="42">
-        <f t="shared" si="21"/>
-        <v>0</v>
-      </c>
-      <c r="BS66" s="42">
-        <f t="shared" si="22"/>
-        <v>3.915</v>
-      </c>
-      <c r="BT66" s="42">
-        <f t="shared" si="23"/>
-        <v>-283.70867875682239</v>
-      </c>
-      <c r="BU66" s="42">
-        <f t="shared" si="24"/>
-        <v>3.915</v>
-      </c>
-      <c r="BV66" s="42">
-        <f t="shared" si="25"/>
-        <v>-283.70867875682239</v>
-      </c>
-      <c r="BW66" s="42">
-        <f t="shared" si="26"/>
-        <v>1</v>
-      </c>
-      <c r="BX66" s="42">
-        <f t="shared" si="27"/>
-        <v>-249.57662413235681</v>
-      </c>
-      <c r="BY66" s="42">
-        <f t="shared" si="28"/>
-        <v>0</v>
-      </c>
-      <c r="BZ66" s="42">
-        <f t="shared" si="29"/>
-        <v>-311.97648306982126</v>
-      </c>
-      <c r="CA66" s="42">
-        <f t="shared" si="30"/>
-        <v>0</v>
-      </c>
-      <c r="CB66" s="42">
-        <f t="shared" si="31"/>
-        <v>-287.19938243327937</v>
-      </c>
-      <c r="CC66" s="39">
+        <v>48.400608669367287</v>
+      </c>
+      <c r="CE66" s="39">
         <f t="shared" si="32"/>
         <v>0</v>
       </c>
-      <c r="CD66" s="39">
-        <f t="shared" si="36"/>
-        <v>48.400608669367287</v>
-      </c>
-      <c r="CE66" s="39">
+      <c r="CF66" s="69">
         <f t="shared" si="33"/>
-        <v>0</v>
-      </c>
-      <c r="CF66" s="69">
-        <f t="shared" si="34"/>
         <v>-31.952175532002205</v>
       </c>
       <c r="CG66" s="32"/>
@@ -12508,7 +12530,7 @@
       <c r="FA66" s="2"/>
       <c r="FB66" s="2"/>
     </row>
-    <row r="67" spans="1:240" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:240" x14ac:dyDescent="0.2">
       <c r="A67" s="48" t="s">
         <v>10</v>
       </c>
@@ -12615,114 +12637,114 @@
         <v>-225.48347790479954</v>
       </c>
       <c r="BC67" s="36">
-        <f t="shared" si="11"/>
+        <f t="shared" si="37"/>
         <v>-5881.3882279047994</v>
       </c>
       <c r="BD67" s="5">
-        <f t="shared" si="37"/>
+        <f t="shared" si="36"/>
         <v>-5655.9047499999997</v>
       </c>
       <c r="BE67" s="7"/>
       <c r="BF67" s="7"/>
       <c r="BG67" s="66"/>
       <c r="BH67" s="64" t="str">
+        <f t="shared" si="11"/>
+        <v>Illite Mg</v>
+      </c>
+      <c r="BI67" s="5">
         <f t="shared" si="12"/>
-        <v>Illite Mg</v>
-      </c>
-      <c r="BI67" s="5">
+        <v>0.42499999999999999</v>
+      </c>
+      <c r="BJ67" s="29">
         <f t="shared" si="13"/>
-        <v>0.42499999999999999</v>
-      </c>
-      <c r="BJ67" s="29">
+        <v>453</v>
+      </c>
+      <c r="BK67" s="5">
         <f t="shared" si="14"/>
-        <v>453</v>
-      </c>
-      <c r="BK67" s="5">
+        <v>2.875</v>
+      </c>
+      <c r="BL67" s="29">
+        <f t="shared" si="34"/>
+        <v>-249.29333047060612</v>
+      </c>
+      <c r="BM67" s="5">
         <f t="shared" si="15"/>
-        <v>2.875</v>
-      </c>
-      <c r="BL67" s="29">
+        <v>0</v>
+      </c>
+      <c r="BN67" s="5">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="BO67" s="5">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="BP67" s="29">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="BQ67" s="5">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="BR67" s="5">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="BS67" s="5">
+        <f t="shared" si="21"/>
+        <v>3.8499999999999996</v>
+      </c>
+      <c r="BT67" s="5">
+        <f t="shared" si="22"/>
+        <v>-282.4209515657152</v>
+      </c>
+      <c r="BU67" s="5">
+        <f t="shared" si="23"/>
+        <v>3.8499999999999996</v>
+      </c>
+      <c r="BV67" s="5">
+        <f t="shared" si="24"/>
+        <v>-282.4209515657152</v>
+      </c>
+      <c r="BW67" s="5">
+        <f t="shared" si="25"/>
+        <v>1</v>
+      </c>
+      <c r="BX67" s="5">
+        <f t="shared" si="26"/>
+        <v>-249.57662413235681</v>
+      </c>
+      <c r="BY67" s="5">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+      <c r="BZ67" s="5">
+        <f t="shared" si="28"/>
+        <v>-311.97648306982126</v>
+      </c>
+      <c r="CA67" s="5">
+        <f t="shared" si="29"/>
+        <v>0</v>
+      </c>
+      <c r="CB67" s="5">
+        <f t="shared" si="30"/>
+        <v>-287.19938243327937</v>
+      </c>
+      <c r="CC67" s="10">
+        <f t="shared" si="31"/>
+        <v>0</v>
+      </c>
+      <c r="CD67" s="10">
         <f t="shared" si="35"/>
-        <v>-249.29333047060612</v>
-      </c>
-      <c r="BM67" s="5">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="BN67" s="5">
-        <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="BO67" s="5">
-        <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
-      <c r="BP67" s="29">
-        <f t="shared" si="19"/>
-        <v>0</v>
-      </c>
-      <c r="BQ67" s="5">
-        <f t="shared" si="20"/>
-        <v>0</v>
-      </c>
-      <c r="BR67" s="5">
-        <f t="shared" si="21"/>
-        <v>0</v>
-      </c>
-      <c r="BS67" s="5">
-        <f t="shared" si="22"/>
-        <v>3.8499999999999996</v>
-      </c>
-      <c r="BT67" s="5">
-        <f t="shared" si="23"/>
-        <v>-282.4209515657152</v>
-      </c>
-      <c r="BU67" s="5">
-        <f t="shared" si="24"/>
-        <v>3.8499999999999996</v>
-      </c>
-      <c r="BV67" s="5">
-        <f t="shared" si="25"/>
-        <v>-282.4209515657152</v>
-      </c>
-      <c r="BW67" s="5">
-        <f t="shared" si="26"/>
-        <v>1</v>
-      </c>
-      <c r="BX67" s="5">
-        <f t="shared" si="27"/>
-        <v>-249.57662413235681</v>
-      </c>
-      <c r="BY67" s="5">
-        <f t="shared" si="28"/>
-        <v>0</v>
-      </c>
-      <c r="BZ67" s="5">
-        <f t="shared" si="29"/>
-        <v>-311.97648306982126</v>
-      </c>
-      <c r="CA67" s="5">
-        <f t="shared" si="30"/>
-        <v>0</v>
-      </c>
-      <c r="CB67" s="5">
-        <f t="shared" si="31"/>
-        <v>-287.19938243327937</v>
-      </c>
-      <c r="CC67" s="10">
+        <v>39.396030993394575</v>
+      </c>
+      <c r="CE67" s="10">
         <f t="shared" si="32"/>
         <v>0</v>
       </c>
-      <c r="CD67" s="10">
-        <f t="shared" si="36"/>
-        <v>39.396030993394575</v>
-      </c>
-      <c r="CE67" s="10">
+      <c r="CF67" s="33">
         <f t="shared" si="33"/>
-        <v>0</v>
-      </c>
-      <c r="CF67" s="33">
-        <f t="shared" si="34"/>
         <v>-261.73685377244271</v>
       </c>
       <c r="CG67" s="32"/>
@@ -12767,7 +12789,7 @@
       <c r="FA67" s="2"/>
       <c r="FB67" s="2"/>
     </row>
-    <row r="68" spans="1:240" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:240" x14ac:dyDescent="0.2">
       <c r="A68" s="48" t="s">
         <v>9</v>
       </c>
@@ -12874,114 +12896,114 @@
         <v>-222.7774954630512</v>
       </c>
       <c r="BC68" s="36">
-        <f t="shared" si="11"/>
+        <f t="shared" si="37"/>
         <v>-5796.2922454630516</v>
       </c>
       <c r="BD68" s="5">
-        <f t="shared" si="37"/>
+        <f t="shared" si="36"/>
         <v>-5573.5147500000003</v>
       </c>
       <c r="BE68" s="7"/>
       <c r="BF68" s="7"/>
       <c r="BG68" s="66"/>
       <c r="BH68" s="64" t="str">
+        <f t="shared" si="11"/>
+        <v>Illite FeII</v>
+      </c>
+      <c r="BI68" s="5">
         <f t="shared" si="12"/>
-        <v>Illite FeII</v>
-      </c>
-      <c r="BI68" s="5">
+        <v>0.42499999999999999</v>
+      </c>
+      <c r="BJ68" s="29">
         <f t="shared" si="13"/>
-        <v>0.42499999999999999</v>
-      </c>
-      <c r="BJ68" s="29">
+        <v>453</v>
+      </c>
+      <c r="BK68" s="5">
         <f t="shared" si="14"/>
-        <v>453</v>
-      </c>
-      <c r="BK68" s="5">
+        <v>2.875</v>
+      </c>
+      <c r="BL68" s="29">
+        <f t="shared" si="34"/>
+        <v>-250.89451675202932</v>
+      </c>
+      <c r="BM68" s="5">
         <f t="shared" si="15"/>
-        <v>2.875</v>
-      </c>
-      <c r="BL68" s="29">
+        <v>0</v>
+      </c>
+      <c r="BN68" s="5">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="BO68" s="5">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="BP68" s="29">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="BQ68" s="5">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="BR68" s="5">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="BS68" s="5">
+        <f t="shared" si="21"/>
+        <v>3.8499999999999996</v>
+      </c>
+      <c r="BT68" s="5">
+        <f t="shared" si="22"/>
+        <v>-282.4209515657152</v>
+      </c>
+      <c r="BU68" s="5">
+        <f t="shared" si="23"/>
+        <v>3.8499999999999996</v>
+      </c>
+      <c r="BV68" s="5">
+        <f t="shared" si="24"/>
+        <v>-282.4209515657152</v>
+      </c>
+      <c r="BW68" s="5">
+        <f t="shared" si="25"/>
+        <v>1</v>
+      </c>
+      <c r="BX68" s="5">
+        <f t="shared" si="26"/>
+        <v>-249.57662413235681</v>
+      </c>
+      <c r="BY68" s="5">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+      <c r="BZ68" s="5">
+        <f t="shared" si="28"/>
+        <v>-311.97648306982126</v>
+      </c>
+      <c r="CA68" s="5">
+        <f t="shared" si="29"/>
+        <v>0</v>
+      </c>
+      <c r="CB68" s="5">
+        <f t="shared" si="30"/>
+        <v>-287.19938243327937</v>
+      </c>
+      <c r="CC68" s="10">
+        <f t="shared" si="31"/>
+        <v>0</v>
+      </c>
+      <c r="CD68" s="10">
         <f t="shared" si="35"/>
-        <v>-250.89451675202932</v>
-      </c>
-      <c r="BM68" s="5">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="BN68" s="5">
-        <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="BO68" s="5">
-        <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
-      <c r="BP68" s="29">
-        <f t="shared" si="19"/>
-        <v>0</v>
-      </c>
-      <c r="BQ68" s="5">
-        <f t="shared" si="20"/>
-        <v>0</v>
-      </c>
-      <c r="BR68" s="5">
-        <f t="shared" si="21"/>
-        <v>0</v>
-      </c>
-      <c r="BS68" s="5">
-        <f t="shared" si="22"/>
-        <v>3.8499999999999996</v>
-      </c>
-      <c r="BT68" s="5">
-        <f t="shared" si="23"/>
-        <v>-282.4209515657152</v>
-      </c>
-      <c r="BU68" s="5">
-        <f t="shared" si="24"/>
-        <v>3.8499999999999996</v>
-      </c>
-      <c r="BV68" s="5">
-        <f t="shared" si="25"/>
-        <v>-282.4209515657152</v>
-      </c>
-      <c r="BW68" s="5">
-        <f t="shared" si="26"/>
-        <v>1</v>
-      </c>
-      <c r="BX68" s="5">
-        <f t="shared" si="27"/>
-        <v>-249.57662413235681</v>
-      </c>
-      <c r="BY68" s="5">
-        <f t="shared" si="28"/>
-        <v>0</v>
-      </c>
-      <c r="BZ68" s="5">
-        <f t="shared" si="29"/>
-        <v>-311.97648306982126</v>
-      </c>
-      <c r="CA68" s="5">
-        <f t="shared" si="30"/>
-        <v>0</v>
-      </c>
-      <c r="CB68" s="5">
-        <f t="shared" si="31"/>
-        <v>-287.19938243327937</v>
-      </c>
-      <c r="CC68" s="10">
+        <v>13.756746308222271</v>
+      </c>
+      <c r="CE68" s="10">
         <f t="shared" si="32"/>
         <v>0</v>
       </c>
-      <c r="CD68" s="10">
-        <f t="shared" si="36"/>
-        <v>13.756746308222271</v>
-      </c>
-      <c r="CE68" s="10">
+      <c r="CF68" s="33">
         <f t="shared" si="33"/>
-        <v>0</v>
-      </c>
-      <c r="CF68" s="33">
-        <f t="shared" si="34"/>
         <v>-259.03087133069437</v>
       </c>
       <c r="CG68" s="32"/>
@@ -13026,7 +13048,7 @@
       <c r="FA68" s="2"/>
       <c r="FB68" s="2"/>
     </row>
-    <row r="69" spans="1:240" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:240" x14ac:dyDescent="0.2">
       <c r="A69" s="48" t="s">
         <v>8</v>
       </c>
@@ -13134,7 +13156,7 @@
         <v>-204.81590909972758</v>
       </c>
       <c r="BC69" s="36">
-        <f t="shared" si="11"/>
+        <f t="shared" si="37"/>
         <v>-5795.3869090997277</v>
       </c>
       <c r="BD69" s="5">
@@ -13145,103 +13167,103 @@
       <c r="BF69" s="7"/>
       <c r="BG69" s="66"/>
       <c r="BH69" s="64" t="str">
+        <f t="shared" si="11"/>
+        <v>Illite FeIII</v>
+      </c>
+      <c r="BI69" s="5">
         <f t="shared" si="12"/>
-        <v>Illite FeIII</v>
-      </c>
-      <c r="BI69" s="5">
+        <v>0.42499999999999999</v>
+      </c>
+      <c r="BJ69" s="29">
         <f t="shared" si="13"/>
-        <v>0.42499999999999999</v>
-      </c>
-      <c r="BJ69" s="29">
+        <v>453</v>
+      </c>
+      <c r="BK69" s="5">
         <f t="shared" si="14"/>
-        <v>453</v>
-      </c>
-      <c r="BK69" s="5">
+        <v>3</v>
+      </c>
+      <c r="BL69" s="29">
+        <f t="shared" si="34"/>
+        <v>-259.10493997873681</v>
+      </c>
+      <c r="BM69" s="5">
         <f t="shared" si="15"/>
-        <v>3</v>
-      </c>
-      <c r="BL69" s="29">
+        <v>0</v>
+      </c>
+      <c r="BN69" s="5">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="BO69" s="5">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="BP69" s="29">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="BQ69" s="5">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="BR69" s="5">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="BS69" s="5">
+        <f t="shared" si="21"/>
+        <v>3.7874999999999996</v>
+      </c>
+      <c r="BT69" s="5">
+        <f t="shared" si="22"/>
+        <v>-281.14107038948146</v>
+      </c>
+      <c r="BU69" s="5">
+        <f t="shared" si="23"/>
+        <v>3.7874999999999996</v>
+      </c>
+      <c r="BV69" s="5">
+        <f t="shared" si="24"/>
+        <v>-281.14107038948146</v>
+      </c>
+      <c r="BW69" s="5">
+        <f t="shared" si="25"/>
+        <v>1</v>
+      </c>
+      <c r="BX69" s="5">
+        <f t="shared" si="26"/>
+        <v>-249.57662413235681</v>
+      </c>
+      <c r="BY69" s="5">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+      <c r="BZ69" s="5">
+        <f t="shared" si="28"/>
+        <v>-311.97648306982126</v>
+      </c>
+      <c r="CA69" s="5">
+        <f t="shared" si="29"/>
+        <v>0</v>
+      </c>
+      <c r="CB69" s="5">
+        <f t="shared" si="30"/>
+        <v>-287.19938243327937</v>
+      </c>
+      <c r="CC69" s="10">
+        <f t="shared" si="31"/>
+        <v>0</v>
+      </c>
+      <c r="CD69" s="10">
         <f t="shared" si="35"/>
-        <v>-259.10493997873681</v>
-      </c>
-      <c r="BM69" s="5">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="BN69" s="5">
-        <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="BO69" s="5">
-        <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
-      <c r="BP69" s="29">
-        <f t="shared" si="19"/>
-        <v>0</v>
-      </c>
-      <c r="BQ69" s="5">
-        <f t="shared" si="20"/>
-        <v>0</v>
-      </c>
-      <c r="BR69" s="5">
-        <f t="shared" si="21"/>
-        <v>0</v>
-      </c>
-      <c r="BS69" s="5">
-        <f t="shared" si="22"/>
-        <v>3.7874999999999996</v>
-      </c>
-      <c r="BT69" s="5">
-        <f t="shared" si="23"/>
-        <v>-281.14107038948146</v>
-      </c>
-      <c r="BU69" s="5">
-        <f t="shared" si="24"/>
-        <v>3.7874999999999996</v>
-      </c>
-      <c r="BV69" s="5">
-        <f t="shared" si="25"/>
-        <v>-281.14107038948146</v>
-      </c>
-      <c r="BW69" s="5">
-        <f t="shared" si="26"/>
-        <v>1</v>
-      </c>
-      <c r="BX69" s="5">
-        <f t="shared" si="27"/>
-        <v>-249.57662413235681</v>
-      </c>
-      <c r="BY69" s="5">
-        <f t="shared" si="28"/>
-        <v>0</v>
-      </c>
-      <c r="BZ69" s="5">
-        <f t="shared" si="29"/>
-        <v>-311.97648306982126</v>
-      </c>
-      <c r="CA69" s="5">
-        <f t="shared" si="30"/>
-        <v>0</v>
-      </c>
-      <c r="CB69" s="5">
-        <f t="shared" si="31"/>
-        <v>-287.19938243327937</v>
-      </c>
-      <c r="CC69" s="10">
+        <v>38.423636895024835</v>
+      </c>
+      <c r="CE69" s="10">
         <f t="shared" si="32"/>
         <v>0</v>
       </c>
-      <c r="CD69" s="10">
-        <f t="shared" si="36"/>
-        <v>38.423636895024835</v>
-      </c>
-      <c r="CE69" s="10">
+      <c r="CF69" s="33">
         <f t="shared" si="33"/>
-        <v>0</v>
-      </c>
-      <c r="CF69" s="33">
-        <f t="shared" si="34"/>
         <v>-241.06928496737075</v>
       </c>
       <c r="CG69" s="32"/>
@@ -13286,7 +13308,7 @@
       <c r="FA69" s="2"/>
       <c r="FB69" s="2"/>
     </row>
-    <row r="70" spans="1:240" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:240" x14ac:dyDescent="0.2">
       <c r="A70" s="77" t="s">
         <v>7</v>
       </c>
@@ -13393,114 +13415,114 @@
         <v>-216.89962075341148</v>
       </c>
       <c r="BC70" s="73">
-        <f t="shared" si="11"/>
+        <f t="shared" si="37"/>
         <v>-5913.654370753412</v>
       </c>
       <c r="BD70" s="5">
-        <f t="shared" si="37"/>
+        <f t="shared" si="36"/>
         <v>-5696.7547500000001</v>
       </c>
       <c r="BE70" s="43"/>
       <c r="BF70" s="43"/>
       <c r="BG70" s="72"/>
       <c r="BH70" s="71" t="str">
+        <f t="shared" si="11"/>
+        <v>Illite</v>
+      </c>
+      <c r="BI70" s="42">
         <f t="shared" si="12"/>
-        <v>Illite</v>
-      </c>
-      <c r="BI70" s="42">
+        <v>0.42499999999999999</v>
+      </c>
+      <c r="BJ70" s="70">
         <f t="shared" si="13"/>
-        <v>0.42499999999999999</v>
-      </c>
-      <c r="BJ70" s="70">
+        <v>453</v>
+      </c>
+      <c r="BK70" s="42">
         <f t="shared" si="14"/>
-        <v>453</v>
-      </c>
-      <c r="BK70" s="42">
+        <v>3</v>
+      </c>
+      <c r="BL70" s="70">
+        <f t="shared" si="34"/>
+        <v>-251.753632508815</v>
+      </c>
+      <c r="BM70" s="42">
         <f t="shared" si="15"/>
-        <v>3</v>
-      </c>
-      <c r="BL70" s="70">
+        <v>0</v>
+      </c>
+      <c r="BN70" s="42">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="BO70" s="42">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="BP70" s="70">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="BQ70" s="42">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="BR70" s="42">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="BS70" s="42">
+        <f t="shared" si="21"/>
+        <v>3.7874999999999996</v>
+      </c>
+      <c r="BT70" s="42">
+        <f t="shared" si="22"/>
+        <v>-281.14107038948146</v>
+      </c>
+      <c r="BU70" s="42">
+        <f t="shared" si="23"/>
+        <v>3.7874999999999996</v>
+      </c>
+      <c r="BV70" s="42">
+        <f t="shared" si="24"/>
+        <v>-281.14107038948146</v>
+      </c>
+      <c r="BW70" s="42">
+        <f t="shared" si="25"/>
+        <v>1</v>
+      </c>
+      <c r="BX70" s="42">
+        <f t="shared" si="26"/>
+        <v>-249.57662413235681</v>
+      </c>
+      <c r="BY70" s="42">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+      <c r="BZ70" s="42">
+        <f t="shared" si="28"/>
+        <v>-311.97648306982126</v>
+      </c>
+      <c r="CA70" s="42">
+        <f t="shared" si="29"/>
+        <v>0</v>
+      </c>
+      <c r="CB70" s="42">
+        <f t="shared" si="30"/>
+        <v>-287.19938243327937</v>
+      </c>
+      <c r="CC70" s="39">
+        <f t="shared" si="31"/>
+        <v>0</v>
+      </c>
+      <c r="CD70" s="39">
         <f t="shared" si="35"/>
-        <v>-251.753632508815</v>
-      </c>
-      <c r="BM70" s="42">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="BN70" s="42">
-        <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="BO70" s="42">
-        <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
-      <c r="BP70" s="70">
-        <f t="shared" si="19"/>
-        <v>0</v>
-      </c>
-      <c r="BQ70" s="42">
-        <f t="shared" si="20"/>
-        <v>0</v>
-      </c>
-      <c r="BR70" s="42">
-        <f t="shared" si="21"/>
-        <v>0</v>
-      </c>
-      <c r="BS70" s="42">
-        <f t="shared" si="22"/>
-        <v>3.7874999999999996</v>
-      </c>
-      <c r="BT70" s="42">
-        <f t="shared" si="23"/>
-        <v>-281.14107038948146</v>
-      </c>
-      <c r="BU70" s="42">
-        <f t="shared" si="24"/>
-        <v>3.7874999999999996</v>
-      </c>
-      <c r="BV70" s="42">
-        <f t="shared" si="25"/>
-        <v>-281.14107038948146</v>
-      </c>
-      <c r="BW70" s="42">
-        <f t="shared" si="26"/>
-        <v>1</v>
-      </c>
-      <c r="BX70" s="42">
-        <f t="shared" si="27"/>
-        <v>-249.57662413235681</v>
-      </c>
-      <c r="BY70" s="42">
-        <f t="shared" si="28"/>
-        <v>0</v>
-      </c>
-      <c r="BZ70" s="42">
-        <f t="shared" si="29"/>
-        <v>-311.97648306982126</v>
-      </c>
-      <c r="CA70" s="42">
-        <f t="shared" si="30"/>
-        <v>0</v>
-      </c>
-      <c r="CB70" s="42">
-        <f t="shared" si="31"/>
-        <v>-287.19938243327937</v>
-      </c>
-      <c r="CC70" s="39">
+        <v>0</v>
+      </c>
+      <c r="CE70" s="39">
         <f t="shared" si="32"/>
         <v>0</v>
       </c>
-      <c r="CD70" s="39">
-        <f t="shared" si="36"/>
-        <v>0</v>
-      </c>
-      <c r="CE70" s="39">
+      <c r="CF70" s="69">
         <f t="shared" si="33"/>
-        <v>0</v>
-      </c>
-      <c r="CF70" s="69">
-        <f t="shared" si="34"/>
         <v>-253.15299662105465</v>
       </c>
       <c r="CG70" s="32"/>
@@ -13545,7 +13567,7 @@
       <c r="FA70" s="2"/>
       <c r="FB70" s="2"/>
     </row>
-    <row r="71" spans="1:240" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:240" x14ac:dyDescent="0.2">
       <c r="A71" s="67" t="s">
         <v>6</v>
       </c>
@@ -13645,114 +13667,114 @@
         <v>-294.11310779303926</v>
       </c>
       <c r="BC71" s="36">
-        <f t="shared" si="11"/>
+        <f t="shared" si="37"/>
         <v>-6143.2561077930395</v>
       </c>
       <c r="BD71" s="5">
-        <f t="shared" si="37"/>
+        <f t="shared" si="36"/>
         <v>-5849.143</v>
       </c>
       <c r="BE71" s="2"/>
       <c r="BF71" s="2"/>
       <c r="BG71" s="35"/>
       <c r="BH71" s="64" t="str">
+        <f t="shared" si="11"/>
+        <v>Na-Vermiculite</v>
+      </c>
+      <c r="BI71" s="5">
         <f t="shared" si="12"/>
-        <v>Na-Vermiculite</v>
-      </c>
-      <c r="BI71" s="5">
+        <v>0.43</v>
+      </c>
+      <c r="BJ71" s="29">
         <f t="shared" si="13"/>
-        <v>0.43</v>
-      </c>
-      <c r="BJ71" s="29">
+        <v>260</v>
+      </c>
+      <c r="BK71" s="5">
         <f t="shared" si="14"/>
-        <v>260</v>
-      </c>
-      <c r="BK71" s="5">
+        <v>2</v>
+      </c>
+      <c r="BL71" s="29">
+        <f t="shared" si="34"/>
+        <v>-191.72158528078518</v>
+      </c>
+      <c r="BM71" s="5">
         <f t="shared" si="15"/>
-        <v>2</v>
-      </c>
-      <c r="BL71" s="29">
+        <v>1</v>
+      </c>
+      <c r="BN71" s="5">
+        <f t="shared" si="16"/>
+        <v>-191.72158528078518</v>
+      </c>
+      <c r="BO71" s="5">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="BP71" s="29">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="BQ71" s="5">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="BR71" s="5">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="BS71" s="5">
+        <f t="shared" si="21"/>
+        <v>3.7850000000000001</v>
+      </c>
+      <c r="BT71" s="5">
+        <f t="shared" si="22"/>
+        <v>-281.08899596381701</v>
+      </c>
+      <c r="BU71" s="5">
+        <f t="shared" si="23"/>
+        <v>3.7850000000000001</v>
+      </c>
+      <c r="BV71" s="5">
+        <f t="shared" si="24"/>
+        <v>-281.08899596381701</v>
+      </c>
+      <c r="BW71" s="5">
+        <f t="shared" si="25"/>
+        <v>1</v>
+      </c>
+      <c r="BX71" s="5">
+        <f t="shared" si="26"/>
+        <v>-249.57662413235681</v>
+      </c>
+      <c r="BY71" s="5">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+      <c r="BZ71" s="5">
+        <f t="shared" si="28"/>
+        <v>-311.97648306982126</v>
+      </c>
+      <c r="CA71" s="5">
+        <f t="shared" si="29"/>
+        <v>0</v>
+      </c>
+      <c r="CB71" s="5">
+        <f t="shared" si="30"/>
+        <v>-287.19938243327937</v>
+      </c>
+      <c r="CC71" s="10">
+        <f t="shared" si="31"/>
+        <v>0</v>
+      </c>
+      <c r="CD71" s="10">
         <f t="shared" si="35"/>
-        <v>-191.72158528078518</v>
-      </c>
-      <c r="BM71" s="5">
-        <f t="shared" si="16"/>
-        <v>1</v>
-      </c>
-      <c r="BN71" s="5">
-        <f t="shared" si="17"/>
-        <v>-191.72158528078518</v>
-      </c>
-      <c r="BO71" s="5">
-        <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
-      <c r="BP71" s="29">
-        <f t="shared" si="19"/>
-        <v>0</v>
-      </c>
-      <c r="BQ71" s="5">
-        <f t="shared" si="20"/>
-        <v>0</v>
-      </c>
-      <c r="BR71" s="5">
-        <f t="shared" si="21"/>
-        <v>0</v>
-      </c>
-      <c r="BS71" s="5">
-        <f t="shared" si="22"/>
-        <v>3.7850000000000001</v>
-      </c>
-      <c r="BT71" s="5">
-        <f t="shared" si="23"/>
-        <v>-281.08899596381701</v>
-      </c>
-      <c r="BU71" s="5">
-        <f t="shared" si="24"/>
-        <v>3.7850000000000001</v>
-      </c>
-      <c r="BV71" s="5">
-        <f t="shared" si="25"/>
-        <v>-281.08899596381701</v>
-      </c>
-      <c r="BW71" s="5">
-        <f t="shared" si="26"/>
-        <v>1</v>
-      </c>
-      <c r="BX71" s="5">
-        <f t="shared" si="27"/>
-        <v>-249.57662413235681</v>
-      </c>
-      <c r="BY71" s="5">
-        <f t="shared" si="28"/>
-        <v>0</v>
-      </c>
-      <c r="BZ71" s="5">
-        <f t="shared" si="29"/>
-        <v>-311.97648306982126</v>
-      </c>
-      <c r="CA71" s="5">
-        <f t="shared" si="30"/>
-        <v>0</v>
-      </c>
-      <c r="CB71" s="5">
-        <f t="shared" si="31"/>
-        <v>-287.19938243327937</v>
-      </c>
-      <c r="CC71" s="10">
+        <v>0</v>
+      </c>
+      <c r="CE71" s="10">
         <f t="shared" si="32"/>
         <v>0</v>
       </c>
-      <c r="CD71" s="10">
-        <f t="shared" si="36"/>
-        <v>0</v>
-      </c>
-      <c r="CE71" s="10">
+      <c r="CF71" s="33">
         <f t="shared" si="33"/>
-        <v>0</v>
-      </c>
-      <c r="CF71" s="33">
-        <f t="shared" si="34"/>
         <v>-330.36648366068243</v>
       </c>
       <c r="CJ71" s="29"/>
@@ -13794,7 +13816,7 @@
       <c r="FA71" s="2"/>
       <c r="FB71" s="2"/>
     </row>
-    <row r="72" spans="1:240" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:240" x14ac:dyDescent="0.2">
       <c r="A72" s="67" t="s">
         <v>5</v>
       </c>
@@ -13893,114 +13915,114 @@
         <v>-346.46596612637262</v>
       </c>
       <c r="BC72" s="36">
-        <f t="shared" si="11"/>
+        <f t="shared" si="37"/>
         <v>-6173.4080661263724</v>
       </c>
       <c r="BD72" s="5">
-        <f t="shared" si="37"/>
+        <f t="shared" si="36"/>
         <v>-5826.9421000000002</v>
       </c>
       <c r="BE72" s="2"/>
       <c r="BF72" s="2"/>
       <c r="BG72" s="35"/>
       <c r="BH72" s="64" t="str">
+        <f t="shared" si="11"/>
+        <v>K-vermiculite</v>
+      </c>
+      <c r="BI72" s="5">
         <f t="shared" si="12"/>
-        <v>K-vermiculite</v>
-      </c>
-      <c r="BI72" s="5">
+        <v>0.43</v>
+      </c>
+      <c r="BJ72" s="29">
         <f t="shared" si="13"/>
-        <v>0.43</v>
-      </c>
-      <c r="BJ72" s="29">
+        <v>453</v>
+      </c>
+      <c r="BK72" s="5">
         <f t="shared" si="14"/>
-        <v>453</v>
-      </c>
-      <c r="BK72" s="5">
+        <v>2</v>
+      </c>
+      <c r="BL72" s="29">
+        <f t="shared" si="34"/>
+        <v>-191.72158528078518</v>
+      </c>
+      <c r="BM72" s="5">
         <f t="shared" si="15"/>
-        <v>2</v>
-      </c>
-      <c r="BL72" s="29">
+        <v>1</v>
+      </c>
+      <c r="BN72" s="5">
+        <f t="shared" si="16"/>
+        <v>-191.72158528078518</v>
+      </c>
+      <c r="BO72" s="5">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="BP72" s="29">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="BQ72" s="5">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="BR72" s="5">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="BS72" s="5">
+        <f t="shared" si="21"/>
+        <v>3.7850000000000001</v>
+      </c>
+      <c r="BT72" s="5">
+        <f t="shared" si="22"/>
+        <v>-281.08899596381701</v>
+      </c>
+      <c r="BU72" s="5">
+        <f t="shared" si="23"/>
+        <v>3.7850000000000001</v>
+      </c>
+      <c r="BV72" s="5">
+        <f t="shared" si="24"/>
+        <v>-281.08899596381701</v>
+      </c>
+      <c r="BW72" s="5">
+        <f t="shared" si="25"/>
+        <v>1</v>
+      </c>
+      <c r="BX72" s="5">
+        <f t="shared" si="26"/>
+        <v>-249.57662413235681</v>
+      </c>
+      <c r="BY72" s="5">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+      <c r="BZ72" s="5">
+        <f t="shared" si="28"/>
+        <v>-311.97648306982126</v>
+      </c>
+      <c r="CA72" s="5">
+        <f t="shared" si="29"/>
+        <v>0</v>
+      </c>
+      <c r="CB72" s="5">
+        <f t="shared" si="30"/>
+        <v>-287.19938243327937</v>
+      </c>
+      <c r="CC72" s="10">
+        <f t="shared" si="31"/>
+        <v>0</v>
+      </c>
+      <c r="CD72" s="10">
         <f t="shared" si="35"/>
-        <v>-191.72158528078518</v>
-      </c>
-      <c r="BM72" s="5">
-        <f t="shared" si="16"/>
-        <v>1</v>
-      </c>
-      <c r="BN72" s="5">
-        <f t="shared" si="17"/>
-        <v>-191.72158528078518</v>
-      </c>
-      <c r="BO72" s="5">
-        <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
-      <c r="BP72" s="29">
-        <f t="shared" si="19"/>
-        <v>0</v>
-      </c>
-      <c r="BQ72" s="5">
-        <f t="shared" si="20"/>
-        <v>0</v>
-      </c>
-      <c r="BR72" s="5">
-        <f t="shared" si="21"/>
-        <v>0</v>
-      </c>
-      <c r="BS72" s="5">
-        <f t="shared" si="22"/>
-        <v>3.7850000000000001</v>
-      </c>
-      <c r="BT72" s="5">
-        <f t="shared" si="23"/>
-        <v>-281.08899596381701</v>
-      </c>
-      <c r="BU72" s="5">
-        <f t="shared" si="24"/>
-        <v>3.7850000000000001</v>
-      </c>
-      <c r="BV72" s="5">
-        <f t="shared" si="25"/>
-        <v>-281.08899596381701</v>
-      </c>
-      <c r="BW72" s="5">
-        <f t="shared" si="26"/>
-        <v>1</v>
-      </c>
-      <c r="BX72" s="5">
-        <f t="shared" si="27"/>
-        <v>-249.57662413235681</v>
-      </c>
-      <c r="BY72" s="5">
-        <f t="shared" si="28"/>
-        <v>0</v>
-      </c>
-      <c r="BZ72" s="5">
-        <f t="shared" si="29"/>
-        <v>-311.97648306982126</v>
-      </c>
-      <c r="CA72" s="5">
-        <f t="shared" si="30"/>
-        <v>0</v>
-      </c>
-      <c r="CB72" s="5">
-        <f t="shared" si="31"/>
-        <v>-287.19938243327937</v>
-      </c>
-      <c r="CC72" s="10">
+        <v>0</v>
+      </c>
+      <c r="CE72" s="10">
         <f t="shared" si="32"/>
         <v>0</v>
       </c>
-      <c r="CD72" s="10">
-        <f t="shared" si="36"/>
-        <v>0</v>
-      </c>
-      <c r="CE72" s="10">
+      <c r="CF72" s="33">
         <f t="shared" si="33"/>
-        <v>0</v>
-      </c>
-      <c r="CF72" s="33">
-        <f t="shared" si="34"/>
         <v>-382.71934199401579</v>
       </c>
       <c r="CJ72" s="29"/>
@@ -14042,7 +14064,7 @@
       <c r="FA72" s="2"/>
       <c r="FB72" s="2"/>
     </row>
-    <row r="73" spans="1:240" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:240" x14ac:dyDescent="0.2">
       <c r="A73" s="67" t="s">
         <v>4</v>
       </c>
@@ -14142,114 +14164,114 @@
         <v>-204.26422108552347</v>
       </c>
       <c r="BC73" s="36">
-        <f t="shared" si="11"/>
+        <f t="shared" si="37"/>
         <v>-6148.0588210855249</v>
       </c>
       <c r="BD73" s="5">
-        <f t="shared" si="37"/>
+        <f t="shared" si="36"/>
         <v>-5943.7946000000011</v>
       </c>
       <c r="BE73" s="2"/>
       <c r="BF73" s="2"/>
       <c r="BG73" s="35"/>
       <c r="BH73" s="64" t="str">
+        <f t="shared" si="11"/>
+        <v>Ca-vermiculite</v>
+      </c>
+      <c r="BI73" s="5">
         <f t="shared" si="12"/>
-        <v>Ca-vermiculite</v>
-      </c>
-      <c r="BI73" s="5">
+        <v>0.43</v>
+      </c>
+      <c r="BJ73" s="29">
         <f t="shared" si="13"/>
-        <v>0.43</v>
-      </c>
-      <c r="BJ73" s="29">
+        <v>-71.22995929163136</v>
+      </c>
+      <c r="BK73" s="5">
         <f t="shared" si="14"/>
-        <v>-71.22995929163136</v>
-      </c>
-      <c r="BK73" s="5">
+        <v>2</v>
+      </c>
+      <c r="BL73" s="29">
+        <f t="shared" si="34"/>
+        <v>-191.72158528078518</v>
+      </c>
+      <c r="BM73" s="5">
         <f t="shared" si="15"/>
-        <v>2</v>
-      </c>
-      <c r="BL73" s="29">
+        <v>1</v>
+      </c>
+      <c r="BN73" s="5">
+        <f t="shared" si="16"/>
+        <v>-191.72158528078518</v>
+      </c>
+      <c r="BO73" s="5">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="BP73" s="29">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="BQ73" s="5">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="BR73" s="5">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="BS73" s="5">
+        <f t="shared" si="21"/>
+        <v>3.7850000000000001</v>
+      </c>
+      <c r="BT73" s="5">
+        <f t="shared" si="22"/>
+        <v>-281.08899596381701</v>
+      </c>
+      <c r="BU73" s="5">
+        <f t="shared" si="23"/>
+        <v>3.7850000000000001</v>
+      </c>
+      <c r="BV73" s="5">
+        <f t="shared" si="24"/>
+        <v>-281.08899596381701</v>
+      </c>
+      <c r="BW73" s="5">
+        <f t="shared" si="25"/>
+        <v>1</v>
+      </c>
+      <c r="BX73" s="5">
+        <f t="shared" si="26"/>
+        <v>-249.57662413235681</v>
+      </c>
+      <c r="BY73" s="5">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+      <c r="BZ73" s="5">
+        <f t="shared" si="28"/>
+        <v>-311.97648306982126</v>
+      </c>
+      <c r="CA73" s="5">
+        <f t="shared" si="29"/>
+        <v>0</v>
+      </c>
+      <c r="CB73" s="5">
+        <f t="shared" si="30"/>
+        <v>-287.19938243327937</v>
+      </c>
+      <c r="CC73" s="10">
+        <f t="shared" si="31"/>
+        <v>0</v>
+      </c>
+      <c r="CD73" s="10">
         <f t="shared" si="35"/>
-        <v>-191.72158528078518</v>
-      </c>
-      <c r="BM73" s="5">
-        <f t="shared" si="16"/>
-        <v>1</v>
-      </c>
-      <c r="BN73" s="5">
-        <f t="shared" si="17"/>
-        <v>-191.72158528078518</v>
-      </c>
-      <c r="BO73" s="5">
-        <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
-      <c r="BP73" s="29">
-        <f t="shared" si="19"/>
-        <v>0</v>
-      </c>
-      <c r="BQ73" s="5">
-        <f t="shared" si="20"/>
-        <v>0</v>
-      </c>
-      <c r="BR73" s="5">
-        <f t="shared" si="21"/>
-        <v>0</v>
-      </c>
-      <c r="BS73" s="5">
-        <f t="shared" si="22"/>
-        <v>3.7850000000000001</v>
-      </c>
-      <c r="BT73" s="5">
-        <f t="shared" si="23"/>
-        <v>-281.08899596381701</v>
-      </c>
-      <c r="BU73" s="5">
-        <f t="shared" si="24"/>
-        <v>3.7850000000000001</v>
-      </c>
-      <c r="BV73" s="5">
-        <f t="shared" si="25"/>
-        <v>-281.08899596381701</v>
-      </c>
-      <c r="BW73" s="5">
-        <f t="shared" si="26"/>
-        <v>1</v>
-      </c>
-      <c r="BX73" s="5">
-        <f t="shared" si="27"/>
-        <v>-249.57662413235681</v>
-      </c>
-      <c r="BY73" s="5">
-        <f t="shared" si="28"/>
-        <v>0</v>
-      </c>
-      <c r="BZ73" s="5">
-        <f t="shared" si="29"/>
-        <v>-311.97648306982126</v>
-      </c>
-      <c r="CA73" s="5">
-        <f t="shared" si="30"/>
-        <v>0</v>
-      </c>
-      <c r="CB73" s="5">
-        <f t="shared" si="31"/>
-        <v>-287.19938243327937</v>
-      </c>
-      <c r="CC73" s="10">
+        <v>0</v>
+      </c>
+      <c r="CE73" s="10">
         <f t="shared" si="32"/>
         <v>0</v>
       </c>
-      <c r="CD73" s="10">
-        <f t="shared" si="36"/>
-        <v>0</v>
-      </c>
-      <c r="CE73" s="10">
+      <c r="CF73" s="33">
         <f t="shared" si="33"/>
-        <v>0</v>
-      </c>
-      <c r="CF73" s="33">
-        <f t="shared" si="34"/>
         <v>-240.51759695316665</v>
       </c>
       <c r="CJ73" s="29"/>
@@ -14291,7 +14313,7 @@
       <c r="FA73" s="2"/>
       <c r="FB73" s="2"/>
     </row>
-    <row r="74" spans="1:240" ht="12" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:240" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A74" s="63" t="s">
         <v>3</v>
       </c>
@@ -14399,114 +14421,114 @@
         <v>-183.64315154303927</v>
       </c>
       <c r="BC74" s="58">
-        <f t="shared" si="11"/>
+        <f t="shared" si="37"/>
         <v>-6113.11015154304</v>
       </c>
       <c r="BD74" s="5">
-        <f t="shared" si="37"/>
+        <f t="shared" si="36"/>
         <v>-5929.4670000000006</v>
       </c>
       <c r="BE74" s="57"/>
       <c r="BF74" s="57"/>
       <c r="BG74" s="56"/>
       <c r="BH74" s="55" t="str">
+        <f t="shared" si="11"/>
+        <v xml:space="preserve">Mg-Vermiculite </v>
+      </c>
+      <c r="BI74" s="44">
         <f t="shared" si="12"/>
-        <v xml:space="preserve">Mg-Vermiculite </v>
-      </c>
-      <c r="BI74" s="44">
+        <v>0.43</v>
+      </c>
+      <c r="BJ74" s="54">
         <f t="shared" si="13"/>
-        <v>0.43</v>
-      </c>
-      <c r="BJ74" s="54">
+        <v>-147.25</v>
+      </c>
+      <c r="BK74" s="44">
         <f t="shared" si="14"/>
-        <v>-147.25</v>
-      </c>
-      <c r="BK74" s="44">
+        <v>2</v>
+      </c>
+      <c r="BL74" s="54">
+        <f t="shared" si="34"/>
+        <v>-191.72158528078518</v>
+      </c>
+      <c r="BM74" s="44">
         <f t="shared" si="15"/>
-        <v>2</v>
-      </c>
-      <c r="BL74" s="54">
+        <v>1</v>
+      </c>
+      <c r="BN74" s="44">
+        <f t="shared" si="16"/>
+        <v>-191.72158528078518</v>
+      </c>
+      <c r="BO74" s="44">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="BP74" s="54">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="BQ74" s="44">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="BR74" s="44">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="BS74" s="44">
+        <f t="shared" si="21"/>
+        <v>3.7850000000000001</v>
+      </c>
+      <c r="BT74" s="44">
+        <f t="shared" si="22"/>
+        <v>-281.08899596381701</v>
+      </c>
+      <c r="BU74" s="44">
+        <f t="shared" si="23"/>
+        <v>3.7850000000000001</v>
+      </c>
+      <c r="BV74" s="44">
+        <f t="shared" si="24"/>
+        <v>-281.08899596381701</v>
+      </c>
+      <c r="BW74" s="44">
+        <f t="shared" si="25"/>
+        <v>1</v>
+      </c>
+      <c r="BX74" s="44">
+        <f t="shared" si="26"/>
+        <v>-249.57662413235681</v>
+      </c>
+      <c r="BY74" s="44">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+      <c r="BZ74" s="44">
+        <f t="shared" si="28"/>
+        <v>-311.97648306982126</v>
+      </c>
+      <c r="CA74" s="44">
+        <f t="shared" si="29"/>
+        <v>0</v>
+      </c>
+      <c r="CB74" s="44">
+        <f t="shared" si="30"/>
+        <v>-287.19938243327937</v>
+      </c>
+      <c r="CC74" s="53">
+        <f t="shared" si="31"/>
+        <v>0</v>
+      </c>
+      <c r="CD74" s="53">
         <f t="shared" si="35"/>
-        <v>-191.72158528078518</v>
-      </c>
-      <c r="BM74" s="44">
-        <f t="shared" si="16"/>
-        <v>1</v>
-      </c>
-      <c r="BN74" s="44">
-        <f t="shared" si="17"/>
-        <v>-191.72158528078518</v>
-      </c>
-      <c r="BO74" s="44">
-        <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
-      <c r="BP74" s="54">
-        <f t="shared" si="19"/>
-        <v>0</v>
-      </c>
-      <c r="BQ74" s="44">
-        <f t="shared" si="20"/>
-        <v>0</v>
-      </c>
-      <c r="BR74" s="44">
-        <f t="shared" si="21"/>
-        <v>0</v>
-      </c>
-      <c r="BS74" s="44">
-        <f t="shared" si="22"/>
-        <v>3.7850000000000001</v>
-      </c>
-      <c r="BT74" s="44">
-        <f t="shared" si="23"/>
-        <v>-281.08899596381701</v>
-      </c>
-      <c r="BU74" s="44">
-        <f t="shared" si="24"/>
-        <v>3.7850000000000001</v>
-      </c>
-      <c r="BV74" s="44">
-        <f t="shared" si="25"/>
-        <v>-281.08899596381701</v>
-      </c>
-      <c r="BW74" s="44">
-        <f t="shared" si="26"/>
-        <v>1</v>
-      </c>
-      <c r="BX74" s="44">
-        <f t="shared" si="27"/>
-        <v>-249.57662413235681</v>
-      </c>
-      <c r="BY74" s="44">
-        <f t="shared" si="28"/>
-        <v>0</v>
-      </c>
-      <c r="BZ74" s="44">
-        <f t="shared" si="29"/>
-        <v>-311.97648306982126</v>
-      </c>
-      <c r="CA74" s="44">
-        <f t="shared" si="30"/>
-        <v>0</v>
-      </c>
-      <c r="CB74" s="44">
-        <f t="shared" si="31"/>
-        <v>-287.19938243327937</v>
-      </c>
-      <c r="CC74" s="53">
+        <v>0</v>
+      </c>
+      <c r="CE74" s="53">
         <f t="shared" si="32"/>
         <v>0</v>
       </c>
-      <c r="CD74" s="53">
-        <f t="shared" si="36"/>
-        <v>0</v>
-      </c>
-      <c r="CE74" s="53">
+      <c r="CF74" s="52">
         <f t="shared" si="33"/>
-        <v>0</v>
-      </c>
-      <c r="CF74" s="52">
-        <f t="shared" si="34"/>
         <v>-219.89652741068244</v>
       </c>
       <c r="CJ74" s="29"/>
@@ -14548,132 +14570,132 @@
       <c r="FA74" s="2"/>
       <c r="FB74" s="2"/>
     </row>
-    <row r="75" spans="1:240" s="196" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="190" t="s">
+    <row r="75" spans="1:240" s="195" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A75" s="189" t="s">
         <v>2</v>
       </c>
-      <c r="B75" s="191"/>
-      <c r="C75" s="191"/>
-      <c r="D75" s="191"/>
-      <c r="E75" s="191"/>
-      <c r="F75" s="191"/>
-      <c r="G75" s="192">
+      <c r="B75" s="190"/>
+      <c r="C75" s="190"/>
+      <c r="D75" s="190"/>
+      <c r="E75" s="190"/>
+      <c r="F75" s="190"/>
+      <c r="G75" s="191">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="H75" s="193">
+      <c r="H75" s="192">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I75" s="191"/>
-      <c r="J75" s="191">
+      <c r="I75" s="190"/>
+      <c r="J75" s="190">
         <f>2.34*2/3</f>
         <v>1.5599999999999998</v>
       </c>
-      <c r="K75" s="191">
+      <c r="K75" s="190">
         <f>0.33*2/3</f>
         <v>0.22</v>
       </c>
-      <c r="L75" s="191">
+      <c r="L75" s="190">
         <f>0.33*2/3</f>
         <v>0.22</v>
       </c>
-      <c r="M75" s="191"/>
-      <c r="N75" s="194">
+      <c r="M75" s="190"/>
+      <c r="N75" s="193">
         <f t="shared" si="2"/>
         <v>1.9999999999999998</v>
       </c>
-      <c r="O75" s="193">
+      <c r="O75" s="192">
         <f>(M75/2+I75+J75+(K75+L75)*1.5)</f>
         <v>2.2199999999999998</v>
       </c>
-      <c r="P75" s="191"/>
-      <c r="Q75" s="191">
+      <c r="P75" s="190"/>
+      <c r="Q75" s="190">
         <f>2.34/3</f>
         <v>0.77999999999999992</v>
       </c>
-      <c r="R75" s="191">
+      <c r="R75" s="190">
         <f>0.33/3</f>
         <v>0.11</v>
       </c>
-      <c r="S75" s="191">
+      <c r="S75" s="190">
         <f>0.33/3</f>
         <v>0.11</v>
       </c>
-      <c r="T75" s="191"/>
-      <c r="U75" s="191">
-        <v>0</v>
-      </c>
-      <c r="V75" s="193">
+      <c r="T75" s="190"/>
+      <c r="U75" s="190">
+        <v>0</v>
+      </c>
+      <c r="V75" s="192">
         <f t="shared" si="4"/>
         <v>1.1099999999999999</v>
       </c>
-      <c r="W75" s="195"/>
-      <c r="X75" s="195"/>
-      <c r="Y75" s="195"/>
-      <c r="Z75" s="195"/>
-      <c r="AA75" s="195"/>
-      <c r="AB75" s="195"/>
-      <c r="AC75" s="195"/>
-      <c r="AD75" s="195"/>
-      <c r="AE75" s="195"/>
-      <c r="AF75" s="195"/>
-      <c r="AG75" s="195"/>
-      <c r="AH75" s="195"/>
-      <c r="AJ75" s="191">
+      <c r="W75" s="194"/>
+      <c r="X75" s="194"/>
+      <c r="Y75" s="194"/>
+      <c r="Z75" s="194"/>
+      <c r="AA75" s="194"/>
+      <c r="AB75" s="194"/>
+      <c r="AC75" s="194"/>
+      <c r="AD75" s="194"/>
+      <c r="AE75" s="194"/>
+      <c r="AF75" s="194"/>
+      <c r="AG75" s="194"/>
+      <c r="AH75" s="194"/>
+      <c r="AJ75" s="190">
         <f>1.34/2</f>
         <v>0.67</v>
       </c>
-      <c r="AK75" s="191">
+      <c r="AK75" s="190">
         <f>0.66/2</f>
         <v>0.33</v>
       </c>
-      <c r="AL75" s="195"/>
-      <c r="AM75" s="193">
+      <c r="AL75" s="194"/>
+      <c r="AM75" s="192">
         <f t="shared" si="5"/>
         <v>1.835</v>
       </c>
-      <c r="AN75" s="191">
+      <c r="AN75" s="190">
         <f>1.34/2</f>
         <v>0.67</v>
       </c>
-      <c r="AO75" s="191">
+      <c r="AO75" s="190">
         <f>0.66/2</f>
         <v>0.33</v>
       </c>
-      <c r="AP75" s="195"/>
-      <c r="AQ75" s="207">
+      <c r="AP75" s="194"/>
+      <c r="AQ75" s="206">
         <f t="shared" si="6"/>
         <v>1.835</v>
       </c>
-      <c r="AR75" s="196">
+      <c r="AR75" s="195">
         <v>0.5</v>
       </c>
-      <c r="AS75" s="195"/>
-      <c r="AT75" s="196">
+      <c r="AS75" s="194"/>
+      <c r="AT75" s="195">
         <v>1.5</v>
       </c>
-      <c r="AU75" s="195">
+      <c r="AU75" s="194">
         <f>((B75+C75+D75+M75+T75+W75+AD75)+(E75+F75+I75+J75+P75+Q75+X75+Y75+AE75+AF75)*2+(K75+L75+R75+S75+Z75+AA75+AG75+AH75+AK75+AL75+AO75+AP75)*3+(AJ75+AN75)*4)/2+AR75+AS75+AT75</f>
         <v>9</v>
       </c>
-      <c r="AV75" s="197" t="str">
+      <c r="AV75" s="196" t="str">
         <f>A75</f>
         <v>Berthierine th</v>
       </c>
-      <c r="AW75" s="198"/>
-      <c r="AX75" s="199"/>
-      <c r="AY75" s="200"/>
-      <c r="AZ75" s="200"/>
-      <c r="BA75" s="191">
+      <c r="AW75" s="197"/>
+      <c r="AX75" s="198"/>
+      <c r="AY75" s="199"/>
+      <c r="AZ75" s="199"/>
+      <c r="BA75" s="190">
         <f>CF75</f>
         <v>-73.657781755390673</v>
       </c>
-      <c r="BB75" s="191">
+      <c r="BB75" s="190">
         <f t="shared" si="10"/>
         <v>-57.585167471488163</v>
       </c>
-      <c r="BC75" s="191">
+      <c r="BC75" s="190">
         <f>B75/2*B$15+C75/2*B$14+(D75+M75+T75+W75+AD75)/2*B$13+(E75+I75+P75+X75+AE75)*B$16+F75*B$17+(J75+Q75+Y75+AF75)*B$18+(K75+R75+Z75+AG75+AK75+AO75)*B$20/2+(L75+S75+AA75+AH75+AL75+AP75)*B$19/2+(AJ75+AN75)*B$21+(AR75+AS75+AT75)*B$22+BB75</f>
         <v>-3451.9562174714883</v>
       </c>
@@ -14681,395 +14703,395 @@
         <f>BC75-BB75</f>
         <v>-3394.3710500000002</v>
       </c>
-      <c r="BE75" s="191">
+      <c r="BE75" s="190">
         <f>BA75-BB75</f>
         <v>-16.07261428390251</v>
       </c>
-      <c r="BF75" s="200"/>
-      <c r="BG75" s="198"/>
-      <c r="BH75" s="201" t="str">
+      <c r="BF75" s="199"/>
+      <c r="BG75" s="197"/>
+      <c r="BH75" s="200" t="str">
+        <f t="shared" si="11"/>
+        <v>Berthierine th</v>
+      </c>
+      <c r="BI75" s="190">
         <f t="shared" si="12"/>
-        <v>Berthierine th</v>
-      </c>
-      <c r="BI75" s="191">
+        <v>0</v>
+      </c>
+      <c r="BJ75" s="190">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="BJ75" s="191">
+      <c r="BK75" s="190">
         <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="BK75" s="191">
-        <f t="shared" si="15"/>
         <v>2.2199999999999998</v>
       </c>
-      <c r="BL75" s="191">
+      <c r="BL75" s="190">
         <f>(M75*BU$31/2+I75*BV$31+J75*BW$31+K75*BX$31*1.5+L75*BY$31*1.5)/BK75+BT$31*(I75*J75*ABS(BV$31-BW$31)+I75*K75*1.5*ABS(BV$31-BX$31)+I75*L75*1.5*ABS(BV$31-BY$31)+I75*M75/2*ABS(BV$31-BU$31)+J75*K75*1.5*ABS(BW$31-BX$31)+J75*L75*1.5*ABS(BW$31-BY$31)+J75*M75/2*ABS(BW$31-BU$31)+K75*1.5*L75*1.5*ABS(BX$31-BY$31)+K75*1.5*M75/2*ABS(BX$31-BU$31)+L75*1.5*M75/2*ABS(BY$31-BU$31))/(BK75^2)</f>
         <v>-248.22159457350037</v>
       </c>
-      <c r="BM75" s="191">
+      <c r="BM75" s="190">
+        <f t="shared" si="15"/>
+        <v>1.1099999999999999</v>
+      </c>
+      <c r="BN75" s="190">
         <f t="shared" si="16"/>
-        <v>1.1099999999999999</v>
-      </c>
-      <c r="BN75" s="191">
+        <v>-242.8253963019192</v>
+      </c>
+      <c r="BO75" s="190">
         <f t="shared" si="17"/>
-        <v>-242.8253963019192</v>
-      </c>
-      <c r="BO75" s="191">
+        <v>0</v>
+      </c>
+      <c r="BP75" s="190">
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="BP75" s="191">
+      <c r="BQ75" s="190">
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
-      <c r="BQ75" s="191">
+      <c r="BR75" s="190">
         <f t="shared" si="20"/>
         <v>0</v>
       </c>
-      <c r="BR75" s="191">
+      <c r="BS75" s="190">
         <f t="shared" si="21"/>
-        <v>0</v>
-      </c>
-      <c r="BS75" s="191">
-        <f t="shared" si="22"/>
         <v>1.835</v>
       </c>
-      <c r="BT75" s="191">
+      <c r="BT75" s="190">
         <f>(AJ75*CA$29*2+AK75*CB$29*1.5+AL75*CC$29*1.5)/BS75</f>
         <v>-278.61687966643524</v>
       </c>
-      <c r="BU75" s="191">
+      <c r="BU75" s="190">
+        <f t="shared" si="23"/>
+        <v>1.835</v>
+      </c>
+      <c r="BV75" s="190">
         <f t="shared" si="24"/>
-        <v>1.835</v>
-      </c>
-      <c r="BV75" s="191">
+        <v>-278.61687966643524</v>
+      </c>
+      <c r="BW75" s="190">
         <f t="shared" si="25"/>
-        <v>-278.61687966643524</v>
-      </c>
-      <c r="BW75" s="191">
+        <v>0.5</v>
+      </c>
+      <c r="BX75" s="190">
         <f t="shared" si="26"/>
-        <v>0.5</v>
-      </c>
-      <c r="BX75" s="191">
+        <v>-249.57662413235681</v>
+      </c>
+      <c r="BY75" s="190">
         <f t="shared" si="27"/>
-        <v>-249.57662413235681</v>
-      </c>
-      <c r="BY75" s="191">
+        <v>0</v>
+      </c>
+      <c r="BZ75" s="190">
         <f t="shared" si="28"/>
-        <v>0</v>
-      </c>
-      <c r="BZ75" s="191">
+        <v>-311.97648306982126</v>
+      </c>
+      <c r="CA75" s="190">
         <f t="shared" si="29"/>
-        <v>-311.97648306982126</v>
-      </c>
-      <c r="CA75" s="191">
+        <v>1.5</v>
+      </c>
+      <c r="CB75" s="190">
         <f t="shared" si="30"/>
-        <v>1.5</v>
-      </c>
-      <c r="CB75" s="191">
+        <v>-287.19938243327937</v>
+      </c>
+      <c r="CC75" s="194">
         <f t="shared" si="31"/>
-        <v>-287.19938243327937</v>
-      </c>
-      <c r="CC75" s="195">
-        <f t="shared" si="32"/>
-        <v>0</v>
-      </c>
-      <c r="CD75" s="195">
+        <v>0</v>
+      </c>
+      <c r="CD75" s="194">
         <f>I75*J75*ABS(BV$31-BW$31)+I75*K75*1.5*ABS(BV$31-BX$31)+I75*L75*1.5*ABS(BV$31-BY$31)+I75*M75/2*ABS(BV$31-BU$31)+J75*K75*1.5*ABS(BW$31-BX$31)+J75*L75*1.5*ABS(BW$31-BY$31)+J75*M75/2*ABS(BW$31-BU$31)+K75*1.5*L75*1.5*ABS(BX$31-BY$31)+K75*1.5*M75/2*ABS(BX$31-BU$31)+L75*1.5*M75/2*ABS(BY$31-BU$31)</f>
         <v>45.928372144604907</v>
       </c>
-      <c r="CE75" s="195">
-        <f t="shared" si="33"/>
-        <v>0</v>
-      </c>
-      <c r="CF75" s="202">
+      <c r="CE75" s="194">
+        <f t="shared" si="32"/>
+        <v>0</v>
+      </c>
+      <c r="CF75" s="201">
         <f>-((BI75*BS75*(BJ75-BT75)+BI75*BU75*(BJ75-BV75)+BK75*BS75*ABS(BL75-BT75)+BK75*BU75*ABS(BL75-BV75)+BM75*BS75*ABS(BN75-BT75)+BM75*BU75*ABS(BN75-BV75)+BK75*BW75*ABS(BL75-BX75)+BM75*BW75*ABS(BN75-BX75)+BK75*BM75*ABS(BL75-BN75)+BS75*BU75*ABS(BT75-BV75))+(BO75*BY75*(BP75-BZ75)+BQ75*BY75*(BR75-BZ75)+BO75*BQ75*ABS(BP75-BR75)+BY75*BS75*(BT75-BZ75)+BY75*BU75*(BV75-BZ75))+(BK75*CA75*ABS(BL75-CB75)+BM75*CA75*ABS(BN75-CB75)+BS75*CA75*ABS(BT75-CB75)+BU75*CA75*ABS(BV75-CB75)))/AU75</f>
         <v>-73.657781755390673</v>
       </c>
-      <c r="CG75" s="203"/>
-      <c r="CH75" s="200"/>
-      <c r="CI75" s="200"/>
-      <c r="CJ75" s="191"/>
-      <c r="CK75" s="191"/>
-      <c r="CL75" s="204"/>
-      <c r="CM75" s="191"/>
-      <c r="CO75" s="191"/>
-      <c r="CP75" s="191"/>
-      <c r="CQ75" s="191"/>
-      <c r="CS75" s="200"/>
-      <c r="CT75" s="205"/>
-      <c r="CU75" s="204"/>
-      <c r="CX75" s="191"/>
-      <c r="CY75" s="191"/>
-      <c r="CZ75" s="191"/>
-      <c r="DA75" s="191"/>
-      <c r="DB75" s="205"/>
-      <c r="DG75" s="194"/>
-      <c r="EW75" s="200"/>
-      <c r="EX75" s="200"/>
-      <c r="EY75" s="200"/>
-      <c r="EZ75" s="206"/>
-      <c r="FA75" s="200"/>
-      <c r="FB75" s="200"/>
+      <c r="CG75" s="202"/>
+      <c r="CH75" s="199"/>
+      <c r="CI75" s="199"/>
+      <c r="CJ75" s="190"/>
+      <c r="CK75" s="190"/>
+      <c r="CL75" s="203"/>
+      <c r="CM75" s="190"/>
+      <c r="CO75" s="190"/>
+      <c r="CP75" s="190"/>
+      <c r="CQ75" s="190"/>
+      <c r="CS75" s="199"/>
+      <c r="CT75" s="204"/>
+      <c r="CU75" s="203"/>
+      <c r="CX75" s="190"/>
+      <c r="CY75" s="190"/>
+      <c r="CZ75" s="190"/>
+      <c r="DA75" s="190"/>
+      <c r="DB75" s="204"/>
+      <c r="DG75" s="193"/>
+      <c r="EW75" s="199"/>
+      <c r="EX75" s="199"/>
+      <c r="EY75" s="199"/>
+      <c r="EZ75" s="205"/>
+      <c r="FA75" s="199"/>
+      <c r="FB75" s="199"/>
     </row>
-    <row r="76" spans="1:240" s="196" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="190" t="s">
+    <row r="76" spans="1:240" s="195" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A76" s="189" t="s">
         <v>1</v>
       </c>
-      <c r="B76" s="191"/>
-      <c r="C76" s="191"/>
-      <c r="D76" s="191"/>
-      <c r="E76" s="191"/>
-      <c r="F76" s="191"/>
-      <c r="G76" s="191">
+      <c r="B76" s="190"/>
+      <c r="C76" s="190"/>
+      <c r="D76" s="190"/>
+      <c r="E76" s="190"/>
+      <c r="F76" s="190"/>
+      <c r="G76" s="190">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="H76" s="193">
+      <c r="H76" s="192">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I76" s="191"/>
-      <c r="J76" s="191">
+      <c r="I76" s="190"/>
+      <c r="J76" s="190">
         <f>2*2/3</f>
         <v>1.3333333333333333</v>
       </c>
-      <c r="K76" s="191"/>
-      <c r="L76" s="191">
+      <c r="K76" s="190"/>
+      <c r="L76" s="190">
         <f>1*2/3</f>
         <v>0.66666666666666663</v>
       </c>
-      <c r="M76" s="191"/>
-      <c r="N76" s="194">
+      <c r="M76" s="190"/>
+      <c r="N76" s="193">
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
-      <c r="O76" s="193">
+      <c r="O76" s="192">
         <f t="shared" si="3"/>
         <v>2.333333333333333</v>
       </c>
-      <c r="P76" s="191"/>
-      <c r="Q76" s="191">
+      <c r="P76" s="190"/>
+      <c r="Q76" s="190">
         <f>2/3</f>
         <v>0.66666666666666663</v>
       </c>
-      <c r="R76" s="191"/>
-      <c r="S76" s="191">
+      <c r="R76" s="190"/>
+      <c r="S76" s="190">
         <f>1/3</f>
         <v>0.33333333333333331</v>
       </c>
-      <c r="T76" s="191"/>
-      <c r="U76" s="191">
-        <v>0</v>
-      </c>
-      <c r="V76" s="193">
+      <c r="T76" s="190"/>
+      <c r="U76" s="190">
+        <v>0</v>
+      </c>
+      <c r="V76" s="192">
         <f t="shared" si="4"/>
         <v>1.1666666666666665</v>
       </c>
-      <c r="W76" s="195"/>
-      <c r="X76" s="195"/>
-      <c r="Y76" s="195"/>
-      <c r="Z76" s="195"/>
-      <c r="AA76" s="195"/>
-      <c r="AB76" s="195"/>
-      <c r="AC76" s="195"/>
-      <c r="AD76" s="195"/>
-      <c r="AE76" s="195"/>
-      <c r="AF76" s="195"/>
-      <c r="AG76" s="195"/>
-      <c r="AH76" s="195"/>
-      <c r="AJ76" s="191">
+      <c r="W76" s="194"/>
+      <c r="X76" s="194"/>
+      <c r="Y76" s="194"/>
+      <c r="Z76" s="194"/>
+      <c r="AA76" s="194"/>
+      <c r="AB76" s="194"/>
+      <c r="AC76" s="194"/>
+      <c r="AD76" s="194"/>
+      <c r="AE76" s="194"/>
+      <c r="AF76" s="194"/>
+      <c r="AG76" s="194"/>
+      <c r="AH76" s="194"/>
+      <c r="AJ76" s="190">
         <v>0.5</v>
       </c>
-      <c r="AK76" s="191">
-        <v>0</v>
-      </c>
-      <c r="AL76" s="195">
+      <c r="AK76" s="190">
+        <v>0</v>
+      </c>
+      <c r="AL76" s="194">
         <v>0.5</v>
       </c>
-      <c r="AM76" s="193">
+      <c r="AM76" s="192">
         <f t="shared" si="5"/>
         <v>1.75</v>
       </c>
-      <c r="AN76" s="191">
+      <c r="AN76" s="190">
         <v>0.5</v>
       </c>
-      <c r="AO76" s="191">
-        <v>0</v>
-      </c>
-      <c r="AP76" s="195">
+      <c r="AO76" s="190">
+        <v>0</v>
+      </c>
+      <c r="AP76" s="194">
         <v>0.5</v>
       </c>
-      <c r="AQ76" s="193">
+      <c r="AQ76" s="192">
         <f t="shared" si="6"/>
         <v>1.75</v>
       </c>
-      <c r="AR76" s="196">
+      <c r="AR76" s="195">
         <v>0.5</v>
       </c>
-      <c r="AS76" s="195"/>
-      <c r="AT76" s="196">
+      <c r="AS76" s="194"/>
+      <c r="AT76" s="195">
         <v>1.5</v>
       </c>
-      <c r="AU76" s="195">
+      <c r="AU76" s="194">
         <f t="shared" si="7"/>
         <v>9</v>
       </c>
-      <c r="AV76" s="197" t="str">
+      <c r="AV76" s="196" t="str">
         <f>A76</f>
         <v>Cronstedtite</v>
       </c>
-      <c r="AW76" s="198"/>
-      <c r="AX76" s="199"/>
-      <c r="AY76" s="200"/>
-      <c r="AZ76" s="200"/>
-      <c r="BA76" s="191">
+      <c r="AW76" s="197"/>
+      <c r="AX76" s="198"/>
+      <c r="AY76" s="199"/>
+      <c r="AZ76" s="199"/>
+      <c r="BA76" s="190">
         <f t="shared" si="9"/>
         <v>-70.603460381109855</v>
       </c>
-      <c r="BB76" s="191">
+      <c r="BB76" s="190">
         <f t="shared" si="10"/>
         <v>-54.530846097207345</v>
       </c>
-      <c r="BC76" s="191">
+      <c r="BC76" s="190">
+        <f t="shared" si="37"/>
+        <v>-2907.2008460972074</v>
+      </c>
+      <c r="BD76" s="5">
+        <f t="shared" si="36"/>
+        <v>-2852.67</v>
+      </c>
+      <c r="BE76" s="199"/>
+      <c r="BF76" s="199"/>
+      <c r="BG76" s="197"/>
+      <c r="BH76" s="200" t="str">
         <f t="shared" si="11"/>
-        <v>-2907.2008460972074</v>
-      </c>
-      <c r="BD76" s="5">
-        <f t="shared" si="37"/>
-        <v>-2852.67</v>
-      </c>
-      <c r="BE76" s="200"/>
-      <c r="BF76" s="200"/>
-      <c r="BG76" s="198"/>
-      <c r="BH76" s="201" t="str">
+        <v>Cronstedtite</v>
+      </c>
+      <c r="BI76" s="190">
         <f t="shared" si="12"/>
-        <v>Cronstedtite</v>
-      </c>
-      <c r="BI76" s="191">
+        <v>0</v>
+      </c>
+      <c r="BJ76" s="190">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="BJ76" s="191">
+      <c r="BK76" s="190">
         <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="BK76" s="191">
-        <f t="shared" si="15"/>
         <v>2.333333333333333</v>
       </c>
-      <c r="BL76" s="191">
+      <c r="BL76" s="190">
         <f t="shared" ref="BL76:BL77" si="40">(M76*BU$31/2+I76*BV$31+J76*BW$31+K76*BX$31*1.5+L76*BY$31*1.5)/BK76+BT$31*(I76*J76*ABS(BV$31-BW$31)+I76*K76*1.5*ABS(BV$31-BX$31)+I76*L76*1.5*ABS(BV$31-BY$31)+I76*M76/2*ABS(BV$31-BU$31)+J76*K76*1.5*ABS(BW$31-BX$31)+J76*L76*1.5*ABS(BW$31-BY$31)+J76*M76/2*ABS(BW$31-BU$31)+K76*1.5*L76*1.5*ABS(BX$31-BY$31)+K76*1.5*M76/2*ABS(BX$31-BU$31)+L76*1.5*M76/2*ABS(BY$31-BU$31))/(BK76^2)</f>
         <v>-265.01151369979902</v>
       </c>
-      <c r="BM76" s="191">
+      <c r="BM76" s="190">
+        <f t="shared" si="15"/>
+        <v>1.1666666666666665</v>
+      </c>
+      <c r="BN76" s="190">
         <f t="shared" si="16"/>
-        <v>1.1666666666666665</v>
-      </c>
-      <c r="BN76" s="191">
+        <v>-256.50362729676834</v>
+      </c>
+      <c r="BO76" s="190">
         <f t="shared" si="17"/>
-        <v>-256.50362729676834</v>
-      </c>
-      <c r="BO76" s="191">
+        <v>0</v>
+      </c>
+      <c r="BP76" s="190">
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="BP76" s="191">
+      <c r="BQ76" s="190">
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
-      <c r="BQ76" s="191">
+      <c r="BR76" s="190">
         <f t="shared" si="20"/>
         <v>0</v>
       </c>
-      <c r="BR76" s="191">
+      <c r="BS76" s="190">
         <f t="shared" si="21"/>
-        <v>0</v>
-      </c>
-      <c r="BS76" s="191">
+        <v>1.75</v>
+      </c>
+      <c r="BT76" s="190">
         <f t="shared" si="22"/>
+        <v>-295.90256087926082</v>
+      </c>
+      <c r="BU76" s="190">
+        <f t="shared" si="23"/>
         <v>1.75</v>
       </c>
-      <c r="BT76" s="191">
-        <f t="shared" si="23"/>
+      <c r="BV76" s="190">
+        <f t="shared" si="24"/>
         <v>-295.90256087926082</v>
       </c>
-      <c r="BU76" s="191">
-        <f t="shared" si="24"/>
-        <v>1.75</v>
-      </c>
-      <c r="BV76" s="191">
+      <c r="BW76" s="190">
         <f t="shared" si="25"/>
-        <v>-295.90256087926082</v>
-      </c>
-      <c r="BW76" s="191">
+        <v>0.5</v>
+      </c>
+      <c r="BX76" s="190">
         <f t="shared" si="26"/>
-        <v>0.5</v>
-      </c>
-      <c r="BX76" s="191">
+        <v>-249.57662413235681</v>
+      </c>
+      <c r="BY76" s="190">
         <f t="shared" si="27"/>
-        <v>-249.57662413235681</v>
-      </c>
-      <c r="BY76" s="191">
+        <v>0</v>
+      </c>
+      <c r="BZ76" s="190">
         <f t="shared" si="28"/>
-        <v>0</v>
-      </c>
-      <c r="BZ76" s="191">
+        <v>-311.97648306982126</v>
+      </c>
+      <c r="CA76" s="190">
         <f t="shared" si="29"/>
-        <v>-311.97648306982126</v>
-      </c>
-      <c r="CA76" s="191">
+        <v>1.5</v>
+      </c>
+      <c r="CB76" s="190">
         <f t="shared" si="30"/>
-        <v>1.5</v>
-      </c>
-      <c r="CB76" s="191">
+        <v>-287.19938243327937</v>
+      </c>
+      <c r="CC76" s="194">
         <f t="shared" si="31"/>
-        <v>-287.19938243327937</v>
-      </c>
-      <c r="CC76" s="195">
+        <v>0</v>
+      </c>
+      <c r="CD76" s="194">
+        <f t="shared" si="35"/>
+        <v>79.994929245945542</v>
+      </c>
+      <c r="CE76" s="194">
         <f t="shared" si="32"/>
         <v>0</v>
       </c>
-      <c r="CD76" s="195">
-        <f t="shared" si="36"/>
-        <v>79.994929245945542</v>
-      </c>
-      <c r="CE76" s="195">
-        <f t="shared" si="33"/>
-        <v>0</v>
-      </c>
-      <c r="CF76" s="202">
+      <c r="CF76" s="201">
         <f>-((BI76*BS76*(BJ76-BT76)+BI76*BU76*(BJ76-BV76)+BK76*BS76*ABS(BL76-BT76)+BK76*BU76*ABS(BL76-BV76)+BM76*BS76*ABS(BN76-BT76)+BM76*BU76*ABS(BN76-BV76)+BK76*BW76*ABS(BL76-BX76)+BM76*BW76*ABS(BN76-BX76)+BK76*BM76*ABS(BL76-BN76)+BS76*BU76*ABS(BT76-BV76))+(BO76*BY76*(BP76-BZ76)+BQ76*BY76*(BR76-BZ76)+BO76*BQ76*ABS(BP76-BR76)+BY76*BS76*(BT76-BZ76)+BY76*BU76*(BV76-BZ76))+(BK76*CA76*ABS(BL76-CB76)+BM76*CA76*ABS(BN76-CB76)+BS76*CA76*ABS(BT76-CB76)+BU76*CA76*ABS(BV76-CB76)))/AU76</f>
         <v>-70.603460381109855</v>
       </c>
-      <c r="CG76" s="203"/>
-      <c r="CH76" s="200"/>
-      <c r="CI76" s="200"/>
-      <c r="CJ76" s="191"/>
-      <c r="CK76" s="191"/>
-      <c r="CL76" s="204"/>
-      <c r="CM76" s="191"/>
-      <c r="CO76" s="191"/>
-      <c r="CP76" s="191"/>
-      <c r="CQ76" s="191"/>
-      <c r="CS76" s="200"/>
-      <c r="CT76" s="205"/>
-      <c r="CU76" s="204"/>
-      <c r="CX76" s="191"/>
-      <c r="CY76" s="191"/>
-      <c r="CZ76" s="191"/>
-      <c r="DA76" s="191"/>
-      <c r="DB76" s="205"/>
-      <c r="DG76" s="194"/>
-      <c r="EW76" s="200"/>
-      <c r="EX76" s="200"/>
-      <c r="EY76" s="200"/>
-      <c r="EZ76" s="206"/>
-      <c r="FA76" s="200"/>
-      <c r="FB76" s="200"/>
+      <c r="CG76" s="202"/>
+      <c r="CH76" s="199"/>
+      <c r="CI76" s="199"/>
+      <c r="CJ76" s="190"/>
+      <c r="CK76" s="190"/>
+      <c r="CL76" s="203"/>
+      <c r="CM76" s="190"/>
+      <c r="CO76" s="190"/>
+      <c r="CP76" s="190"/>
+      <c r="CQ76" s="190"/>
+      <c r="CS76" s="199"/>
+      <c r="CT76" s="204"/>
+      <c r="CU76" s="203"/>
+      <c r="CX76" s="190"/>
+      <c r="CY76" s="190"/>
+      <c r="CZ76" s="190"/>
+      <c r="DA76" s="190"/>
+      <c r="DB76" s="204"/>
+      <c r="DG76" s="193"/>
+      <c r="EW76" s="199"/>
+      <c r="EX76" s="199"/>
+      <c r="EY76" s="199"/>
+      <c r="EZ76" s="205"/>
+      <c r="FA76" s="199"/>
+      <c r="FB76" s="199"/>
     </row>
-    <row r="77" spans="1:240" ht="12" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:240" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A77" s="46" t="s">
         <v>0</v>
       </c>
@@ -15187,114 +15209,114 @@
         <v>-160.2618879866443</v>
       </c>
       <c r="BC77" s="36">
-        <f t="shared" si="11"/>
+        <f t="shared" si="37"/>
         <v>-5151.1343879866436</v>
       </c>
       <c r="BD77" s="5">
-        <f t="shared" si="37"/>
+        <f t="shared" si="36"/>
         <v>-4990.8724999999995</v>
       </c>
       <c r="BE77" s="2"/>
       <c r="BF77" s="2"/>
       <c r="BG77" s="35"/>
       <c r="BH77" s="34" t="str">
+        <f t="shared" si="11"/>
+        <v>Glauconite</v>
+      </c>
+      <c r="BI77" s="5">
         <f t="shared" si="12"/>
-        <v>Glauconite</v>
-      </c>
-      <c r="BI77" s="5">
+        <v>0.375</v>
+      </c>
+      <c r="BJ77" s="29">
         <f t="shared" si="13"/>
-        <v>0.375</v>
-      </c>
-      <c r="BJ77" s="29">
+        <v>453</v>
+      </c>
+      <c r="BK77" s="5">
         <f t="shared" si="14"/>
-        <v>453</v>
-      </c>
-      <c r="BK77" s="5">
-        <f t="shared" si="15"/>
         <v>2.75</v>
       </c>
-      <c r="BL77" s="191">
+      <c r="BL77" s="190">
         <f t="shared" si="40"/>
         <v>-279.58299025074842</v>
       </c>
       <c r="BM77" s="5">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="BN77" s="5">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="BN77" s="5">
+      <c r="BO77" s="5">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="BO77" s="5">
+      <c r="BP77" s="29">
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="BP77" s="29">
+      <c r="BQ77" s="5">
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
-      <c r="BQ77" s="5">
+      <c r="BR77" s="5">
         <f t="shared" si="20"/>
         <v>0</v>
       </c>
-      <c r="BR77" s="5">
+      <c r="BS77" s="5">
         <f t="shared" si="21"/>
-        <v>0</v>
-      </c>
-      <c r="BS77" s="5">
+        <v>3.9375</v>
+      </c>
+      <c r="BT77" s="5">
         <f t="shared" si="22"/>
+        <v>-284.14452488304329</v>
+      </c>
+      <c r="BU77" s="5">
+        <f t="shared" si="23"/>
         <v>3.9375</v>
       </c>
-      <c r="BT77" s="5">
-        <f t="shared" si="23"/>
+      <c r="BV77" s="5">
+        <f t="shared" si="24"/>
         <v>-284.14452488304329</v>
       </c>
-      <c r="BU77" s="5">
-        <f t="shared" si="24"/>
-        <v>3.9375</v>
-      </c>
-      <c r="BV77" s="5">
+      <c r="BW77" s="5">
         <f t="shared" si="25"/>
-        <v>-284.14452488304329</v>
-      </c>
-      <c r="BW77" s="5">
+        <v>1</v>
+      </c>
+      <c r="BX77" s="5">
         <f t="shared" si="26"/>
-        <v>1</v>
-      </c>
-      <c r="BX77" s="5">
+        <v>-249.57662413235681</v>
+      </c>
+      <c r="BY77" s="5">
         <f t="shared" si="27"/>
-        <v>-249.57662413235681</v>
-      </c>
-      <c r="BY77" s="5">
+        <v>0</v>
+      </c>
+      <c r="BZ77" s="5">
         <f t="shared" si="28"/>
-        <v>0</v>
-      </c>
-      <c r="BZ77" s="5">
+        <v>-311.97648306982126</v>
+      </c>
+      <c r="CA77" s="5">
         <f t="shared" si="29"/>
-        <v>-311.97648306982126</v>
-      </c>
-      <c r="CA77" s="5">
+        <v>0</v>
+      </c>
+      <c r="CB77" s="5">
         <f t="shared" si="30"/>
-        <v>0</v>
-      </c>
-      <c r="CB77" s="5">
+        <v>-287.19938243327937</v>
+      </c>
+      <c r="CC77" s="10">
         <f t="shared" si="31"/>
-        <v>-287.19938243327937</v>
-      </c>
-      <c r="CC77" s="10">
+        <v>0</v>
+      </c>
+      <c r="CD77" s="10">
+        <f t="shared" si="35"/>
+        <v>112.04075486311034</v>
+      </c>
+      <c r="CE77" s="10">
         <f t="shared" si="32"/>
         <v>0</v>
       </c>
-      <c r="CD77" s="10">
-        <f t="shared" si="36"/>
-        <v>112.04075486311034</v>
-      </c>
-      <c r="CE77" s="10">
+      <c r="CF77" s="33">
         <f t="shared" si="33"/>
-        <v>0</v>
-      </c>
-      <c r="CF77" s="33">
-        <f t="shared" si="34"/>
         <v>-196.51526385428747</v>
       </c>
       <c r="CG77" s="32"/>
@@ -15339,7 +15361,7 @@
       <c r="FA77" s="2"/>
       <c r="FB77" s="2"/>
     </row>
-    <row r="78" spans="1:240" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:240" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A78" s="1"/>
       <c r="C78" s="5"/>
       <c r="D78" s="1"/>
@@ -15391,7 +15413,7 @@
       <c r="BA78" s="10"/>
       <c r="BB78" s="10"/>
       <c r="BC78" s="10"/>
-      <c r="BD78" s="10"/>
+      <c r="BD78" s="5"/>
       <c r="BE78" s="10"/>
       <c r="BF78" s="10"/>
       <c r="BG78" s="10"/>
@@ -15572,7 +15594,7 @@
       <c r="IE78" s="1"/>
       <c r="IF78" s="1"/>
     </row>
-    <row r="79" spans="1:240" s="2" customFormat="1" ht="12" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:240" s="2" customFormat="1" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A79" s="175" t="s">
         <v>147</v>
       </c>
@@ -15603,7 +15625,7 @@
         <f>SUM(I79:M79)</f>
         <v>2.0100000000000002</v>
       </c>
-      <c r="O79" s="177">
+      <c r="O79" s="208">
         <f>(M79/2+I79+J79+(K79+L79)*1.5)</f>
         <v>2.0760000000000001</v>
       </c>
@@ -15624,7 +15646,7 @@
         <f>1-SUM(P79:T79)</f>
         <v>0</v>
       </c>
-      <c r="V79" s="177">
+      <c r="V79" s="208">
         <f>(T79/2+P79+Q79+(R79+S79)*1.5)</f>
         <v>1.0329999999999999</v>
       </c>
@@ -15662,7 +15684,7 @@
       <c r="AH79" s="181">
         <v>0</v>
       </c>
-      <c r="AI79" s="177">
+      <c r="AI79" s="208">
         <f t="shared" ref="AI79" si="42">(AD79/2+AE79+AF79+(AG79+AH79)*1.5)</f>
         <v>1.5</v>
       </c>
@@ -15684,17 +15706,17 @@
         <v>1.367</v>
       </c>
       <c r="AP79" s="178"/>
-      <c r="AQ79" s="187">
+      <c r="AQ79" s="209">
         <f>(AN79*2+(AO79+AP79)*1.5)</f>
         <v>3.3165</v>
       </c>
-      <c r="AR79" s="188">
+      <c r="AR79" s="187">
         <v>1</v>
       </c>
       <c r="AS79" s="176">
         <v>3</v>
       </c>
-      <c r="AT79" s="189">
+      <c r="AT79" s="188">
         <v>0</v>
       </c>
       <c r="AU79" s="39">
@@ -15716,27 +15738,32 @@
         <v>-266.47840852761686</v>
       </c>
       <c r="BC79" s="36">
-        <f t="shared" ref="BC79" si="46">B79/2*B$15+C79/2*B$14+(D79+M79+T79+W79+AD79)/2*B$13+(E79+I79+P79+X79+AE79)*B$16+F79*B$17+(J79+Q79+Y79+AF79)*B$18+(K79+R79+Z79+AG79+AK79+AO79)*B$20/2+(L79+S79+AA79+AH79+AL79+AP79)*B$19/2+(AJ79+AN79)*B$21+(AR79+AS79+AT79)*B$22+BB79</f>
+        <f>B79/2*B$15+C79/2*B$14+(D79+M79+T79+W79+AD79)/2*B$13+(E79+I79+P79+X79+AE79)*B$16+F79*B$17+(J79+Q79+Y79+AF79)*B$18+(K79+R79+Z79+AG79+AK79+AO79)*B$20/2+(L79+S79+AA79+AH79+AL79+AP79)*B$19/2+(AJ79+AN79)*B$21+(AR79+AS79+AT79)*B$22+BB79</f>
         <v>-8234.4672085276161</v>
       </c>
-      <c r="BD79" s="2">
-        <v>-8240.15</v>
+      <c r="BD79" s="5">
+        <f t="shared" si="36"/>
+        <v>-7967.9887999999992</v>
+      </c>
+      <c r="BE79" s="5">
+        <f>BA79-BB79</f>
+        <v>42.186073341820645</v>
       </c>
       <c r="BG79" s="35"/>
       <c r="BH79" s="34" t="str">
-        <f t="shared" ref="BH79" si="47">A79</f>
+        <f t="shared" ref="BH79" si="46">A79</f>
         <v>Ripidolite</v>
       </c>
       <c r="BI79" s="5">
-        <f t="shared" ref="BI79" si="48">H79</f>
+        <f t="shared" ref="BI79" si="47">H79</f>
         <v>0</v>
       </c>
       <c r="BJ79" s="29">
-        <f t="shared" ref="BJ79" si="49">IF(BI79=0,0,(B79*BU$29/2+C79*BV$29/2+D79*BW$29/2+E79*BY$29+F79*BX$29)/BI79+BT$29*((B79/2*C79/2*ABS(BU$29-BV$29)+B79/2*D79/2*ABS(BU$29-BW$29)+B79/2*E79*ABS(BU$29-BY$29)+B79/2*F79*ABS(BU$29-BX$29)+C79/2*D79/2*ABS(BV$29-BW$29)+C79/2*E79*ABS(BV$29-BY$29)+C79/2*F79*ABS(BV$29-BX$29)+D79/2*F79*ABS(BW$29-BY$29)+D79/2*E79*ABS(BW$29-BX$29)+E79*F79*ABS(BX$29-BY$29))/(BI79^2)))</f>
+        <f t="shared" ref="BJ79" si="48">IF(BI79=0,0,(B79*BU$29/2+C79*BV$29/2+D79*BW$29/2+E79*BY$29+F79*BX$29)/BI79+BT$29*((B79/2*C79/2*ABS(BU$29-BV$29)+B79/2*D79/2*ABS(BU$29-BW$29)+B79/2*E79*ABS(BU$29-BY$29)+B79/2*F79*ABS(BU$29-BX$29)+C79/2*D79/2*ABS(BV$29-BW$29)+C79/2*E79*ABS(BV$29-BY$29)+C79/2*F79*ABS(BV$29-BX$29)+D79/2*F79*ABS(BW$29-BY$29)+D79/2*E79*ABS(BW$29-BX$29)+E79*F79*ABS(BX$29-BY$29))/(BI79^2)))</f>
         <v>0</v>
       </c>
       <c r="BK79" s="5">
-        <f t="shared" ref="BK79" si="50">O79</f>
+        <f>O79</f>
         <v>2.0760000000000001</v>
       </c>
       <c r="BL79" s="29">
@@ -15744,15 +15771,15 @@
         <v>-220.59356855766214</v>
       </c>
       <c r="BM79" s="5">
-        <f t="shared" ref="BM79" si="51">V79</f>
+        <f t="shared" ref="BM79" si="49">V79</f>
         <v>1.0329999999999999</v>
       </c>
       <c r="BN79" s="5">
-        <f t="shared" ref="BN79" si="52">IF(BM79=0,0,(T79*BU$31/2+P79*BV$31+Q79*BW$31+R79*BX$31*1.5+S79*BY$31*1.5)/BM79)</f>
+        <f t="shared" ref="BN79" si="50">IF(BM79=0,0,(T79*BU$31/2+P79*BV$31+Q79*BW$31+R79*BX$31*1.5+S79*BY$31*1.5)/BM79)</f>
         <v>-212.8281534308077</v>
       </c>
       <c r="BO79" s="5">
-        <f t="shared" ref="BO79" si="53">AC79</f>
+        <f t="shared" ref="BO79" si="51">AC79</f>
         <v>2.0760000000000001</v>
       </c>
       <c r="BP79" s="29">
@@ -15760,67 +15787,67 @@
         <v>-152.13731982044357</v>
       </c>
       <c r="BQ79" s="5">
-        <f t="shared" ref="BQ79" si="54">AI79</f>
+        <f t="shared" ref="BQ79" si="52">AI79</f>
         <v>1.5</v>
       </c>
       <c r="BR79" s="5">
-        <f t="shared" ref="BR79" si="55">IF(AS79=0,0,(AD79*BU$33/2+AE79*BV$33+AF79*BW$33+AG79*BX$33*1.5+AH79*BY$33*1.5)/BQ79)</f>
+        <f>IF(AS79=0,0,(AD79*BU$33/2+AE79*BV$33+AF79*BW$33+AG79*BX$33*1.5+AH79*BY$33*1.5)/BQ79)</f>
         <v>-229.05168514308147</v>
       </c>
       <c r="BS79" s="5">
-        <f t="shared" ref="BS79" si="56">AM79</f>
+        <f t="shared" ref="BS79" si="53">AM79</f>
         <v>4</v>
       </c>
       <c r="BT79" s="5">
-        <f t="shared" ref="BT79" si="57">(AJ79*CA$29*2+AK79*CB$29*1.5+AL79*CC$29*1.5)/BS79</f>
+        <f t="shared" ref="BT79" si="54">(AJ79*CA$29*2+AK79*CB$29*1.5+AL79*CC$29*1.5)/BS79</f>
         <v>-285.32948153870637</v>
       </c>
       <c r="BU79" s="5">
-        <f t="shared" ref="BU79" si="58">AQ79</f>
+        <f t="shared" ref="BU79" si="55">AQ79</f>
         <v>3.3165</v>
       </c>
       <c r="BV79" s="5">
-        <f t="shared" ref="BV79" si="59">(AN79*CA$29*2+AO79*CB$29*1.5+AP79*CC$29*1.5)/BU79</f>
+        <f t="shared" ref="BV79" si="56">(AN79*CA$29*2+AO79*CB$29*1.5+AP79*CC$29*1.5)/BU79</f>
         <v>-269.94433874625054</v>
       </c>
       <c r="BW79" s="5">
-        <f t="shared" ref="BW79" si="60">AR79</f>
+        <f t="shared" ref="BW79" si="57">AR79</f>
         <v>1</v>
       </c>
       <c r="BX79" s="5">
-        <f t="shared" ref="BX79" si="61">B$24</f>
+        <f t="shared" ref="BX79" si="58">B$24</f>
         <v>-249.57662413235681</v>
       </c>
       <c r="BY79" s="5">
-        <f t="shared" ref="BY79" si="62">AS79</f>
+        <f t="shared" ref="BY79" si="59">AS79</f>
         <v>3</v>
       </c>
       <c r="BZ79" s="5">
-        <f t="shared" ref="BZ79" si="63">B$25</f>
+        <f t="shared" ref="BZ79" si="60">B$25</f>
         <v>-311.97648306982126</v>
       </c>
       <c r="CA79" s="5">
-        <f t="shared" ref="CA79" si="64">AT79</f>
+        <f t="shared" ref="CA79" si="61">AT79</f>
         <v>0</v>
       </c>
       <c r="CB79" s="5">
-        <f t="shared" ref="CB79" si="65">B$26</f>
+        <f t="shared" ref="CB79" si="62">B$26</f>
         <v>-287.19938243327937</v>
       </c>
       <c r="CC79" s="10">
-        <f t="shared" ref="CC79" si="66">B79/2*C79/2*ABS(BU$29-BV$29)+B79/2*D79/2*ABS(BU$29-BW$29)+B79/2*E79*ABS(BU$29-BY$29)+B79/2*F79*ABS(BU$29-BX$29)+C79/2*D79/2*ABS(BV$29-BW$29)+C79/2*E79*ABS(BV$29-BY$29)+C79/2*F79*ABS(BV$29-BX$29)+D79/2*F79*ABS(BW$29-BY$29)+D79/2*E79*ABS(BW$29-BX$29)+E79*F79*ABS(BX$29-BY$29)</f>
+        <f t="shared" ref="CC79" si="63">B79/2*C79/2*ABS(BU$29-BV$29)+B79/2*D79/2*ABS(BU$29-BW$29)+B79/2*E79*ABS(BU$29-BY$29)+B79/2*F79*ABS(BU$29-BX$29)+C79/2*D79/2*ABS(BV$29-BW$29)+C79/2*E79*ABS(BV$29-BY$29)+C79/2*F79*ABS(BV$29-BX$29)+D79/2*F79*ABS(BW$29-BY$29)+D79/2*E79*ABS(BW$29-BX$29)+E79*F79*ABS(BX$29-BY$29)</f>
         <v>0</v>
       </c>
       <c r="CD79" s="10">
-        <f t="shared" ref="CD79" si="67">I79*J79*ABS(BV$31-BW$31)+I79*K79*1.5*ABS(BV$31-BX$31)+I79*L79*1.5*ABS(BV$31-BY$31)+I79*M79/2*ABS(BV$31-BU$31)+J79*K79*1.5*ABS(BW$31-BX$31)+J79*L79*1.5*ABS(BW$31-BY$31)+J79*M79/2*ABS(BW$31-BU$31)+K79*1.5*L79*1.5*ABS(BX$31-BY$31)+K79*1.5*M79/2*ABS(BX$31-BU$31)+L79*1.5*M79/2*ABS(BY$31-BU$31)</f>
+        <f t="shared" ref="CD79" si="64">I79*J79*ABS(BV$31-BW$31)+I79*K79*1.5*ABS(BV$31-BX$31)+I79*L79*1.5*ABS(BV$31-BY$31)+I79*M79/2*ABS(BV$31-BU$31)+J79*K79*1.5*ABS(BW$31-BX$31)+J79*L79*1.5*ABS(BW$31-BY$31)+J79*M79/2*ABS(BW$31-BU$31)+K79*1.5*L79*1.5*ABS(BX$31-BY$31)+K79*1.5*M79/2*ABS(BX$31-BU$31)+L79*1.5*M79/2*ABS(BY$31-BU$31)</f>
         <v>58.553885669145771</v>
       </c>
       <c r="CE79" s="10">
-        <f t="shared" ref="CE79" si="68">X79*Y79*ABS(BV$33-BW$33)+X79*Z79*1.5*ABS(BV$33-BX$33)+X79*AA79*1.5*ABS(BV$33-BY$33)+X79*W79/2*ABS(BV$33-BU$33)+Y79*Z79*1.5*ABS(BW$33-BX$33)+Y79*AA79*1.5*ABS(BW$33-BY$33)+Y79*W79/2*ABS(BW$33-BU$33)+Z79*1.5*AA79*1.5*ABS(BX$33-BY$33)+Z79*1.5*W79/2*ABS(BX$33-BU$33)+AA79*1.5*W79/2*ABS(BY$33-BU$33)</f>
+        <f t="shared" ref="CE79" si="65">X79*Y79*ABS(BV$33-BW$33)+X79*Z79*1.5*ABS(BV$33-BX$33)+X79*AA79*1.5*ABS(BV$33-BY$33)+X79*W79/2*ABS(BV$33-BU$33)+Y79*Z79*1.5*ABS(BW$33-BX$33)+Y79*AA79*1.5*ABS(BW$33-BY$33)+Y79*W79/2*ABS(BW$33-BU$33)+Z79*1.5*AA79*1.5*ABS(BX$33-BY$33)+Z79*1.5*W79/2*ABS(BX$33-BU$33)+AA79*1.5*W79/2*ABS(BY$33-BU$33)</f>
         <v>154.10164437123782</v>
       </c>
       <c r="CF79" s="33">
-        <f t="shared" ref="CF79" si="69">-((BI79*BS79*(BJ79-BT79)+BI79*BU79*(BJ79-BV79)+BK79*BS79*ABS(BL79-BT79)+BK79*BU79*ABS(BL79-BV79)+BM79*BS79*ABS(BN79-BT79)+BM79*BU79*ABS(BN79-BV79)+BK79*BW79*ABS(BL79-BX79)+BM79*BW79*ABS(BN79-BX79)+BK79*BM79*ABS(BL79-BN79)+BS79*BU79*ABS(BT79-BV79))+(BO79*BY79*(BP79-BZ79)+BQ79*BY79*(BR79-BZ79)+BO79*BQ79*ABS(BP79-BR79)+BY79*BS79*(BT79-BZ79)+BY79*BU79*(BV79-BZ79))+(BK79*CA79*ABS(BL79-CB79)+BM79*CA79*ABS(BN79-CB79)+BS79*CA79*ABS(BT79-CB79)+BU79*CA79*ABS(BV79-CB79)))/AU79</f>
+        <f>-((BI79*BS79*(BJ79-BT79)+BI79*BU79*(BJ79-BV79)+BK79*BS79*ABS(BL79-BT79)+BK79*BU79*ABS(BL79-BV79)+BM79*BS79*ABS(BN79-BT79)+BM79*BU79*ABS(BN79-BV79)+BK79*BW79*ABS(BL79-BX79)+BM79*BW79*ABS(BN79-BX79)+BK79*BM79*ABS(BL79-BN79)+BS79*BU79*ABS(BT79-BV79))+(BO79*BY79*(BP79-BZ79)+BQ79*BY79*(BR79-BZ79)+BO79*BQ79*ABS(BP79-BR79)+BY79*BS79*(BT79-BZ79)+BY79*BU79*(BV79-BZ79))+(BK79*CA79*ABS(BL79-CB79)+BM79*CA79*ABS(BN79-CB79)+BS79*CA79*ABS(BT79-CB79)+BU79*CA79*ABS(BV79-CB79)))/AU79</f>
         <v>-224.29233518579622</v>
       </c>
       <c r="CG79" s="5"/>
@@ -15975,7 +16002,7 @@
       <c r="IE79" s="1"/>
       <c r="IF79" s="1"/>
     </row>
-    <row r="80" spans="1:240" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:240" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A80" s="1"/>
       <c r="B80" s="1"/>
       <c r="C80" s="1"/>
@@ -16209,7 +16236,7 @@
       <c r="IE80" s="1"/>
       <c r="IF80" s="1"/>
     </row>
-    <row r="81" spans="1:256" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:256" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A81" s="1"/>
       <c r="C81" s="5"/>
       <c r="D81" s="1"/>
@@ -16269,11 +16296,17 @@
       <c r="BI81" s="10"/>
       <c r="BJ81" s="10"/>
       <c r="BK81" s="10"/>
-      <c r="BL81" s="10"/>
+      <c r="BL81" s="10">
+        <f>(M79*BU$31/2+I79*BV$31+J79*BW$31+K79*BX$31*1.5+L79*BY$31*1.5)/BK79</f>
+        <v>-212.72648402738756</v>
+      </c>
       <c r="BM81" s="27"/>
       <c r="BN81" s="25"/>
       <c r="BO81" s="26"/>
-      <c r="BP81" s="25"/>
+      <c r="BP81" s="25">
+        <f>IF(AS79=0,0,('[2]M3 mix'!BH88*BU$33/2+X79*BV$33+Y79*BW$33+Z79*BX$33*1.5+AA79*BY$33*1.5)/BO79)</f>
+        <v>-148.27721925723134</v>
+      </c>
       <c r="BQ81" s="10"/>
       <c r="BR81" s="1"/>
       <c r="BS81" s="1"/>
@@ -16442,7 +16475,7 @@
       <c r="IE81" s="1"/>
       <c r="IF81" s="1"/>
     </row>
-    <row r="82" spans="1:256" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:256" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A82" s="1"/>
       <c r="C82" s="5"/>
       <c r="D82" s="1"/>
@@ -16506,7 +16539,10 @@
       <c r="BM82" s="27"/>
       <c r="BN82" s="25"/>
       <c r="BO82" s="26"/>
-      <c r="BP82" s="25"/>
+      <c r="BP82" s="25">
+        <f>BT$33*(X79*Y79*ABS(BV$33-BW$33)+X79*Z79*1.5*ABS(BV$33-BX$33)+X79*AA79*1.5*ABS(BV$33-BY$33)+X79*W79/2*ABS(BV$33-BU$33)+Y79*Z79*1.5*ABS(BW$33-BX$33)+Y79*AA79*1.5*ABS(BW$33-BY$33)+Y79*W79/2*ABS(BW$33-BU$33)+Z79*1.5*AA79*1.5*ABS(BX$33-BY$33)+Z79*1.5*W79/2*ABS(BX$33-BU$33)+AA79*1.5*W79/2*ABS(BY$33-BU$33))/(BO79^2)</f>
+        <v>-3.8601005632122378</v>
+      </c>
       <c r="BQ82" s="10"/>
       <c r="BR82" s="1"/>
       <c r="BS82" s="1"/>
@@ -16675,7 +16711,7 @@
       <c r="IE82" s="1"/>
       <c r="IF82" s="1"/>
     </row>
-    <row r="83" spans="1:256" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:256" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A83" s="1"/>
       <c r="C83" s="5"/>
       <c r="D83" s="1"/>
@@ -16908,7 +16944,7 @@
       <c r="IE83" s="1"/>
       <c r="IF83" s="1"/>
     </row>
-    <row r="84" spans="1:256" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:256" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A84" s="7"/>
       <c r="B84" s="5"/>
       <c r="C84" s="5"/>
@@ -17143,7 +17179,7 @@
       <c r="IE84" s="1"/>
       <c r="IF84" s="1"/>
     </row>
-    <row r="85" spans="1:256" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:256" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A85" s="7"/>
       <c r="B85" s="7"/>
       <c r="C85" s="6"/>
@@ -17394,7 +17430,7 @@
       <c r="IU85" s="1"/>
       <c r="IV85" s="1"/>
     </row>
-    <row r="86" spans="1:256" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:256" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A86" s="1"/>
       <c r="B86" s="1"/>
       <c r="C86" s="6"/>
@@ -17645,7 +17681,7 @@
       <c r="IU86" s="1"/>
       <c r="IV86" s="1"/>
     </row>
-    <row r="87" spans="1:256" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:256" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A87" s="1"/>
       <c r="B87" s="1"/>
       <c r="C87" s="6"/>
@@ -17896,7 +17932,7 @@
       <c r="IU87" s="1"/>
       <c r="IV87" s="1"/>
     </row>
-    <row r="88" spans="1:256" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:256" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A88" s="1"/>
       <c r="B88" s="1"/>
       <c r="C88" s="6"/>
@@ -18147,7 +18183,7 @@
       <c r="IU88" s="1"/>
       <c r="IV88" s="1"/>
     </row>
-    <row r="89" spans="1:256" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:256" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A89" s="1"/>
       <c r="B89" s="1"/>
       <c r="C89" s="6"/>
@@ -18398,7 +18434,7 @@
       <c r="IU89" s="1"/>
       <c r="IV89" s="1"/>
     </row>
-    <row r="90" spans="1:256" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:256" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A90" s="1"/>
       <c r="B90" s="1"/>
       <c r="C90" s="6"/>
@@ -18649,7 +18685,7 @@
       <c r="IU90" s="1"/>
       <c r="IV90" s="1"/>
     </row>
-    <row r="91" spans="1:256" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:256" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A91" s="1"/>
       <c r="B91" s="1"/>
       <c r="C91" s="6"/>
@@ -18898,7 +18934,7 @@
       <c r="IU91" s="1"/>
       <c r="IV91" s="1"/>
     </row>
-    <row r="92" spans="1:256" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:256" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A92" s="1"/>
       <c r="B92" s="1"/>
       <c r="C92" s="6"/>
@@ -19147,7 +19183,7 @@
       <c r="IU92" s="1"/>
       <c r="IV92" s="1"/>
     </row>
-    <row r="93" spans="1:256" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:256" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A93" s="1"/>
       <c r="B93" s="1"/>
       <c r="C93" s="6"/>
@@ -19396,7 +19432,7 @@
       <c r="IU93" s="1"/>
       <c r="IV93" s="1"/>
     </row>
-    <row r="94" spans="1:256" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:256" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A94" s="1"/>
       <c r="B94" s="1"/>
       <c r="C94" s="6"/>
@@ -19645,7 +19681,7 @@
       <c r="IU94" s="1"/>
       <c r="IV94" s="1"/>
     </row>
-    <row r="95" spans="1:256" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:256" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A95" s="7"/>
       <c r="B95" s="7"/>
       <c r="C95" s="6"/>
@@ -19896,7 +19932,7 @@
       <c r="IU95" s="1"/>
       <c r="IV95" s="1"/>
     </row>
-    <row r="96" spans="1:256" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:256" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A96" s="7"/>
       <c r="B96" s="7"/>
       <c r="C96" s="6"/>
@@ -20147,7 +20183,7 @@
       <c r="IU96" s="1"/>
       <c r="IV96" s="1"/>
     </row>
-    <row r="97" spans="1:256" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:256" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A97" s="12"/>
       <c r="B97" s="12"/>
       <c r="C97" s="6"/>
@@ -20397,7 +20433,7 @@
       <c r="IU97" s="1"/>
       <c r="IV97" s="1"/>
     </row>
-    <row r="98" spans="1:256" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:256" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A98" s="7"/>
       <c r="B98" s="7"/>
       <c r="C98" s="6"/>
@@ -20647,7 +20683,7 @@
       <c r="IU98" s="1"/>
       <c r="IV98" s="1"/>
     </row>
-    <row r="99" spans="1:256" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:256" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A99" s="7"/>
       <c r="B99" s="7"/>
       <c r="C99" s="6"/>
@@ -20897,7 +20933,7 @@
       <c r="IU99" s="1"/>
       <c r="IV99" s="1"/>
     </row>
-    <row r="100" spans="1:256" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:256" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A100" s="7"/>
       <c r="B100" s="7"/>
       <c r="C100" s="6"/>
@@ -21147,7 +21183,7 @@
       <c r="IU100" s="1"/>
       <c r="IV100" s="1"/>
     </row>
-    <row r="101" spans="1:256" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:256" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A101" s="7"/>
       <c r="B101" s="7"/>
       <c r="C101" s="6"/>
@@ -21397,7 +21433,7 @@
       <c r="IU101" s="1"/>
       <c r="IV101" s="1"/>
     </row>
-    <row r="102" spans="1:256" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:256" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A102" s="7"/>
       <c r="B102" s="7"/>
       <c r="C102" s="6"/>
@@ -21647,7 +21683,7 @@
       <c r="IU102" s="1"/>
       <c r="IV102" s="1"/>
     </row>
-    <row r="103" spans="1:256" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:256" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A103" s="7"/>
       <c r="B103" s="7"/>
       <c r="C103" s="6"/>
@@ -21897,7 +21933,7 @@
       <c r="IU103" s="1"/>
       <c r="IV103" s="1"/>
     </row>
-    <row r="104" spans="1:256" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:256" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A104" s="7"/>
       <c r="B104" s="7"/>
       <c r="C104" s="6"/>
@@ -22148,7 +22184,7 @@
       <c r="IU104" s="1"/>
       <c r="IV104" s="1"/>
     </row>
-    <row r="105" spans="1:256" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:256" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A105" s="1"/>
       <c r="B105" s="1"/>
       <c r="C105" s="6"/>
@@ -22399,7 +22435,7 @@
       <c r="IU105" s="1"/>
       <c r="IV105" s="1"/>
     </row>
-    <row r="106" spans="1:256" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:256" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A106" s="1"/>
       <c r="B106" s="1"/>
       <c r="C106" s="6"/>
@@ -22650,7 +22686,7 @@
       <c r="IU106" s="1"/>
       <c r="IV106" s="1"/>
     </row>
-    <row r="107" spans="1:256" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:256" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A107" s="1"/>
       <c r="B107" s="1"/>
       <c r="C107" s="6"/>
@@ -22901,7 +22937,7 @@
       <c r="IU107" s="1"/>
       <c r="IV107" s="1"/>
     </row>
-    <row r="108" spans="1:256" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:256" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A108" s="1"/>
       <c r="B108" s="1"/>
       <c r="C108" s="6"/>
@@ -23152,7 +23188,7 @@
       <c r="IU108" s="1"/>
       <c r="IV108" s="1"/>
     </row>
-    <row r="109" spans="1:256" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:256" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A109" s="1"/>
       <c r="B109" s="1"/>
       <c r="C109" s="6"/>
@@ -23403,7 +23439,7 @@
       <c r="IU109" s="1"/>
       <c r="IV109" s="1"/>
     </row>
-    <row r="110" spans="1:256" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:256" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A110" s="1"/>
       <c r="B110" s="1"/>
       <c r="C110" s="6"/>
@@ -23654,7 +23690,7 @@
       <c r="IU110" s="1"/>
       <c r="IV110" s="1"/>
     </row>
-    <row r="111" spans="1:256" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:256" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A111" s="1"/>
       <c r="B111" s="1"/>
       <c r="C111" s="6"/>
@@ -23905,7 +23941,7 @@
       <c r="IU111" s="1"/>
       <c r="IV111" s="1"/>
     </row>
-    <row r="112" spans="1:256" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:256" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A112" s="1"/>
       <c r="B112" s="1"/>
       <c r="C112" s="6"/>
@@ -24156,7 +24192,7 @@
       <c r="IU112" s="1"/>
       <c r="IV112" s="1"/>
     </row>
-    <row r="113" spans="1:256" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:256" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A113" s="1"/>
       <c r="B113" s="1"/>
       <c r="C113" s="6"/>
@@ -24407,7 +24443,7 @@
       <c r="IU113" s="1"/>
       <c r="IV113" s="1"/>
     </row>
-    <row r="114" spans="1:256" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:256" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A114" s="1"/>
       <c r="B114" s="1"/>
       <c r="C114" s="6"/>
@@ -24658,7 +24694,7 @@
       <c r="IU114" s="1"/>
       <c r="IV114" s="1"/>
     </row>
-    <row r="115" spans="1:256" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:256" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A115" s="1"/>
       <c r="B115" s="1"/>
       <c r="C115" s="6"/>
@@ -24909,7 +24945,7 @@
       <c r="IU115" s="1"/>
       <c r="IV115" s="1"/>
     </row>
-    <row r="116" spans="1:256" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:256" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A116" s="1"/>
       <c r="B116" s="1"/>
       <c r="C116" s="6"/>
@@ -25160,7 +25196,7 @@
       <c r="IU116" s="1"/>
       <c r="IV116" s="1"/>
     </row>
-    <row r="117" spans="1:256" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:256" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A117" s="1"/>
       <c r="B117" s="1"/>
       <c r="C117" s="6"/>
@@ -25411,7 +25447,7 @@
       <c r="IU117" s="1"/>
       <c r="IV117" s="1"/>
     </row>
-    <row r="118" spans="1:256" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:256" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A118" s="1"/>
       <c r="B118" s="1"/>
       <c r="C118" s="6"/>
@@ -25662,7 +25698,7 @@
       <c r="IU118" s="1"/>
       <c r="IV118" s="1"/>
     </row>
-    <row r="119" spans="1:256" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:256" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A119" s="1"/>
       <c r="B119" s="1"/>
       <c r="C119" s="6"/>
@@ -25913,7 +25949,7 @@
       <c r="IU119" s="1"/>
       <c r="IV119" s="1"/>
     </row>
-    <row r="120" spans="1:256" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:256" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A120" s="1"/>
       <c r="B120" s="1"/>
       <c r="C120" s="6"/>
@@ -26164,7 +26200,7 @@
       <c r="IU120" s="1"/>
       <c r="IV120" s="1"/>
     </row>
-    <row r="121" spans="1:256" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:256" x14ac:dyDescent="0.2">
       <c r="C121" s="6"/>
       <c r="D121" s="6"/>
       <c r="E121" s="5"/>
@@ -26271,7 +26307,7 @@
       <c r="DG121" s="5"/>
       <c r="EW121" s="24"/>
     </row>
-    <row r="122" spans="1:256" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:256" x14ac:dyDescent="0.2">
       <c r="C122" s="6"/>
       <c r="D122" s="6"/>
       <c r="E122" s="5"/>
@@ -26378,7 +26414,7 @@
       <c r="DG122" s="5"/>
       <c r="EW122" s="24"/>
     </row>
-    <row r="123" spans="1:256" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:256" x14ac:dyDescent="0.2">
       <c r="C123" s="6"/>
       <c r="D123" s="6"/>
       <c r="E123" s="5"/>
@@ -26485,7 +26521,7 @@
       <c r="DG123" s="5"/>
       <c r="EW123" s="24"/>
     </row>
-    <row r="124" spans="1:256" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:256" x14ac:dyDescent="0.2">
       <c r="C124" s="6"/>
       <c r="D124" s="6"/>
       <c r="E124" s="5"/>
@@ -26592,7 +26628,7 @@
       <c r="DG124" s="5"/>
       <c r="EW124" s="24"/>
     </row>
-    <row r="125" spans="1:256" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:256" x14ac:dyDescent="0.2">
       <c r="C125" s="6"/>
       <c r="D125" s="6"/>
       <c r="E125" s="5"/>
@@ -26699,7 +26735,7 @@
       <c r="DG125" s="5"/>
       <c r="EW125" s="24"/>
     </row>
-    <row r="126" spans="1:256" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:256" x14ac:dyDescent="0.2">
       <c r="C126" s="6"/>
       <c r="D126" s="6"/>
       <c r="E126" s="5"/>
@@ -26806,7 +26842,7 @@
       <c r="DG126" s="5"/>
       <c r="EW126" s="24"/>
     </row>
-    <row r="127" spans="1:256" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:256" x14ac:dyDescent="0.2">
       <c r="CY127" s="5"/>
       <c r="CZ127" s="5"/>
       <c r="DA127" s="6"/>
@@ -26816,7 +26852,7 @@
       <c r="DG127" s="5"/>
       <c r="EW127" s="24"/>
     </row>
-    <row r="128" spans="1:256" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:256" x14ac:dyDescent="0.2">
       <c r="CZ128" s="5"/>
       <c r="DA128" s="6"/>
       <c r="DC128" s="5"/>
@@ -26825,7 +26861,7 @@
       <c r="DG128" s="5"/>
       <c r="EW128" s="24"/>
     </row>
-    <row r="129" spans="104:176" x14ac:dyDescent="0.25">
+    <row r="129" spans="104:176" x14ac:dyDescent="0.2">
       <c r="CZ129" s="5"/>
       <c r="DA129" s="6"/>
       <c r="DC129" s="5"/>
@@ -26848,7 +26884,7 @@
       <c r="FS129" s="2"/>
       <c r="FT129" s="2"/>
     </row>
-    <row r="130" spans="104:176" x14ac:dyDescent="0.25">
+    <row r="130" spans="104:176" x14ac:dyDescent="0.2">
       <c r="CZ130" s="5"/>
       <c r="DA130" s="6"/>
       <c r="DC130" s="5"/>
@@ -26880,7 +26916,7 @@
       <c r="FS130" s="2"/>
       <c r="FT130" s="2"/>
     </row>
-    <row r="131" spans="104:176" x14ac:dyDescent="0.25">
+    <row r="131" spans="104:176" x14ac:dyDescent="0.2">
       <c r="CZ131" s="5"/>
       <c r="DA131" s="6"/>
       <c r="DC131" s="5"/>
@@ -26910,7 +26946,7 @@
       <c r="FS131" s="18"/>
       <c r="FT131" s="18"/>
     </row>
-    <row r="132" spans="104:176" x14ac:dyDescent="0.25">
+    <row r="132" spans="104:176" x14ac:dyDescent="0.2">
       <c r="DH132" s="2"/>
       <c r="DI132" s="13"/>
       <c r="DK132" s="5"/>
@@ -26952,7 +26988,7 @@
       <c r="FF132" s="5"/>
       <c r="FG132" s="5"/>
     </row>
-    <row r="133" spans="104:176" x14ac:dyDescent="0.25">
+    <row r="133" spans="104:176" x14ac:dyDescent="0.2">
       <c r="DH133" s="2"/>
       <c r="DI133" s="13"/>
       <c r="DK133" s="5"/>
@@ -26994,7 +27030,7 @@
       <c r="FF133" s="5"/>
       <c r="FG133" s="5"/>
     </row>
-    <row r="134" spans="104:176" x14ac:dyDescent="0.25">
+    <row r="134" spans="104:176" x14ac:dyDescent="0.2">
       <c r="DH134" s="5"/>
       <c r="DI134" s="13"/>
       <c r="DK134" s="5"/>
@@ -27033,7 +27069,7 @@
       <c r="FF134" s="2"/>
       <c r="FG134" s="2"/>
     </row>
-    <row r="135" spans="104:176" x14ac:dyDescent="0.25">
+    <row r="135" spans="104:176" x14ac:dyDescent="0.2">
       <c r="DH135" s="5"/>
       <c r="DI135" s="13"/>
       <c r="DK135" s="5"/>
@@ -27072,7 +27108,7 @@
       <c r="FF135" s="2"/>
       <c r="FG135" s="2"/>
     </row>
-    <row r="136" spans="104:176" x14ac:dyDescent="0.25">
+    <row r="136" spans="104:176" x14ac:dyDescent="0.2">
       <c r="DH136" s="5"/>
       <c r="DI136" s="13"/>
       <c r="DK136" s="5"/>
@@ -27111,7 +27147,7 @@
       <c r="FF136" s="2"/>
       <c r="FG136" s="2"/>
     </row>
-    <row r="137" spans="104:176" x14ac:dyDescent="0.25">
+    <row r="137" spans="104:176" x14ac:dyDescent="0.2">
       <c r="DH137" s="5"/>
       <c r="DI137" s="13"/>
       <c r="DK137" s="5"/>
@@ -27151,7 +27187,7 @@
       <c r="FF137" s="5"/>
       <c r="FG137" s="5"/>
     </row>
-    <row r="138" spans="104:176" x14ac:dyDescent="0.25">
+    <row r="138" spans="104:176" x14ac:dyDescent="0.2">
       <c r="DH138" s="5"/>
       <c r="DI138" s="13"/>
       <c r="DK138" s="5"/>
@@ -27184,7 +27220,7 @@
       <c r="EZ138" s="2"/>
       <c r="FA138" s="2"/>
     </row>
-    <row r="139" spans="104:176" x14ac:dyDescent="0.25">
+    <row r="139" spans="104:176" x14ac:dyDescent="0.2">
       <c r="DH139" s="5"/>
       <c r="DI139" s="13"/>
       <c r="DK139" s="5"/>
@@ -27217,7 +27253,7 @@
       <c r="EZ139" s="2"/>
       <c r="FA139" s="2"/>
     </row>
-    <row r="140" spans="104:176" x14ac:dyDescent="0.25">
+    <row r="140" spans="104:176" x14ac:dyDescent="0.2">
       <c r="DH140" s="5"/>
       <c r="DI140" s="13"/>
       <c r="DK140" s="5"/>
@@ -27250,7 +27286,7 @@
       <c r="EZ140" s="2"/>
       <c r="FA140" s="2"/>
     </row>
-    <row r="141" spans="104:176" x14ac:dyDescent="0.25">
+    <row r="141" spans="104:176" x14ac:dyDescent="0.2">
       <c r="DH141" s="5"/>
       <c r="DI141" s="13"/>
       <c r="DK141" s="5"/>
@@ -27283,7 +27319,7 @@
       <c r="EZ141" s="2"/>
       <c r="FA141" s="2"/>
     </row>
-    <row r="142" spans="104:176" x14ac:dyDescent="0.25">
+    <row r="142" spans="104:176" x14ac:dyDescent="0.2">
       <c r="DH142" s="5"/>
       <c r="DI142" s="13"/>
       <c r="DK142" s="5"/>
@@ -27316,7 +27352,7 @@
       <c r="EZ142" s="2"/>
       <c r="FA142" s="2"/>
     </row>
-    <row r="143" spans="104:176" x14ac:dyDescent="0.25">
+    <row r="143" spans="104:176" x14ac:dyDescent="0.2">
       <c r="DH143" s="5"/>
       <c r="DI143" s="13"/>
       <c r="DK143" s="5"/>
@@ -27351,7 +27387,7 @@
       <c r="EZ143" s="2"/>
       <c r="FA143" s="2"/>
     </row>
-    <row r="144" spans="104:176" x14ac:dyDescent="0.25">
+    <row r="144" spans="104:176" x14ac:dyDescent="0.2">
       <c r="DH144" s="5"/>
       <c r="DI144" s="13"/>
       <c r="DK144" s="5"/>
@@ -27386,7 +27422,7 @@
       <c r="EZ144" s="2"/>
       <c r="FA144" s="2"/>
     </row>
-    <row r="145" spans="112:163" x14ac:dyDescent="0.25">
+    <row r="145" spans="112:163" x14ac:dyDescent="0.2">
       <c r="DH145" s="5"/>
       <c r="DI145" s="13"/>
       <c r="DK145" s="5"/>
@@ -27421,7 +27457,7 @@
       <c r="EZ145" s="2"/>
       <c r="FA145" s="2"/>
     </row>
-    <row r="146" spans="112:163" x14ac:dyDescent="0.25">
+    <row r="146" spans="112:163" x14ac:dyDescent="0.2">
       <c r="DH146" s="5"/>
       <c r="DI146" s="13"/>
       <c r="DK146" s="5"/>
@@ -27456,7 +27492,7 @@
       <c r="EZ146" s="2"/>
       <c r="FA146" s="2"/>
     </row>
-    <row r="147" spans="112:163" x14ac:dyDescent="0.25">
+    <row r="147" spans="112:163" x14ac:dyDescent="0.2">
       <c r="DH147" s="5"/>
       <c r="DI147" s="13"/>
       <c r="DK147" s="5"/>
@@ -27491,7 +27527,7 @@
       <c r="EZ147" s="2"/>
       <c r="FA147" s="2"/>
     </row>
-    <row r="148" spans="112:163" x14ac:dyDescent="0.25">
+    <row r="148" spans="112:163" x14ac:dyDescent="0.2">
       <c r="DH148" s="5"/>
       <c r="DI148" s="13"/>
       <c r="DK148" s="5"/>
@@ -27526,7 +27562,7 @@
       <c r="EZ148" s="2"/>
       <c r="FA148" s="2"/>
     </row>
-    <row r="149" spans="112:163" x14ac:dyDescent="0.25">
+    <row r="149" spans="112:163" x14ac:dyDescent="0.2">
       <c r="DH149" s="5"/>
       <c r="DI149" s="13"/>
       <c r="DK149" s="5"/>
@@ -27568,7 +27604,7 @@
       <c r="FF149" s="5"/>
       <c r="FG149" s="5"/>
     </row>
-    <row r="150" spans="112:163" x14ac:dyDescent="0.25">
+    <row r="150" spans="112:163" x14ac:dyDescent="0.2">
       <c r="DH150" s="5"/>
       <c r="DI150" s="13"/>
       <c r="DK150" s="5"/>
@@ -27610,7 +27646,7 @@
       <c r="FF150" s="5"/>
       <c r="FG150" s="5"/>
     </row>
-    <row r="151" spans="112:163" x14ac:dyDescent="0.25">
+    <row r="151" spans="112:163" x14ac:dyDescent="0.2">
       <c r="DH151" s="5"/>
       <c r="DI151" s="13"/>
       <c r="DK151" s="5"/>
@@ -27652,7 +27688,7 @@
       <c r="FF151" s="5"/>
       <c r="FG151" s="5"/>
     </row>
-    <row r="152" spans="112:163" x14ac:dyDescent="0.25">
+    <row r="152" spans="112:163" x14ac:dyDescent="0.2">
       <c r="DH152" s="5"/>
       <c r="DI152" s="13"/>
       <c r="DK152" s="5"/>
@@ -27693,7 +27729,7 @@
       <c r="FF152" s="2"/>
       <c r="FG152" s="2"/>
     </row>
-    <row r="153" spans="112:163" x14ac:dyDescent="0.25">
+    <row r="153" spans="112:163" x14ac:dyDescent="0.2">
       <c r="DH153" s="5"/>
       <c r="DI153" s="13"/>
       <c r="DK153" s="5"/>
@@ -27734,7 +27770,7 @@
       <c r="FF153" s="2"/>
       <c r="FG153" s="2"/>
     </row>
-    <row r="154" spans="112:163" x14ac:dyDescent="0.25">
+    <row r="154" spans="112:163" x14ac:dyDescent="0.2">
       <c r="DH154" s="5"/>
       <c r="DI154" s="13"/>
       <c r="DK154" s="5"/>
@@ -27776,7 +27812,7 @@
       <c r="FF154" s="5"/>
       <c r="FG154" s="5"/>
     </row>
-    <row r="155" spans="112:163" x14ac:dyDescent="0.25">
+    <row r="155" spans="112:163" x14ac:dyDescent="0.2">
       <c r="DH155" s="5"/>
       <c r="DI155" s="13"/>
       <c r="DK155" s="5"/>
@@ -27817,7 +27853,7 @@
       <c r="FF155" s="5"/>
       <c r="FG155" s="5"/>
     </row>
-    <row r="156" spans="112:163" x14ac:dyDescent="0.25">
+    <row r="156" spans="112:163" x14ac:dyDescent="0.2">
       <c r="DH156" s="5"/>
       <c r="DI156" s="13"/>
       <c r="DK156" s="5"/>
@@ -27858,7 +27894,7 @@
       <c r="FF156" s="5"/>
       <c r="FG156" s="5"/>
     </row>
-    <row r="157" spans="112:163" x14ac:dyDescent="0.25">
+    <row r="157" spans="112:163" x14ac:dyDescent="0.2">
       <c r="DH157" s="5"/>
       <c r="DI157" s="13"/>
       <c r="DK157" s="5"/>
@@ -27899,7 +27935,7 @@
       <c r="FF157" s="5"/>
       <c r="FG157" s="5"/>
     </row>
-    <row r="158" spans="112:163" x14ac:dyDescent="0.25">
+    <row r="158" spans="112:163" x14ac:dyDescent="0.2">
       <c r="DH158" s="5"/>
       <c r="DI158" s="13"/>
       <c r="DK158" s="5"/>
@@ -27940,7 +27976,7 @@
       <c r="FF158" s="5"/>
       <c r="FG158" s="5"/>
     </row>
-    <row r="159" spans="112:163" x14ac:dyDescent="0.25">
+    <row r="159" spans="112:163" x14ac:dyDescent="0.2">
       <c r="DH159" s="5"/>
       <c r="DI159" s="13"/>
       <c r="DK159" s="5"/>
@@ -27982,7 +28018,7 @@
       <c r="FF159" s="5"/>
       <c r="FG159" s="5"/>
     </row>
-    <row r="160" spans="112:163" x14ac:dyDescent="0.25">
+    <row r="160" spans="112:163" x14ac:dyDescent="0.2">
       <c r="DH160" s="5"/>
       <c r="DI160" s="13"/>
       <c r="DK160" s="5"/>
@@ -28024,7 +28060,7 @@
       <c r="FF160" s="5"/>
       <c r="FG160" s="5"/>
     </row>
-    <row r="161" spans="112:164" x14ac:dyDescent="0.25">
+    <row r="161" spans="112:164" x14ac:dyDescent="0.2">
       <c r="DH161" s="5"/>
       <c r="DI161" s="13"/>
       <c r="DK161" s="5"/>
@@ -28067,7 +28103,7 @@
       <c r="FG161" s="2"/>
       <c r="FH161" s="5"/>
     </row>
-    <row r="162" spans="112:164" x14ac:dyDescent="0.25">
+    <row r="162" spans="112:164" x14ac:dyDescent="0.2">
       <c r="DH162" s="5"/>
       <c r="DI162" s="13"/>
       <c r="DK162" s="5"/>
@@ -28109,7 +28145,7 @@
       <c r="FF162" s="5"/>
       <c r="FG162" s="5"/>
     </row>
-    <row r="163" spans="112:164" x14ac:dyDescent="0.25">
+    <row r="163" spans="112:164" x14ac:dyDescent="0.2">
       <c r="DH163" s="5"/>
       <c r="DI163" s="13"/>
       <c r="DK163" s="5"/>
@@ -28152,7 +28188,7 @@
       <c r="FG163" s="2"/>
       <c r="FH163" s="5"/>
     </row>
-    <row r="164" spans="112:164" x14ac:dyDescent="0.25">
+    <row r="164" spans="112:164" x14ac:dyDescent="0.2">
       <c r="DH164" s="5"/>
       <c r="DI164" s="13"/>
       <c r="DK164" s="5"/>
@@ -28193,7 +28229,7 @@
       <c r="FF164" s="5"/>
       <c r="FG164" s="5"/>
     </row>
-    <row r="165" spans="112:164" x14ac:dyDescent="0.25">
+    <row r="165" spans="112:164" x14ac:dyDescent="0.2">
       <c r="DH165" s="5"/>
       <c r="DI165" s="13"/>
       <c r="DK165" s="5"/>
@@ -28233,7 +28269,7 @@
       <c r="FF165" s="5"/>
       <c r="FG165" s="5"/>
     </row>
-    <row r="166" spans="112:164" x14ac:dyDescent="0.25">
+    <row r="166" spans="112:164" x14ac:dyDescent="0.2">
       <c r="DH166" s="5"/>
       <c r="DI166" s="13"/>
       <c r="DK166" s="5"/>
@@ -28273,7 +28309,7 @@
       <c r="FF166" s="5"/>
       <c r="FG166" s="5"/>
     </row>
-    <row r="167" spans="112:164" x14ac:dyDescent="0.25">
+    <row r="167" spans="112:164" x14ac:dyDescent="0.2">
       <c r="DH167" s="5"/>
       <c r="DI167" s="13"/>
       <c r="DK167" s="5"/>
@@ -28313,7 +28349,7 @@
       <c r="FF167" s="5"/>
       <c r="FG167" s="5"/>
     </row>
-    <row r="168" spans="112:164" x14ac:dyDescent="0.25">
+    <row r="168" spans="112:164" x14ac:dyDescent="0.2">
       <c r="DH168" s="5"/>
       <c r="DI168" s="13"/>
       <c r="DK168" s="5"/>
@@ -28353,7 +28389,7 @@
       <c r="FF168" s="5"/>
       <c r="FG168" s="5"/>
     </row>
-    <row r="169" spans="112:164" x14ac:dyDescent="0.25">
+    <row r="169" spans="112:164" x14ac:dyDescent="0.2">
       <c r="DH169" s="5"/>
       <c r="DI169" s="13"/>
       <c r="DK169" s="5"/>
@@ -28393,7 +28429,7 @@
       <c r="FF169" s="2"/>
       <c r="FG169" s="2"/>
     </row>
-    <row r="170" spans="112:164" x14ac:dyDescent="0.25">
+    <row r="170" spans="112:164" x14ac:dyDescent="0.2">
       <c r="DH170" s="5"/>
       <c r="DI170" s="13"/>
       <c r="DK170" s="5"/>
@@ -28434,7 +28470,7 @@
       <c r="FF170" s="5"/>
       <c r="FG170" s="5"/>
     </row>
-    <row r="171" spans="112:164" x14ac:dyDescent="0.25">
+    <row r="171" spans="112:164" x14ac:dyDescent="0.2">
       <c r="DH171" s="5"/>
       <c r="DI171" s="13"/>
       <c r="DK171" s="5"/>
@@ -28474,7 +28510,7 @@
       <c r="FF171" s="2"/>
       <c r="FG171" s="5"/>
     </row>
-    <row r="172" spans="112:164" x14ac:dyDescent="0.25">
+    <row r="172" spans="112:164" x14ac:dyDescent="0.2">
       <c r="DH172" s="5"/>
       <c r="DI172" s="13"/>
       <c r="DK172" s="5"/>
@@ -28514,7 +28550,7 @@
       <c r="FF172" s="2"/>
       <c r="FG172" s="2"/>
     </row>
-    <row r="173" spans="112:164" x14ac:dyDescent="0.25">
+    <row r="173" spans="112:164" x14ac:dyDescent="0.2">
       <c r="DH173" s="5"/>
       <c r="DI173" s="13"/>
       <c r="DK173" s="5"/>
@@ -28554,7 +28590,7 @@
       <c r="FF173" s="2"/>
       <c r="FG173" s="2"/>
     </row>
-    <row r="174" spans="112:164" x14ac:dyDescent="0.25">
+    <row r="174" spans="112:164" x14ac:dyDescent="0.2">
       <c r="DH174" s="5"/>
       <c r="DI174" s="13"/>
       <c r="DK174" s="5"/>
@@ -28595,7 +28631,7 @@
       <c r="FF174" s="2"/>
       <c r="FG174" s="2"/>
     </row>
-    <row r="175" spans="112:164" x14ac:dyDescent="0.25">
+    <row r="175" spans="112:164" x14ac:dyDescent="0.2">
       <c r="DH175" s="5"/>
       <c r="DI175" s="13"/>
       <c r="DK175" s="5"/>
@@ -28635,7 +28671,7 @@
       <c r="FF175" s="2"/>
       <c r="FG175" s="2"/>
     </row>
-    <row r="176" spans="112:164" x14ac:dyDescent="0.25">
+    <row r="176" spans="112:164" x14ac:dyDescent="0.2">
       <c r="DH176" s="5"/>
       <c r="DI176" s="13"/>
       <c r="DK176" s="5"/>
@@ -28675,7 +28711,7 @@
       <c r="FF176" s="2"/>
       <c r="FG176" s="2"/>
     </row>
-    <row r="177" spans="112:163" x14ac:dyDescent="0.25">
+    <row r="177" spans="112:163" x14ac:dyDescent="0.2">
       <c r="DH177" s="5"/>
       <c r="DI177" s="13"/>
       <c r="DK177" s="5"/>
@@ -28715,7 +28751,7 @@
       <c r="FF177" s="2"/>
       <c r="FG177" s="2"/>
     </row>
-    <row r="178" spans="112:163" x14ac:dyDescent="0.25">
+    <row r="178" spans="112:163" x14ac:dyDescent="0.2">
       <c r="DH178" s="5"/>
       <c r="DI178" s="13"/>
       <c r="DK178" s="5"/>
@@ -28755,7 +28791,7 @@
       <c r="FF178" s="2"/>
       <c r="FG178" s="2"/>
     </row>
-    <row r="179" spans="112:163" x14ac:dyDescent="0.25">
+    <row r="179" spans="112:163" x14ac:dyDescent="0.2">
       <c r="DH179" s="5"/>
       <c r="DI179" s="13"/>
       <c r="DK179" s="5"/>
@@ -28795,7 +28831,7 @@
       <c r="FF179" s="2"/>
       <c r="FG179" s="2"/>
     </row>
-    <row r="180" spans="112:163" x14ac:dyDescent="0.25">
+    <row r="180" spans="112:163" x14ac:dyDescent="0.2">
       <c r="DH180" s="5"/>
       <c r="DI180" s="13"/>
       <c r="DK180" s="5"/>
@@ -28835,7 +28871,7 @@
       <c r="FF180" s="2"/>
       <c r="FG180" s="2"/>
     </row>
-    <row r="181" spans="112:163" x14ac:dyDescent="0.25">
+    <row r="181" spans="112:163" x14ac:dyDescent="0.2">
       <c r="DH181" s="5"/>
       <c r="DI181" s="13"/>
       <c r="DK181" s="5"/>
@@ -28875,7 +28911,7 @@
       <c r="FF181" s="2"/>
       <c r="FG181" s="2"/>
     </row>
-    <row r="182" spans="112:163" x14ac:dyDescent="0.25">
+    <row r="182" spans="112:163" x14ac:dyDescent="0.2">
       <c r="DH182" s="5"/>
       <c r="DI182" s="13"/>
       <c r="DK182" s="5"/>
@@ -28915,7 +28951,7 @@
       <c r="FF182" s="2"/>
       <c r="FG182" s="2"/>
     </row>
-    <row r="183" spans="112:163" x14ac:dyDescent="0.25">
+    <row r="183" spans="112:163" x14ac:dyDescent="0.2">
       <c r="DH183" s="5"/>
       <c r="DI183" s="13"/>
       <c r="DK183" s="5"/>
@@ -28955,7 +28991,7 @@
       <c r="FF183" s="2"/>
       <c r="FG183" s="2"/>
     </row>
-    <row r="184" spans="112:163" x14ac:dyDescent="0.25">
+    <row r="184" spans="112:163" x14ac:dyDescent="0.2">
       <c r="DH184" s="5"/>
       <c r="DI184" s="13"/>
       <c r="DK184" s="5"/>
@@ -28995,7 +29031,7 @@
       <c r="FF184" s="2"/>
       <c r="FG184" s="2"/>
     </row>
-    <row r="185" spans="112:163" x14ac:dyDescent="0.25">
+    <row r="185" spans="112:163" x14ac:dyDescent="0.2">
       <c r="DH185" s="5"/>
       <c r="DI185" s="13"/>
       <c r="DK185" s="5"/>
@@ -29036,10 +29072,10 @@
       <c r="FF185" s="2"/>
       <c r="FG185" s="2"/>
     </row>
-    <row r="186" spans="112:163" x14ac:dyDescent="0.25">
+    <row r="186" spans="112:163" x14ac:dyDescent="0.2">
       <c r="DH186" s="5"/>
     </row>
-    <row r="187" spans="112:163" x14ac:dyDescent="0.25">
+    <row r="187" spans="112:163" x14ac:dyDescent="0.2">
       <c r="DH187" s="5"/>
     </row>
   </sheetData>
